--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9165AD16-A27A-44AD-B734-50B71E6C03AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A624F7-9CD6-4EB4-A903-A232775D16BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -406,7 +415,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -545,112 +554,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>116.05</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>169.16992200000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>19632.169448100001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>1744.9669999999999</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>17887.202448100001</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>San Fransisco, CA</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>2005</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>2024</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>97.2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>2013</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>Q324</v>
-          </cell>
-          <cell r="D32">
-            <v>45594</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>9.9272299910295665</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="18">
-          <cell r="I18">
-            <v>0.90049404192897387</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19">
-            <v>1.9589437090750374E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20">
-            <v>8.5611925902322611E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21">
-            <v>-1.0405477980665956E-3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24">
-            <v>0.67873527767604136</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -777,8 +681,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -786,6 +690,129 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>116.05</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>169.16992200000001</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>19632.169448100001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>1744.9669999999999</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>17887.202448100001</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>San Fransisco, CA</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>2024</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>97.2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>Q324</v>
+          </cell>
+          <cell r="D32">
+            <v>45594</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>9.9272299910295665</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="18">
+          <cell r="I18">
+            <v>0.90049404192897387</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19">
+            <v>1.9589437090750374E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20">
+            <v>8.5611925902322611E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21">
+            <v>-1.0405477980665956E-3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="I24">
+            <v>0.67873527767604136</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>9.8859999999999992</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>1016</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>-792</v>
+          </cell>
+        </row>
         <row r="24">
           <cell r="C24">
             <v>1981</v>
@@ -798,11 +825,69 @@
         </row>
         <row r="26">
           <cell r="C26">
-            <v>11228</v>
+            <v>11565</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>H124</v>
+          </cell>
+          <cell r="D27">
+            <v>45428</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>26.149764972535884</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>4.4660631391729657</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>9.2317794117647036</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="17">
+          <cell r="M17">
+            <v>0.92881944444444442</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="M18">
+            <v>0.18663194444444445</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="M19">
+            <v>0.13541666666666666</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="M20">
+            <v>0.23152709359605911</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="M22">
+            <v>5.9797608095676136E-2</v>
+          </cell>
+          <cell r="U22">
+            <v>-2.9952706253284278E-2</v>
+          </cell>
+          <cell r="V22">
+            <v>5.4712892741061836E-2</v>
+          </cell>
+          <cell r="W22">
+            <v>0.1217257318952234</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1111,7 +1196,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1384,104 +1469,104 @@
         <v>33</v>
       </c>
       <c r="F5" s="10">
-        <f>+[3]Main!$C$6</f>
+        <f>+[2]Main!$C$6</f>
         <v>43.14</v>
       </c>
       <c r="G5" s="8">
-        <f>+[3]Main!$C$7</f>
+        <f>+[2]Main!$C$7</f>
         <v>641.81399999999996</v>
       </c>
       <c r="H5" s="8">
-        <f>+[3]Main!$C$8</f>
+        <f>+[2]Main!$C$8</f>
         <v>27687.855959999997</v>
       </c>
       <c r="I5" s="8">
-        <f>+[3]Main!$C$11</f>
+        <f>+[2]Main!$C$11</f>
         <v>2595.5510000000004</v>
       </c>
       <c r="J5" s="8">
-        <f>+[3]Main!$C$12</f>
+        <f>+[2]Main!$C$12</f>
         <v>25092.304959999998</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f>+[3]Main!$G$11</f>
+        <f>+[2]Main!$G$11</f>
         <v>Q224</v>
       </c>
       <c r="L5" s="15">
-        <f>+[3]Main!$H$11</f>
+        <f>+[2]Main!$H$11</f>
         <v>45505</v>
       </c>
       <c r="M5" s="22">
-        <f>+'[3]Financial Model'!$AX$26</f>
+        <f>+'[2]Financial Model'!$AX$26</f>
         <v>71.486963060421459</v>
       </c>
       <c r="N5" s="18">
-        <f>+'[3]Financial Model'!$AX$28</f>
+        <f>+'[2]Financial Model'!$AX$28</f>
         <v>0.65709232870703427</v>
       </c>
       <c r="O5" s="18">
-        <f>+'[3]Financial Model'!$AX$22</f>
+        <f>+'[2]Financial Model'!$AX$22</f>
         <v>0.09</v>
       </c>
       <c r="Q5" s="12">
-        <f>+[3]Main!$G$16</f>
+        <f>+[2]Main!$G$16</f>
         <v>437.00867484484581</v>
       </c>
       <c r="R5" s="12">
-        <f>+[3]Main!$G$17</f>
+        <f>+[2]Main!$G$17</f>
         <v>9.4009146857800587</v>
       </c>
       <c r="S5" s="12">
-        <f>+[3]Main!$G$18</f>
+        <f>+[2]Main!$G$18</f>
         <v>-23.164811708659411</v>
       </c>
       <c r="U5" s="14">
-        <f>+'[3]Financial Model'!$T$22</f>
+        <f>+'[2]Financial Model'!$T$22</f>
         <v>0.77778685524927171</v>
       </c>
       <c r="V5" s="14">
-        <f>+'[3]Financial Model'!$T$23</f>
+        <f>+'[2]Financial Model'!$T$23</f>
         <v>-0.26629832028229189</v>
       </c>
       <c r="W5" s="14">
-        <f>+'[3]Financial Model'!$T$24</f>
+        <f>+'[2]Financial Model'!$T$24</f>
         <v>-0.23188027884500237</v>
       </c>
       <c r="X5" s="14">
-        <f>+'[3]Financial Model'!$T$25</f>
+        <f>+'[2]Financial Model'!$T$25</f>
         <v>-5.311828476229569E-4</v>
       </c>
       <c r="Z5" s="14">
-        <f>+'[3]Financial Model'!$T$28</f>
+        <f>+'[2]Financial Model'!$T$28</f>
         <v>0.31255526862387373</v>
       </c>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14">
-        <f>+'[3]Financial Model'!$AF$28</f>
+        <f>+'[2]Financial Model'!$AF$28</f>
         <v>0.15937579623808262</v>
       </c>
       <c r="AC5" s="14">
-        <f>+'[3]Financial Model'!$AE$28</f>
+        <f>+'[2]Financial Model'!$AE$28</f>
         <v>1.0772942519902369</v>
       </c>
       <c r="AE5" s="20">
-        <f>+[3]Main!$G$9</f>
+        <f>+[2]Main!$G$9</f>
         <v>79.5</v>
       </c>
       <c r="AF5" s="20">
-        <f>+[3]Main!$G$10</f>
+        <f>+[2]Main!$G$10</f>
         <v>2457</v>
       </c>
       <c r="AG5" s="2">
-        <f>+[3]Main!$G$8</f>
+        <f>+[2]Main!$G$8</f>
         <v>2004</v>
       </c>
       <c r="AH5" s="2">
-        <f>+[3]Main!$G$7</f>
+        <f>+[2]Main!$G$7</f>
         <v>2021</v>
       </c>
       <c r="AI5" s="2" t="str">
-        <f>+[3]Main!$G$6</f>
+        <f>+[2]Main!$G$6</f>
         <v>San Mateo, CA</v>
       </c>
       <c r="AK5" s="2" t="s">
@@ -1505,55 +1590,55 @@
         <v>33</v>
       </c>
       <c r="F6" s="10">
-        <f>+[2]Main!$C$6</f>
+        <f>+[3]Main!$C$6</f>
         <v>116.05</v>
       </c>
       <c r="G6" s="8">
-        <f>+[2]Main!$C$7</f>
+        <f>+[3]Main!$C$7</f>
         <v>169.16992200000001</v>
       </c>
       <c r="H6" s="8">
-        <f>+[2]Main!$C$8</f>
+        <f>+[3]Main!$C$8</f>
         <v>19632.169448100001</v>
       </c>
       <c r="I6" s="8">
-        <f>+[2]Main!$C$11</f>
+        <f>+[3]Main!$C$11</f>
         <v>1744.9669999999999</v>
       </c>
       <c r="J6" s="8">
-        <f>+[2]Main!$C$12</f>
+        <f>+[3]Main!$C$12</f>
         <v>17887.202448100001</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f>+[2]Main!$C$32</f>
+        <f>+[3]Main!$C$32</f>
         <v>Q324</v>
       </c>
       <c r="L6" s="15">
-        <f>+[2]Main!$D$32</f>
+        <f>+[3]Main!$D$32</f>
         <v>45594</v>
       </c>
       <c r="Q6" s="12">
-        <f>+[2]Main!$C$37</f>
+        <f>+[3]Main!$C$37</f>
         <v>9.9272299910295665</v>
       </c>
       <c r="U6" s="14">
-        <f>+'[2]Financial Model'!$I$18</f>
+        <f>+'[3]Financial Model'!$I$18</f>
         <v>0.90049404192897387</v>
       </c>
       <c r="V6" s="14">
-        <f>+'[2]Financial Model'!$I$19</f>
+        <f>+'[3]Financial Model'!$I$19</f>
         <v>1.9589437090750374E-2</v>
       </c>
       <c r="W6" s="14">
-        <f>+'[2]Financial Model'!$I$20</f>
+        <f>+'[3]Financial Model'!$I$20</f>
         <v>8.5611925902322611E-2</v>
       </c>
       <c r="X6" s="14">
-        <f>+'[2]Financial Model'!$I$21</f>
+        <f>+'[3]Financial Model'!$I$21</f>
         <v>-1.0405477980665956E-3</v>
       </c>
       <c r="Z6" s="14">
-        <f>+'[2]Financial Model'!$I$24</f>
+        <f>+'[3]Financial Model'!$I$24</f>
         <v>0.67873527767604136</v>
       </c>
       <c r="AB6" s="2" t="s">
@@ -1563,23 +1648,23 @@
         <v>46</v>
       </c>
       <c r="AE6" s="20">
-        <f>+[2]Main!$C$29</f>
+        <f>+[3]Main!$C$29</f>
         <v>97.2</v>
       </c>
       <c r="AF6" s="20">
-        <f>+[2]Main!$C$30</f>
+        <f>+[3]Main!$C$30</f>
         <v>2013</v>
       </c>
       <c r="AG6" s="2">
-        <f>+[2]Main!$C$25</f>
+        <f>+[3]Main!$C$25</f>
         <v>2005</v>
       </c>
       <c r="AH6" s="2">
-        <f>+[2]Main!$C$26</f>
+        <f>+[3]Main!$C$26</f>
         <v>2024</v>
       </c>
       <c r="AI6" s="2" t="str">
-        <f>+[2]Main!$C$24</f>
+        <f>+[3]Main!$C$24</f>
         <v>San Fransisco, CA</v>
       </c>
       <c r="AK6" s="2" t="s">
@@ -1605,9 +1690,81 @@
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="F9" s="10">
+        <f>+[4]Main!$C$6*Currencies!C3</f>
+        <v>12.851799999999999</v>
+      </c>
+      <c r="G9" s="8">
+        <f>+[4]Main!$C$7</f>
+        <v>1016</v>
+      </c>
+      <c r="H9" s="8">
+        <f>G9*F9</f>
+        <v>13057.4288</v>
+      </c>
+      <c r="I9" s="8">
+        <f>[4]Main!$C$11*Currencies!C3</f>
+        <v>-1029.6000000000001</v>
+      </c>
+      <c r="J9" s="8">
+        <f>H9-I9</f>
+        <v>14087.0288</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f>+[4]Main!$C$27</f>
+        <v>H124</v>
+      </c>
+      <c r="L9" s="15">
+        <f>+[4]Main!$D$27</f>
+        <v>45428</v>
+      </c>
+      <c r="Q9" s="12">
+        <f>[4]Main!$C$34</f>
+        <v>9.2317794117647036</v>
+      </c>
+      <c r="R9" s="12">
+        <f>[4]Main!$C$33</f>
+        <v>4.4660631391729657</v>
+      </c>
+      <c r="S9" s="12">
+        <f>+[4]Main!$C$32</f>
+        <v>26.149764972535884</v>
+      </c>
+      <c r="U9" s="14">
+        <f>+'[4]Financial Model'!$M$17</f>
+        <v>0.92881944444444442</v>
+      </c>
+      <c r="V9" s="14">
+        <f>+'[4]Financial Model'!$M$18</f>
+        <v>0.18663194444444445</v>
+      </c>
+      <c r="W9" s="14">
+        <f>+'[4]Financial Model'!$M$19</f>
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="X9" s="14">
+        <f>+'[4]Financial Model'!$M$20</f>
+        <v>0.23152709359605911</v>
+      </c>
+      <c r="Z9" s="14">
+        <f>+'[4]Financial Model'!$M$22</f>
+        <v>5.9797608095676136E-2</v>
+      </c>
+      <c r="AA9" s="14">
+        <f>+'[4]Financial Model'!$W$22</f>
+        <v>0.1217257318952234</v>
+      </c>
+      <c r="AB9" s="14">
+        <f>+'[4]Financial Model'!$V$22</f>
+        <v>5.4712892741061836E-2</v>
+      </c>
+      <c r="AC9" s="14">
+        <f>+'[4]Financial Model'!$U$22</f>
+        <v>-2.9952706253284278E-2</v>
+      </c>
       <c r="AF9" s="20">
         <f>+[4]Main!$C$26</f>
-        <v>11228</v>
+        <v>11565</v>
       </c>
       <c r="AG9" s="2">
         <f>+[4]Main!$C$24</f>
@@ -1657,7 +1814,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1677,7 +1834,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="26">
-        <v>0.77</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="2:3">

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A624F7-9CD6-4EB4-A903-A232775D16BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE8324D-C556-4DFA-A9DF-2CAE4953771A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -21,27 +21,19 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>Ticker</t>
   </si>
@@ -224,14 +216,33 @@
   </si>
   <si>
     <t>(USD)</t>
+  </si>
+  <si>
+    <t>£RPI</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Holdings Plc.</t>
+  </si>
+  <si>
+    <t>INVERSE</t>
+  </si>
+  <si>
+    <t>Semi-Conductors</t>
+  </si>
+  <si>
+    <t>SBCs, Microncontrollers, Chips</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0\x"/>
+    <numFmt numFmtId="165" formatCode="yyyy"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -325,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -395,6 +406,15 @@
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -415,7 +435,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -547,14 +567,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -682,7 +702,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -787,11 +807,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -853,41 +870,144 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="17">
-          <cell r="M17">
-            <v>0.92881944444444442</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="M18">
-            <v>0.18663194444444445</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="M19">
-            <v>0.13541666666666666</v>
-          </cell>
-        </row>
         <row r="20">
           <cell r="M20">
-            <v>0.23152709359605911</v>
+            <v>0.92881944444444442</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="M21">
+            <v>0.18663194444444445</v>
           </cell>
         </row>
         <row r="22">
           <cell r="M22">
+            <v>0.13541666666666666</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="M23">
+            <v>0.23152709359605911</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="M25">
             <v>5.9797608095676136E-2</v>
           </cell>
-          <cell r="U22">
+          <cell r="U25">
             <v>-2.9952706253284278E-2</v>
           </cell>
-          <cell r="V22">
+          <cell r="V25">
             <v>5.4712892741061836E-2</v>
           </cell>
-          <cell r="W22">
+          <cell r="W25">
             <v>0.1217257318952234</v>
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+      <sheetName val="Data Visualisation"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="C7">
+            <v>193.41571500000001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>26.295999999999999</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Cambridge, UK</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>45444</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>H124</v>
+          </cell>
+          <cell r="D30">
+            <v>45559</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>3.5613052285714284</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>2.9475566734100314</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>17.20735895230284</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="30">
+          <cell r="F30">
+            <v>0.61254199328107539</v>
+          </cell>
+          <cell r="J30">
+            <v>0.33624730593867169</v>
+          </cell>
+          <cell r="K30">
+            <v>0.41487498602675421</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="F42">
+            <v>0.23750000000000002</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="F43">
+            <v>7.9166666666666677E-2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="F44">
+            <v>5.2777777777777792E-2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="F45">
+            <v>0.29629629629629622</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1190,20 +1310,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B533DC-5A31-4AB0-80D6-BD84B319883E}">
-  <dimension ref="B1:AL11"/>
+  <dimension ref="B1:AL12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="9.140625" style="10"/>
     <col min="7" max="10" width="9.140625" style="8"/>
@@ -1675,6 +1795,9 @@
       </c>
     </row>
     <row r="7" spans="2:38">
+      <c r="F7" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L7" s="15"/>
     </row>
     <row r="9" spans="2:38">
@@ -1731,35 +1854,35 @@
         <v>26.149764972535884</v>
       </c>
       <c r="U9" s="14">
-        <f>+'[4]Financial Model'!$M$17</f>
+        <f>+'[4]Financial Model'!$M$20</f>
         <v>0.92881944444444442</v>
       </c>
       <c r="V9" s="14">
-        <f>+'[4]Financial Model'!$M$18</f>
+        <f>+'[4]Financial Model'!$M$21</f>
         <v>0.18663194444444445</v>
       </c>
       <c r="W9" s="14">
-        <f>+'[4]Financial Model'!$M$19</f>
+        <f>+'[4]Financial Model'!$M$22</f>
         <v>0.13541666666666666</v>
       </c>
       <c r="X9" s="14">
-        <f>+'[4]Financial Model'!$M$20</f>
+        <f>+'[4]Financial Model'!$M$23</f>
         <v>0.23152709359605911</v>
       </c>
       <c r="Z9" s="14">
-        <f>+'[4]Financial Model'!$M$22</f>
+        <f>+'[4]Financial Model'!$M$25</f>
         <v>5.9797608095676136E-2</v>
       </c>
       <c r="AA9" s="14">
-        <f>+'[4]Financial Model'!$W$22</f>
+        <f>+'[4]Financial Model'!$W$25</f>
         <v>0.1217257318952234</v>
       </c>
       <c r="AB9" s="14">
-        <f>+'[4]Financial Model'!$V$22</f>
+        <f>+'[4]Financial Model'!$V$25</f>
         <v>5.4712892741061836E-2</v>
       </c>
       <c r="AC9" s="14">
-        <f>+'[4]Financial Model'!$U$22</f>
+        <f>+'[4]Financial Model'!$U$25</f>
         <v>-2.9952706253284278E-2</v>
       </c>
       <c r="AF9" s="20">
@@ -1784,14 +1907,121 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:38">
-      <c r="B11" s="1" t="s">
+    <row r="10" spans="2:38">
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="10">
+        <f>+[4]Main!$C$6*Currencies!C3</f>
+        <v>12.851799999999999</v>
+      </c>
+      <c r="G10" s="8">
+        <f>+[5]Main!$C$7</f>
+        <v>193.41571500000001</v>
+      </c>
+      <c r="H10" s="8">
+        <f>G10*F10</f>
+        <v>2485.7400860369999</v>
+      </c>
+      <c r="I10" s="8">
+        <f>[5]Main!$C$11*Currencies!D3</f>
+        <v>20.227692307692305</v>
+      </c>
+      <c r="J10" s="8">
+        <f>H10-I10</f>
+        <v>2465.5123937293074</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f>[5]Main!$C$30</f>
+        <v>H124</v>
+      </c>
+      <c r="L10" s="15">
+        <f>[5]Main!$D$30</f>
+        <v>45559</v>
+      </c>
+      <c r="Q10" s="12">
+        <f>+[5]Main!$C$35</f>
+        <v>3.5613052285714284</v>
+      </c>
+      <c r="R10" s="12">
+        <f>+[5]Main!$C$36</f>
+        <v>2.9475566734100314</v>
+      </c>
+      <c r="S10" s="12">
+        <f>+[5]Main!$C$38</f>
+        <v>17.20735895230284</v>
+      </c>
+      <c r="U10" s="14">
+        <f>+'[5]Financial Model'!$F$42</f>
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="V10" s="14">
+        <f>+'[5]Financial Model'!$F$43</f>
+        <v>7.9166666666666677E-2</v>
+      </c>
+      <c r="W10" s="14">
+        <f>+'[5]Financial Model'!$F$44</f>
+        <v>5.2777777777777792E-2</v>
+      </c>
+      <c r="X10" s="14">
+        <f>+'[5]Financial Model'!$F$45</f>
+        <v>0.29629629629629622</v>
+      </c>
+      <c r="Z10" s="14">
+        <f>+'[5]Financial Model'!$F$30</f>
+        <v>0.61254199328107539</v>
+      </c>
+      <c r="AA10" s="14">
+        <f>+'[5]Financial Model'!$K$30</f>
+        <v>0.41487498602675421</v>
+      </c>
+      <c r="AB10" s="14">
+        <f>+'[5]Financial Model'!$J$30</f>
+        <v>0.33624730593867169</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF10" s="2">
+        <f>+[5]Main!$C$27</f>
+        <v>115</v>
+      </c>
+      <c r="AG10" s="2">
+        <f>+[5]Main!$C$24</f>
+        <v>2012</v>
+      </c>
+      <c r="AH10" s="30">
+        <f>+[5]Main!$C$25</f>
+        <v>45444</v>
+      </c>
+      <c r="AI10" s="2" t="str">
+        <f>[5]Main!$C$23</f>
+        <v>Cambridge, UK</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38">
+      <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1801,6 +2031,7 @@
     <hyperlink ref="B6" r:id="rId2" xr:uid="{1AA14988-C4F2-405C-BA9D-FBCA3DA35146}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{6E23CD56-40A8-49B9-8695-A01CE41D946F}"/>
     <hyperlink ref="B9" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1808,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DDBE58-6F49-48D6-9030-A3F54882C90C}">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1821,28 +2052,40 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="23"/>
     <col min="2" max="3" width="9.140625" style="26"/>
-    <col min="4" max="16384" width="9.140625" style="23"/>
+    <col min="4" max="4" width="9.140625" style="29"/>
+    <col min="5" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" s="24" customFormat="1">
+    <row r="2" spans="2:4" s="24" customFormat="1">
       <c r="C2" s="25" t="s">
         <v>49</v>
       </c>
+      <c r="D2" s="28" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:4">
       <c r="B3" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="26">
         <v>1.3</v>
       </c>
+      <c r="D3" s="29">
+        <f>1/C3</f>
+        <v>0.76923076923076916</v>
+      </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:4">
       <c r="B4" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="26">
         <v>1.0900000000000001</v>
+      </c>
+      <c r="D4" s="29">
+        <f>1/C4</f>
+        <v>0.9174311926605504</v>
       </c>
     </row>
   </sheetData>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE8324D-C556-4DFA-A9DF-2CAE4953771A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615BF1F2-2937-4DD9-A7E5-4EBAE5578AFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Ticker</t>
   </si>
@@ -234,6 +235,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>$TWLO</t>
+  </si>
+  <si>
+    <t>$TOST</t>
+  </si>
+  <si>
+    <t>Toast, Inc.</t>
+  </si>
+  <si>
+    <t>Restaurant POS &amp; Management</t>
   </si>
 </sst>
 </file>
@@ -586,7 +599,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>43.14</v>
+            <v>51.68</v>
           </cell>
           <cell r="G6" t="str">
             <v>San Mateo, CA</v>
@@ -602,7 +615,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>27687.855959999997</v>
+            <v>33168.947520000002</v>
           </cell>
           <cell r="G8">
             <v>2004</v>
@@ -631,22 +644,22 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>25092.304959999998</v>
+            <v>30573.396520000002</v>
           </cell>
         </row>
         <row r="16">
           <cell r="G16">
-            <v>437.00867484484581</v>
+            <v>523.51896884519317</v>
           </cell>
         </row>
         <row r="17">
           <cell r="G17">
-            <v>9.4009146857800587</v>
+            <v>11.261920977309074</v>
           </cell>
         </row>
         <row r="18">
           <cell r="G18">
-            <v>-23.164811708659411</v>
+            <v>-27.750520841528012</v>
           </cell>
         </row>
       </sheetData>
@@ -690,12 +703,12 @@
             <v>0.15937579623808262</v>
           </cell>
           <cell r="AX28">
-            <v>0.65709232870703427</v>
+            <v>0.38326166912580217</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -960,17 +973,17 @@
         </row>
         <row r="35">
           <cell r="C35">
-            <v>3.5613052285714284</v>
+            <v>3.1948131495535712</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>2.9475566734100314</v>
+            <v>2.6442251407476842</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>17.20735895230284</v>
+            <v>15.436558542879432</v>
           </cell>
         </row>
       </sheetData>
@@ -1007,7 +1020,108 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>31.25</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>562</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>17562.5</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>1219</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>16343.5</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Boston, MA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>5500</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>Q224</v>
+          </cell>
+          <cell r="D30">
+            <v>45511</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>13.542478565861263</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="28">
+          <cell r="L28">
+            <v>0.23027375201288244</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="L29">
+            <v>4.0257648953301124E-3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="L30">
+            <v>1.1272141706924315E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="L31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="L33">
+            <v>0.26993865030674846</v>
+          </cell>
+          <cell r="S33">
+            <v>0.6017595307917889</v>
+          </cell>
+          <cell r="T33">
+            <v>0.41523251556206509</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1310,13 +1424,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B533DC-5A31-4AB0-80D6-BD84B319883E}">
-  <dimension ref="B1:AL12"/>
+  <dimension ref="B1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1590,7 +1704,7 @@
       </c>
       <c r="F5" s="10">
         <f>+[2]Main!$C$6</f>
-        <v>43.14</v>
+        <v>51.68</v>
       </c>
       <c r="G5" s="8">
         <f>+[2]Main!$C$7</f>
@@ -1598,7 +1712,7 @@
       </c>
       <c r="H5" s="8">
         <f>+[2]Main!$C$8</f>
-        <v>27687.855959999997</v>
+        <v>33168.947520000002</v>
       </c>
       <c r="I5" s="8">
         <f>+[2]Main!$C$11</f>
@@ -1606,7 +1720,7 @@
       </c>
       <c r="J5" s="8">
         <f>+[2]Main!$C$12</f>
-        <v>25092.304959999998</v>
+        <v>30573.396520000002</v>
       </c>
       <c r="K5" s="2" t="str">
         <f>+[2]Main!$G$11</f>
@@ -1622,7 +1736,7 @@
       </c>
       <c r="N5" s="18">
         <f>+'[2]Financial Model'!$AX$28</f>
-        <v>0.65709232870703427</v>
+        <v>0.38326166912580217</v>
       </c>
       <c r="O5" s="18">
         <f>+'[2]Financial Model'!$AX$22</f>
@@ -1630,15 +1744,15 @@
       </c>
       <c r="Q5" s="12">
         <f>+[2]Main!$G$16</f>
-        <v>437.00867484484581</v>
+        <v>523.51896884519317</v>
       </c>
       <c r="R5" s="12">
         <f>+[2]Main!$G$17</f>
-        <v>9.4009146857800587</v>
+        <v>11.261920977309074</v>
       </c>
       <c r="S5" s="12">
         <f>+[2]Main!$G$18</f>
-        <v>-23.164811708659411</v>
+        <v>-27.750520841528012</v>
       </c>
       <c r="U5" s="14">
         <f>+'[2]Financial Model'!$T$22</f>
@@ -1800,228 +1914,325 @@
       </c>
       <c r="L7" s="15"/>
     </row>
+    <row r="8" spans="2:38">
+      <c r="B8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="10">
+        <f>+[6]Main!$C$6</f>
+        <v>31.25</v>
+      </c>
+      <c r="G8" s="8">
+        <f>+[6]Main!$C$7</f>
+        <v>562</v>
+      </c>
+      <c r="H8" s="8">
+        <f>+[6]Main!$C$8</f>
+        <v>17562.5</v>
+      </c>
+      <c r="I8" s="8">
+        <f>+[6]Main!$C$11</f>
+        <v>1219</v>
+      </c>
+      <c r="J8" s="8">
+        <f>+[6]Main!$C$12</f>
+        <v>16343.5</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f>+[6]Main!$C$30</f>
+        <v>Q224</v>
+      </c>
+      <c r="L8" s="15">
+        <f>+[6]Main!$D$30</f>
+        <v>45511</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>+[6]Main!$C$35</f>
+        <v>13.542478565861263</v>
+      </c>
+      <c r="U8" s="14">
+        <f>+'[6]Financial Model'!$L$28</f>
+        <v>0.23027375201288244</v>
+      </c>
+      <c r="V8" s="14">
+        <f>+'[6]Financial Model'!$L$29</f>
+        <v>4.0257648953301124E-3</v>
+      </c>
+      <c r="W8" s="14">
+        <f>+'[6]Financial Model'!$L$30</f>
+        <v>1.1272141706924315E-2</v>
+      </c>
+      <c r="X8" s="14">
+        <f>+'[6]Financial Model'!$L$31</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="14">
+        <f>+'[6]Financial Model'!$L$33</f>
+        <v>0.26993865030674846</v>
+      </c>
+      <c r="AA8" s="14">
+        <f>+'[6]Financial Model'!$T$33</f>
+        <v>0.41523251556206509</v>
+      </c>
+      <c r="AB8" s="14">
+        <f>+'[6]Financial Model'!$S$33</f>
+        <v>0.6017595307917889</v>
+      </c>
+      <c r="AF8" s="20">
+        <f>+[6]Main!$C$28</f>
+        <v>5500</v>
+      </c>
+      <c r="AG8" s="2">
+        <f>+[6]Main!$C$24</f>
+        <v>2011</v>
+      </c>
+      <c r="AI8" s="2" t="str">
+        <f>+[6]Main!$C$23</f>
+        <v>Boston, MA</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="9" spans="2:38">
-      <c r="B9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="10">
-        <f>+[4]Main!$C$6*Currencies!C3</f>
-        <v>12.851799999999999</v>
-      </c>
-      <c r="G9" s="8">
-        <f>+[4]Main!$C$7</f>
-        <v>1016</v>
-      </c>
-      <c r="H9" s="8">
-        <f>G9*F9</f>
-        <v>13057.4288</v>
-      </c>
-      <c r="I9" s="8">
-        <f>[4]Main!$C$11*Currencies!C3</f>
-        <v>-1029.6000000000001</v>
-      </c>
-      <c r="J9" s="8">
-        <f>H9-I9</f>
-        <v>14087.0288</v>
-      </c>
-      <c r="K9" s="2" t="str">
-        <f>+[4]Main!$C$27</f>
-        <v>H124</v>
-      </c>
-      <c r="L9" s="15">
-        <f>+[4]Main!$D$27</f>
-        <v>45428</v>
-      </c>
-      <c r="Q9" s="12">
-        <f>[4]Main!$C$34</f>
-        <v>9.2317794117647036</v>
-      </c>
-      <c r="R9" s="12">
-        <f>[4]Main!$C$33</f>
-        <v>4.4660631391729657</v>
-      </c>
-      <c r="S9" s="12">
-        <f>+[4]Main!$C$32</f>
-        <v>26.149764972535884</v>
-      </c>
-      <c r="U9" s="14">
-        <f>+'[4]Financial Model'!$M$20</f>
-        <v>0.92881944444444442</v>
-      </c>
-      <c r="V9" s="14">
-        <f>+'[4]Financial Model'!$M$21</f>
-        <v>0.18663194444444445</v>
-      </c>
-      <c r="W9" s="14">
-        <f>+'[4]Financial Model'!$M$22</f>
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="X9" s="14">
-        <f>+'[4]Financial Model'!$M$23</f>
-        <v>0.23152709359605911</v>
-      </c>
-      <c r="Z9" s="14">
-        <f>+'[4]Financial Model'!$M$25</f>
-        <v>5.9797608095676136E-2</v>
-      </c>
-      <c r="AA9" s="14">
-        <f>+'[4]Financial Model'!$W$25</f>
-        <v>0.1217257318952234</v>
-      </c>
-      <c r="AB9" s="14">
-        <f>+'[4]Financial Model'!$V$25</f>
-        <v>5.4712892741061836E-2</v>
-      </c>
-      <c r="AC9" s="14">
-        <f>+'[4]Financial Model'!$U$25</f>
-        <v>-2.9952706253284278E-2</v>
-      </c>
-      <c r="AF9" s="20">
-        <f>+[4]Main!$C$26</f>
-        <v>11565</v>
-      </c>
-      <c r="AG9" s="2">
-        <f>+[4]Main!$C$24</f>
-        <v>1981</v>
-      </c>
-      <c r="AH9" s="2">
-        <f>+[4]Main!$C$25</f>
-        <v>1989</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL9" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="2:38">
       <c r="B10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38">
+      <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="10">
         <f>+[4]Main!$C$6*Currencies!C3</f>
         <v>12.851799999999999</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G12" s="8">
+        <f>+[4]Main!$C$7</f>
+        <v>1016</v>
+      </c>
+      <c r="H12" s="8">
+        <f>G12*F12</f>
+        <v>13057.4288</v>
+      </c>
+      <c r="I12" s="8">
+        <f>[4]Main!$C$11*Currencies!C3</f>
+        <v>-1029.6000000000001</v>
+      </c>
+      <c r="J12" s="8">
+        <f>H12-I12</f>
+        <v>14087.0288</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f>+[4]Main!$C$27</f>
+        <v>H124</v>
+      </c>
+      <c r="L12" s="15">
+        <f>+[4]Main!$D$27</f>
+        <v>45428</v>
+      </c>
+      <c r="Q12" s="12">
+        <f>[4]Main!$C$34</f>
+        <v>9.2317794117647036</v>
+      </c>
+      <c r="R12" s="12">
+        <f>[4]Main!$C$33</f>
+        <v>4.4660631391729657</v>
+      </c>
+      <c r="S12" s="12">
+        <f>+[4]Main!$C$32</f>
+        <v>26.149764972535884</v>
+      </c>
+      <c r="U12" s="14">
+        <f>+'[4]Financial Model'!$M$20</f>
+        <v>0.92881944444444442</v>
+      </c>
+      <c r="V12" s="14">
+        <f>+'[4]Financial Model'!$M$21</f>
+        <v>0.18663194444444445</v>
+      </c>
+      <c r="W12" s="14">
+        <f>+'[4]Financial Model'!$M$22</f>
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="X12" s="14">
+        <f>+'[4]Financial Model'!$M$23</f>
+        <v>0.23152709359605911</v>
+      </c>
+      <c r="Z12" s="14">
+        <f>+'[4]Financial Model'!$M$25</f>
+        <v>5.9797608095676136E-2</v>
+      </c>
+      <c r="AA12" s="14">
+        <f>+'[4]Financial Model'!$W$25</f>
+        <v>0.1217257318952234</v>
+      </c>
+      <c r="AB12" s="14">
+        <f>+'[4]Financial Model'!$V$25</f>
+        <v>5.4712892741061836E-2</v>
+      </c>
+      <c r="AC12" s="14">
+        <f>+'[4]Financial Model'!$U$25</f>
+        <v>-2.9952706253284278E-2</v>
+      </c>
+      <c r="AF12" s="20">
+        <f>+[4]Main!$C$26</f>
+        <v>11565</v>
+      </c>
+      <c r="AG12" s="2">
+        <f>+[4]Main!$C$24</f>
+        <v>1981</v>
+      </c>
+      <c r="AH12" s="2">
+        <f>+[4]Main!$C$25</f>
+        <v>1989</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38">
+      <c r="B13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="10">
+        <f>+[4]Main!$C$6*Currencies!C3</f>
+        <v>12.851799999999999</v>
+      </c>
+      <c r="G13" s="8">
         <f>+[5]Main!$C$7</f>
         <v>193.41571500000001</v>
       </c>
-      <c r="H10" s="8">
-        <f>G10*F10</f>
+      <c r="H13" s="8">
+        <f>G13*F13</f>
         <v>2485.7400860369999</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I13" s="8">
         <f>[5]Main!$C$11*Currencies!D3</f>
         <v>20.227692307692305</v>
       </c>
-      <c r="J10" s="8">
-        <f>H10-I10</f>
+      <c r="J13" s="8">
+        <f>H13-I13</f>
         <v>2465.5123937293074</v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="K13" s="2" t="str">
         <f>[5]Main!$C$30</f>
         <v>H124</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L13" s="15">
         <f>[5]Main!$D$30</f>
         <v>45559</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q13" s="12">
         <f>+[5]Main!$C$35</f>
-        <v>3.5613052285714284</v>
-      </c>
-      <c r="R10" s="12">
+        <v>3.1948131495535712</v>
+      </c>
+      <c r="R13" s="12">
         <f>+[5]Main!$C$36</f>
-        <v>2.9475566734100314</v>
-      </c>
-      <c r="S10" s="12">
+        <v>2.6442251407476842</v>
+      </c>
+      <c r="S13" s="12">
         <f>+[5]Main!$C$38</f>
-        <v>17.20735895230284</v>
-      </c>
-      <c r="U10" s="14">
+        <v>15.436558542879432</v>
+      </c>
+      <c r="U13" s="14">
         <f>+'[5]Financial Model'!$F$42</f>
         <v>0.23750000000000002</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V13" s="14">
         <f>+'[5]Financial Model'!$F$43</f>
         <v>7.9166666666666677E-2</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W13" s="14">
         <f>+'[5]Financial Model'!$F$44</f>
         <v>5.2777777777777792E-2</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X13" s="14">
         <f>+'[5]Financial Model'!$F$45</f>
         <v>0.29629629629629622</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="Z13" s="14">
         <f>+'[5]Financial Model'!$F$30</f>
         <v>0.61254199328107539</v>
       </c>
-      <c r="AA10" s="14">
+      <c r="AA13" s="14">
         <f>+'[5]Financial Model'!$K$30</f>
         <v>0.41487498602675421</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AB13" s="14">
         <f>+'[5]Financial Model'!$J$30</f>
         <v>0.33624730593867169</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AC13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AF13" s="2">
         <f>+[5]Main!$C$27</f>
         <v>115</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AG13" s="2">
         <f>+[5]Main!$C$24</f>
         <v>2012</v>
       </c>
-      <c r="AH10" s="30">
+      <c r="AH13" s="30">
         <f>+[5]Main!$C$25</f>
         <v>45444</v>
       </c>
-      <c r="AI10" s="2" t="str">
+      <c r="AI13" s="2" t="str">
         <f>[5]Main!$C$23</f>
         <v>Cambridge, UK</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AK13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AL13" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="2:38">
-      <c r="B12" s="1" t="s">
+    <row r="15" spans="2:38">
+      <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2030,10 +2241,13 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{AFCC0C36-695A-4698-B366-E9445F7B4F63}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{1AA14988-C4F2-405C-BA9D-FBCA3DA35146}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{6E23CD56-40A8-49B9-8695-A01CE41D946F}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
+    <hyperlink ref="B13" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{3859F738-BD99-4DD5-8721-EF043945682D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615BF1F2-2937-4DD9-A7E5-4EBAE5578AFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5C04DC-EECC-498F-84C6-AE324998C234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -23,18 +23,28 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>Ticker</t>
   </si>
@@ -243,10 +253,13 @@
     <t>$TOST</t>
   </si>
   <si>
-    <t>Toast, Inc.</t>
-  </si>
-  <si>
     <t>Restaurant POS &amp; Management</t>
+  </si>
+  <si>
+    <t>Twillo Inc.</t>
+  </si>
+  <si>
+    <t>Toast Inc.</t>
   </si>
 </sst>
 </file>
@@ -434,7 +447,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -448,8 +490,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -587,8 +632,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -636,10 +684,10 @@
             <v>2595.5510000000004</v>
           </cell>
           <cell r="G11" t="str">
-            <v>Q224</v>
+            <v>Q324</v>
           </cell>
           <cell r="H11">
-            <v>45505</v>
+            <v>45596</v>
           </cell>
         </row>
         <row r="12">
@@ -707,15 +755,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -820,7 +868,121 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>31.25</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>562</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>17562.5</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>1219</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>16343.5</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Boston, MA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2021</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>5500</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>Q224</v>
+          </cell>
+          <cell r="D30">
+            <v>45511</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>13.542478565861263</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>4.0051311288483467</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="28">
+          <cell r="L28">
+            <v>0.23027375201288244</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="L29">
+            <v>4.0257648953301124E-3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="L30">
+            <v>1.1272141706924315E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="L31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="L33">
+            <v>0.26993865030674846</v>
+          </cell>
+          <cell r="T33">
+            <v>0.6017595307917889</v>
+          </cell>
+          <cell r="U33">
+            <v>0.41523251556206509</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -923,8 +1085,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -933,6 +1095,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>3.33</v>
+          </cell>
+        </row>
         <row r="7">
           <cell r="C7">
             <v>193.41571500000001</v>
@@ -1020,108 +1187,38 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+      <sheetName val="Historical Projections"/>
+      <sheetName val="Price History"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>31.25</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>562</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>17562.5</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>1219</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>16343.5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Boston, MA</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>2011</v>
-          </cell>
-        </row>
         <row r="28">
-          <cell r="C28">
-            <v>5500</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>Q224</v>
-          </cell>
-          <cell r="D30">
-            <v>45511</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>13.542478565861263</v>
+          <cell r="C28" t="str">
+            <v>Q123</v>
+          </cell>
+          <cell r="D28">
+            <v>45055</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="28">
-          <cell r="L28">
-            <v>0.23027375201288244</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="L29">
-            <v>4.0257648953301124E-3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="L30">
-            <v>1.1272141706924315E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="L31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="L33">
-            <v>0.26993865030674846</v>
-          </cell>
-          <cell r="S33">
-            <v>0.6017595307917889</v>
-          </cell>
-          <cell r="T33">
-            <v>0.41523251556206509</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1427,10 +1524,10 @@
   <dimension ref="B1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB9" sqref="AB9"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1442,7 +1539,7 @@
     <col min="6" max="6" width="9.140625" style="10"/>
     <col min="7" max="10" width="9.140625" style="8"/>
     <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="0" style="19" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="1"/>
     <col min="17" max="19" width="9.140625" style="12"/>
@@ -1464,6 +1561,7 @@
       <c r="F1" s="27" t="s">
         <v>60</v>
       </c>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="2:38" s="3" customFormat="1">
       <c r="B2" s="3" t="s">
@@ -1724,11 +1822,11 @@
       </c>
       <c r="K5" s="2" t="str">
         <f>+[2]Main!$G$11</f>
-        <v>Q224</v>
+        <v>Q324</v>
       </c>
       <c r="L5" s="15">
         <f>+[2]Main!$H$11</f>
-        <v>45505</v>
+        <v>45596</v>
       </c>
       <c r="M5" s="22">
         <f>+'[2]Financial Model'!$AX$26</f>
@@ -1912,14 +2010,13 @@
       <c r="F7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:38">
       <c r="B8" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>
@@ -1928,88 +2025,104 @@
         <v>33</v>
       </c>
       <c r="F8" s="10">
-        <f>+[6]Main!$C$6</f>
+        <f>+[4]Main!$C$6</f>
         <v>31.25</v>
       </c>
       <c r="G8" s="8">
-        <f>+[6]Main!$C$7</f>
+        <f>+[4]Main!$C$7</f>
         <v>562</v>
       </c>
       <c r="H8" s="8">
-        <f>+[6]Main!$C$8</f>
+        <f>+[4]Main!$C$8</f>
         <v>17562.5</v>
       </c>
       <c r="I8" s="8">
-        <f>+[6]Main!$C$11</f>
+        <f>+[4]Main!$C$11</f>
         <v>1219</v>
       </c>
       <c r="J8" s="8">
-        <f>+[6]Main!$C$12</f>
+        <f>+[4]Main!$C$12</f>
         <v>16343.5</v>
       </c>
       <c r="K8" s="2" t="str">
-        <f>+[6]Main!$C$30</f>
+        <f>+[4]Main!$C$30</f>
         <v>Q224</v>
       </c>
       <c r="L8" s="15">
-        <f>+[6]Main!$D$30</f>
+        <f>+[4]Main!$D$30</f>
         <v>45511</v>
       </c>
       <c r="Q8" s="12">
-        <f>+[6]Main!$C$35</f>
+        <f>+[4]Main!$C$35</f>
         <v>13.542478565861263</v>
       </c>
+      <c r="R8" s="12">
+        <f>+[4]Main!$C$36</f>
+        <v>4.0051311288483467</v>
+      </c>
       <c r="U8" s="14">
-        <f>+'[6]Financial Model'!$L$28</f>
+        <f>+'[4]Financial Model'!$L$28</f>
         <v>0.23027375201288244</v>
       </c>
       <c r="V8" s="14">
-        <f>+'[6]Financial Model'!$L$29</f>
+        <f>+'[4]Financial Model'!$L$29</f>
         <v>4.0257648953301124E-3</v>
       </c>
       <c r="W8" s="14">
-        <f>+'[6]Financial Model'!$L$30</f>
+        <f>+'[4]Financial Model'!$L$30</f>
         <v>1.1272141706924315E-2</v>
       </c>
       <c r="X8" s="14">
-        <f>+'[6]Financial Model'!$L$31</f>
+        <f>+'[4]Financial Model'!$L$31</f>
         <v>0</v>
       </c>
       <c r="Z8" s="14">
-        <f>+'[6]Financial Model'!$L$33</f>
+        <f>+'[4]Financial Model'!$L$33</f>
         <v>0.26993865030674846</v>
       </c>
       <c r="AA8" s="14">
-        <f>+'[6]Financial Model'!$T$33</f>
+        <f>+'[4]Financial Model'!$U$33</f>
         <v>0.41523251556206509</v>
       </c>
       <c r="AB8" s="14">
-        <f>+'[6]Financial Model'!$S$33</f>
+        <f>+'[4]Financial Model'!$T$33</f>
         <v>0.6017595307917889</v>
       </c>
       <c r="AF8" s="20">
-        <f>+[6]Main!$C$28</f>
+        <f>+[4]Main!$C$28</f>
         <v>5500</v>
       </c>
       <c r="AG8" s="2">
-        <f>+[6]Main!$C$24</f>
+        <f>+[4]Main!$C$24</f>
         <v>2011</v>
       </c>
+      <c r="AH8" s="2">
+        <f>+[4]Main!$C$25</f>
+        <v>2021</v>
+      </c>
       <c r="AI8" s="2" t="str">
-        <f>+[6]Main!$C$23</f>
+        <f>+[4]Main!$C$23</f>
         <v>Boston, MA</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:38">
-      <c r="L9" s="15"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="2:38">
       <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f>+[7]Main!$C$28</f>
+        <v>Q123</v>
+      </c>
+      <c r="L10" s="15">
+        <f>+[7]Main!$D$28</f>
+        <v>45055</v>
+      </c>
     </row>
     <row r="12" spans="2:38">
       <c r="B12" s="5" t="s">
@@ -2025,11 +2138,11 @@
         <v>51</v>
       </c>
       <c r="F12" s="10">
-        <f>+[4]Main!$C$6*Currencies!C3</f>
+        <f>+[5]Main!$C$6*Currencies!C3</f>
         <v>12.851799999999999</v>
       </c>
       <c r="G12" s="8">
-        <f>+[4]Main!$C$7</f>
+        <f>+[5]Main!$C$7</f>
         <v>1016</v>
       </c>
       <c r="H12" s="8">
@@ -2037,7 +2150,7 @@
         <v>13057.4288</v>
       </c>
       <c r="I12" s="8">
-        <f>[4]Main!$C$11*Currencies!C3</f>
+        <f>[5]Main!$C$11*Currencies!C3</f>
         <v>-1029.6000000000001</v>
       </c>
       <c r="J12" s="8">
@@ -2045,67 +2158,67 @@
         <v>14087.0288</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f>+[4]Main!$C$27</f>
+        <f>+[5]Main!$C$27</f>
         <v>H124</v>
       </c>
       <c r="L12" s="15">
-        <f>+[4]Main!$D$27</f>
+        <f>+[5]Main!$D$27</f>
         <v>45428</v>
       </c>
       <c r="Q12" s="12">
-        <f>[4]Main!$C$34</f>
+        <f>[5]Main!$C$34</f>
         <v>9.2317794117647036</v>
       </c>
       <c r="R12" s="12">
-        <f>[4]Main!$C$33</f>
+        <f>[5]Main!$C$33</f>
         <v>4.4660631391729657</v>
       </c>
       <c r="S12" s="12">
-        <f>+[4]Main!$C$32</f>
+        <f>+[5]Main!$C$32</f>
         <v>26.149764972535884</v>
       </c>
       <c r="U12" s="14">
-        <f>+'[4]Financial Model'!$M$20</f>
+        <f>+'[5]Financial Model'!$M$20</f>
         <v>0.92881944444444442</v>
       </c>
       <c r="V12" s="14">
-        <f>+'[4]Financial Model'!$M$21</f>
+        <f>+'[5]Financial Model'!$M$21</f>
         <v>0.18663194444444445</v>
       </c>
       <c r="W12" s="14">
-        <f>+'[4]Financial Model'!$M$22</f>
+        <f>+'[5]Financial Model'!$M$22</f>
         <v>0.13541666666666666</v>
       </c>
       <c r="X12" s="14">
-        <f>+'[4]Financial Model'!$M$23</f>
+        <f>+'[5]Financial Model'!$M$23</f>
         <v>0.23152709359605911</v>
       </c>
       <c r="Z12" s="14">
-        <f>+'[4]Financial Model'!$M$25</f>
+        <f>+'[5]Financial Model'!$M$25</f>
         <v>5.9797608095676136E-2</v>
       </c>
       <c r="AA12" s="14">
-        <f>+'[4]Financial Model'!$W$25</f>
+        <f>+'[5]Financial Model'!$W$25</f>
         <v>0.1217257318952234</v>
       </c>
       <c r="AB12" s="14">
-        <f>+'[4]Financial Model'!$V$25</f>
+        <f>+'[5]Financial Model'!$V$25</f>
         <v>5.4712892741061836E-2</v>
       </c>
       <c r="AC12" s="14">
-        <f>+'[4]Financial Model'!$U$25</f>
+        <f>+'[5]Financial Model'!$U$25</f>
         <v>-2.9952706253284278E-2</v>
       </c>
       <c r="AF12" s="20">
-        <f>+[4]Main!$C$26</f>
+        <f>+[5]Main!$C$26</f>
         <v>11565</v>
       </c>
       <c r="AG12" s="2">
-        <f>+[4]Main!$C$24</f>
+        <f>+[5]Main!$C$24</f>
         <v>1981</v>
       </c>
       <c r="AH12" s="2">
-        <f>+[4]Main!$C$25</f>
+        <f>+[5]Main!$C$25</f>
         <v>1989</v>
       </c>
       <c r="AI12" s="2" t="s">
@@ -2132,90 +2245,90 @@
         <v>33</v>
       </c>
       <c r="F13" s="10">
-        <f>+[4]Main!$C$6*Currencies!C3</f>
-        <v>12.851799999999999</v>
+        <f>+[6]Main!$C$6*Currencies!C3</f>
+        <v>4.3290000000000006</v>
       </c>
       <c r="G13" s="8">
-        <f>+[5]Main!$C$7</f>
+        <f>+[6]Main!$C$7</f>
         <v>193.41571500000001</v>
       </c>
       <c r="H13" s="8">
         <f>G13*F13</f>
-        <v>2485.7400860369999</v>
+        <v>837.29663023500018</v>
       </c>
       <c r="I13" s="8">
-        <f>[5]Main!$C$11*Currencies!D3</f>
+        <f>[6]Main!$C$11*Currencies!D3</f>
         <v>20.227692307692305</v>
       </c>
       <c r="J13" s="8">
         <f>H13-I13</f>
-        <v>2465.5123937293074</v>
+        <v>817.06893792730784</v>
       </c>
       <c r="K13" s="2" t="str">
-        <f>[5]Main!$C$30</f>
+        <f>[6]Main!$C$30</f>
         <v>H124</v>
       </c>
       <c r="L13" s="15">
-        <f>[5]Main!$D$30</f>
+        <f>[6]Main!$D$30</f>
         <v>45559</v>
       </c>
       <c r="Q13" s="12">
-        <f>+[5]Main!$C$35</f>
+        <f>+[6]Main!$C$35</f>
         <v>3.1948131495535712</v>
       </c>
       <c r="R13" s="12">
-        <f>+[5]Main!$C$36</f>
+        <f>+[6]Main!$C$36</f>
         <v>2.6442251407476842</v>
       </c>
       <c r="S13" s="12">
-        <f>+[5]Main!$C$38</f>
+        <f>+[6]Main!$C$38</f>
         <v>15.436558542879432</v>
       </c>
       <c r="U13" s="14">
-        <f>+'[5]Financial Model'!$F$42</f>
+        <f>+'[6]Financial Model'!$F$42</f>
         <v>0.23750000000000002</v>
       </c>
       <c r="V13" s="14">
-        <f>+'[5]Financial Model'!$F$43</f>
+        <f>+'[6]Financial Model'!$F$43</f>
         <v>7.9166666666666677E-2</v>
       </c>
       <c r="W13" s="14">
-        <f>+'[5]Financial Model'!$F$44</f>
+        <f>+'[6]Financial Model'!$F$44</f>
         <v>5.2777777777777792E-2</v>
       </c>
       <c r="X13" s="14">
-        <f>+'[5]Financial Model'!$F$45</f>
+        <f>+'[6]Financial Model'!$F$45</f>
         <v>0.29629629629629622</v>
       </c>
       <c r="Z13" s="14">
-        <f>+'[5]Financial Model'!$F$30</f>
+        <f>+'[6]Financial Model'!$F$30</f>
         <v>0.61254199328107539</v>
       </c>
       <c r="AA13" s="14">
-        <f>+'[5]Financial Model'!$K$30</f>
+        <f>+'[6]Financial Model'!$K$30</f>
         <v>0.41487498602675421</v>
       </c>
       <c r="AB13" s="14">
-        <f>+'[5]Financial Model'!$J$30</f>
+        <f>+'[6]Financial Model'!$J$30</f>
         <v>0.33624730593867169</v>
       </c>
       <c r="AC13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AF13" s="2">
-        <f>+[5]Main!$C$27</f>
+        <f>+[6]Main!$C$27</f>
         <v>115</v>
       </c>
       <c r="AG13" s="2">
-        <f>+[5]Main!$C$24</f>
+        <f>+[6]Main!$C$24</f>
         <v>2012</v>
       </c>
       <c r="AH13" s="30">
-        <f>+[5]Main!$C$25</f>
+        <f>+[6]Main!$C$25</f>
         <v>45444</v>
       </c>
       <c r="AI13" s="2" t="str">
-        <f>[5]Main!$C$23</f>
+        <f>[6]Main!$C$23</f>
         <v>Cambridge, UK</v>
       </c>
       <c r="AK13" s="2" t="s">
@@ -2237,6 +2350,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L3:L1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(LEFT(B3,1)="$",(TODAY()-L3)&gt;90,IF(LEFT(B3,1)="£",(TODAY()-L3)&gt;180,""))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{AFCC0C36-695A-4698-B366-E9445F7B4F63}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{1AA14988-C4F2-405C-BA9D-FBCA3DA35146}"/>
@@ -2259,7 +2377,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5C04DC-EECC-498F-84C6-AE324998C234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7FC295-2041-4323-A507-267A997142C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -30,21 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>Ticker</t>
   </si>
@@ -260,6 +251,12 @@
   </si>
   <si>
     <t>Toast Inc.</t>
+  </si>
+  <si>
+    <t>$GTLB</t>
+  </si>
+  <si>
+    <t>Gitlab Inc.</t>
   </si>
 </sst>
 </file>
@@ -447,28 +444,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -490,11 +466,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -625,18 +598,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -763,7 +733,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -868,11 +838,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -982,7 +949,35 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+      <sheetName val="Historical Projections"/>
+      <sheetName val="Price History"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>Q123</v>
+          </cell>
+          <cell r="D28">
+            <v>45055</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1085,8 +1080,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1188,37 +1183,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
-      <sheetName val="Historical Projections"/>
-      <sheetName val="Price History"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>Q123</v>
-          </cell>
-          <cell r="D28">
-            <v>45055</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1521,13 +1485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B533DC-5A31-4AB0-80D6-BD84B319883E}">
-  <dimension ref="B1:AL15"/>
+  <dimension ref="B1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2116,11 +2080,11 @@
         <v>70</v>
       </c>
       <c r="K10" s="2" t="str">
-        <f>+[7]Main!$C$28</f>
+        <f>+[5]Main!$C$28</f>
         <v>Q123</v>
       </c>
       <c r="L10" s="15">
-        <f>+[7]Main!$D$28</f>
+        <f>+[5]Main!$D$28</f>
         <v>45055</v>
       </c>
     </row>
@@ -2138,11 +2102,11 @@
         <v>51</v>
       </c>
       <c r="F12" s="10">
-        <f>+[5]Main!$C$6*Currencies!C3</f>
+        <f>+[6]Main!$C$6*Currencies!C3</f>
         <v>12.851799999999999</v>
       </c>
       <c r="G12" s="8">
-        <f>+[5]Main!$C$7</f>
+        <f>+[6]Main!$C$7</f>
         <v>1016</v>
       </c>
       <c r="H12" s="8">
@@ -2150,7 +2114,7 @@
         <v>13057.4288</v>
       </c>
       <c r="I12" s="8">
-        <f>[5]Main!$C$11*Currencies!C3</f>
+        <f>[6]Main!$C$11*Currencies!C3</f>
         <v>-1029.6000000000001</v>
       </c>
       <c r="J12" s="8">
@@ -2158,67 +2122,67 @@
         <v>14087.0288</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f>+[5]Main!$C$27</f>
+        <f>+[6]Main!$C$27</f>
         <v>H124</v>
       </c>
       <c r="L12" s="15">
-        <f>+[5]Main!$D$27</f>
+        <f>+[6]Main!$D$27</f>
         <v>45428</v>
       </c>
       <c r="Q12" s="12">
-        <f>[5]Main!$C$34</f>
+        <f>[6]Main!$C$34</f>
         <v>9.2317794117647036</v>
       </c>
       <c r="R12" s="12">
-        <f>[5]Main!$C$33</f>
+        <f>[6]Main!$C$33</f>
         <v>4.4660631391729657</v>
       </c>
       <c r="S12" s="12">
-        <f>+[5]Main!$C$32</f>
+        <f>+[6]Main!$C$32</f>
         <v>26.149764972535884</v>
       </c>
       <c r="U12" s="14">
-        <f>+'[5]Financial Model'!$M$20</f>
+        <f>+'[6]Financial Model'!$M$20</f>
         <v>0.92881944444444442</v>
       </c>
       <c r="V12" s="14">
-        <f>+'[5]Financial Model'!$M$21</f>
+        <f>+'[6]Financial Model'!$M$21</f>
         <v>0.18663194444444445</v>
       </c>
       <c r="W12" s="14">
-        <f>+'[5]Financial Model'!$M$22</f>
+        <f>+'[6]Financial Model'!$M$22</f>
         <v>0.13541666666666666</v>
       </c>
       <c r="X12" s="14">
-        <f>+'[5]Financial Model'!$M$23</f>
+        <f>+'[6]Financial Model'!$M$23</f>
         <v>0.23152709359605911</v>
       </c>
       <c r="Z12" s="14">
-        <f>+'[5]Financial Model'!$M$25</f>
+        <f>+'[6]Financial Model'!$M$25</f>
         <v>5.9797608095676136E-2</v>
       </c>
       <c r="AA12" s="14">
-        <f>+'[5]Financial Model'!$W$25</f>
+        <f>+'[6]Financial Model'!$W$25</f>
         <v>0.1217257318952234</v>
       </c>
       <c r="AB12" s="14">
-        <f>+'[5]Financial Model'!$V$25</f>
+        <f>+'[6]Financial Model'!$V$25</f>
         <v>5.4712892741061836E-2</v>
       </c>
       <c r="AC12" s="14">
-        <f>+'[5]Financial Model'!$U$25</f>
+        <f>+'[6]Financial Model'!$U$25</f>
         <v>-2.9952706253284278E-2</v>
       </c>
       <c r="AF12" s="20">
-        <f>+[5]Main!$C$26</f>
+        <f>+[6]Main!$C$26</f>
         <v>11565</v>
       </c>
       <c r="AG12" s="2">
-        <f>+[5]Main!$C$24</f>
+        <f>+[6]Main!$C$24</f>
         <v>1981</v>
       </c>
       <c r="AH12" s="2">
-        <f>+[5]Main!$C$25</f>
+        <f>+[6]Main!$C$25</f>
         <v>1989</v>
       </c>
       <c r="AI12" s="2" t="s">
@@ -2245,11 +2209,11 @@
         <v>33</v>
       </c>
       <c r="F13" s="10">
-        <f>+[6]Main!$C$6*Currencies!C3</f>
+        <f>+[7]Main!$C$6*Currencies!C3</f>
         <v>4.3290000000000006</v>
       </c>
       <c r="G13" s="8">
-        <f>+[6]Main!$C$7</f>
+        <f>+[7]Main!$C$7</f>
         <v>193.41571500000001</v>
       </c>
       <c r="H13" s="8">
@@ -2257,7 +2221,7 @@
         <v>837.29663023500018</v>
       </c>
       <c r="I13" s="8">
-        <f>[6]Main!$C$11*Currencies!D3</f>
+        <f>[7]Main!$C$11*Currencies!D3</f>
         <v>20.227692307692305</v>
       </c>
       <c r="J13" s="8">
@@ -2265,70 +2229,70 @@
         <v>817.06893792730784</v>
       </c>
       <c r="K13" s="2" t="str">
-        <f>[6]Main!$C$30</f>
+        <f>[7]Main!$C$30</f>
         <v>H124</v>
       </c>
       <c r="L13" s="15">
-        <f>[6]Main!$D$30</f>
+        <f>[7]Main!$D$30</f>
         <v>45559</v>
       </c>
       <c r="Q13" s="12">
-        <f>+[6]Main!$C$35</f>
+        <f>+[7]Main!$C$35</f>
         <v>3.1948131495535712</v>
       </c>
       <c r="R13" s="12">
-        <f>+[6]Main!$C$36</f>
+        <f>+[7]Main!$C$36</f>
         <v>2.6442251407476842</v>
       </c>
       <c r="S13" s="12">
-        <f>+[6]Main!$C$38</f>
+        <f>+[7]Main!$C$38</f>
         <v>15.436558542879432</v>
       </c>
       <c r="U13" s="14">
-        <f>+'[6]Financial Model'!$F$42</f>
+        <f>+'[7]Financial Model'!$F$42</f>
         <v>0.23750000000000002</v>
       </c>
       <c r="V13" s="14">
-        <f>+'[6]Financial Model'!$F$43</f>
+        <f>+'[7]Financial Model'!$F$43</f>
         <v>7.9166666666666677E-2</v>
       </c>
       <c r="W13" s="14">
-        <f>+'[6]Financial Model'!$F$44</f>
+        <f>+'[7]Financial Model'!$F$44</f>
         <v>5.2777777777777792E-2</v>
       </c>
       <c r="X13" s="14">
-        <f>+'[6]Financial Model'!$F$45</f>
+        <f>+'[7]Financial Model'!$F$45</f>
         <v>0.29629629629629622</v>
       </c>
       <c r="Z13" s="14">
-        <f>+'[6]Financial Model'!$F$30</f>
+        <f>+'[7]Financial Model'!$F$30</f>
         <v>0.61254199328107539</v>
       </c>
       <c r="AA13" s="14">
-        <f>+'[6]Financial Model'!$K$30</f>
+        <f>+'[7]Financial Model'!$K$30</f>
         <v>0.41487498602675421</v>
       </c>
       <c r="AB13" s="14">
-        <f>+'[6]Financial Model'!$J$30</f>
+        <f>+'[7]Financial Model'!$J$30</f>
         <v>0.33624730593867169</v>
       </c>
       <c r="AC13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AF13" s="2">
-        <f>+[6]Main!$C$27</f>
+        <f>+[7]Main!$C$27</f>
         <v>115</v>
       </c>
       <c r="AG13" s="2">
-        <f>+[6]Main!$C$24</f>
+        <f>+[7]Main!$C$24</f>
         <v>2012</v>
       </c>
       <c r="AH13" s="30">
-        <f>+[6]Main!$C$25</f>
+        <f>+[7]Main!$C$25</f>
         <v>45444</v>
       </c>
       <c r="AI13" s="2" t="str">
-        <f>[6]Main!$C$23</f>
+        <f>[7]Main!$C$23</f>
         <v>Cambridge, UK</v>
       </c>
       <c r="AK13" s="2" t="s">
@@ -2347,6 +2311,14 @@
       </c>
       <c r="D15" s="2" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7FC295-2041-4323-A507-267A997142C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B871BC84-1AE9-45E0-926C-65412E3F1383}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -743,7 +743,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>116.05</v>
+            <v>129.71</v>
           </cell>
         </row>
         <row r="7">
@@ -753,7 +753,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>19632.169448100001</v>
+            <v>21943.030582620002</v>
           </cell>
         </row>
         <row r="11">
@@ -763,7 +763,7 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>17887.202448100001</v>
+            <v>20198.063582620001</v>
           </cell>
         </row>
         <row r="24">
@@ -801,7 +801,7 @@
         </row>
         <row r="37">
           <cell r="C37">
-            <v>9.9272299910295665</v>
+            <v>11.095743232541535</v>
           </cell>
         </row>
       </sheetData>
@@ -848,27 +848,27 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>31.25</v>
+            <v>36.5</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>562</v>
+            <v>563</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>17562.5</v>
+            <v>20549.5</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>1219</v>
+            <v>1272</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>16343.5</v>
+            <v>19277.5</v>
           </cell>
         </row>
         <row r="23">
@@ -893,47 +893,47 @@
         </row>
         <row r="30">
           <cell r="C30" t="str">
-            <v>Q224</v>
+            <v>Q324</v>
           </cell>
           <cell r="D30">
-            <v>45511</v>
+            <v>45603</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>13.542478565861263</v>
+            <v>14.471478873239437</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>4.0051311288483467</v>
+            <v>4.4116573636753973</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="28">
-          <cell r="L28">
-            <v>0.23027375201288244</v>
+          <cell r="M28">
+            <v>0.24674329501915709</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="L29">
-            <v>4.0257648953301124E-3</v>
+          <cell r="M29">
+            <v>2.6053639846743294E-2</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="L30">
-            <v>1.1272141706924315E-2</v>
+          <cell r="M30">
+            <v>4.2911877394636012E-2</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="L31">
-            <v>0</v>
+          <cell r="M31">
+            <v>1.7543859649122806E-2</v>
           </cell>
         </row>
         <row r="33">
-          <cell r="L33">
-            <v>0.26993865030674846</v>
+          <cell r="M33">
+            <v>0.26453488372093026</v>
           </cell>
           <cell r="T33">
             <v>0.6017595307917889</v>
@@ -1491,7 +1491,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="F6" s="10">
         <f>+[3]Main!$C$6</f>
-        <v>116.05</v>
+        <v>129.71</v>
       </c>
       <c r="G6" s="8">
         <f>+[3]Main!$C$7</f>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="H6" s="8">
         <f>+[3]Main!$C$8</f>
-        <v>19632.169448100001</v>
+        <v>21943.030582620002</v>
       </c>
       <c r="I6" s="8">
         <f>+[3]Main!$C$11</f>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="J6" s="8">
         <f>+[3]Main!$C$12</f>
-        <v>17887.202448100001</v>
+        <v>20198.063582620001</v>
       </c>
       <c r="K6" s="2" t="str">
         <f>+[3]Main!$C$32</f>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="Q6" s="12">
         <f>+[3]Main!$C$37</f>
-        <v>9.9272299910295665</v>
+        <v>11.095743232541535</v>
       </c>
       <c r="U6" s="14">
         <f>+'[3]Financial Model'!$I$18</f>
@@ -1971,105 +1971,105 @@
       </c>
     </row>
     <row r="7" spans="2:38">
-      <c r="F7" s="10" t="s">
-        <v>66</v>
+      <c r="B7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="10">
+        <f>+[4]Main!$C$6</f>
+        <v>36.5</v>
+      </c>
+      <c r="G7" s="8">
+        <f>+[4]Main!$C$7</f>
+        <v>563</v>
+      </c>
+      <c r="H7" s="8">
+        <f>+[4]Main!$C$8</f>
+        <v>20549.5</v>
+      </c>
+      <c r="I7" s="8">
+        <f>+[4]Main!$C$11</f>
+        <v>1272</v>
+      </c>
+      <c r="J7" s="8">
+        <f>+[4]Main!$C$12</f>
+        <v>19277.5</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f>+[4]Main!$C$30</f>
+        <v>Q324</v>
+      </c>
+      <c r="L7" s="15">
+        <f>+[4]Main!$D$30</f>
+        <v>45603</v>
+      </c>
+      <c r="Q7" s="12">
+        <f>+[4]Main!$C$35</f>
+        <v>14.471478873239437</v>
+      </c>
+      <c r="R7" s="12">
+        <f>+[4]Main!$C$36</f>
+        <v>4.4116573636753973</v>
+      </c>
+      <c r="U7" s="14">
+        <f>+'[4]Financial Model'!$M$28</f>
+        <v>0.24674329501915709</v>
+      </c>
+      <c r="V7" s="14">
+        <f>+'[4]Financial Model'!$M$29</f>
+        <v>2.6053639846743294E-2</v>
+      </c>
+      <c r="W7" s="14">
+        <f>+'[4]Financial Model'!$M$30</f>
+        <v>4.2911877394636012E-2</v>
+      </c>
+      <c r="X7" s="14">
+        <f>+'[4]Financial Model'!$M$31</f>
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="Z7" s="14">
+        <f>+'[4]Financial Model'!$M$33</f>
+        <v>0.26453488372093026</v>
+      </c>
+      <c r="AA7" s="14">
+        <f>+'[4]Financial Model'!$U$33</f>
+        <v>0.41523251556206509</v>
+      </c>
+      <c r="AB7" s="14">
+        <f>+'[4]Financial Model'!$T$33</f>
+        <v>0.6017595307917889</v>
+      </c>
+      <c r="AF7" s="20">
+        <f>+[4]Main!$C$28</f>
+        <v>5500</v>
+      </c>
+      <c r="AG7" s="2">
+        <f>+[4]Main!$C$24</f>
+        <v>2011</v>
+      </c>
+      <c r="AH7" s="2">
+        <f>+[4]Main!$C$25</f>
+        <v>2021</v>
+      </c>
+      <c r="AI7" s="2" t="str">
+        <f>+[4]Main!$C$23</f>
+        <v>Boston, MA</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:38">
-      <c r="B8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="10">
-        <f>+[4]Main!$C$6</f>
-        <v>31.25</v>
-      </c>
-      <c r="G8" s="8">
-        <f>+[4]Main!$C$7</f>
-        <v>562</v>
-      </c>
-      <c r="H8" s="8">
-        <f>+[4]Main!$C$8</f>
-        <v>17562.5</v>
-      </c>
-      <c r="I8" s="8">
-        <f>+[4]Main!$C$11</f>
-        <v>1219</v>
-      </c>
-      <c r="J8" s="8">
-        <f>+[4]Main!$C$12</f>
-        <v>16343.5</v>
-      </c>
-      <c r="K8" s="2" t="str">
-        <f>+[4]Main!$C$30</f>
-        <v>Q224</v>
-      </c>
-      <c r="L8" s="15">
-        <f>+[4]Main!$D$30</f>
-        <v>45511</v>
-      </c>
-      <c r="Q8" s="12">
-        <f>+[4]Main!$C$35</f>
-        <v>13.542478565861263</v>
-      </c>
-      <c r="R8" s="12">
-        <f>+[4]Main!$C$36</f>
-        <v>4.0051311288483467</v>
-      </c>
-      <c r="U8" s="14">
-        <f>+'[4]Financial Model'!$L$28</f>
-        <v>0.23027375201288244</v>
-      </c>
-      <c r="V8" s="14">
-        <f>+'[4]Financial Model'!$L$29</f>
-        <v>4.0257648953301124E-3</v>
-      </c>
-      <c r="W8" s="14">
-        <f>+'[4]Financial Model'!$L$30</f>
-        <v>1.1272141706924315E-2</v>
-      </c>
-      <c r="X8" s="14">
-        <f>+'[4]Financial Model'!$L$31</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="14">
-        <f>+'[4]Financial Model'!$L$33</f>
-        <v>0.26993865030674846</v>
-      </c>
-      <c r="AA8" s="14">
-        <f>+'[4]Financial Model'!$U$33</f>
-        <v>0.41523251556206509</v>
-      </c>
-      <c r="AB8" s="14">
-        <f>+'[4]Financial Model'!$T$33</f>
-        <v>0.6017595307917889</v>
-      </c>
-      <c r="AF8" s="20">
-        <f>+[4]Main!$C$28</f>
-        <v>5500</v>
-      </c>
-      <c r="AG8" s="2">
-        <f>+[4]Main!$C$24</f>
-        <v>2011</v>
-      </c>
-      <c r="AH8" s="2">
-        <f>+[4]Main!$C$25</f>
-        <v>2021</v>
-      </c>
-      <c r="AI8" s="2" t="str">
-        <f>+[4]Main!$C$23</f>
-        <v>Boston, MA</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>69</v>
+      <c r="F8" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:38">
@@ -2334,7 +2334,7 @@
     <hyperlink ref="B12" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
     <hyperlink ref="B13" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
     <hyperlink ref="B10" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{3859F738-BD99-4DD5-8721-EF043945682D}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{3859F738-BD99-4DD5-8721-EF043945682D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B871BC84-1AE9-45E0-926C-65412E3F1383}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21496D18-E581-452E-968A-384D244EE95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
+    <workbookView xWindow="1635" yWindow="1950" windowWidth="27165" windowHeight="14100" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,28 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>Ticker</t>
   </si>
@@ -257,6 +267,18 @@
   </si>
   <si>
     <t>Gitlab Inc.</t>
+  </si>
+  <si>
+    <t>$SPOT</t>
+  </si>
+  <si>
+    <t>Spotify Technology S.A</t>
+  </si>
+  <si>
+    <t>Streaming</t>
+  </si>
+  <si>
+    <t>Music Streaming, Podcasts</t>
   </si>
 </sst>
 </file>
@@ -466,7 +488,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -605,7 +627,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -733,7 +755,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -838,7 +860,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -949,7 +971,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -977,8 +999,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -1081,7 +1106,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1183,6 +1208,104 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>400.68</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>201</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>80536.680000000008</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>5959</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>74577.680000000008</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Stockholm, Sweden</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>Q224</v>
+          </cell>
+          <cell r="D30">
+            <v>45480</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>1.8383569335605636</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>18.559875002592591</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="19">
+          <cell r="P19">
+            <v>0.19830028328611893</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="P22">
+            <v>0.29209351195166799</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="P23">
+            <v>6.9871289729445757E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="P24">
+            <v>7.1972681901759913E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="P25">
+            <v>-1.4814814814814815E-2</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1491,7 +1614,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1514,7 +1637,7 @@
     <col min="31" max="31" width="9.140625" style="20"/>
     <col min="32" max="32" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="9.140625" style="2"/>
-    <col min="35" max="35" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9.140625" style="2"/>
     <col min="37" max="37" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1751,6 +1874,90 @@
         <v>42</v>
       </c>
     </row>
+    <row r="4" spans="2:38">
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="10">
+        <f>[8]Main!$C$6</f>
+        <v>400.68</v>
+      </c>
+      <c r="G4" s="8">
+        <f>[8]Main!$C$7</f>
+        <v>201</v>
+      </c>
+      <c r="H4" s="8">
+        <f>[8]Main!$C$8</f>
+        <v>80536.680000000008</v>
+      </c>
+      <c r="I4" s="8">
+        <f>[8]Main!$C$11*Currencies!D3</f>
+        <v>4583.8461538461534</v>
+      </c>
+      <c r="J4" s="8">
+        <f>[8]Main!$C$12</f>
+        <v>74577.680000000008</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f>[8]Main!$C$30</f>
+        <v>Q224</v>
+      </c>
+      <c r="L4" s="15">
+        <f>[8]Main!$D$30</f>
+        <v>45480</v>
+      </c>
+      <c r="Q4" s="12">
+        <f>[8]Main!$C$35</f>
+        <v>1.8383569335605636</v>
+      </c>
+      <c r="R4" s="12">
+        <f>[8]Main!$C$36</f>
+        <v>18.559875002592591</v>
+      </c>
+      <c r="U4" s="14">
+        <f>'[8]Financial Model'!$P$22</f>
+        <v>0.29209351195166799</v>
+      </c>
+      <c r="V4" s="14">
+        <f>'[8]Financial Model'!$P$23</f>
+        <v>6.9871289729445757E-2</v>
+      </c>
+      <c r="W4" s="14">
+        <f>'[8]Financial Model'!$P$24</f>
+        <v>7.1972681901759913E-2</v>
+      </c>
+      <c r="X4" s="14">
+        <f>'[8]Financial Model'!$P$25</f>
+        <v>-1.4814814814814815E-2</v>
+      </c>
+      <c r="Z4" s="14">
+        <f>'[8]Financial Model'!$P$19</f>
+        <v>0.19830028328611893</v>
+      </c>
+      <c r="AG4" s="2">
+        <f>[8]Main!$C$24</f>
+        <v>2006</v>
+      </c>
+      <c r="AI4" s="2" t="str">
+        <f>[8]Main!$C$23</f>
+        <v>Stockholm, Sweden</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="5" spans="2:38">
       <c r="B5" s="5" t="s">
         <v>38</v>
@@ -2068,238 +2275,238 @@
       </c>
     </row>
     <row r="8" spans="2:38">
-      <c r="F8" s="10" t="s">
-        <v>66</v>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="10">
+        <f>+[6]Main!$C$6*Currencies!C3</f>
+        <v>12.851799999999999</v>
+      </c>
+      <c r="G8" s="8">
+        <f>+[6]Main!$C$7</f>
+        <v>1016</v>
+      </c>
+      <c r="H8" s="8">
+        <f>G8*F8</f>
+        <v>13057.4288</v>
+      </c>
+      <c r="I8" s="8">
+        <f>[6]Main!$C$11*Currencies!C3</f>
+        <v>-1029.6000000000001</v>
+      </c>
+      <c r="J8" s="8">
+        <f>H8-I8</f>
+        <v>14087.0288</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f>+[6]Main!$C$27</f>
+        <v>H124</v>
+      </c>
+      <c r="L8" s="15">
+        <f>+[6]Main!$D$27</f>
+        <v>45428</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>[6]Main!$C$34</f>
+        <v>9.2317794117647036</v>
+      </c>
+      <c r="R8" s="12">
+        <f>[6]Main!$C$33</f>
+        <v>4.4660631391729657</v>
+      </c>
+      <c r="S8" s="12">
+        <f>+[6]Main!$C$32</f>
+        <v>26.149764972535884</v>
+      </c>
+      <c r="U8" s="14">
+        <f>+'[6]Financial Model'!$M$20</f>
+        <v>0.92881944444444442</v>
+      </c>
+      <c r="V8" s="14">
+        <f>+'[6]Financial Model'!$M$21</f>
+        <v>0.18663194444444445</v>
+      </c>
+      <c r="W8" s="14">
+        <f>+'[6]Financial Model'!$M$22</f>
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="X8" s="14">
+        <f>+'[6]Financial Model'!$M$23</f>
+        <v>0.23152709359605911</v>
+      </c>
+      <c r="Z8" s="14">
+        <f>+'[6]Financial Model'!$M$25</f>
+        <v>5.9797608095676136E-2</v>
+      </c>
+      <c r="AA8" s="14">
+        <f>+'[6]Financial Model'!$W$25</f>
+        <v>0.1217257318952234</v>
+      </c>
+      <c r="AB8" s="14">
+        <f>+'[6]Financial Model'!$V$25</f>
+        <v>5.4712892741061836E-2</v>
+      </c>
+      <c r="AC8" s="14">
+        <f>+'[6]Financial Model'!$U$25</f>
+        <v>-2.9952706253284278E-2</v>
+      </c>
+      <c r="AF8" s="20">
+        <f>+[6]Main!$C$26</f>
+        <v>11565</v>
+      </c>
+      <c r="AG8" s="2">
+        <f>+[6]Main!$C$24</f>
+        <v>1981</v>
+      </c>
+      <c r="AH8" s="2">
+        <f>+[6]Main!$C$25</f>
+        <v>1989</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38">
+      <c r="B9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="10">
+        <f>+[7]Main!$C$6*Currencies!C3</f>
+        <v>4.3290000000000006</v>
+      </c>
+      <c r="G9" s="8">
+        <f>+[7]Main!$C$7</f>
+        <v>193.41571500000001</v>
+      </c>
+      <c r="H9" s="8">
+        <f>G9*F9</f>
+        <v>837.29663023500018</v>
+      </c>
+      <c r="I9" s="8">
+        <f>[7]Main!$C$11*Currencies!D3</f>
+        <v>20.227692307692305</v>
+      </c>
+      <c r="J9" s="8">
+        <f>H9-I9</f>
+        <v>817.06893792730784</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f>[7]Main!$C$30</f>
+        <v>H124</v>
+      </c>
+      <c r="L9" s="15">
+        <f>[7]Main!$D$30</f>
+        <v>45559</v>
+      </c>
+      <c r="Q9" s="12">
+        <f>+[7]Main!$C$35</f>
+        <v>3.1948131495535712</v>
+      </c>
+      <c r="R9" s="12">
+        <f>+[7]Main!$C$36</f>
+        <v>2.6442251407476842</v>
+      </c>
+      <c r="S9" s="12">
+        <f>+[7]Main!$C$38</f>
+        <v>15.436558542879432</v>
+      </c>
+      <c r="U9" s="14">
+        <f>+'[7]Financial Model'!$F$42</f>
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="V9" s="14">
+        <f>+'[7]Financial Model'!$F$43</f>
+        <v>7.9166666666666677E-2</v>
+      </c>
+      <c r="W9" s="14">
+        <f>+'[7]Financial Model'!$F$44</f>
+        <v>5.2777777777777792E-2</v>
+      </c>
+      <c r="X9" s="14">
+        <f>+'[7]Financial Model'!$F$45</f>
+        <v>0.29629629629629622</v>
+      </c>
+      <c r="Z9" s="14">
+        <f>+'[7]Financial Model'!$F$30</f>
+        <v>0.61254199328107539</v>
+      </c>
+      <c r="AA9" s="14">
+        <f>+'[7]Financial Model'!$K$30</f>
+        <v>0.41487498602675421</v>
+      </c>
+      <c r="AB9" s="14">
+        <f>+'[7]Financial Model'!$J$30</f>
+        <v>0.33624730593867169</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF9" s="2">
+        <f>+[7]Main!$C$27</f>
+        <v>115</v>
+      </c>
+      <c r="AG9" s="2">
+        <f>+[7]Main!$C$24</f>
+        <v>2012</v>
+      </c>
+      <c r="AH9" s="30">
+        <f>+[7]Main!$C$25</f>
+        <v>45444</v>
+      </c>
+      <c r="AI9" s="2" t="str">
+        <f>[7]Main!$C$23</f>
+        <v>Cambridge, UK</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:38">
-      <c r="B10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="2" t="str">
-        <f>+[5]Main!$C$28</f>
-        <v>Q123</v>
-      </c>
-      <c r="L10" s="15">
-        <f>+[5]Main!$D$28</f>
-        <v>45055</v>
+      <c r="F10" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:38">
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="10">
-        <f>+[6]Main!$C$6*Currencies!C3</f>
-        <v>12.851799999999999</v>
-      </c>
-      <c r="G12" s="8">
-        <f>+[6]Main!$C$7</f>
-        <v>1016</v>
-      </c>
-      <c r="H12" s="8">
-        <f>G12*F12</f>
-        <v>13057.4288</v>
-      </c>
-      <c r="I12" s="8">
-        <f>[6]Main!$C$11*Currencies!C3</f>
-        <v>-1029.6000000000001</v>
-      </c>
-      <c r="J12" s="8">
-        <f>H12-I12</f>
-        <v>14087.0288</v>
+        <v>70</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f>+[6]Main!$C$27</f>
-        <v>H124</v>
+        <f>+[5]Main!$C$28</f>
+        <v>Q123</v>
       </c>
       <c r="L12" s="15">
-        <f>+[6]Main!$D$27</f>
-        <v>45428</v>
-      </c>
-      <c r="Q12" s="12">
-        <f>[6]Main!$C$34</f>
-        <v>9.2317794117647036</v>
-      </c>
-      <c r="R12" s="12">
-        <f>[6]Main!$C$33</f>
-        <v>4.4660631391729657</v>
-      </c>
-      <c r="S12" s="12">
-        <f>+[6]Main!$C$32</f>
-        <v>26.149764972535884</v>
-      </c>
-      <c r="U12" s="14">
-        <f>+'[6]Financial Model'!$M$20</f>
-        <v>0.92881944444444442</v>
-      </c>
-      <c r="V12" s="14">
-        <f>+'[6]Financial Model'!$M$21</f>
-        <v>0.18663194444444445</v>
-      </c>
-      <c r="W12" s="14">
-        <f>+'[6]Financial Model'!$M$22</f>
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="X12" s="14">
-        <f>+'[6]Financial Model'!$M$23</f>
-        <v>0.23152709359605911</v>
-      </c>
-      <c r="Z12" s="14">
-        <f>+'[6]Financial Model'!$M$25</f>
-        <v>5.9797608095676136E-2</v>
-      </c>
-      <c r="AA12" s="14">
-        <f>+'[6]Financial Model'!$W$25</f>
-        <v>0.1217257318952234</v>
-      </c>
-      <c r="AB12" s="14">
-        <f>+'[6]Financial Model'!$V$25</f>
-        <v>5.4712892741061836E-2</v>
-      </c>
-      <c r="AC12" s="14">
-        <f>+'[6]Financial Model'!$U$25</f>
-        <v>-2.9952706253284278E-2</v>
-      </c>
-      <c r="AF12" s="20">
-        <f>+[6]Main!$C$26</f>
-        <v>11565</v>
-      </c>
-      <c r="AG12" s="2">
-        <f>+[6]Main!$C$24</f>
-        <v>1981</v>
-      </c>
-      <c r="AH12" s="2">
-        <f>+[6]Main!$C$25</f>
-        <v>1989</v>
-      </c>
-      <c r="AI12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL12" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:38">
-      <c r="B13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="10">
-        <f>+[7]Main!$C$6*Currencies!C3</f>
-        <v>4.3290000000000006</v>
-      </c>
-      <c r="G13" s="8">
-        <f>+[7]Main!$C$7</f>
-        <v>193.41571500000001</v>
-      </c>
-      <c r="H13" s="8">
-        <f>G13*F13</f>
-        <v>837.29663023500018</v>
-      </c>
-      <c r="I13" s="8">
-        <f>[7]Main!$C$11*Currencies!D3</f>
-        <v>20.227692307692305</v>
-      </c>
-      <c r="J13" s="8">
-        <f>H13-I13</f>
-        <v>817.06893792730784</v>
-      </c>
-      <c r="K13" s="2" t="str">
-        <f>[7]Main!$C$30</f>
-        <v>H124</v>
-      </c>
-      <c r="L13" s="15">
-        <f>[7]Main!$D$30</f>
-        <v>45559</v>
-      </c>
-      <c r="Q13" s="12">
-        <f>+[7]Main!$C$35</f>
-        <v>3.1948131495535712</v>
-      </c>
-      <c r="R13" s="12">
-        <f>+[7]Main!$C$36</f>
-        <v>2.6442251407476842</v>
-      </c>
-      <c r="S13" s="12">
-        <f>+[7]Main!$C$38</f>
-        <v>15.436558542879432</v>
-      </c>
-      <c r="U13" s="14">
-        <f>+'[7]Financial Model'!$F$42</f>
-        <v>0.23750000000000002</v>
-      </c>
-      <c r="V13" s="14">
-        <f>+'[7]Financial Model'!$F$43</f>
-        <v>7.9166666666666677E-2</v>
-      </c>
-      <c r="W13" s="14">
-        <f>+'[7]Financial Model'!$F$44</f>
-        <v>5.2777777777777792E-2</v>
-      </c>
-      <c r="X13" s="14">
-        <f>+'[7]Financial Model'!$F$45</f>
-        <v>0.29629629629629622</v>
-      </c>
-      <c r="Z13" s="14">
-        <f>+'[7]Financial Model'!$F$30</f>
-        <v>0.61254199328107539</v>
-      </c>
-      <c r="AA13" s="14">
-        <f>+'[7]Financial Model'!$K$30</f>
-        <v>0.41487498602675421</v>
-      </c>
-      <c r="AB13" s="14">
-        <f>+'[7]Financial Model'!$J$30</f>
-        <v>0.33624730593867169</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF13" s="2">
-        <f>+[7]Main!$C$27</f>
-        <v>115</v>
-      </c>
-      <c r="AG13" s="2">
-        <f>+[7]Main!$C$24</f>
-        <v>2012</v>
-      </c>
-      <c r="AH13" s="30">
-        <f>+[7]Main!$C$25</f>
-        <v>45444</v>
-      </c>
-      <c r="AI13" s="2" t="str">
-        <f>[7]Main!$C$23</f>
-        <v>Cambridge, UK</v>
-      </c>
-      <c r="AK13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL13" s="2" t="s">
-        <v>65</v>
+        <f>+[5]Main!$D$28</f>
+        <v>45055</v>
       </c>
     </row>
     <row r="15" spans="2:38">
@@ -2322,7 +2529,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L3:L1048576">
+  <conditionalFormatting sqref="L3 L5:L1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(LEFT(B3,1)="$",(TODAY()-L3)&gt;90,IF(LEFT(B3,1)="£",(TODAY()-L3)&gt;180,""))</formula>
     </cfRule>
@@ -2331,13 +2538,14 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{AFCC0C36-695A-4698-B366-E9445F7B4F63}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{1AA14988-C4F2-405C-BA9D-FBCA3DA35146}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{6E23CD56-40A8-49B9-8695-A01CE41D946F}"/>
-    <hyperlink ref="B12" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
-    <hyperlink ref="B13" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{3859F738-BD99-4DD5-8721-EF043945682D}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{7B052CC6-304F-47CB-A888-07413A5C714D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -2349,7 +2557,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21496D18-E581-452E-968A-384D244EE95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02348E5-F20D-4E27-A3D9-E305FDE51388}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="1950" windowWidth="27165" windowHeight="14100" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -30,15 +30,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -488,7 +479,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -627,7 +618,125 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+      <sheetName val="Data Visualisation"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>400.68</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>201</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>80536.680000000008</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>5959</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>74577.680000000008</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Stockholm, Sweden</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>626</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>9123</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>Q224</v>
+          </cell>
+          <cell r="D30">
+            <v>45480</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>1.8383569335605636</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>18.559875002592591</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="P21">
+            <v>0.19830028328611893</v>
+          </cell>
+          <cell r="Z21">
+            <v>0.21297062474141493</v>
+          </cell>
+          <cell r="AA21">
+            <v>0.12961541741280813</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="P24">
+            <v>0.29209351195166799</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="P25">
+            <v>6.9871289729445757E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="P26">
+            <v>7.1972681901759913E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="P27">
+            <v>-1.4814814814814815E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -754,8 +863,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -859,8 +968,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -970,8 +1079,220 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>9.8859999999999992</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>1016</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>-792</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1981</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>1989</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>11565</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>H124</v>
+          </cell>
+          <cell r="D27">
+            <v>45428</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>26.149764972535884</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>4.4660631391729657</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>9.2317794117647036</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="20">
+          <cell r="M20">
+            <v>0.92881944444444442</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="M21">
+            <v>0.18663194444444445</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="M22">
+            <v>0.13541666666666666</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="M23">
+            <v>0.23152709359605911</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="M25">
+            <v>5.9797608095676136E-2</v>
+          </cell>
+          <cell r="U25">
+            <v>-2.9952706253284278E-2</v>
+          </cell>
+          <cell r="V25">
+            <v>5.4712892741061836E-2</v>
+          </cell>
+          <cell r="W25">
+            <v>0.1217257318952234</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+      <sheetName val="Data Visualisation"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>3.33</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>193.41571500000001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>26.295999999999999</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Cambridge, UK</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>45444</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>H124</v>
+          </cell>
+          <cell r="D30">
+            <v>45559</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>3.1948131495535712</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>2.6442251407476842</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>15.436558542879432</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="30">
+          <cell r="F30">
+            <v>0.61254199328107539</v>
+          </cell>
+          <cell r="J30">
+            <v>0.33624730593867169</v>
+          </cell>
+          <cell r="K30">
+            <v>0.41487498602675421</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="F42">
+            <v>0.23750000000000002</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="F43">
+            <v>7.9166666666666677E-2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="F44">
+            <v>5.2777777777777792E-2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="F45">
+            <v>0.29629629629629622</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -993,319 +1314,6 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>9.8859999999999992</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>1016</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>-792</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>1981</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>1989</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>11565</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>H124</v>
-          </cell>
-          <cell r="D27">
-            <v>45428</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>26.149764972535884</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>4.4660631391729657</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>9.2317794117647036</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="20">
-          <cell r="M20">
-            <v>0.92881944444444442</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="M21">
-            <v>0.18663194444444445</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="M22">
-            <v>0.13541666666666666</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="M23">
-            <v>0.23152709359605911</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="M25">
-            <v>5.9797608095676136E-2</v>
-          </cell>
-          <cell r="U25">
-            <v>-2.9952706253284278E-2</v>
-          </cell>
-          <cell r="V25">
-            <v>5.4712892741061836E-2</v>
-          </cell>
-          <cell r="W25">
-            <v>0.1217257318952234</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
-      <sheetName val="Data Visualisation"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>3.33</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>193.41571500000001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>26.295999999999999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Cambridge, UK</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>2012</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>45444</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>115</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>H124</v>
-          </cell>
-          <cell r="D30">
-            <v>45559</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>3.1948131495535712</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>2.6442251407476842</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>15.436558542879432</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="30">
-          <cell r="F30">
-            <v>0.61254199328107539</v>
-          </cell>
-          <cell r="J30">
-            <v>0.33624730593867169</v>
-          </cell>
-          <cell r="K30">
-            <v>0.41487498602675421</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="F42">
-            <v>0.23750000000000002</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43">
-            <v>7.9166666666666677E-2</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44">
-            <v>5.2777777777777792E-2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45">
-            <v>0.29629629629629622</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>400.68</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>201</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>80536.680000000008</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>5959</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>74577.680000000008</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Stockholm, Sweden</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>2006</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>Q224</v>
-          </cell>
-          <cell r="D30">
-            <v>45480</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>1.8383569335605636</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>18.559875002592591</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="19">
-          <cell r="P19">
-            <v>0.19830028328611893</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="P22">
-            <v>0.29209351195166799</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="P23">
-            <v>6.9871289729445757E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="P24">
-            <v>7.1972681901759913E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="P25">
-            <v>-1.4814814814814815E-2</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1614,7 +1622,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1888,67 +1896,87 @@
         <v>33</v>
       </c>
       <c r="F4" s="10">
-        <f>[8]Main!$C$6</f>
+        <f>[2]Main!$C$6</f>
         <v>400.68</v>
       </c>
       <c r="G4" s="8">
-        <f>[8]Main!$C$7</f>
+        <f>[2]Main!$C$7</f>
         <v>201</v>
       </c>
       <c r="H4" s="8">
-        <f>[8]Main!$C$8</f>
+        <f>[2]Main!$C$8</f>
         <v>80536.680000000008</v>
       </c>
       <c r="I4" s="8">
-        <f>[8]Main!$C$11*Currencies!D3</f>
+        <f>[2]Main!$C$11*Currencies!D3</f>
         <v>4583.8461538461534</v>
       </c>
       <c r="J4" s="8">
-        <f>[8]Main!$C$12</f>
+        <f>[2]Main!$C$12</f>
         <v>74577.680000000008</v>
       </c>
       <c r="K4" s="2" t="str">
-        <f>[8]Main!$C$30</f>
+        <f>[2]Main!$C$30</f>
         <v>Q224</v>
       </c>
       <c r="L4" s="15">
-        <f>[8]Main!$D$30</f>
+        <f>[2]Main!$D$30</f>
         <v>45480</v>
       </c>
       <c r="Q4" s="12">
-        <f>[8]Main!$C$35</f>
+        <f>[2]Main!$C$35</f>
         <v>1.8383569335605636</v>
       </c>
       <c r="R4" s="12">
-        <f>[8]Main!$C$36</f>
+        <f>[2]Main!$C$36</f>
         <v>18.559875002592591</v>
       </c>
       <c r="U4" s="14">
-        <f>'[8]Financial Model'!$P$22</f>
+        <f>'[2]Financial Model'!$P$24</f>
         <v>0.29209351195166799</v>
       </c>
       <c r="V4" s="14">
-        <f>'[8]Financial Model'!$P$23</f>
+        <f>'[2]Financial Model'!$P$25</f>
         <v>6.9871289729445757E-2</v>
       </c>
       <c r="W4" s="14">
-        <f>'[8]Financial Model'!$P$24</f>
+        <f>'[2]Financial Model'!$P$26</f>
         <v>7.1972681901759913E-2</v>
       </c>
       <c r="X4" s="14">
-        <f>'[8]Financial Model'!$P$25</f>
+        <f>'[2]Financial Model'!$P$27</f>
         <v>-1.4814814814814815E-2</v>
       </c>
       <c r="Z4" s="14">
-        <f>'[8]Financial Model'!$P$19</f>
+        <f>'[2]Financial Model'!$P$21</f>
         <v>0.19830028328611893</v>
       </c>
+      <c r="AA4" s="14">
+        <f>'[2]Financial Model'!$AA$21</f>
+        <v>0.12961541741280813</v>
+      </c>
+      <c r="AB4" s="14">
+        <f>'[2]Financial Model'!$Z$21</f>
+        <v>0.21297062474141493</v>
+      </c>
+      <c r="AE4" s="20">
+        <f>+[2]Main!$C$27/30</f>
+        <v>20.866666666666667</v>
+      </c>
+      <c r="AF4" s="20">
+        <f>+[2]Main!$C$28</f>
+        <v>9123</v>
+      </c>
       <c r="AG4" s="2">
-        <f>[8]Main!$C$24</f>
+        <f>[2]Main!$C$24</f>
         <v>2006</v>
       </c>
+      <c r="AH4" s="2">
+        <f>+[2]Main!$C$25</f>
+        <v>2018</v>
+      </c>
       <c r="AI4" s="2" t="str">
-        <f>[8]Main!$C$23</f>
+        <f>[2]Main!$C$23</f>
         <v>Stockholm, Sweden</v>
       </c>
       <c r="AK4" s="2" t="s">
@@ -1972,104 +2000,104 @@
         <v>33</v>
       </c>
       <c r="F5" s="10">
-        <f>+[2]Main!$C$6</f>
+        <f>+[3]Main!$C$6</f>
         <v>51.68</v>
       </c>
       <c r="G5" s="8">
-        <f>+[2]Main!$C$7</f>
+        <f>+[3]Main!$C$7</f>
         <v>641.81399999999996</v>
       </c>
       <c r="H5" s="8">
-        <f>+[2]Main!$C$8</f>
+        <f>+[3]Main!$C$8</f>
         <v>33168.947520000002</v>
       </c>
       <c r="I5" s="8">
-        <f>+[2]Main!$C$11</f>
+        <f>+[3]Main!$C$11</f>
         <v>2595.5510000000004</v>
       </c>
       <c r="J5" s="8">
-        <f>+[2]Main!$C$12</f>
+        <f>+[3]Main!$C$12</f>
         <v>30573.396520000002</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f>+[2]Main!$G$11</f>
+        <f>+[3]Main!$G$11</f>
         <v>Q324</v>
       </c>
       <c r="L5" s="15">
-        <f>+[2]Main!$H$11</f>
+        <f>+[3]Main!$H$11</f>
         <v>45596</v>
       </c>
       <c r="M5" s="22">
-        <f>+'[2]Financial Model'!$AX$26</f>
+        <f>+'[3]Financial Model'!$AX$26</f>
         <v>71.486963060421459</v>
       </c>
       <c r="N5" s="18">
-        <f>+'[2]Financial Model'!$AX$28</f>
+        <f>+'[3]Financial Model'!$AX$28</f>
         <v>0.38326166912580217</v>
       </c>
       <c r="O5" s="18">
-        <f>+'[2]Financial Model'!$AX$22</f>
+        <f>+'[3]Financial Model'!$AX$22</f>
         <v>0.09</v>
       </c>
       <c r="Q5" s="12">
-        <f>+[2]Main!$G$16</f>
+        <f>+[3]Main!$G$16</f>
         <v>523.51896884519317</v>
       </c>
       <c r="R5" s="12">
-        <f>+[2]Main!$G$17</f>
+        <f>+[3]Main!$G$17</f>
         <v>11.261920977309074</v>
       </c>
       <c r="S5" s="12">
-        <f>+[2]Main!$G$18</f>
+        <f>+[3]Main!$G$18</f>
         <v>-27.750520841528012</v>
       </c>
       <c r="U5" s="14">
-        <f>+'[2]Financial Model'!$T$22</f>
+        <f>+'[3]Financial Model'!$T$22</f>
         <v>0.77778685524927171</v>
       </c>
       <c r="V5" s="14">
-        <f>+'[2]Financial Model'!$T$23</f>
+        <f>+'[3]Financial Model'!$T$23</f>
         <v>-0.26629832028229189</v>
       </c>
       <c r="W5" s="14">
-        <f>+'[2]Financial Model'!$T$24</f>
+        <f>+'[3]Financial Model'!$T$24</f>
         <v>-0.23188027884500237</v>
       </c>
       <c r="X5" s="14">
-        <f>+'[2]Financial Model'!$T$25</f>
+        <f>+'[3]Financial Model'!$T$25</f>
         <v>-5.311828476229569E-4</v>
       </c>
       <c r="Z5" s="14">
-        <f>+'[2]Financial Model'!$T$28</f>
+        <f>+'[3]Financial Model'!$T$28</f>
         <v>0.31255526862387373</v>
       </c>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14">
-        <f>+'[2]Financial Model'!$AF$28</f>
+        <f>+'[3]Financial Model'!$AF$28</f>
         <v>0.15937579623808262</v>
       </c>
       <c r="AC5" s="14">
-        <f>+'[2]Financial Model'!$AE$28</f>
+        <f>+'[3]Financial Model'!$AE$28</f>
         <v>1.0772942519902369</v>
       </c>
       <c r="AE5" s="20">
-        <f>+[2]Main!$G$9</f>
+        <f>+[3]Main!$G$9</f>
         <v>79.5</v>
       </c>
       <c r="AF5" s="20">
-        <f>+[2]Main!$G$10</f>
+        <f>+[3]Main!$G$10</f>
         <v>2457</v>
       </c>
       <c r="AG5" s="2">
-        <f>+[2]Main!$G$8</f>
+        <f>+[3]Main!$G$8</f>
         <v>2004</v>
       </c>
       <c r="AH5" s="2">
-        <f>+[2]Main!$G$7</f>
+        <f>+[3]Main!$G$7</f>
         <v>2021</v>
       </c>
       <c r="AI5" s="2" t="str">
-        <f>+[2]Main!$G$6</f>
+        <f>+[3]Main!$G$6</f>
         <v>San Mateo, CA</v>
       </c>
       <c r="AK5" s="2" t="s">
@@ -2093,55 +2121,55 @@
         <v>33</v>
       </c>
       <c r="F6" s="10">
-        <f>+[3]Main!$C$6</f>
+        <f>+[4]Main!$C$6</f>
         <v>129.71</v>
       </c>
       <c r="G6" s="8">
-        <f>+[3]Main!$C$7</f>
+        <f>+[4]Main!$C$7</f>
         <v>169.16992200000001</v>
       </c>
       <c r="H6" s="8">
-        <f>+[3]Main!$C$8</f>
+        <f>+[4]Main!$C$8</f>
         <v>21943.030582620002</v>
       </c>
       <c r="I6" s="8">
-        <f>+[3]Main!$C$11</f>
+        <f>+[4]Main!$C$11</f>
         <v>1744.9669999999999</v>
       </c>
       <c r="J6" s="8">
-        <f>+[3]Main!$C$12</f>
+        <f>+[4]Main!$C$12</f>
         <v>20198.063582620001</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f>+[3]Main!$C$32</f>
+        <f>+[4]Main!$C$32</f>
         <v>Q324</v>
       </c>
       <c r="L6" s="15">
-        <f>+[3]Main!$D$32</f>
+        <f>+[4]Main!$D$32</f>
         <v>45594</v>
       </c>
       <c r="Q6" s="12">
-        <f>+[3]Main!$C$37</f>
+        <f>+[4]Main!$C$37</f>
         <v>11.095743232541535</v>
       </c>
       <c r="U6" s="14">
-        <f>+'[3]Financial Model'!$I$18</f>
+        <f>+'[4]Financial Model'!$I$18</f>
         <v>0.90049404192897387</v>
       </c>
       <c r="V6" s="14">
-        <f>+'[3]Financial Model'!$I$19</f>
+        <f>+'[4]Financial Model'!$I$19</f>
         <v>1.9589437090750374E-2</v>
       </c>
       <c r="W6" s="14">
-        <f>+'[3]Financial Model'!$I$20</f>
+        <f>+'[4]Financial Model'!$I$20</f>
         <v>8.5611925902322611E-2</v>
       </c>
       <c r="X6" s="14">
-        <f>+'[3]Financial Model'!$I$21</f>
+        <f>+'[4]Financial Model'!$I$21</f>
         <v>-1.0405477980665956E-3</v>
       </c>
       <c r="Z6" s="14">
-        <f>+'[3]Financial Model'!$I$24</f>
+        <f>+'[4]Financial Model'!$I$24</f>
         <v>0.67873527767604136</v>
       </c>
       <c r="AB6" s="2" t="s">
@@ -2151,23 +2179,23 @@
         <v>46</v>
       </c>
       <c r="AE6" s="20">
-        <f>+[3]Main!$C$29</f>
+        <f>+[4]Main!$C$29</f>
         <v>97.2</v>
       </c>
       <c r="AF6" s="20">
-        <f>+[3]Main!$C$30</f>
+        <f>+[4]Main!$C$30</f>
         <v>2013</v>
       </c>
       <c r="AG6" s="2">
-        <f>+[3]Main!$C$25</f>
+        <f>+[4]Main!$C$25</f>
         <v>2005</v>
       </c>
       <c r="AH6" s="2">
-        <f>+[3]Main!$C$26</f>
+        <f>+[4]Main!$C$26</f>
         <v>2024</v>
       </c>
       <c r="AI6" s="2" t="str">
-        <f>+[3]Main!$C$24</f>
+        <f>+[4]Main!$C$24</f>
         <v>San Fransisco, CA</v>
       </c>
       <c r="AK6" s="2" t="s">
@@ -2191,83 +2219,83 @@
         <v>33</v>
       </c>
       <c r="F7" s="10">
-        <f>+[4]Main!$C$6</f>
+        <f>+[5]Main!$C$6</f>
         <v>36.5</v>
       </c>
       <c r="G7" s="8">
-        <f>+[4]Main!$C$7</f>
+        <f>+[5]Main!$C$7</f>
         <v>563</v>
       </c>
       <c r="H7" s="8">
-        <f>+[4]Main!$C$8</f>
+        <f>+[5]Main!$C$8</f>
         <v>20549.5</v>
       </c>
       <c r="I7" s="8">
-        <f>+[4]Main!$C$11</f>
+        <f>+[5]Main!$C$11</f>
         <v>1272</v>
       </c>
       <c r="J7" s="8">
-        <f>+[4]Main!$C$12</f>
+        <f>+[5]Main!$C$12</f>
         <v>19277.5</v>
       </c>
       <c r="K7" s="2" t="str">
-        <f>+[4]Main!$C$30</f>
+        <f>+[5]Main!$C$30</f>
         <v>Q324</v>
       </c>
       <c r="L7" s="15">
-        <f>+[4]Main!$D$30</f>
+        <f>+[5]Main!$D$30</f>
         <v>45603</v>
       </c>
       <c r="Q7" s="12">
-        <f>+[4]Main!$C$35</f>
+        <f>+[5]Main!$C$35</f>
         <v>14.471478873239437</v>
       </c>
       <c r="R7" s="12">
-        <f>+[4]Main!$C$36</f>
+        <f>+[5]Main!$C$36</f>
         <v>4.4116573636753973</v>
       </c>
       <c r="U7" s="14">
-        <f>+'[4]Financial Model'!$M$28</f>
+        <f>+'[5]Financial Model'!$M$28</f>
         <v>0.24674329501915709</v>
       </c>
       <c r="V7" s="14">
-        <f>+'[4]Financial Model'!$M$29</f>
+        <f>+'[5]Financial Model'!$M$29</f>
         <v>2.6053639846743294E-2</v>
       </c>
       <c r="W7" s="14">
-        <f>+'[4]Financial Model'!$M$30</f>
+        <f>+'[5]Financial Model'!$M$30</f>
         <v>4.2911877394636012E-2</v>
       </c>
       <c r="X7" s="14">
-        <f>+'[4]Financial Model'!$M$31</f>
+        <f>+'[5]Financial Model'!$M$31</f>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="Z7" s="14">
-        <f>+'[4]Financial Model'!$M$33</f>
+        <f>+'[5]Financial Model'!$M$33</f>
         <v>0.26453488372093026</v>
       </c>
       <c r="AA7" s="14">
-        <f>+'[4]Financial Model'!$U$33</f>
+        <f>+'[5]Financial Model'!$U$33</f>
         <v>0.41523251556206509</v>
       </c>
       <c r="AB7" s="14">
-        <f>+'[4]Financial Model'!$T$33</f>
+        <f>+'[5]Financial Model'!$T$33</f>
         <v>0.6017595307917889</v>
       </c>
       <c r="AF7" s="20">
-        <f>+[4]Main!$C$28</f>
+        <f>+[5]Main!$C$28</f>
         <v>5500</v>
       </c>
       <c r="AG7" s="2">
-        <f>+[4]Main!$C$24</f>
+        <f>+[5]Main!$C$24</f>
         <v>2011</v>
       </c>
       <c r="AH7" s="2">
-        <f>+[4]Main!$C$25</f>
+        <f>+[5]Main!$C$25</f>
         <v>2021</v>
       </c>
       <c r="AI7" s="2" t="str">
-        <f>+[4]Main!$C$23</f>
+        <f>+[5]Main!$C$23</f>
         <v>Boston, MA</v>
       </c>
       <c r="AL7" s="2" t="s">
@@ -2501,11 +2529,11 @@
         <v>70</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f>+[5]Main!$C$28</f>
+        <f>+[8]Main!$C$28</f>
         <v>Q123</v>
       </c>
       <c r="L12" s="15">
-        <f>+[5]Main!$D$28</f>
+        <f>+[8]Main!$D$28</f>
         <v>45055</v>
       </c>
     </row>
@@ -2557,7 +2585,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02348E5-F20D-4E27-A3D9-E305FDE51388}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761C103F-4CBD-4CBE-BF44-C38247AD248F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="1950" windowWidth="27165" windowHeight="14100" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -629,27 +629,27 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>400.68</v>
+            <v>450</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>201</v>
+            <v>201.575568</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>80536.680000000008</v>
+            <v>90709.005600000004</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>5959</v>
+            <v>6322</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>74577.680000000008</v>
+            <v>84387.005600000004</v>
           </cell>
         </row>
         <row r="23">
@@ -669,7 +669,7 @@
         </row>
         <row r="27">
           <cell r="C27">
-            <v>626</v>
+            <v>640</v>
           </cell>
         </row>
         <row r="28">
@@ -679,27 +679,32 @@
         </row>
         <row r="30">
           <cell r="C30" t="str">
-            <v>Q224</v>
+            <v>Q324</v>
           </cell>
           <cell r="D30">
-            <v>45480</v>
+            <v>45608</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>1.8383569335605636</v>
+            <v>2.048085692097604</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>18.559875002592591</v>
+            <v>19.19263634517079</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>118.16107002434873</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="21">
-          <cell r="P21">
-            <v>0.19830028328611893</v>
+          <cell r="Q21">
+            <v>0.18796544533809945</v>
           </cell>
           <cell r="Z21">
             <v>0.21297062474141493</v>
@@ -709,23 +714,23 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="P24">
-            <v>0.29209351195166799</v>
+          <cell r="Q24">
+            <v>0.31093279839518556</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="P25">
-            <v>6.9871289729445757E-2</v>
+          <cell r="Q25">
+            <v>0.11384152457372117</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="P26">
-            <v>7.1972681901759913E-2</v>
+          <cell r="Q26">
+            <v>7.5225677031093285E-2</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="P27">
-            <v>-1.4814814814814815E-2</v>
+          <cell r="Q27">
+            <v>0.24623115577889448</v>
           </cell>
         </row>
       </sheetData>
@@ -1622,7 +1627,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1897,59 +1902,63 @@
       </c>
       <c r="F4" s="10">
         <f>[2]Main!$C$6</f>
-        <v>400.68</v>
+        <v>450</v>
       </c>
       <c r="G4" s="8">
         <f>[2]Main!$C$7</f>
-        <v>201</v>
+        <v>201.575568</v>
       </c>
       <c r="H4" s="8">
         <f>[2]Main!$C$8</f>
-        <v>80536.680000000008</v>
+        <v>90709.005600000004</v>
       </c>
       <c r="I4" s="8">
         <f>[2]Main!$C$11*Currencies!D3</f>
-        <v>4583.8461538461534</v>
+        <v>4863.0769230769229</v>
       </c>
       <c r="J4" s="8">
         <f>[2]Main!$C$12</f>
-        <v>74577.680000000008</v>
+        <v>84387.005600000004</v>
       </c>
       <c r="K4" s="2" t="str">
         <f>[2]Main!$C$30</f>
-        <v>Q224</v>
+        <v>Q324</v>
       </c>
       <c r="L4" s="15">
         <f>[2]Main!$D$30</f>
-        <v>45480</v>
+        <v>45608</v>
       </c>
       <c r="Q4" s="12">
         <f>[2]Main!$C$35</f>
-        <v>1.8383569335605636</v>
+        <v>2.048085692097604</v>
       </c>
       <c r="R4" s="12">
         <f>[2]Main!$C$36</f>
-        <v>18.559875002592591</v>
+        <v>19.19263634517079</v>
+      </c>
+      <c r="S4" s="12">
+        <f>+[2]Main!$C$38</f>
+        <v>118.16107002434873</v>
       </c>
       <c r="U4" s="14">
-        <f>'[2]Financial Model'!$P$24</f>
-        <v>0.29209351195166799</v>
+        <f>'[2]Financial Model'!$Q$24</f>
+        <v>0.31093279839518556</v>
       </c>
       <c r="V4" s="14">
-        <f>'[2]Financial Model'!$P$25</f>
-        <v>6.9871289729445757E-2</v>
+        <f>'[2]Financial Model'!$Q$25</f>
+        <v>0.11384152457372117</v>
       </c>
       <c r="W4" s="14">
-        <f>'[2]Financial Model'!$P$26</f>
-        <v>7.1972681901759913E-2</v>
+        <f>'[2]Financial Model'!$Q$26</f>
+        <v>7.5225677031093285E-2</v>
       </c>
       <c r="X4" s="14">
-        <f>'[2]Financial Model'!$P$27</f>
-        <v>-1.4814814814814815E-2</v>
+        <f>'[2]Financial Model'!$Q$27</f>
+        <v>0.24623115577889448</v>
       </c>
       <c r="Z4" s="14">
-        <f>'[2]Financial Model'!$P$21</f>
-        <v>0.19830028328611893</v>
+        <f>'[2]Financial Model'!$Q$21</f>
+        <v>0.18796544533809945</v>
       </c>
       <c r="AA4" s="14">
         <f>'[2]Financial Model'!$AA$21</f>
@@ -1961,7 +1970,7 @@
       </c>
       <c r="AE4" s="20">
         <f>+[2]Main!$C$27/30</f>
-        <v>20.866666666666667</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="AF4" s="20">
         <f>+[2]Main!$C$28</f>
@@ -2557,7 +2566,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L3 L5:L1048576">
+  <conditionalFormatting sqref="L3:L1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(LEFT(B3,1)="$",(TODAY()-L3)&gt;90,IF(LEFT(B3,1)="£",(TODAY()-L3)&gt;180,""))</formula>
     </cfRule>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761C103F-4CBD-4CBE-BF44-C38247AD248F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A1093E-B499-4934-B12F-633ED9102686}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="1950" windowWidth="27165" windowHeight="14100" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -734,7 +734,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1627,7 +1627,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2594,7 +2594,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A1093E-B499-4934-B12F-633ED9102686}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CA6A87-E4AD-477B-9D37-0F3CAC2BD8CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="1950" windowWidth="27165" windowHeight="14100" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
+    <workbookView xWindow="945" yWindow="570" windowWidth="27165" windowHeight="14100" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1095,7 +1095,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>9.8859999999999992</v>
+            <v>10.64</v>
           </cell>
         </row>
         <row r="7">
@@ -1133,17 +1133,17 @@
         </row>
         <row r="32">
           <cell r="C32">
-            <v>26.149764972535884</v>
+            <v>28.144193739407427</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>4.4660631391729657</v>
+            <v>4.8066874166296127</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>9.2317794117647036</v>
+            <v>9.9358823529411762</v>
           </cell>
         </row>
       </sheetData>
@@ -1627,7 +1627,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="F8" s="10">
         <f>+[6]Main!$C$6*Currencies!C3</f>
-        <v>12.851799999999999</v>
+        <v>13.832000000000001</v>
       </c>
       <c r="G8" s="8">
         <f>+[6]Main!$C$7</f>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="H8" s="8">
         <f>G8*F8</f>
-        <v>13057.4288</v>
+        <v>14053.312</v>
       </c>
       <c r="I8" s="8">
         <f>[6]Main!$C$11*Currencies!C3</f>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="J8" s="8">
         <f>H8-I8</f>
-        <v>14087.0288</v>
+        <v>15082.912</v>
       </c>
       <c r="K8" s="2" t="str">
         <f>+[6]Main!$C$27</f>
@@ -2354,15 +2354,15 @@
       </c>
       <c r="Q8" s="12">
         <f>[6]Main!$C$34</f>
-        <v>9.2317794117647036</v>
+        <v>9.9358823529411762</v>
       </c>
       <c r="R8" s="12">
         <f>[6]Main!$C$33</f>
-        <v>4.4660631391729657</v>
+        <v>4.8066874166296127</v>
       </c>
       <c r="S8" s="12">
         <f>+[6]Main!$C$32</f>
-        <v>26.149764972535884</v>
+        <v>28.144193739407427</v>
       </c>
       <c r="U8" s="14">
         <f>+'[6]Financial Model'!$M$20</f>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CA6A87-E4AD-477B-9D37-0F3CAC2BD8CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A103F3-80B3-469D-9650-44F03840EE0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="945" yWindow="570" windowWidth="27165" windowHeight="14100" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>Ticker</t>
   </si>
@@ -270,6 +271,18 @@
   </si>
   <si>
     <t>Music Streaming, Podcasts</t>
+  </si>
+  <si>
+    <t>$SNOW</t>
+  </si>
+  <si>
+    <t>Snowflake Inc.</t>
+  </si>
+  <si>
+    <t>Data storage &amp; analysis</t>
+  </si>
+  <si>
+    <t>SaaS Data Storage</t>
   </si>
 </sst>
 </file>
@@ -1319,6 +1332,117 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>130.24</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>334.07100000000003</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>43509.407040000006</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>3927.913</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>39581.494040000005</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Bozeman, MT</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>7630</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>Q224</v>
+          </cell>
+          <cell r="D29">
+            <v>45533</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>10.51564511498003</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>13.569715649610261</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="L21">
+            <v>0.28895667474755871</v>
+          </cell>
+          <cell r="W21">
+            <v>0.69409764566847132</v>
+          </cell>
+          <cell r="X21">
+            <v>0.35864099544019612</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="L24">
+            <v>0.66841087502014318</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="L25">
+            <v>-0.40901724257004091</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="L26">
+            <v>-0.36581528119892281</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="L27">
+            <v>-1.2056288153566408E-2</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1621,13 +1745,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B533DC-5A31-4AB0-80D6-BD84B319883E}">
-  <dimension ref="B1:AL17"/>
+  <dimension ref="B1:AL18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1997,10 +2121,10 @@
     </row>
     <row r="5" spans="2:38">
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
@@ -2009,559 +2133,659 @@
         <v>33</v>
       </c>
       <c r="F5" s="10">
+        <f>+[9]Main!$C$6</f>
+        <v>130.24</v>
+      </c>
+      <c r="G5" s="8">
+        <f>+[9]Main!$C$7</f>
+        <v>334.07100000000003</v>
+      </c>
+      <c r="H5" s="8">
+        <f>+[9]Main!$C$8</f>
+        <v>43509.407040000006</v>
+      </c>
+      <c r="I5" s="8">
+        <f>+[9]Main!$C$11</f>
+        <v>3927.913</v>
+      </c>
+      <c r="J5" s="8">
+        <f>+[9]Main!$C$12</f>
+        <v>39581.494040000005</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f>+[9]Main!$C$29</f>
+        <v>Q224</v>
+      </c>
+      <c r="L5" s="15">
+        <f>+[9]Main!$D$29</f>
+        <v>45533</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>+[9]Main!$C$34</f>
+        <v>10.51564511498003</v>
+      </c>
+      <c r="R5" s="12">
+        <f>+[9]Main!$C$35</f>
+        <v>13.569715649610261</v>
+      </c>
+      <c r="U5" s="14">
+        <f>+'[9]Financial Model'!$L$24</f>
+        <v>0.66841087502014318</v>
+      </c>
+      <c r="V5" s="14">
+        <f>+'[9]Financial Model'!$L$25</f>
+        <v>-0.40901724257004091</v>
+      </c>
+      <c r="W5" s="14">
+        <f>+'[9]Financial Model'!$L$26</f>
+        <v>-0.36581528119892281</v>
+      </c>
+      <c r="X5" s="14">
+        <f>+'[9]Financial Model'!$L$27</f>
+        <v>-1.2056288153566408E-2</v>
+      </c>
+      <c r="Z5" s="14">
+        <f>+'[9]Financial Model'!$L$21</f>
+        <v>0.28895667474755871</v>
+      </c>
+      <c r="AA5" s="14">
+        <f>+'[9]Financial Model'!$X$21</f>
+        <v>0.35864099544019612</v>
+      </c>
+      <c r="AB5" s="14">
+        <f>+'[9]Financial Model'!$W$21</f>
+        <v>0.69409764566847132</v>
+      </c>
+      <c r="AF5" s="20">
+        <f>+[9]Main!$C$27</f>
+        <v>7630</v>
+      </c>
+      <c r="AG5" s="2">
+        <f>+[9]Main!$C$24</f>
+        <v>2012</v>
+      </c>
+      <c r="AH5" s="2">
+        <f>+[9]Main!$C$25</f>
+        <v>2020</v>
+      </c>
+      <c r="AI5" s="2" t="str">
+        <f>+[9]Main!$C$23</f>
+        <v>Bozeman, MT</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:38">
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="10">
         <f>+[3]Main!$C$6</f>
         <v>51.68</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G6" s="8">
         <f>+[3]Main!$C$7</f>
         <v>641.81399999999996</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H6" s="8">
         <f>+[3]Main!$C$8</f>
         <v>33168.947520000002</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I6" s="8">
         <f>+[3]Main!$C$11</f>
         <v>2595.5510000000004</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J6" s="8">
         <f>+[3]Main!$C$12</f>
         <v>30573.396520000002</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="K6" s="2" t="str">
         <f>+[3]Main!$G$11</f>
         <v>Q324</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L6" s="15">
         <f>+[3]Main!$H$11</f>
         <v>45596</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M6" s="22">
         <f>+'[3]Financial Model'!$AX$26</f>
         <v>71.486963060421459</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N6" s="18">
         <f>+'[3]Financial Model'!$AX$28</f>
         <v>0.38326166912580217</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O6" s="18">
         <f>+'[3]Financial Model'!$AX$22</f>
         <v>0.09</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q6" s="12">
         <f>+[3]Main!$G$16</f>
         <v>523.51896884519317</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R6" s="12">
         <f>+[3]Main!$G$17</f>
         <v>11.261920977309074</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S6" s="12">
         <f>+[3]Main!$G$18</f>
         <v>-27.750520841528012</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U6" s="14">
         <f>+'[3]Financial Model'!$T$22</f>
         <v>0.77778685524927171</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V6" s="14">
         <f>+'[3]Financial Model'!$T$23</f>
         <v>-0.26629832028229189</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W6" s="14">
         <f>+'[3]Financial Model'!$T$24</f>
         <v>-0.23188027884500237</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X6" s="14">
         <f>+'[3]Financial Model'!$T$25</f>
         <v>-5.311828476229569E-4</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Z6" s="14">
         <f>+'[3]Financial Model'!$T$28</f>
         <v>0.31255526862387373</v>
       </c>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14">
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14">
         <f>+'[3]Financial Model'!$AF$28</f>
         <v>0.15937579623808262</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC6" s="14">
         <f>+'[3]Financial Model'!$AE$28</f>
         <v>1.0772942519902369</v>
       </c>
-      <c r="AE5" s="20">
+      <c r="AE6" s="20">
         <f>+[3]Main!$G$9</f>
         <v>79.5</v>
       </c>
-      <c r="AF5" s="20">
+      <c r="AF6" s="20">
         <f>+[3]Main!$G$10</f>
         <v>2457</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG6" s="2">
         <f>+[3]Main!$G$8</f>
         <v>2004</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AH6" s="2">
         <f>+[3]Main!$G$7</f>
         <v>2021</v>
       </c>
-      <c r="AI5" s="2" t="str">
+      <c r="AI6" s="2" t="str">
         <f>+[3]Main!$G$6</f>
         <v>San Mateo, CA</v>
       </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AK6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AL6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:38">
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="2:38">
+      <c r="B7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="10">
         <f>+[4]Main!$C$6</f>
         <v>129.71</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G7" s="8">
         <f>+[4]Main!$C$7</f>
         <v>169.16992200000001</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H7" s="8">
         <f>+[4]Main!$C$8</f>
         <v>21943.030582620002</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I7" s="8">
         <f>+[4]Main!$C$11</f>
         <v>1744.9669999999999</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J7" s="8">
         <f>+[4]Main!$C$12</f>
         <v>20198.063582620001</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="K7" s="2" t="str">
         <f>+[4]Main!$C$32</f>
         <v>Q324</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L7" s="15">
         <f>+[4]Main!$D$32</f>
         <v>45594</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q7" s="12">
         <f>+[4]Main!$C$37</f>
         <v>11.095743232541535</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U7" s="14">
         <f>+'[4]Financial Model'!$I$18</f>
         <v>0.90049404192897387</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V7" s="14">
         <f>+'[4]Financial Model'!$I$19</f>
         <v>1.9589437090750374E-2</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W7" s="14">
         <f>+'[4]Financial Model'!$I$20</f>
         <v>8.5611925902322611E-2</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X7" s="14">
         <f>+'[4]Financial Model'!$I$21</f>
         <v>-1.0405477980665956E-3</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="Z7" s="14">
         <f>+'[4]Financial Model'!$I$24</f>
         <v>0.67873527767604136</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AE6" s="20">
+      <c r="AE7" s="20">
         <f>+[4]Main!$C$29</f>
         <v>97.2</v>
       </c>
-      <c r="AF6" s="20">
+      <c r="AF7" s="20">
         <f>+[4]Main!$C$30</f>
         <v>2013</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG7" s="2">
         <f>+[4]Main!$C$25</f>
         <v>2005</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AH7" s="2">
         <f>+[4]Main!$C$26</f>
         <v>2024</v>
       </c>
-      <c r="AI6" s="2" t="str">
+      <c r="AI7" s="2" t="str">
         <f>+[4]Main!$C$24</f>
         <v>San Fransisco, CA</v>
       </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AL7" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:38">
-      <c r="B7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="10">
-        <f>+[5]Main!$C$6</f>
-        <v>36.5</v>
-      </c>
-      <c r="G7" s="8">
-        <f>+[5]Main!$C$7</f>
-        <v>563</v>
-      </c>
-      <c r="H7" s="8">
-        <f>+[5]Main!$C$8</f>
-        <v>20549.5</v>
-      </c>
-      <c r="I7" s="8">
-        <f>+[5]Main!$C$11</f>
-        <v>1272</v>
-      </c>
-      <c r="J7" s="8">
-        <f>+[5]Main!$C$12</f>
-        <v>19277.5</v>
-      </c>
-      <c r="K7" s="2" t="str">
-        <f>+[5]Main!$C$30</f>
-        <v>Q324</v>
-      </c>
-      <c r="L7" s="15">
-        <f>+[5]Main!$D$30</f>
-        <v>45603</v>
-      </c>
-      <c r="Q7" s="12">
-        <f>+[5]Main!$C$35</f>
-        <v>14.471478873239437</v>
-      </c>
-      <c r="R7" s="12">
-        <f>+[5]Main!$C$36</f>
-        <v>4.4116573636753973</v>
-      </c>
-      <c r="U7" s="14">
-        <f>+'[5]Financial Model'!$M$28</f>
-        <v>0.24674329501915709</v>
-      </c>
-      <c r="V7" s="14">
-        <f>+'[5]Financial Model'!$M$29</f>
-        <v>2.6053639846743294E-2</v>
-      </c>
-      <c r="W7" s="14">
-        <f>+'[5]Financial Model'!$M$30</f>
-        <v>4.2911877394636012E-2</v>
-      </c>
-      <c r="X7" s="14">
-        <f>+'[5]Financial Model'!$M$31</f>
-        <v>1.7543859649122806E-2</v>
-      </c>
-      <c r="Z7" s="14">
-        <f>+'[5]Financial Model'!$M$33</f>
-        <v>0.26453488372093026</v>
-      </c>
-      <c r="AA7" s="14">
-        <f>+'[5]Financial Model'!$U$33</f>
-        <v>0.41523251556206509</v>
-      </c>
-      <c r="AB7" s="14">
-        <f>+'[5]Financial Model'!$T$33</f>
-        <v>0.6017595307917889</v>
-      </c>
-      <c r="AF7" s="20">
-        <f>+[5]Main!$C$28</f>
-        <v>5500</v>
-      </c>
-      <c r="AG7" s="2">
-        <f>+[5]Main!$C$24</f>
-        <v>2011</v>
-      </c>
-      <c r="AH7" s="2">
-        <f>+[5]Main!$C$25</f>
-        <v>2021</v>
-      </c>
-      <c r="AI7" s="2" t="str">
-        <f>+[5]Main!$C$23</f>
-        <v>Boston, MA</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:38">
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F8" s="10">
-        <f>+[6]Main!$C$6*Currencies!C3</f>
-        <v>13.832000000000001</v>
+        <f>+[5]Main!$C$6</f>
+        <v>36.5</v>
       </c>
       <c r="G8" s="8">
-        <f>+[6]Main!$C$7</f>
-        <v>1016</v>
+        <f>+[5]Main!$C$7</f>
+        <v>563</v>
       </c>
       <c r="H8" s="8">
-        <f>G8*F8</f>
-        <v>14053.312</v>
+        <f>+[5]Main!$C$8</f>
+        <v>20549.5</v>
       </c>
       <c r="I8" s="8">
-        <f>[6]Main!$C$11*Currencies!C3</f>
-        <v>-1029.6000000000001</v>
+        <f>+[5]Main!$C$11</f>
+        <v>1272</v>
       </c>
       <c r="J8" s="8">
-        <f>H8-I8</f>
-        <v>15082.912</v>
+        <f>+[5]Main!$C$12</f>
+        <v>19277.5</v>
       </c>
       <c r="K8" s="2" t="str">
-        <f>+[6]Main!$C$27</f>
-        <v>H124</v>
+        <f>+[5]Main!$C$30</f>
+        <v>Q324</v>
       </c>
       <c r="L8" s="15">
-        <f>+[6]Main!$D$27</f>
-        <v>45428</v>
+        <f>+[5]Main!$D$30</f>
+        <v>45603</v>
       </c>
       <c r="Q8" s="12">
-        <f>[6]Main!$C$34</f>
-        <v>9.9358823529411762</v>
+        <f>+[5]Main!$C$35</f>
+        <v>14.471478873239437</v>
       </c>
       <c r="R8" s="12">
-        <f>[6]Main!$C$33</f>
-        <v>4.8066874166296127</v>
-      </c>
-      <c r="S8" s="12">
-        <f>+[6]Main!$C$32</f>
-        <v>28.144193739407427</v>
+        <f>+[5]Main!$C$36</f>
+        <v>4.4116573636753973</v>
       </c>
       <c r="U8" s="14">
-        <f>+'[6]Financial Model'!$M$20</f>
-        <v>0.92881944444444442</v>
+        <f>+'[5]Financial Model'!$M$28</f>
+        <v>0.24674329501915709</v>
       </c>
       <c r="V8" s="14">
-        <f>+'[6]Financial Model'!$M$21</f>
-        <v>0.18663194444444445</v>
+        <f>+'[5]Financial Model'!$M$29</f>
+        <v>2.6053639846743294E-2</v>
       </c>
       <c r="W8" s="14">
-        <f>+'[6]Financial Model'!$M$22</f>
-        <v>0.13541666666666666</v>
+        <f>+'[5]Financial Model'!$M$30</f>
+        <v>4.2911877394636012E-2</v>
       </c>
       <c r="X8" s="14">
-        <f>+'[6]Financial Model'!$M$23</f>
-        <v>0.23152709359605911</v>
+        <f>+'[5]Financial Model'!$M$31</f>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="Z8" s="14">
-        <f>+'[6]Financial Model'!$M$25</f>
-        <v>5.9797608095676136E-2</v>
+        <f>+'[5]Financial Model'!$M$33</f>
+        <v>0.26453488372093026</v>
       </c>
       <c r="AA8" s="14">
-        <f>+'[6]Financial Model'!$W$25</f>
-        <v>0.1217257318952234</v>
+        <f>+'[5]Financial Model'!$U$33</f>
+        <v>0.41523251556206509</v>
       </c>
       <c r="AB8" s="14">
-        <f>+'[6]Financial Model'!$V$25</f>
-        <v>5.4712892741061836E-2</v>
-      </c>
-      <c r="AC8" s="14">
-        <f>+'[6]Financial Model'!$U$25</f>
-        <v>-2.9952706253284278E-2</v>
+        <f>+'[5]Financial Model'!$T$33</f>
+        <v>0.6017595307917889</v>
       </c>
       <c r="AF8" s="20">
-        <f>+[6]Main!$C$26</f>
-        <v>11565</v>
+        <f>+[5]Main!$C$28</f>
+        <v>5500</v>
       </c>
       <c r="AG8" s="2">
-        <f>+[6]Main!$C$24</f>
-        <v>1981</v>
+        <f>+[5]Main!$C$24</f>
+        <v>2011</v>
       </c>
       <c r="AH8" s="2">
-        <f>+[6]Main!$C$25</f>
-        <v>1989</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>53</v>
+        <f>+[5]Main!$C$25</f>
+        <v>2021</v>
+      </c>
+      <c r="AI8" s="2" t="str">
+        <f>+[5]Main!$C$23</f>
+        <v>Boston, MA</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:38">
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="10">
+        <f>+[6]Main!$C$6*Currencies!C3</f>
+        <v>13.832000000000001</v>
+      </c>
+      <c r="G9" s="8">
+        <f>+[6]Main!$C$7</f>
+        <v>1016</v>
+      </c>
+      <c r="H9" s="8">
+        <f>G9*F9</f>
+        <v>14053.312</v>
+      </c>
+      <c r="I9" s="8">
+        <f>[6]Main!$C$11*Currencies!C3</f>
+        <v>-1029.6000000000001</v>
+      </c>
+      <c r="J9" s="8">
+        <f>H9-I9</f>
+        <v>15082.912</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f>+[6]Main!$C$27</f>
+        <v>H124</v>
+      </c>
+      <c r="L9" s="15">
+        <f>+[6]Main!$D$27</f>
+        <v>45428</v>
+      </c>
+      <c r="Q9" s="12">
+        <f>[6]Main!$C$34</f>
+        <v>9.9358823529411762</v>
+      </c>
+      <c r="R9" s="12">
+        <f>[6]Main!$C$33</f>
+        <v>4.8066874166296127</v>
+      </c>
+      <c r="S9" s="12">
+        <f>+[6]Main!$C$32</f>
+        <v>28.144193739407427</v>
+      </c>
+      <c r="U9" s="14">
+        <f>+'[6]Financial Model'!$M$20</f>
+        <v>0.92881944444444442</v>
+      </c>
+      <c r="V9" s="14">
+        <f>+'[6]Financial Model'!$M$21</f>
+        <v>0.18663194444444445</v>
+      </c>
+      <c r="W9" s="14">
+        <f>+'[6]Financial Model'!$M$22</f>
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="X9" s="14">
+        <f>+'[6]Financial Model'!$M$23</f>
+        <v>0.23152709359605911</v>
+      </c>
+      <c r="Z9" s="14">
+        <f>+'[6]Financial Model'!$M$25</f>
+        <v>5.9797608095676136E-2</v>
+      </c>
+      <c r="AA9" s="14">
+        <f>+'[6]Financial Model'!$W$25</f>
+        <v>0.1217257318952234</v>
+      </c>
+      <c r="AB9" s="14">
+        <f>+'[6]Financial Model'!$V$25</f>
+        <v>5.4712892741061836E-2</v>
+      </c>
+      <c r="AC9" s="14">
+        <f>+'[6]Financial Model'!$U$25</f>
+        <v>-2.9952706253284278E-2</v>
+      </c>
+      <c r="AF9" s="20">
+        <f>+[6]Main!$C$26</f>
+        <v>11565</v>
+      </c>
+      <c r="AG9" s="2">
+        <f>+[6]Main!$C$24</f>
+        <v>1981</v>
+      </c>
+      <c r="AH9" s="2">
+        <f>+[6]Main!$C$25</f>
+        <v>1989</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38">
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F10" s="10">
         <f>+[7]Main!$C$6*Currencies!C3</f>
         <v>4.3290000000000006</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <f>+[7]Main!$C$7</f>
         <v>193.41571500000001</v>
       </c>
-      <c r="H9" s="8">
-        <f>G9*F9</f>
+      <c r="H10" s="8">
+        <f>G10*F10</f>
         <v>837.29663023500018</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10" s="8">
         <f>[7]Main!$C$11*Currencies!D3</f>
         <v>20.227692307692305</v>
       </c>
-      <c r="J9" s="8">
-        <f>H9-I9</f>
+      <c r="J10" s="8">
+        <f>H10-I10</f>
         <v>817.06893792730784</v>
       </c>
-      <c r="K9" s="2" t="str">
+      <c r="K10" s="2" t="str">
         <f>[7]Main!$C$30</f>
         <v>H124</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L10" s="15">
         <f>[7]Main!$D$30</f>
         <v>45559</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q10" s="12">
         <f>+[7]Main!$C$35</f>
         <v>3.1948131495535712</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R10" s="12">
         <f>+[7]Main!$C$36</f>
         <v>2.6442251407476842</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S10" s="12">
         <f>+[7]Main!$C$38</f>
         <v>15.436558542879432</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U10" s="14">
         <f>+'[7]Financial Model'!$F$42</f>
         <v>0.23750000000000002</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V10" s="14">
         <f>+'[7]Financial Model'!$F$43</f>
         <v>7.9166666666666677E-2</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W10" s="14">
         <f>+'[7]Financial Model'!$F$44</f>
         <v>5.2777777777777792E-2</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X10" s="14">
         <f>+'[7]Financial Model'!$F$45</f>
         <v>0.29629629629629622</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Z10" s="14">
         <f>+'[7]Financial Model'!$F$30</f>
         <v>0.61254199328107539</v>
       </c>
-      <c r="AA9" s="14">
+      <c r="AA10" s="14">
         <f>+'[7]Financial Model'!$K$30</f>
         <v>0.41487498602675421</v>
       </c>
-      <c r="AB9" s="14">
+      <c r="AB10" s="14">
         <f>+'[7]Financial Model'!$J$30</f>
         <v>0.33624730593867169</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AF10" s="2">
         <f>+[7]Main!$C$27</f>
         <v>115</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AG10" s="2">
         <f>+[7]Main!$C$24</f>
         <v>2012</v>
       </c>
-      <c r="AH9" s="30">
+      <c r="AH10" s="30">
         <f>+[7]Main!$C$25</f>
         <v>45444</v>
       </c>
-      <c r="AI9" s="2" t="str">
+      <c r="AI10" s="2" t="str">
         <f>[7]Main!$C$23</f>
         <v>Cambridge, UK</v>
       </c>
-      <c r="AK9" s="2" t="s">
+      <c r="AK10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AL10" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:38">
-      <c r="F10" s="10" t="s">
+    <row r="11" spans="2:38">
+      <c r="F11" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="2:38">
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="2:38">
+      <c r="B13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="2" t="str">
+      <c r="K13" s="2" t="str">
         <f>+[8]Main!$C$28</f>
         <v>Q123</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L13" s="15">
         <f>+[8]Main!$D$28</f>
         <v>45055</v>
       </c>
     </row>
-    <row r="15" spans="2:38">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="2:38">
+      <c r="B16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="2:3">
+      <c r="B18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2573,16 +2797,17 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{AFCC0C36-695A-4698-B366-E9445F7B4F63}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{1AA14988-C4F2-405C-BA9D-FBCA3DA35146}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{6E23CD56-40A8-49B9-8695-A01CE41D946F}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{3859F738-BD99-4DD5-8721-EF043945682D}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{1AA14988-C4F2-405C-BA9D-FBCA3DA35146}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{6E23CD56-40A8-49B9-8695-A01CE41D946F}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{3859F738-BD99-4DD5-8721-EF043945682D}"/>
     <hyperlink ref="B4" r:id="rId8" xr:uid="{7B052CC6-304F-47CB-A888-07413A5C714D}"/>
+    <hyperlink ref="B5" r:id="rId9" xr:uid="{383539A3-A008-4138-9E99-F152484C7F66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A103F3-80B3-469D-9650-44F03840EE0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A391C1D1-79A9-4B9C-9B24-68E4F44FCE6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="570" windowWidth="27165" windowHeight="14100" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>Ticker</t>
   </si>
@@ -283,6 +284,18 @@
   </si>
   <si>
     <t>SaaS Data Storage</t>
+  </si>
+  <si>
+    <t>$ESTC</t>
+  </si>
+  <si>
+    <t>Elastic NV</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>AI powered search</t>
   </si>
 </sst>
 </file>
@@ -630,6 +643,86 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>93.15</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>102.284435</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>9527.7951202500008</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>578.44299999999998</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>8949.3521202500015</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>Q125</v>
+          </cell>
+          <cell r="D29">
+            <v>45524</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>12.550196094773931</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="29">
+          <cell r="K29">
+            <v>0.73589027689827868</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="K30">
+            <v>-9.7397962120775908E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="K31">
+            <v>-0.141693051637787</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="K32">
+            <v>-0.68840032926327432</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="K34">
+            <v>0.18269430439859335</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -759,123 +852,106 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
-      <sheetName val="Metrics"/>
-      <sheetName val="Earnings Call Notes"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>51.68</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>San Mateo, CA</v>
+            <v>130.24</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>641.81399999999996</v>
-          </cell>
-          <cell r="G7">
-            <v>2021</v>
+            <v>334.07100000000003</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>33168.947520000002</v>
-          </cell>
-          <cell r="G8">
-            <v>2004</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9">
-            <v>79.5</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>2457</v>
+            <v>43509.407040000006</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>2595.5510000000004</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>Q324</v>
-          </cell>
-          <cell r="H11">
-            <v>45596</v>
+            <v>3927.913</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>30573.396520000002</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="G16">
-            <v>523.51896884519317</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="G17">
-            <v>11.261920977309074</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="G18">
-            <v>-27.750520841528012</v>
+            <v>39581.494040000005</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Bozeman, MT</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>7630</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>Q224</v>
+          </cell>
+          <cell r="D29">
+            <v>45533</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>10.51564511498003</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>13.569715649610261</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="22">
-          <cell r="T22">
-            <v>0.77778685524927171</v>
-          </cell>
-          <cell r="AX22">
-            <v>0.09</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="T23">
-            <v>-0.26629832028229189</v>
+        <row r="21">
+          <cell r="L21">
+            <v>0.28895667474755871</v>
+          </cell>
+          <cell r="W21">
+            <v>0.69409764566847132</v>
+          </cell>
+          <cell r="X21">
+            <v>0.35864099544019612</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="T24">
-            <v>-0.23188027884500237</v>
+          <cell r="L24">
+            <v>0.66841087502014318</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="T25">
-            <v>-5.311828476229569E-4</v>
+          <cell r="L25">
+            <v>-0.40901724257004091</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="AX26">
-            <v>71.486963060421459</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="T28">
-            <v>0.31255526862387373</v>
-          </cell>
-          <cell r="AE28">
-            <v>1.0772942519902369</v>
-          </cell>
-          <cell r="AF28">
-            <v>0.15937579623808262</v>
-          </cell>
-          <cell r="AX28">
-            <v>0.38326166912580217</v>
+          <cell r="L26">
+            <v>-0.36581528119892281</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="L27">
+            <v>-1.2056288153566408E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -887,100 +963,123 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+      <sheetName val="Metrics"/>
+      <sheetName val="Earnings Call Notes"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>129.71</v>
+            <v>51.68</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>San Mateo, CA</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>169.16992200000001</v>
+            <v>641.81399999999996</v>
+          </cell>
+          <cell r="G7">
+            <v>2021</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>21943.030582620002</v>
+            <v>33168.947520000002</v>
+          </cell>
+          <cell r="G8">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9">
+            <v>79.5</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>2457</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>1744.9669999999999</v>
+            <v>2595.5510000000004</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>Q324</v>
+          </cell>
+          <cell r="H11">
+            <v>45596</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>20198.063582620001</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>San Fransisco, CA</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>2005</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>2024</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>97.2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>2013</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>Q324</v>
-          </cell>
-          <cell r="D32">
-            <v>45594</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>11.095743232541535</v>
+            <v>30573.396520000002</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="G16">
+            <v>523.51896884519317</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17">
+            <v>11.261920977309074</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="G18">
+            <v>-27.750520841528012</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="18">
-          <cell r="I18">
-            <v>0.90049404192897387</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19">
-            <v>1.9589437090750374E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20">
-            <v>8.5611925902322611E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21">
-            <v>-1.0405477980665956E-3</v>
+        <row r="22">
+          <cell r="T22">
+            <v>0.77778685524927171</v>
+          </cell>
+          <cell r="AX22">
+            <v>0.09</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="T23">
+            <v>-0.26629832028229189</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="I24">
-            <v>0.67873527767604136</v>
+          <cell r="T24">
+            <v>-0.23188027884500237</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="T25">
+            <v>-5.311828476229569E-4</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AX26">
+            <v>71.486963060421459</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="T28">
+            <v>0.31255526862387373</v>
+          </cell>
+          <cell r="AE28">
+            <v>1.0772942519902369</v>
+          </cell>
+          <cell r="AF28">
+            <v>0.15937579623808262</v>
+          </cell>
+          <cell r="AX28">
+            <v>0.38326166912580217</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -997,98 +1096,92 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>36.5</v>
+            <v>129.71</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>563</v>
+            <v>169.16992200000001</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>20549.5</v>
+            <v>21943.030582620002</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>1272</v>
+            <v>1744.9669999999999</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>19277.5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Boston, MA</v>
+            <v>20198.063582620001</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="C24">
-            <v>2011</v>
+          <cell r="C24" t="str">
+            <v>San Fransisco, CA</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>2021</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>5500</v>
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>2024</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>97.2</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="C30" t="str">
+          <cell r="C30">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
             <v>Q324</v>
           </cell>
-          <cell r="D30">
-            <v>45603</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>14.471478873239437</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>4.4116573636753973</v>
+          <cell r="D32">
+            <v>45594</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>11.095743232541535</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="28">
-          <cell r="M28">
-            <v>0.24674329501915709</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="M29">
-            <v>2.6053639846743294E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="M30">
-            <v>4.2911877394636012E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="M31">
-            <v>1.7543859649122806E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="M33">
-            <v>0.26453488372093026</v>
-          </cell>
-          <cell r="T33">
-            <v>0.6017595307917889</v>
-          </cell>
-          <cell r="U33">
-            <v>0.41523251556206509</v>
+        <row r="18">
+          <cell r="I18">
+            <v>0.90049404192897387</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19">
+            <v>1.9589437090750374E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20">
+            <v>8.5611925902322611E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21">
+            <v>-1.0405477980665956E-3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="I24">
+            <v>0.67873527767604136</v>
           </cell>
         </row>
       </sheetData>
@@ -1108,91 +1201,98 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>10.64</v>
+            <v>36.5</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>1016</v>
+            <v>563</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>20549.5</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>-792</v>
+            <v>1272</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>19277.5</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Boston, MA</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>1981</v>
+            <v>2011</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>1989</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>11565</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>H124</v>
-          </cell>
-          <cell r="D27">
-            <v>45428</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>28.144193739407427</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>4.8066874166296127</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>9.9358823529411762</v>
+            <v>2021</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>5500</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>Q324</v>
+          </cell>
+          <cell r="D30">
+            <v>45603</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>14.471478873239437</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>4.4116573636753973</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="20">
-          <cell r="M20">
-            <v>0.92881944444444442</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="M21">
-            <v>0.18663194444444445</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="M22">
-            <v>0.13541666666666666</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="M23">
-            <v>0.23152709359605911</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="M25">
-            <v>5.9797608095676136E-2</v>
-          </cell>
-          <cell r="U25">
-            <v>-2.9952706253284278E-2</v>
-          </cell>
-          <cell r="V25">
-            <v>5.4712892741061836E-2</v>
-          </cell>
-          <cell r="W25">
-            <v>0.1217257318952234</v>
+        <row r="28">
+          <cell r="M28">
+            <v>0.24674329501915709</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="M29">
+            <v>2.6053639846743294E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="M30">
+            <v>4.2911877394636012E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="M31">
+            <v>1.7543859649122806E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="M33">
+            <v>0.26453488372093026</v>
+          </cell>
+          <cell r="T33">
+            <v>0.6017595307917889</v>
+          </cell>
+          <cell r="U33">
+            <v>0.41523251556206509</v>
           </cell>
         </row>
       </sheetData>
@@ -1207,99 +1307,97 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
-      <sheetName val="Data Visualisation"/>
+      <sheetName val="Historical Forecast"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>3.33</v>
+            <v>12.69</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>193.41571500000001</v>
+            <v>1007</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>26.295999999999999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Cambridge, UK</v>
+            <v>-703</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>2012</v>
+            <v>1981</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>45444</v>
+            <v>1989</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>11565</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="C27">
-            <v>115</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>H124</v>
-          </cell>
-          <cell r="D30">
-            <v>45559</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>3.1948131495535712</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>2.6442251407476842</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>15.436558542879432</v>
+          <cell r="C27" t="str">
+            <v>FY24</v>
+          </cell>
+          <cell r="D27">
+            <v>45616</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>39.562941176470588</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>5.479772727272727</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>11.691518755718205</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="30">
-          <cell r="F30">
-            <v>0.61254199328107539</v>
-          </cell>
-          <cell r="J30">
-            <v>0.33624730593867169</v>
-          </cell>
-          <cell r="K30">
-            <v>0.41487498602675421</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="F42">
-            <v>0.23750000000000002</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43">
-            <v>7.9166666666666677E-2</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44">
-            <v>5.2777777777777792E-2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45">
-            <v>0.29629629629629622</v>
+        <row r="20">
+          <cell r="X20">
+            <v>0.92795883361921094</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="X21">
+            <v>0.19382504288164665</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="X22">
+            <v>0.13850771869639794</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="X23">
+            <v>0.24178403755868544</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="U25">
+            <v>-2.9952706253284278E-2</v>
+          </cell>
+          <cell r="V25">
+            <v>5.4712892741061836E-2</v>
+          </cell>
+          <cell r="W25">
+            <v>0.1217257318952234</v>
+          </cell>
+          <cell r="X25">
+            <v>6.7765567765567747E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1315,23 +1413,103 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
-      <sheetName val="Historical Projections"/>
-      <sheetName val="Price History"/>
+      <sheetName val="Data Visualisation"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>Q123</v>
-          </cell>
-          <cell r="D28">
-            <v>45055</v>
+        <row r="6">
+          <cell r="C6">
+            <v>3.33</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>193.41571500000001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>26.295999999999999</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Cambridge, UK</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>45444</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>H124</v>
+          </cell>
+          <cell r="D30">
+            <v>45559</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>3.1948131495535712</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>2.6442251407476842</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>15.436558542879432</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="30">
+          <cell r="F30">
+            <v>0.61254199328107539</v>
+          </cell>
+          <cell r="J30">
+            <v>0.33624730593867169</v>
+          </cell>
+          <cell r="K30">
+            <v>0.41487498602675421</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="F42">
+            <v>0.23750000000000002</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="F43">
+            <v>7.9166666666666677E-2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="F44">
+            <v>5.2777777777777792E-2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="F45">
+            <v>0.29629629629629622</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1343,106 +1521,23 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+      <sheetName val="Historical Projections"/>
+      <sheetName val="Price History"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>130.24</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>334.07100000000003</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>43509.407040000006</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>3927.913</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>39581.494040000005</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Bozeman, MT</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>2012</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>2020</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>7630</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>Q224</v>
-          </cell>
-          <cell r="D29">
-            <v>45533</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>10.51564511498003</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>13.569715649610261</v>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>Q123</v>
+          </cell>
+          <cell r="D28">
+            <v>45055</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="21">
-          <cell r="L21">
-            <v>0.28895667474755871</v>
-          </cell>
-          <cell r="W21">
-            <v>0.69409764566847132</v>
-          </cell>
-          <cell r="X21">
-            <v>0.35864099544019612</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="L24">
-            <v>0.66841087502014318</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="L25">
-            <v>-0.40901724257004091</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="L26">
-            <v>-0.36581528119892281</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="L27">
-            <v>-1.2056288153566408E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1745,13 +1840,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B533DC-5A31-4AB0-80D6-BD84B319883E}">
-  <dimension ref="B1:AL18"/>
+  <dimension ref="B1:AL19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2133,83 +2228,83 @@
         <v>33</v>
       </c>
       <c r="F5" s="10">
-        <f>+[9]Main!$C$6</f>
+        <f>+[3]Main!$C$6</f>
         <v>130.24</v>
       </c>
       <c r="G5" s="8">
-        <f>+[9]Main!$C$7</f>
+        <f>+[3]Main!$C$7</f>
         <v>334.07100000000003</v>
       </c>
       <c r="H5" s="8">
-        <f>+[9]Main!$C$8</f>
+        <f>+[3]Main!$C$8</f>
         <v>43509.407040000006</v>
       </c>
       <c r="I5" s="8">
-        <f>+[9]Main!$C$11</f>
+        <f>+[3]Main!$C$11</f>
         <v>3927.913</v>
       </c>
       <c r="J5" s="8">
-        <f>+[9]Main!$C$12</f>
+        <f>+[3]Main!$C$12</f>
         <v>39581.494040000005</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f>+[9]Main!$C$29</f>
+        <f>+[3]Main!$C$29</f>
         <v>Q224</v>
       </c>
       <c r="L5" s="15">
-        <f>+[9]Main!$D$29</f>
+        <f>+[3]Main!$D$29</f>
         <v>45533</v>
       </c>
       <c r="Q5" s="12">
-        <f>+[9]Main!$C$34</f>
+        <f>+[3]Main!$C$34</f>
         <v>10.51564511498003</v>
       </c>
       <c r="R5" s="12">
-        <f>+[9]Main!$C$35</f>
+        <f>+[3]Main!$C$35</f>
         <v>13.569715649610261</v>
       </c>
       <c r="U5" s="14">
-        <f>+'[9]Financial Model'!$L$24</f>
+        <f>+'[3]Financial Model'!$L$24</f>
         <v>0.66841087502014318</v>
       </c>
       <c r="V5" s="14">
-        <f>+'[9]Financial Model'!$L$25</f>
+        <f>+'[3]Financial Model'!$L$25</f>
         <v>-0.40901724257004091</v>
       </c>
       <c r="W5" s="14">
-        <f>+'[9]Financial Model'!$L$26</f>
+        <f>+'[3]Financial Model'!$L$26</f>
         <v>-0.36581528119892281</v>
       </c>
       <c r="X5" s="14">
-        <f>+'[9]Financial Model'!$L$27</f>
+        <f>+'[3]Financial Model'!$L$27</f>
         <v>-1.2056288153566408E-2</v>
       </c>
       <c r="Z5" s="14">
-        <f>+'[9]Financial Model'!$L$21</f>
+        <f>+'[3]Financial Model'!$L$21</f>
         <v>0.28895667474755871</v>
       </c>
       <c r="AA5" s="14">
-        <f>+'[9]Financial Model'!$X$21</f>
+        <f>+'[3]Financial Model'!$X$21</f>
         <v>0.35864099544019612</v>
       </c>
       <c r="AB5" s="14">
-        <f>+'[9]Financial Model'!$W$21</f>
+        <f>+'[3]Financial Model'!$W$21</f>
         <v>0.69409764566847132</v>
       </c>
       <c r="AF5" s="20">
-        <f>+[9]Main!$C$27</f>
+        <f>+[3]Main!$C$27</f>
         <v>7630</v>
       </c>
       <c r="AG5" s="2">
-        <f>+[9]Main!$C$24</f>
+        <f>+[3]Main!$C$24</f>
         <v>2012</v>
       </c>
       <c r="AH5" s="2">
-        <f>+[9]Main!$C$25</f>
+        <f>+[3]Main!$C$25</f>
         <v>2020</v>
       </c>
       <c r="AI5" s="2" t="str">
-        <f>+[9]Main!$C$23</f>
+        <f>+[3]Main!$C$23</f>
         <v>Bozeman, MT</v>
       </c>
       <c r="AK5" s="2" t="s">
@@ -2233,104 +2328,104 @@
         <v>33</v>
       </c>
       <c r="F6" s="10">
-        <f>+[3]Main!$C$6</f>
+        <f>+[4]Main!$C$6</f>
         <v>51.68</v>
       </c>
       <c r="G6" s="8">
-        <f>+[3]Main!$C$7</f>
+        <f>+[4]Main!$C$7</f>
         <v>641.81399999999996</v>
       </c>
       <c r="H6" s="8">
-        <f>+[3]Main!$C$8</f>
+        <f>+[4]Main!$C$8</f>
         <v>33168.947520000002</v>
       </c>
       <c r="I6" s="8">
-        <f>+[3]Main!$C$11</f>
+        <f>+[4]Main!$C$11</f>
         <v>2595.5510000000004</v>
       </c>
       <c r="J6" s="8">
-        <f>+[3]Main!$C$12</f>
+        <f>+[4]Main!$C$12</f>
         <v>30573.396520000002</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f>+[3]Main!$G$11</f>
+        <f>+[4]Main!$G$11</f>
         <v>Q324</v>
       </c>
       <c r="L6" s="15">
-        <f>+[3]Main!$H$11</f>
+        <f>+[4]Main!$H$11</f>
         <v>45596</v>
       </c>
       <c r="M6" s="22">
-        <f>+'[3]Financial Model'!$AX$26</f>
+        <f>+'[4]Financial Model'!$AX$26</f>
         <v>71.486963060421459</v>
       </c>
       <c r="N6" s="18">
-        <f>+'[3]Financial Model'!$AX$28</f>
+        <f>+'[4]Financial Model'!$AX$28</f>
         <v>0.38326166912580217</v>
       </c>
       <c r="O6" s="18">
-        <f>+'[3]Financial Model'!$AX$22</f>
+        <f>+'[4]Financial Model'!$AX$22</f>
         <v>0.09</v>
       </c>
       <c r="Q6" s="12">
-        <f>+[3]Main!$G$16</f>
+        <f>+[4]Main!$G$16</f>
         <v>523.51896884519317</v>
       </c>
       <c r="R6" s="12">
-        <f>+[3]Main!$G$17</f>
+        <f>+[4]Main!$G$17</f>
         <v>11.261920977309074</v>
       </c>
       <c r="S6" s="12">
-        <f>+[3]Main!$G$18</f>
+        <f>+[4]Main!$G$18</f>
         <v>-27.750520841528012</v>
       </c>
       <c r="U6" s="14">
-        <f>+'[3]Financial Model'!$T$22</f>
+        <f>+'[4]Financial Model'!$T$22</f>
         <v>0.77778685524927171</v>
       </c>
       <c r="V6" s="14">
-        <f>+'[3]Financial Model'!$T$23</f>
+        <f>+'[4]Financial Model'!$T$23</f>
         <v>-0.26629832028229189</v>
       </c>
       <c r="W6" s="14">
-        <f>+'[3]Financial Model'!$T$24</f>
+        <f>+'[4]Financial Model'!$T$24</f>
         <v>-0.23188027884500237</v>
       </c>
       <c r="X6" s="14">
-        <f>+'[3]Financial Model'!$T$25</f>
+        <f>+'[4]Financial Model'!$T$25</f>
         <v>-5.311828476229569E-4</v>
       </c>
       <c r="Z6" s="14">
-        <f>+'[3]Financial Model'!$T$28</f>
+        <f>+'[4]Financial Model'!$T$28</f>
         <v>0.31255526862387373</v>
       </c>
       <c r="AA6" s="14"/>
       <c r="AB6" s="14">
-        <f>+'[3]Financial Model'!$AF$28</f>
+        <f>+'[4]Financial Model'!$AF$28</f>
         <v>0.15937579623808262</v>
       </c>
       <c r="AC6" s="14">
-        <f>+'[3]Financial Model'!$AE$28</f>
+        <f>+'[4]Financial Model'!$AE$28</f>
         <v>1.0772942519902369</v>
       </c>
       <c r="AE6" s="20">
-        <f>+[3]Main!$G$9</f>
+        <f>+[4]Main!$G$9</f>
         <v>79.5</v>
       </c>
       <c r="AF6" s="20">
-        <f>+[3]Main!$G$10</f>
+        <f>+[4]Main!$G$10</f>
         <v>2457</v>
       </c>
       <c r="AG6" s="2">
-        <f>+[3]Main!$G$8</f>
+        <f>+[4]Main!$G$8</f>
         <v>2004</v>
       </c>
       <c r="AH6" s="2">
-        <f>+[3]Main!$G$7</f>
+        <f>+[4]Main!$G$7</f>
         <v>2021</v>
       </c>
       <c r="AI6" s="2" t="str">
-        <f>+[3]Main!$G$6</f>
+        <f>+[4]Main!$G$6</f>
         <v>San Mateo, CA</v>
       </c>
       <c r="AK6" s="2" t="s">
@@ -2354,55 +2449,55 @@
         <v>33</v>
       </c>
       <c r="F7" s="10">
-        <f>+[4]Main!$C$6</f>
+        <f>+[5]Main!$C$6</f>
         <v>129.71</v>
       </c>
       <c r="G7" s="8">
-        <f>+[4]Main!$C$7</f>
+        <f>+[5]Main!$C$7</f>
         <v>169.16992200000001</v>
       </c>
       <c r="H7" s="8">
-        <f>+[4]Main!$C$8</f>
+        <f>+[5]Main!$C$8</f>
         <v>21943.030582620002</v>
       </c>
       <c r="I7" s="8">
-        <f>+[4]Main!$C$11</f>
+        <f>+[5]Main!$C$11</f>
         <v>1744.9669999999999</v>
       </c>
       <c r="J7" s="8">
-        <f>+[4]Main!$C$12</f>
+        <f>+[5]Main!$C$12</f>
         <v>20198.063582620001</v>
       </c>
       <c r="K7" s="2" t="str">
-        <f>+[4]Main!$C$32</f>
+        <f>+[5]Main!$C$32</f>
         <v>Q324</v>
       </c>
       <c r="L7" s="15">
-        <f>+[4]Main!$D$32</f>
+        <f>+[5]Main!$D$32</f>
         <v>45594</v>
       </c>
       <c r="Q7" s="12">
-        <f>+[4]Main!$C$37</f>
+        <f>+[5]Main!$C$37</f>
         <v>11.095743232541535</v>
       </c>
       <c r="U7" s="14">
-        <f>+'[4]Financial Model'!$I$18</f>
+        <f>+'[5]Financial Model'!$I$18</f>
         <v>0.90049404192897387</v>
       </c>
       <c r="V7" s="14">
-        <f>+'[4]Financial Model'!$I$19</f>
+        <f>+'[5]Financial Model'!$I$19</f>
         <v>1.9589437090750374E-2</v>
       </c>
       <c r="W7" s="14">
-        <f>+'[4]Financial Model'!$I$20</f>
+        <f>+'[5]Financial Model'!$I$20</f>
         <v>8.5611925902322611E-2</v>
       </c>
       <c r="X7" s="14">
-        <f>+'[4]Financial Model'!$I$21</f>
+        <f>+'[5]Financial Model'!$I$21</f>
         <v>-1.0405477980665956E-3</v>
       </c>
       <c r="Z7" s="14">
-        <f>+'[4]Financial Model'!$I$24</f>
+        <f>+'[5]Financial Model'!$I$24</f>
         <v>0.67873527767604136</v>
       </c>
       <c r="AB7" s="2" t="s">
@@ -2412,23 +2507,23 @@
         <v>46</v>
       </c>
       <c r="AE7" s="20">
-        <f>+[4]Main!$C$29</f>
+        <f>+[5]Main!$C$29</f>
         <v>97.2</v>
       </c>
       <c r="AF7" s="20">
-        <f>+[4]Main!$C$30</f>
+        <f>+[5]Main!$C$30</f>
         <v>2013</v>
       </c>
       <c r="AG7" s="2">
-        <f>+[4]Main!$C$25</f>
+        <f>+[5]Main!$C$25</f>
         <v>2005</v>
       </c>
       <c r="AH7" s="2">
-        <f>+[4]Main!$C$26</f>
+        <f>+[5]Main!$C$26</f>
         <v>2024</v>
       </c>
       <c r="AI7" s="2" t="str">
-        <f>+[4]Main!$C$24</f>
+        <f>+[5]Main!$C$24</f>
         <v>San Fransisco, CA</v>
       </c>
       <c r="AK7" s="2" t="s">
@@ -2452,83 +2547,83 @@
         <v>33</v>
       </c>
       <c r="F8" s="10">
-        <f>+[5]Main!$C$6</f>
+        <f>+[6]Main!$C$6</f>
         <v>36.5</v>
       </c>
       <c r="G8" s="8">
-        <f>+[5]Main!$C$7</f>
+        <f>+[6]Main!$C$7</f>
         <v>563</v>
       </c>
       <c r="H8" s="8">
-        <f>+[5]Main!$C$8</f>
+        <f>+[6]Main!$C$8</f>
         <v>20549.5</v>
       </c>
       <c r="I8" s="8">
-        <f>+[5]Main!$C$11</f>
+        <f>+[6]Main!$C$11</f>
         <v>1272</v>
       </c>
       <c r="J8" s="8">
-        <f>+[5]Main!$C$12</f>
+        <f>+[6]Main!$C$12</f>
         <v>19277.5</v>
       </c>
       <c r="K8" s="2" t="str">
-        <f>+[5]Main!$C$30</f>
+        <f>+[6]Main!$C$30</f>
         <v>Q324</v>
       </c>
       <c r="L8" s="15">
-        <f>+[5]Main!$D$30</f>
+        <f>+[6]Main!$D$30</f>
         <v>45603</v>
       </c>
       <c r="Q8" s="12">
-        <f>+[5]Main!$C$35</f>
+        <f>+[6]Main!$C$35</f>
         <v>14.471478873239437</v>
       </c>
       <c r="R8" s="12">
-        <f>+[5]Main!$C$36</f>
+        <f>+[6]Main!$C$36</f>
         <v>4.4116573636753973</v>
       </c>
       <c r="U8" s="14">
-        <f>+'[5]Financial Model'!$M$28</f>
+        <f>+'[6]Financial Model'!$M$28</f>
         <v>0.24674329501915709</v>
       </c>
       <c r="V8" s="14">
-        <f>+'[5]Financial Model'!$M$29</f>
+        <f>+'[6]Financial Model'!$M$29</f>
         <v>2.6053639846743294E-2</v>
       </c>
       <c r="W8" s="14">
-        <f>+'[5]Financial Model'!$M$30</f>
+        <f>+'[6]Financial Model'!$M$30</f>
         <v>4.2911877394636012E-2</v>
       </c>
       <c r="X8" s="14">
-        <f>+'[5]Financial Model'!$M$31</f>
+        <f>+'[6]Financial Model'!$M$31</f>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="Z8" s="14">
-        <f>+'[5]Financial Model'!$M$33</f>
+        <f>+'[6]Financial Model'!$M$33</f>
         <v>0.26453488372093026</v>
       </c>
       <c r="AA8" s="14">
-        <f>+'[5]Financial Model'!$U$33</f>
+        <f>+'[6]Financial Model'!$U$33</f>
         <v>0.41523251556206509</v>
       </c>
       <c r="AB8" s="14">
-        <f>+'[5]Financial Model'!$T$33</f>
+        <f>+'[6]Financial Model'!$T$33</f>
         <v>0.6017595307917889</v>
       </c>
       <c r="AF8" s="20">
-        <f>+[5]Main!$C$28</f>
+        <f>+[6]Main!$C$28</f>
         <v>5500</v>
       </c>
       <c r="AG8" s="2">
-        <f>+[5]Main!$C$24</f>
+        <f>+[6]Main!$C$24</f>
         <v>2011</v>
       </c>
       <c r="AH8" s="2">
-        <f>+[5]Main!$C$25</f>
+        <f>+[6]Main!$C$25</f>
         <v>2021</v>
       </c>
       <c r="AI8" s="2" t="str">
-        <f>+[5]Main!$C$23</f>
+        <f>+[6]Main!$C$23</f>
         <v>Boston, MA</v>
       </c>
       <c r="AL8" s="2" t="s">
@@ -2549,87 +2644,87 @@
         <v>51</v>
       </c>
       <c r="F9" s="10">
-        <f>+[6]Main!$C$6*Currencies!C3</f>
-        <v>13.832000000000001</v>
+        <f>+[7]Main!$C$6*Currencies!C3</f>
+        <v>16.497</v>
       </c>
       <c r="G9" s="8">
-        <f>+[6]Main!$C$7</f>
-        <v>1016</v>
+        <f>+[7]Main!$C$7</f>
+        <v>1007</v>
       </c>
       <c r="H9" s="8">
         <f>G9*F9</f>
-        <v>14053.312</v>
+        <v>16612.478999999999</v>
       </c>
       <c r="I9" s="8">
-        <f>[6]Main!$C$11*Currencies!C3</f>
-        <v>-1029.6000000000001</v>
+        <f>[7]Main!$C$11*Currencies!C3</f>
+        <v>-913.9</v>
       </c>
       <c r="J9" s="8">
         <f>H9-I9</f>
-        <v>15082.912</v>
+        <v>17526.379000000001</v>
       </c>
       <c r="K9" s="2" t="str">
-        <f>+[6]Main!$C$27</f>
-        <v>H124</v>
+        <f>+[7]Main!$C$27</f>
+        <v>FY24</v>
       </c>
       <c r="L9" s="15">
-        <f>+[6]Main!$D$27</f>
-        <v>45428</v>
+        <f>+[7]Main!$D$27</f>
+        <v>45616</v>
       </c>
       <c r="Q9" s="12">
-        <f>[6]Main!$C$34</f>
-        <v>9.9358823529411762</v>
+        <f>[7]Main!$C$34</f>
+        <v>11.691518755718205</v>
       </c>
       <c r="R9" s="12">
-        <f>[6]Main!$C$33</f>
-        <v>4.8066874166296127</v>
+        <f>[7]Main!$C$33</f>
+        <v>5.479772727272727</v>
       </c>
       <c r="S9" s="12">
-        <f>+[6]Main!$C$32</f>
-        <v>28.144193739407427</v>
+        <f>+[7]Main!$C$32</f>
+        <v>39.562941176470588</v>
       </c>
       <c r="U9" s="14">
-        <f>+'[6]Financial Model'!$M$20</f>
-        <v>0.92881944444444442</v>
+        <f>+'[7]Financial Model'!$X$20</f>
+        <v>0.92795883361921094</v>
       </c>
       <c r="V9" s="14">
-        <f>+'[6]Financial Model'!$M$21</f>
-        <v>0.18663194444444445</v>
+        <f>+'[7]Financial Model'!$X$21</f>
+        <v>0.19382504288164665</v>
       </c>
       <c r="W9" s="14">
-        <f>+'[6]Financial Model'!$M$22</f>
-        <v>0.13541666666666666</v>
+        <f>+'[7]Financial Model'!$X$22</f>
+        <v>0.13850771869639794</v>
       </c>
       <c r="X9" s="14">
-        <f>+'[6]Financial Model'!$M$23</f>
-        <v>0.23152709359605911</v>
+        <f>+'[7]Financial Model'!$X$23</f>
+        <v>0.24178403755868544</v>
       </c>
       <c r="Z9" s="14">
-        <f>+'[6]Financial Model'!$M$25</f>
-        <v>5.9797608095676136E-2</v>
+        <f>+'[7]Financial Model'!$X$25</f>
+        <v>6.7765567765567747E-2</v>
       </c>
       <c r="AA9" s="14">
-        <f>+'[6]Financial Model'!$W$25</f>
+        <f>+'[7]Financial Model'!$W$25</f>
         <v>0.1217257318952234</v>
       </c>
       <c r="AB9" s="14">
-        <f>+'[6]Financial Model'!$V$25</f>
+        <f>+'[7]Financial Model'!$V$25</f>
         <v>5.4712892741061836E-2</v>
       </c>
       <c r="AC9" s="14">
-        <f>+'[6]Financial Model'!$U$25</f>
+        <f>+'[7]Financial Model'!$U$25</f>
         <v>-2.9952706253284278E-2</v>
       </c>
       <c r="AF9" s="20">
-        <f>+[6]Main!$C$26</f>
+        <f>+[7]Main!$C$26</f>
         <v>11565</v>
       </c>
       <c r="AG9" s="2">
-        <f>+[6]Main!$C$24</f>
+        <f>+[7]Main!$C$24</f>
         <v>1981</v>
       </c>
       <c r="AH9" s="2">
-        <f>+[6]Main!$C$25</f>
+        <f>+[7]Main!$C$25</f>
         <v>1989</v>
       </c>
       <c r="AI9" s="2" t="s">
@@ -2644,148 +2739,224 @@
     </row>
     <row r="10" spans="2:38">
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="10">
-        <f>+[7]Main!$C$6*Currencies!C3</f>
-        <v>4.3290000000000006</v>
+        <f>+[10]Main!$C$6</f>
+        <v>93.15</v>
       </c>
       <c r="G10" s="8">
-        <f>+[7]Main!$C$7</f>
-        <v>193.41571500000001</v>
+        <f>+[10]Main!$C$7</f>
+        <v>102.284435</v>
       </c>
       <c r="H10" s="8">
-        <f>G10*F10</f>
-        <v>837.29663023500018</v>
+        <f>+[10]Main!$C$8</f>
+        <v>9527.7951202500008</v>
       </c>
       <c r="I10" s="8">
-        <f>[7]Main!$C$11*Currencies!D3</f>
-        <v>20.227692307692305</v>
+        <f>+[10]Main!$C$11</f>
+        <v>578.44299999999998</v>
       </c>
       <c r="J10" s="8">
-        <f>H10-I10</f>
-        <v>817.06893792730784</v>
-      </c>
-      <c r="K10" s="2" t="str">
-        <f>[7]Main!$C$30</f>
-        <v>H124</v>
+        <f>+[10]Main!$C$12</f>
+        <v>8949.3521202500015</v>
+      </c>
+      <c r="K10" s="20" t="str">
+        <f>+[10]Main!$C$29</f>
+        <v>Q125</v>
       </c>
       <c r="L10" s="15">
-        <f>[7]Main!$D$30</f>
-        <v>45559</v>
+        <f>+[10]Main!$D$29</f>
+        <v>45524</v>
       </c>
       <c r="Q10" s="12">
-        <f>+[7]Main!$C$35</f>
-        <v>3.1948131495535712</v>
-      </c>
-      <c r="R10" s="12">
-        <f>+[7]Main!$C$36</f>
-        <v>2.6442251407476842</v>
-      </c>
-      <c r="S10" s="12">
-        <f>+[7]Main!$C$38</f>
-        <v>15.436558542879432</v>
+        <f>+[10]Main!$C$34</f>
+        <v>12.550196094773931</v>
       </c>
       <c r="U10" s="14">
-        <f>+'[7]Financial Model'!$F$42</f>
-        <v>0.23750000000000002</v>
+        <f>+'[10]Financial Model'!$K$29</f>
+        <v>0.73589027689827868</v>
       </c>
       <c r="V10" s="14">
-        <f>+'[7]Financial Model'!$F$43</f>
-        <v>7.9166666666666677E-2</v>
+        <f>+'[10]Financial Model'!$K$30</f>
+        <v>-9.7397962120775908E-2</v>
       </c>
       <c r="W10" s="14">
-        <f>+'[7]Financial Model'!$F$44</f>
-        <v>5.2777777777777792E-2</v>
+        <f>+'[10]Financial Model'!$K$31</f>
+        <v>-0.141693051637787</v>
       </c>
       <c r="X10" s="14">
-        <f>+'[7]Financial Model'!$F$45</f>
-        <v>0.29629629629629622</v>
+        <f>+'[10]Financial Model'!$K$32</f>
+        <v>-0.68840032926327432</v>
       </c>
       <c r="Z10" s="14">
-        <f>+'[7]Financial Model'!$F$30</f>
-        <v>0.61254199328107539</v>
-      </c>
-      <c r="AA10" s="14">
-        <f>+'[7]Financial Model'!$K$30</f>
-        <v>0.41487498602675421</v>
-      </c>
-      <c r="AB10" s="14">
-        <f>+'[7]Financial Model'!$J$30</f>
-        <v>0.33624730593867169</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF10" s="2">
-        <f>+[7]Main!$C$27</f>
-        <v>115</v>
-      </c>
-      <c r="AG10" s="2">
-        <f>+[7]Main!$C$24</f>
-        <v>2012</v>
-      </c>
-      <c r="AH10" s="30">
-        <f>+[7]Main!$C$25</f>
-        <v>45444</v>
-      </c>
-      <c r="AI10" s="2" t="str">
-        <f>[7]Main!$C$23</f>
-        <v>Cambridge, UK</v>
-      </c>
+        <f>+'[10]Financial Model'!$K$34</f>
+        <v>0.18269430439859335</v>
+      </c>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AF10" s="20"/>
       <c r="AK10" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:38">
-      <c r="F11" s="10" t="s">
+      <c r="B11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10">
+        <f>+[8]Main!$C$6*Currencies!C3</f>
+        <v>4.3290000000000006</v>
+      </c>
+      <c r="G11" s="8">
+        <f>+[8]Main!$C$7</f>
+        <v>193.41571500000001</v>
+      </c>
+      <c r="H11" s="8">
+        <f>G11*F11</f>
+        <v>837.29663023500018</v>
+      </c>
+      <c r="I11" s="8">
+        <f>[8]Main!$C$11*Currencies!D3</f>
+        <v>20.227692307692305</v>
+      </c>
+      <c r="J11" s="8">
+        <f>H11-I11</f>
+        <v>817.06893792730784</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f>[8]Main!$C$30</f>
+        <v>H124</v>
+      </c>
+      <c r="L11" s="15">
+        <f>[8]Main!$D$30</f>
+        <v>45559</v>
+      </c>
+      <c r="Q11" s="12">
+        <f>+[8]Main!$C$35</f>
+        <v>3.1948131495535712</v>
+      </c>
+      <c r="R11" s="12">
+        <f>+[8]Main!$C$36</f>
+        <v>2.6442251407476842</v>
+      </c>
+      <c r="S11" s="12">
+        <f>+[8]Main!$C$38</f>
+        <v>15.436558542879432</v>
+      </c>
+      <c r="U11" s="14">
+        <f>+'[8]Financial Model'!$F$42</f>
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="V11" s="14">
+        <f>+'[8]Financial Model'!$F$43</f>
+        <v>7.9166666666666677E-2</v>
+      </c>
+      <c r="W11" s="14">
+        <f>+'[8]Financial Model'!$F$44</f>
+        <v>5.2777777777777792E-2</v>
+      </c>
+      <c r="X11" s="14">
+        <f>+'[8]Financial Model'!$F$45</f>
+        <v>0.29629629629629622</v>
+      </c>
+      <c r="Z11" s="14">
+        <f>+'[8]Financial Model'!$F$30</f>
+        <v>0.61254199328107539</v>
+      </c>
+      <c r="AA11" s="14">
+        <f>+'[8]Financial Model'!$K$30</f>
+        <v>0.41487498602675421</v>
+      </c>
+      <c r="AB11" s="14">
+        <f>+'[8]Financial Model'!$J$30</f>
+        <v>0.33624730593867169</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF11" s="2">
+        <f>+[8]Main!$C$27</f>
+        <v>115</v>
+      </c>
+      <c r="AG11" s="2">
+        <f>+[8]Main!$C$24</f>
+        <v>2012</v>
+      </c>
+      <c r="AH11" s="30">
+        <f>+[8]Main!$C$25</f>
+        <v>45444</v>
+      </c>
+      <c r="AI11" s="2" t="str">
+        <f>[8]Main!$C$23</f>
+        <v>Cambridge, UK</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38">
+      <c r="F12" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="2:38">
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="2:38">
+      <c r="B14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="2" t="str">
-        <f>+[8]Main!$C$28</f>
+      <c r="K14" s="2" t="str">
+        <f>+[9]Main!$C$28</f>
         <v>Q123</v>
       </c>
-      <c r="L13" s="15">
-        <f>+[8]Main!$D$28</f>
+      <c r="L14" s="15">
+        <f>+[9]Main!$D$28</f>
         <v>45055</v>
       </c>
     </row>
-    <row r="16" spans="2:38">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2800,14 +2971,18 @@
     <hyperlink ref="B7" r:id="rId2" xr:uid="{1AA14988-C4F2-405C-BA9D-FBCA3DA35146}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{6E23CD56-40A8-49B9-8695-A01CE41D946F}"/>
     <hyperlink ref="B9" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
-    <hyperlink ref="B13" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
+    <hyperlink ref="B14" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{3859F738-BD99-4DD5-8721-EF043945682D}"/>
     <hyperlink ref="B4" r:id="rId8" xr:uid="{7B052CC6-304F-47CB-A888-07413A5C714D}"/>
     <hyperlink ref="B5" r:id="rId9" xr:uid="{383539A3-A008-4138-9E99-F152484C7F66}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{14914AE3-9BC8-4B00-947F-C4331DFB8EED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+  <ignoredErrors>
+    <ignoredError sqref="H10 J10" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A391C1D1-79A9-4B9C-9B24-68E4F44FCE6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A120786-AF0A-4270-88D2-6513D9EE3DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -27,18 +27,28 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
   <si>
     <t>Ticker</t>
   </si>
@@ -296,6 +306,18 @@
   </si>
   <si>
     <t>AI powered search</t>
+  </si>
+  <si>
+    <t>$ADSK</t>
+  </si>
+  <si>
+    <t>Autodesk Inc.</t>
+  </si>
+  <si>
+    <t>3D CAD Engineering Modelling</t>
+  </si>
+  <si>
+    <t>CAD Software</t>
   </si>
 </sst>
 </file>
@@ -505,7 +527,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -644,8 +666,39 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+      <sheetName val="Historical Projections"/>
+      <sheetName val="Price History"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>Q123</v>
+          </cell>
+          <cell r="D28">
+            <v>45055</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -654,67 +707,82 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>93.15</v>
+            <v>321.27</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>102.284435</v>
+            <v>216</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>9527.7951202500008</v>
+            <v>69394.319999999992</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>578.44299999999998</v>
+            <v>-177</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>8949.3521202500015</v>
+            <v>69571.319999999992</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>1982</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>San Fransisco, CA</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>1985</v>
           </cell>
         </row>
         <row r="29">
           <cell r="C29" t="str">
-            <v>Q125</v>
+            <v>Q224</v>
           </cell>
           <cell r="D29">
-            <v>45524</v>
+            <v>45538</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>12.550196094773931</v>
+            <v>28.049442198868228</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="29">
-          <cell r="K29">
-            <v>0.73589027689827868</v>
+        <row r="25">
+          <cell r="L25">
+            <v>0.90697674418604646</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="L26">
+            <v>0.22790697674418606</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="L27">
+            <v>0.18737541528239202</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="L28">
+            <v>0.19886363636363635</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="K30">
-            <v>-9.7397962120775908E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="K31">
-            <v>-0.141693051637787</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="K32">
-            <v>-0.68840032926327432</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="K34">
-            <v>0.18269430439859335</v>
+          <cell r="L30">
+            <v>0.11895910780669139</v>
           </cell>
         </row>
       </sheetData>
@@ -724,7 +792,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -847,7 +915,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -958,7 +1026,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1086,7 +1154,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1191,7 +1259,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1302,7 +1370,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1408,7 +1476,87 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>93.15</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>102.284435</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>9527.7951202500008</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>578.44299999999998</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>8949.3521202500015</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>Q125</v>
+          </cell>
+          <cell r="D29">
+            <v>45524</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>12.550196094773931</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="29">
+          <cell r="K29">
+            <v>0.73589027689827868</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="K30">
+            <v>-9.7397962120775908E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="K31">
+            <v>-0.141693051637787</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="K32">
+            <v>-0.68840032926327432</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="K34">
+            <v>0.18269430439859335</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1510,34 +1658,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
-      <sheetName val="Historical Projections"/>
-      <sheetName val="Price History"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>Q123</v>
-          </cell>
-          <cell r="D28">
-            <v>45055</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1840,13 +1960,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B533DC-5A31-4AB0-80D6-BD84B319883E}">
-  <dimension ref="B1:AL19"/>
+  <dimension ref="B1:AL20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2216,110 +2336,97 @@
     </row>
     <row r="5" spans="2:38">
       <c r="B5" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="10">
-        <f>+[3]Main!$C$6</f>
-        <v>130.24</v>
+        <f>+[11]Main!$C$6</f>
+        <v>321.27</v>
       </c>
       <c r="G5" s="8">
-        <f>+[3]Main!$C$7</f>
-        <v>334.07100000000003</v>
+        <f>+[11]Main!$C$7</f>
+        <v>216</v>
       </c>
       <c r="H5" s="8">
-        <f>+[3]Main!$C$8</f>
-        <v>43509.407040000006</v>
+        <f>+[11]Main!$C$8</f>
+        <v>69394.319999999992</v>
       </c>
       <c r="I5" s="8">
-        <f>+[3]Main!$C$11</f>
-        <v>3927.913</v>
+        <f>+[11]Main!$C$11</f>
+        <v>-177</v>
       </c>
       <c r="J5" s="8">
-        <f>+[3]Main!$C$12</f>
-        <v>39581.494040000005</v>
+        <f>+[11]Main!$C$12</f>
+        <v>69571.319999999992</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f>+[3]Main!$C$29</f>
+        <f>+[11]Main!$C$29</f>
         <v>Q224</v>
       </c>
       <c r="L5" s="15">
-        <f>+[3]Main!$D$29</f>
-        <v>45533</v>
+        <f>+[11]Main!$D$29</f>
+        <v>45538</v>
       </c>
       <c r="Q5" s="12">
-        <f>+[3]Main!$C$34</f>
-        <v>10.51564511498003</v>
-      </c>
-      <c r="R5" s="12">
-        <f>+[3]Main!$C$35</f>
-        <v>13.569715649610261</v>
+        <f>+[11]Main!$C$34</f>
+        <v>28.049442198868228</v>
       </c>
       <c r="U5" s="14">
-        <f>+'[3]Financial Model'!$L$24</f>
-        <v>0.66841087502014318</v>
+        <f>+'[11]Financial Model'!$L$25</f>
+        <v>0.90697674418604646</v>
       </c>
       <c r="V5" s="14">
-        <f>+'[3]Financial Model'!$L$25</f>
-        <v>-0.40901724257004091</v>
+        <f>+'[11]Financial Model'!$L$26</f>
+        <v>0.22790697674418606</v>
       </c>
       <c r="W5" s="14">
-        <f>+'[3]Financial Model'!$L$26</f>
-        <v>-0.36581528119892281</v>
+        <f>+'[11]Financial Model'!$L$27</f>
+        <v>0.18737541528239202</v>
       </c>
       <c r="X5" s="14">
-        <f>+'[3]Financial Model'!$L$27</f>
-        <v>-1.2056288153566408E-2</v>
+        <f>+'[11]Financial Model'!$L$28</f>
+        <v>0.19886363636363635</v>
       </c>
       <c r="Z5" s="14">
-        <f>+'[3]Financial Model'!$L$21</f>
-        <v>0.28895667474755871</v>
-      </c>
-      <c r="AA5" s="14">
-        <f>+'[3]Financial Model'!$X$21</f>
-        <v>0.35864099544019612</v>
-      </c>
-      <c r="AB5" s="14">
-        <f>+'[3]Financial Model'!$W$21</f>
-        <v>0.69409764566847132</v>
-      </c>
-      <c r="AF5" s="20">
-        <f>+[3]Main!$C$27</f>
-        <v>7630</v>
-      </c>
+        <f>+'[11]Financial Model'!$L$30</f>
+        <v>0.11895910780669139</v>
+      </c>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AF5" s="20"/>
       <c r="AG5" s="2">
-        <f>+[3]Main!$C$24</f>
-        <v>2012</v>
+        <f>+[11]Main!$C$23</f>
+        <v>1982</v>
       </c>
       <c r="AH5" s="2">
-        <f>+[3]Main!$C$25</f>
-        <v>2020</v>
+        <f>+[11]Main!$C$25</f>
+        <v>1985</v>
       </c>
       <c r="AI5" s="2" t="str">
-        <f>+[3]Main!$C$23</f>
-        <v>Bozeman, MT</v>
+        <f>+[11]Main!$C$24</f>
+        <v>San Fransisco, CA</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:38">
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -2328,635 +2435,735 @@
         <v>33</v>
       </c>
       <c r="F6" s="10">
+        <f>+[3]Main!$C$6</f>
+        <v>130.24</v>
+      </c>
+      <c r="G6" s="8">
+        <f>+[3]Main!$C$7</f>
+        <v>334.07100000000003</v>
+      </c>
+      <c r="H6" s="8">
+        <f>+[3]Main!$C$8</f>
+        <v>43509.407040000006</v>
+      </c>
+      <c r="I6" s="8">
+        <f>+[3]Main!$C$11</f>
+        <v>3927.913</v>
+      </c>
+      <c r="J6" s="8">
+        <f>+[3]Main!$C$12</f>
+        <v>39581.494040000005</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f>+[3]Main!$C$29</f>
+        <v>Q224</v>
+      </c>
+      <c r="L6" s="15">
+        <f>+[3]Main!$D$29</f>
+        <v>45533</v>
+      </c>
+      <c r="Q6" s="12">
+        <f>+[3]Main!$C$34</f>
+        <v>10.51564511498003</v>
+      </c>
+      <c r="R6" s="12">
+        <f>+[3]Main!$C$35</f>
+        <v>13.569715649610261</v>
+      </c>
+      <c r="U6" s="14">
+        <f>+'[3]Financial Model'!$L$24</f>
+        <v>0.66841087502014318</v>
+      </c>
+      <c r="V6" s="14">
+        <f>+'[3]Financial Model'!$L$25</f>
+        <v>-0.40901724257004091</v>
+      </c>
+      <c r="W6" s="14">
+        <f>+'[3]Financial Model'!$L$26</f>
+        <v>-0.36581528119892281</v>
+      </c>
+      <c r="X6" s="14">
+        <f>+'[3]Financial Model'!$L$27</f>
+        <v>-1.2056288153566408E-2</v>
+      </c>
+      <c r="Z6" s="14">
+        <f>+'[3]Financial Model'!$L$21</f>
+        <v>0.28895667474755871</v>
+      </c>
+      <c r="AA6" s="14">
+        <f>+'[3]Financial Model'!$X$21</f>
+        <v>0.35864099544019612</v>
+      </c>
+      <c r="AB6" s="14">
+        <f>+'[3]Financial Model'!$W$21</f>
+        <v>0.69409764566847132</v>
+      </c>
+      <c r="AF6" s="20">
+        <f>+[3]Main!$C$27</f>
+        <v>7630</v>
+      </c>
+      <c r="AG6" s="2">
+        <f>+[3]Main!$C$24</f>
+        <v>2012</v>
+      </c>
+      <c r="AH6" s="2">
+        <f>+[3]Main!$C$25</f>
+        <v>2020</v>
+      </c>
+      <c r="AI6" s="2" t="str">
+        <f>+[3]Main!$C$23</f>
+        <v>Bozeman, MT</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:38">
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="10">
         <f>+[4]Main!$C$6</f>
         <v>51.68</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G7" s="8">
         <f>+[4]Main!$C$7</f>
         <v>641.81399999999996</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H7" s="8">
         <f>+[4]Main!$C$8</f>
         <v>33168.947520000002</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I7" s="8">
         <f>+[4]Main!$C$11</f>
         <v>2595.5510000000004</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J7" s="8">
         <f>+[4]Main!$C$12</f>
         <v>30573.396520000002</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="K7" s="2" t="str">
         <f>+[4]Main!$G$11</f>
         <v>Q324</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L7" s="15">
         <f>+[4]Main!$H$11</f>
         <v>45596</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M7" s="22">
         <f>+'[4]Financial Model'!$AX$26</f>
         <v>71.486963060421459</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N7" s="18">
         <f>+'[4]Financial Model'!$AX$28</f>
         <v>0.38326166912580217</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O7" s="18">
         <f>+'[4]Financial Model'!$AX$22</f>
         <v>0.09</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q7" s="12">
         <f>+[4]Main!$G$16</f>
         <v>523.51896884519317</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R7" s="12">
         <f>+[4]Main!$G$17</f>
         <v>11.261920977309074</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S7" s="12">
         <f>+[4]Main!$G$18</f>
         <v>-27.750520841528012</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U7" s="14">
         <f>+'[4]Financial Model'!$T$22</f>
         <v>0.77778685524927171</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V7" s="14">
         <f>+'[4]Financial Model'!$T$23</f>
         <v>-0.26629832028229189</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W7" s="14">
         <f>+'[4]Financial Model'!$T$24</f>
         <v>-0.23188027884500237</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X7" s="14">
         <f>+'[4]Financial Model'!$T$25</f>
         <v>-5.311828476229569E-4</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="Z7" s="14">
         <f>+'[4]Financial Model'!$T$28</f>
         <v>0.31255526862387373</v>
       </c>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14">
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14">
         <f>+'[4]Financial Model'!$AF$28</f>
         <v>0.15937579623808262</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AC7" s="14">
         <f>+'[4]Financial Model'!$AE$28</f>
         <v>1.0772942519902369</v>
       </c>
-      <c r="AE6" s="20">
+      <c r="AE7" s="20">
         <f>+[4]Main!$G$9</f>
         <v>79.5</v>
       </c>
-      <c r="AF6" s="20">
+      <c r="AF7" s="20">
         <f>+[4]Main!$G$10</f>
         <v>2457</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG7" s="2">
         <f>+[4]Main!$G$8</f>
         <v>2004</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AH7" s="2">
         <f>+[4]Main!$G$7</f>
         <v>2021</v>
       </c>
-      <c r="AI6" s="2" t="str">
+      <c r="AI7" s="2" t="str">
         <f>+[4]Main!$G$6</f>
         <v>San Mateo, CA</v>
       </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AL7" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:38">
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="2:38">
+      <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F8" s="10">
         <f>+[5]Main!$C$6</f>
         <v>129.71</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G8" s="8">
         <f>+[5]Main!$C$7</f>
         <v>169.16992200000001</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H8" s="8">
         <f>+[5]Main!$C$8</f>
         <v>21943.030582620002</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I8" s="8">
         <f>+[5]Main!$C$11</f>
         <v>1744.9669999999999</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J8" s="8">
         <f>+[5]Main!$C$12</f>
         <v>20198.063582620001</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="K8" s="2" t="str">
         <f>+[5]Main!$C$32</f>
         <v>Q324</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L8" s="15">
         <f>+[5]Main!$D$32</f>
         <v>45594</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q8" s="12">
         <f>+[5]Main!$C$37</f>
         <v>11.095743232541535</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U8" s="14">
         <f>+'[5]Financial Model'!$I$18</f>
         <v>0.90049404192897387</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V8" s="14">
         <f>+'[5]Financial Model'!$I$19</f>
         <v>1.9589437090750374E-2</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W8" s="14">
         <f>+'[5]Financial Model'!$I$20</f>
         <v>8.5611925902322611E-2</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X8" s="14">
         <f>+'[5]Financial Model'!$I$21</f>
         <v>-1.0405477980665956E-3</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Z8" s="14">
         <f>+'[5]Financial Model'!$I$24</f>
         <v>0.67873527767604136</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AB8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AC8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AE7" s="20">
+      <c r="AE8" s="20">
         <f>+[5]Main!$C$29</f>
         <v>97.2</v>
       </c>
-      <c r="AF7" s="20">
+      <c r="AF8" s="20">
         <f>+[5]Main!$C$30</f>
         <v>2013</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AG8" s="2">
         <f>+[5]Main!$C$25</f>
         <v>2005</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AH8" s="2">
         <f>+[5]Main!$C$26</f>
         <v>2024</v>
       </c>
-      <c r="AI7" s="2" t="str">
+      <c r="AI8" s="2" t="str">
         <f>+[5]Main!$C$24</f>
         <v>San Fransisco, CA</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AK8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AL8" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:38">
-      <c r="B8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="10">
-        <f>+[6]Main!$C$6</f>
-        <v>36.5</v>
-      </c>
-      <c r="G8" s="8">
-        <f>+[6]Main!$C$7</f>
-        <v>563</v>
-      </c>
-      <c r="H8" s="8">
-        <f>+[6]Main!$C$8</f>
-        <v>20549.5</v>
-      </c>
-      <c r="I8" s="8">
-        <f>+[6]Main!$C$11</f>
-        <v>1272</v>
-      </c>
-      <c r="J8" s="8">
-        <f>+[6]Main!$C$12</f>
-        <v>19277.5</v>
-      </c>
-      <c r="K8" s="2" t="str">
-        <f>+[6]Main!$C$30</f>
-        <v>Q324</v>
-      </c>
-      <c r="L8" s="15">
-        <f>+[6]Main!$D$30</f>
-        <v>45603</v>
-      </c>
-      <c r="Q8" s="12">
-        <f>+[6]Main!$C$35</f>
-        <v>14.471478873239437</v>
-      </c>
-      <c r="R8" s="12">
-        <f>+[6]Main!$C$36</f>
-        <v>4.4116573636753973</v>
-      </c>
-      <c r="U8" s="14">
-        <f>+'[6]Financial Model'!$M$28</f>
-        <v>0.24674329501915709</v>
-      </c>
-      <c r="V8" s="14">
-        <f>+'[6]Financial Model'!$M$29</f>
-        <v>2.6053639846743294E-2</v>
-      </c>
-      <c r="W8" s="14">
-        <f>+'[6]Financial Model'!$M$30</f>
-        <v>4.2911877394636012E-2</v>
-      </c>
-      <c r="X8" s="14">
-        <f>+'[6]Financial Model'!$M$31</f>
-        <v>1.7543859649122806E-2</v>
-      </c>
-      <c r="Z8" s="14">
-        <f>+'[6]Financial Model'!$M$33</f>
-        <v>0.26453488372093026</v>
-      </c>
-      <c r="AA8" s="14">
-        <f>+'[6]Financial Model'!$U$33</f>
-        <v>0.41523251556206509</v>
-      </c>
-      <c r="AB8" s="14">
-        <f>+'[6]Financial Model'!$T$33</f>
-        <v>0.6017595307917889</v>
-      </c>
-      <c r="AF8" s="20">
-        <f>+[6]Main!$C$28</f>
-        <v>5500</v>
-      </c>
-      <c r="AG8" s="2">
-        <f>+[6]Main!$C$24</f>
-        <v>2011</v>
-      </c>
-      <c r="AH8" s="2">
-        <f>+[6]Main!$C$25</f>
-        <v>2021</v>
-      </c>
-      <c r="AI8" s="2" t="str">
-        <f>+[6]Main!$C$23</f>
-        <v>Boston, MA</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:38">
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F9" s="10">
-        <f>+[7]Main!$C$6*Currencies!C3</f>
-        <v>16.497</v>
+        <f>+[6]Main!$C$6</f>
+        <v>36.5</v>
       </c>
       <c r="G9" s="8">
-        <f>+[7]Main!$C$7</f>
-        <v>1007</v>
+        <f>+[6]Main!$C$7</f>
+        <v>563</v>
       </c>
       <c r="H9" s="8">
-        <f>G9*F9</f>
-        <v>16612.478999999999</v>
+        <f>+[6]Main!$C$8</f>
+        <v>20549.5</v>
       </c>
       <c r="I9" s="8">
-        <f>[7]Main!$C$11*Currencies!C3</f>
-        <v>-913.9</v>
+        <f>+[6]Main!$C$11</f>
+        <v>1272</v>
       </c>
       <c r="J9" s="8">
-        <f>H9-I9</f>
-        <v>17526.379000000001</v>
+        <f>+[6]Main!$C$12</f>
+        <v>19277.5</v>
       </c>
       <c r="K9" s="2" t="str">
-        <f>+[7]Main!$C$27</f>
-        <v>FY24</v>
+        <f>+[6]Main!$C$30</f>
+        <v>Q324</v>
       </c>
       <c r="L9" s="15">
-        <f>+[7]Main!$D$27</f>
-        <v>45616</v>
+        <f>+[6]Main!$D$30</f>
+        <v>45603</v>
       </c>
       <c r="Q9" s="12">
-        <f>[7]Main!$C$34</f>
-        <v>11.691518755718205</v>
+        <f>+[6]Main!$C$35</f>
+        <v>14.471478873239437</v>
       </c>
       <c r="R9" s="12">
-        <f>[7]Main!$C$33</f>
-        <v>5.479772727272727</v>
-      </c>
-      <c r="S9" s="12">
-        <f>+[7]Main!$C$32</f>
-        <v>39.562941176470588</v>
+        <f>+[6]Main!$C$36</f>
+        <v>4.4116573636753973</v>
       </c>
       <c r="U9" s="14">
-        <f>+'[7]Financial Model'!$X$20</f>
-        <v>0.92795883361921094</v>
+        <f>+'[6]Financial Model'!$M$28</f>
+        <v>0.24674329501915709</v>
       </c>
       <c r="V9" s="14">
-        <f>+'[7]Financial Model'!$X$21</f>
-        <v>0.19382504288164665</v>
+        <f>+'[6]Financial Model'!$M$29</f>
+        <v>2.6053639846743294E-2</v>
       </c>
       <c r="W9" s="14">
-        <f>+'[7]Financial Model'!$X$22</f>
-        <v>0.13850771869639794</v>
+        <f>+'[6]Financial Model'!$M$30</f>
+        <v>4.2911877394636012E-2</v>
       </c>
       <c r="X9" s="14">
-        <f>+'[7]Financial Model'!$X$23</f>
-        <v>0.24178403755868544</v>
+        <f>+'[6]Financial Model'!$M$31</f>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="Z9" s="14">
-        <f>+'[7]Financial Model'!$X$25</f>
-        <v>6.7765567765567747E-2</v>
+        <f>+'[6]Financial Model'!$M$33</f>
+        <v>0.26453488372093026</v>
       </c>
       <c r="AA9" s="14">
-        <f>+'[7]Financial Model'!$W$25</f>
-        <v>0.1217257318952234</v>
+        <f>+'[6]Financial Model'!$U$33</f>
+        <v>0.41523251556206509</v>
       </c>
       <c r="AB9" s="14">
-        <f>+'[7]Financial Model'!$V$25</f>
-        <v>5.4712892741061836E-2</v>
-      </c>
-      <c r="AC9" s="14">
-        <f>+'[7]Financial Model'!$U$25</f>
-        <v>-2.9952706253284278E-2</v>
+        <f>+'[6]Financial Model'!$T$33</f>
+        <v>0.6017595307917889</v>
       </c>
       <c r="AF9" s="20">
-        <f>+[7]Main!$C$26</f>
-        <v>11565</v>
+        <f>+[6]Main!$C$28</f>
+        <v>5500</v>
       </c>
       <c r="AG9" s="2">
-        <f>+[7]Main!$C$24</f>
-        <v>1981</v>
+        <f>+[6]Main!$C$24</f>
+        <v>2011</v>
       </c>
       <c r="AH9" s="2">
-        <f>+[7]Main!$C$25</f>
-        <v>1989</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK9" s="2" t="s">
-        <v>53</v>
+        <f>+[6]Main!$C$25</f>
+        <v>2021</v>
+      </c>
+      <c r="AI9" s="2" t="str">
+        <f>+[6]Main!$C$23</f>
+        <v>Boston, MA</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:38">
       <c r="B10" s="5" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F10" s="10">
-        <f>+[10]Main!$C$6</f>
-        <v>93.15</v>
+        <f>+[7]Main!$C$6*Currencies!C3</f>
+        <v>16.497</v>
       </c>
       <c r="G10" s="8">
-        <f>+[10]Main!$C$7</f>
-        <v>102.284435</v>
+        <f>+[7]Main!$C$7</f>
+        <v>1007</v>
       </c>
       <c r="H10" s="8">
-        <f>+[10]Main!$C$8</f>
-        <v>9527.7951202500008</v>
+        <f>G10*F10</f>
+        <v>16612.478999999999</v>
       </c>
       <c r="I10" s="8">
-        <f>+[10]Main!$C$11</f>
-        <v>578.44299999999998</v>
+        <f>[7]Main!$C$11*Currencies!C3</f>
+        <v>-913.9</v>
       </c>
       <c r="J10" s="8">
-        <f>+[10]Main!$C$12</f>
-        <v>8949.3521202500015</v>
-      </c>
-      <c r="K10" s="20" t="str">
-        <f>+[10]Main!$C$29</f>
-        <v>Q125</v>
+        <f>H10-I10</f>
+        <v>17526.379000000001</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f>+[7]Main!$C$27</f>
+        <v>FY24</v>
       </c>
       <c r="L10" s="15">
-        <f>+[10]Main!$D$29</f>
-        <v>45524</v>
+        <f>+[7]Main!$D$27</f>
+        <v>45616</v>
       </c>
       <c r="Q10" s="12">
-        <f>+[10]Main!$C$34</f>
-        <v>12.550196094773931</v>
+        <f>[7]Main!$C$34</f>
+        <v>11.691518755718205</v>
+      </c>
+      <c r="R10" s="12">
+        <f>[7]Main!$C$33</f>
+        <v>5.479772727272727</v>
+      </c>
+      <c r="S10" s="12">
+        <f>+[7]Main!$C$32</f>
+        <v>39.562941176470588</v>
       </c>
       <c r="U10" s="14">
-        <f>+'[10]Financial Model'!$K$29</f>
-        <v>0.73589027689827868</v>
+        <f>+'[7]Financial Model'!$X$20</f>
+        <v>0.92795883361921094</v>
       </c>
       <c r="V10" s="14">
-        <f>+'[10]Financial Model'!$K$30</f>
-        <v>-9.7397962120775908E-2</v>
+        <f>+'[7]Financial Model'!$X$21</f>
+        <v>0.19382504288164665</v>
       </c>
       <c r="W10" s="14">
-        <f>+'[10]Financial Model'!$K$31</f>
-        <v>-0.141693051637787</v>
+        <f>+'[7]Financial Model'!$X$22</f>
+        <v>0.13850771869639794</v>
       </c>
       <c r="X10" s="14">
-        <f>+'[10]Financial Model'!$K$32</f>
-        <v>-0.68840032926327432</v>
+        <f>+'[7]Financial Model'!$X$23</f>
+        <v>0.24178403755868544</v>
       </c>
       <c r="Z10" s="14">
-        <f>+'[10]Financial Model'!$K$34</f>
-        <v>0.18269430439859335</v>
-      </c>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AF10" s="20"/>
+        <f>+'[7]Financial Model'!$X$25</f>
+        <v>6.7765567765567747E-2</v>
+      </c>
+      <c r="AA10" s="14">
+        <f>+'[7]Financial Model'!$W$25</f>
+        <v>0.1217257318952234</v>
+      </c>
+      <c r="AB10" s="14">
+        <f>+'[7]Financial Model'!$V$25</f>
+        <v>5.4712892741061836E-2</v>
+      </c>
+      <c r="AC10" s="14">
+        <f>+'[7]Financial Model'!$U$25</f>
+        <v>-2.9952706253284278E-2</v>
+      </c>
+      <c r="AF10" s="20">
+        <f>+[7]Main!$C$26</f>
+        <v>11565</v>
+      </c>
+      <c r="AG10" s="2">
+        <f>+[7]Main!$C$24</f>
+        <v>1981</v>
+      </c>
+      <c r="AH10" s="2">
+        <f>+[7]Main!$C$25</f>
+        <v>1989</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="AK10" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:38">
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="10">
-        <f>+[8]Main!$C$6*Currencies!C3</f>
-        <v>4.3290000000000006</v>
+        <f>+[8]Main!$C$6</f>
+        <v>93.15</v>
       </c>
       <c r="G11" s="8">
         <f>+[8]Main!$C$7</f>
-        <v>193.41571500000001</v>
+        <v>102.284435</v>
       </c>
       <c r="H11" s="8">
-        <f>G11*F11</f>
-        <v>837.29663023500018</v>
+        <f>+[8]Main!$C$8</f>
+        <v>9527.7951202500008</v>
       </c>
       <c r="I11" s="8">
-        <f>[8]Main!$C$11*Currencies!D3</f>
-        <v>20.227692307692305</v>
+        <f>+[8]Main!$C$11</f>
+        <v>578.44299999999998</v>
       </c>
       <c r="J11" s="8">
-        <f>H11-I11</f>
-        <v>817.06893792730784</v>
-      </c>
-      <c r="K11" s="2" t="str">
-        <f>[8]Main!$C$30</f>
-        <v>H124</v>
+        <f>+[8]Main!$C$12</f>
+        <v>8949.3521202500015</v>
+      </c>
+      <c r="K11" s="20" t="str">
+        <f>+[8]Main!$C$29</f>
+        <v>Q125</v>
       </c>
       <c r="L11" s="15">
-        <f>[8]Main!$D$30</f>
-        <v>45559</v>
+        <f>+[8]Main!$D$29</f>
+        <v>45524</v>
       </c>
       <c r="Q11" s="12">
-        <f>+[8]Main!$C$35</f>
-        <v>3.1948131495535712</v>
-      </c>
-      <c r="R11" s="12">
-        <f>+[8]Main!$C$36</f>
-        <v>2.6442251407476842</v>
-      </c>
-      <c r="S11" s="12">
-        <f>+[8]Main!$C$38</f>
-        <v>15.436558542879432</v>
+        <f>+[8]Main!$C$34</f>
+        <v>12.550196094773931</v>
       </c>
       <c r="U11" s="14">
-        <f>+'[8]Financial Model'!$F$42</f>
-        <v>0.23750000000000002</v>
+        <f>+'[8]Financial Model'!$K$29</f>
+        <v>0.73589027689827868</v>
       </c>
       <c r="V11" s="14">
-        <f>+'[8]Financial Model'!$F$43</f>
-        <v>7.9166666666666677E-2</v>
+        <f>+'[8]Financial Model'!$K$30</f>
+        <v>-9.7397962120775908E-2</v>
       </c>
       <c r="W11" s="14">
-        <f>+'[8]Financial Model'!$F$44</f>
-        <v>5.2777777777777792E-2</v>
+        <f>+'[8]Financial Model'!$K$31</f>
+        <v>-0.141693051637787</v>
       </c>
       <c r="X11" s="14">
-        <f>+'[8]Financial Model'!$F$45</f>
-        <v>0.29629629629629622</v>
+        <f>+'[8]Financial Model'!$K$32</f>
+        <v>-0.68840032926327432</v>
       </c>
       <c r="Z11" s="14">
-        <f>+'[8]Financial Model'!$F$30</f>
-        <v>0.61254199328107539</v>
-      </c>
-      <c r="AA11" s="14">
-        <f>+'[8]Financial Model'!$K$30</f>
-        <v>0.41487498602675421</v>
-      </c>
-      <c r="AB11" s="14">
-        <f>+'[8]Financial Model'!$J$30</f>
-        <v>0.33624730593867169</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF11" s="2">
-        <f>+[8]Main!$C$27</f>
-        <v>115</v>
-      </c>
-      <c r="AG11" s="2">
-        <f>+[8]Main!$C$24</f>
-        <v>2012</v>
-      </c>
-      <c r="AH11" s="30">
-        <f>+[8]Main!$C$25</f>
-        <v>45444</v>
-      </c>
-      <c r="AI11" s="2" t="str">
-        <f>[8]Main!$C$23</f>
-        <v>Cambridge, UK</v>
-      </c>
+        <f>+'[8]Financial Model'!$K$34</f>
+        <v>0.18269430439859335</v>
+      </c>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AF11" s="20"/>
       <c r="AK11" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:38">
-      <c r="F12" s="10" t="s">
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="10">
+        <f>+[9]Main!$C$6*Currencies!C3</f>
+        <v>4.3290000000000006</v>
+      </c>
+      <c r="G12" s="8">
+        <f>+[9]Main!$C$7</f>
+        <v>193.41571500000001</v>
+      </c>
+      <c r="H12" s="8">
+        <f>G12*F12</f>
+        <v>837.29663023500018</v>
+      </c>
+      <c r="I12" s="8">
+        <f>[9]Main!$C$11*Currencies!D3</f>
+        <v>20.227692307692305</v>
+      </c>
+      <c r="J12" s="8">
+        <f>H12-I12</f>
+        <v>817.06893792730784</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f>[9]Main!$C$30</f>
+        <v>H124</v>
+      </c>
+      <c r="L12" s="15">
+        <f>[9]Main!$D$30</f>
+        <v>45559</v>
+      </c>
+      <c r="Q12" s="12">
+        <f>+[9]Main!$C$35</f>
+        <v>3.1948131495535712</v>
+      </c>
+      <c r="R12" s="12">
+        <f>+[9]Main!$C$36</f>
+        <v>2.6442251407476842</v>
+      </c>
+      <c r="S12" s="12">
+        <f>+[9]Main!$C$38</f>
+        <v>15.436558542879432</v>
+      </c>
+      <c r="U12" s="14">
+        <f>+'[9]Financial Model'!$F$42</f>
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="V12" s="14">
+        <f>+'[9]Financial Model'!$F$43</f>
+        <v>7.9166666666666677E-2</v>
+      </c>
+      <c r="W12" s="14">
+        <f>+'[9]Financial Model'!$F$44</f>
+        <v>5.2777777777777792E-2</v>
+      </c>
+      <c r="X12" s="14">
+        <f>+'[9]Financial Model'!$F$45</f>
+        <v>0.29629629629629622</v>
+      </c>
+      <c r="Z12" s="14">
+        <f>+'[9]Financial Model'!$F$30</f>
+        <v>0.61254199328107539</v>
+      </c>
+      <c r="AA12" s="14">
+        <f>+'[9]Financial Model'!$K$30</f>
+        <v>0.41487498602675421</v>
+      </c>
+      <c r="AB12" s="14">
+        <f>+'[9]Financial Model'!$J$30</f>
+        <v>0.33624730593867169</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF12" s="2">
+        <f>+[9]Main!$C$27</f>
+        <v>115</v>
+      </c>
+      <c r="AG12" s="2">
+        <f>+[9]Main!$C$24</f>
+        <v>2012</v>
+      </c>
+      <c r="AH12" s="30">
+        <f>+[9]Main!$C$25</f>
+        <v>45444</v>
+      </c>
+      <c r="AI12" s="2" t="str">
+        <f>[9]Main!$C$23</f>
+        <v>Cambridge, UK</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38">
+      <c r="F13" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="2:38">
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="2:38">
+      <c r="B15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="2" t="str">
-        <f>+[9]Main!$C$28</f>
+      <c r="K15" s="2" t="str">
+        <f>+[10]Main!$C$28</f>
         <v>Q123</v>
       </c>
-      <c r="L14" s="15">
-        <f>+[9]Main!$D$28</f>
+      <c r="L15" s="15">
+        <f>+[10]Main!$D$28</f>
         <v>45055</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:4">
+      <c r="B20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2968,20 +3175,21 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{AFCC0C36-695A-4698-B366-E9445F7B4F63}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{1AA14988-C4F2-405C-BA9D-FBCA3DA35146}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{6E23CD56-40A8-49B9-8695-A01CE41D946F}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
-    <hyperlink ref="B11" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
-    <hyperlink ref="B14" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{3859F738-BD99-4DD5-8721-EF043945682D}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{1AA14988-C4F2-405C-BA9D-FBCA3DA35146}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{6E23CD56-40A8-49B9-8695-A01CE41D946F}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{3859F738-BD99-4DD5-8721-EF043945682D}"/>
     <hyperlink ref="B4" r:id="rId8" xr:uid="{7B052CC6-304F-47CB-A888-07413A5C714D}"/>
-    <hyperlink ref="B5" r:id="rId9" xr:uid="{383539A3-A008-4138-9E99-F152484C7F66}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{14914AE3-9BC8-4B00-947F-C4331DFB8EED}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{383539A3-A008-4138-9E99-F152484C7F66}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{14914AE3-9BC8-4B00-947F-C4331DFB8EED}"/>
+    <hyperlink ref="B5" r:id="rId11" xr:uid="{E635F2D9-F8A1-4114-ACFA-1F5C37840BC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <ignoredErrors>
-    <ignoredError sqref="H10 J10" formula="1"/>
+    <ignoredError sqref="H11 J11" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A120786-AF0A-4270-88D2-6513D9EE3DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B5DE83-1865-4C19-97D6-BBCC821A028E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -758,6 +758,16 @@
             <v>28.049442198868228</v>
           </cell>
         </row>
+        <row r="35">
+          <cell r="C35">
+            <v>11.954232558139534</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>65.277899355462978</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="25">
@@ -783,6 +793,12 @@
         <row r="30">
           <cell r="L30">
             <v>0.11895910780669139</v>
+          </cell>
+          <cell r="V30">
+            <v>0.14113087095303234</v>
+          </cell>
+          <cell r="W30">
+            <v>9.8301698301698215E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1966,7 +1982,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2379,6 +2395,14 @@
         <f>+[11]Main!$C$34</f>
         <v>28.049442198868228</v>
       </c>
+      <c r="R5" s="12">
+        <f>+[11]Main!$C$35</f>
+        <v>11.954232558139534</v>
+      </c>
+      <c r="S5" s="12">
+        <f>+[11]Main!$C$36</f>
+        <v>65.277899355462978</v>
+      </c>
       <c r="U5" s="14">
         <f>+'[11]Financial Model'!$L$25</f>
         <v>0.90697674418604646</v>
@@ -2399,8 +2423,14 @@
         <f>+'[11]Financial Model'!$L$30</f>
         <v>0.11895910780669139</v>
       </c>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
+      <c r="AA5" s="14">
+        <f>+'[11]Financial Model'!$W$30</f>
+        <v>9.8301698301698215E-2</v>
+      </c>
+      <c r="AB5" s="14">
+        <f>+'[11]Financial Model'!$V$30</f>
+        <v>0.14113087095303234</v>
+      </c>
       <c r="AF5" s="20"/>
       <c r="AG5" s="2">
         <f>+[11]Main!$C$23</f>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B5DE83-1865-4C19-97D6-BBCC821A028E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCBA741-C2D2-4AC3-8772-F14BFCE7D0B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -34,21 +34,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
   <si>
     <t>Ticker</t>
   </si>
@@ -318,6 +309,9 @@
   </si>
   <si>
     <t>CAD Software</t>
+  </si>
+  <si>
+    <t>Stockopedia</t>
   </si>
 </sst>
 </file>
@@ -420,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -500,6 +494,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -527,7 +524,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -666,7 +663,115 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+      <sheetName val="Data Visualisation"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>3.33</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>193.41571500000001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>26.295999999999999</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Cambridge, UK</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>45444</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>H124</v>
+          </cell>
+          <cell r="D30">
+            <v>45559</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>3.1948131495535712</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>2.6442251407476842</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>15.436558542879432</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="30">
+          <cell r="F30">
+            <v>0.61254199328107539</v>
+          </cell>
+          <cell r="J30">
+            <v>0.33624730593867169</v>
+          </cell>
+          <cell r="K30">
+            <v>0.41487498602675421</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="F42">
+            <v>0.23750000000000002</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="F43">
+            <v>7.9166666666666677E-2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="F44">
+            <v>5.2777777777777792E-2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="F45">
+            <v>0.29629629629629622</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -693,122 +798,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>321.27</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>216</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>69394.319999999992</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>-177</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>69571.319999999992</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>1982</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>San Fransisco, CA</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>1985</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>Q224</v>
-          </cell>
-          <cell r="D29">
-            <v>45538</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>28.049442198868228</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>11.954232558139534</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>65.277899355462978</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="25">
-          <cell r="L25">
-            <v>0.90697674418604646</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="L26">
-            <v>0.22790697674418606</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="L27">
-            <v>0.18737541528239202</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="L28">
-            <v>0.19886363636363635</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="L30">
-            <v>0.11895910780669139</v>
-          </cell>
-          <cell r="V30">
-            <v>0.14113087095303234</v>
-          </cell>
-          <cell r="W30">
-            <v>9.8301698301698215E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -931,7 +922,125 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>321.27</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>216</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>69394.319999999992</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>-177</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>69571.319999999992</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>1982</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>San Fransisco, CA</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>1985</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>14100</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>Q225</v>
+          </cell>
+          <cell r="D29">
+            <v>45538</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>28.049442198868228</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>11.954232558139534</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>65.277899355462978</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>76</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="25">
+          <cell r="L25">
+            <v>0.90557620817843865</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="L26">
+            <v>0.19479553903345725</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="L27">
+            <v>0.16505576208178438</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="L28">
+            <v>0.13953488372093023</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="L30">
+            <v>8.730800323362975E-2</v>
+          </cell>
+          <cell r="W30">
+            <v>0.27414584792590868</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1041,8 +1150,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1169,8 +1278,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1274,8 +1383,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1385,8 +1494,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1491,8 +1600,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1507,12 +1616,12 @@
         </row>
         <row r="7">
           <cell r="C7">
-            <v>102.284435</v>
+            <v>103.23874000000001</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>9527.7951202500008</v>
+            <v>9616.6886310000009</v>
           </cell>
         </row>
         <row r="11">
@@ -1522,20 +1631,40 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>8949.3521202500015</v>
+            <v>9038.2456310000016</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Mountain View, CA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2018</v>
           </cell>
         </row>
         <row r="29">
           <cell r="C29" t="str">
-            <v>Q125</v>
+            <v>Q225</v>
           </cell>
           <cell r="D29">
-            <v>45524</v>
+            <v>45617</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
             <v>12.550196094773931</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>64</v>
           </cell>
         </row>
       </sheetData>
@@ -1566,114 +1695,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
-      <sheetName val="Data Visualisation"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>3.33</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>193.41571500000001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>26.295999999999999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Cambridge, UK</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>2012</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>45444</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>115</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>H124</v>
-          </cell>
-          <cell r="D30">
-            <v>45559</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>3.1948131495535712</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>2.6442251407476842</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>15.436558542879432</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="30">
-          <cell r="F30">
-            <v>0.61254199328107539</v>
-          </cell>
-          <cell r="J30">
-            <v>0.33624730593867169</v>
-          </cell>
-          <cell r="K30">
-            <v>0.41487498602675421</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="F42">
-            <v>0.23750000000000002</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43">
-            <v>7.9166666666666677E-2</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44">
-            <v>5.2777777777777792E-2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45">
-            <v>0.29629629629629622</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1976,13 +1997,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B533DC-5A31-4AB0-80D6-BD84B319883E}">
-  <dimension ref="B1:AL20"/>
+  <dimension ref="B1:AN20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2007,18 +2028,20 @@
     <col min="33" max="34" width="9.140625" style="2"/>
     <col min="35" max="35" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9.140625" style="2"/>
-    <col min="37" max="37" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="1"/>
+    <col min="37" max="37" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" style="2"/>
+    <col min="39" max="39" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38">
+    <row r="1" spans="2:40">
       <c r="F1" s="27" t="s">
         <v>60</v>
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="2:38" s="3" customFormat="1">
+    <row r="2" spans="2:40" s="3" customFormat="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2112,13 +2135,17 @@
       </c>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:38">
+    <row r="3" spans="2:40">
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
@@ -2235,14 +2262,14 @@
         <f>+[1]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:38">
+    <row r="4" spans="2:40">
       <c r="B4" s="5" t="s">
         <v>74</v>
       </c>
@@ -2343,14 +2370,14 @@
         <f>[2]Main!$C$23</f>
         <v>Stockholm, Sweden</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AN4" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:38">
+    <row r="5" spans="2:40">
       <c r="B5" s="5" t="s">
         <v>86</v>
       </c>
@@ -2364,94 +2391,101 @@
         <v>33</v>
       </c>
       <c r="F5" s="10">
-        <f>+[11]Main!$C$6</f>
+        <f>+[3]Main!$C$6</f>
         <v>321.27</v>
       </c>
       <c r="G5" s="8">
-        <f>+[11]Main!$C$7</f>
+        <f>+[3]Main!$C$7</f>
         <v>216</v>
       </c>
       <c r="H5" s="8">
-        <f>+[11]Main!$C$8</f>
+        <f>+[3]Main!$C$8</f>
         <v>69394.319999999992</v>
       </c>
       <c r="I5" s="8">
-        <f>+[11]Main!$C$11</f>
+        <f>+[3]Main!$C$11</f>
         <v>-177</v>
       </c>
       <c r="J5" s="8">
-        <f>+[11]Main!$C$12</f>
+        <f>+[3]Main!$C$12</f>
         <v>69571.319999999992</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f>+[11]Main!$C$29</f>
-        <v>Q224</v>
+        <f>+[3]Main!$C$29</f>
+        <v>Q225</v>
       </c>
       <c r="L5" s="15">
-        <f>+[11]Main!$D$29</f>
+        <f>+[3]Main!$D$29</f>
         <v>45538</v>
       </c>
       <c r="Q5" s="12">
-        <f>+[11]Main!$C$34</f>
+        <f>+[3]Main!$C$34</f>
         <v>28.049442198868228</v>
       </c>
       <c r="R5" s="12">
-        <f>+[11]Main!$C$35</f>
+        <f>+[3]Main!$C$35</f>
         <v>11.954232558139534</v>
       </c>
       <c r="S5" s="12">
-        <f>+[11]Main!$C$36</f>
+        <f>+[3]Main!$C$36</f>
         <v>65.277899355462978</v>
       </c>
       <c r="U5" s="14">
-        <f>+'[11]Financial Model'!$L$25</f>
-        <v>0.90697674418604646</v>
+        <f>+'[3]Financial Model'!$L$25</f>
+        <v>0.90557620817843865</v>
       </c>
       <c r="V5" s="14">
-        <f>+'[11]Financial Model'!$L$26</f>
-        <v>0.22790697674418606</v>
+        <f>+'[3]Financial Model'!$L$26</f>
+        <v>0.19479553903345725</v>
       </c>
       <c r="W5" s="14">
-        <f>+'[11]Financial Model'!$L$27</f>
-        <v>0.18737541528239202</v>
+        <f>+'[3]Financial Model'!$L$27</f>
+        <v>0.16505576208178438</v>
       </c>
       <c r="X5" s="14">
-        <f>+'[11]Financial Model'!$L$28</f>
-        <v>0.19886363636363635</v>
+        <f>+'[3]Financial Model'!$L$28</f>
+        <v>0.13953488372093023</v>
       </c>
       <c r="Z5" s="14">
-        <f>+'[11]Financial Model'!$L$30</f>
-        <v>0.11895910780669139</v>
+        <f>+'[3]Financial Model'!$L$30</f>
+        <v>8.730800323362975E-2</v>
       </c>
       <c r="AA5" s="14">
-        <f>+'[11]Financial Model'!$W$30</f>
-        <v>9.8301698301698215E-2</v>
+        <f>+'[3]Financial Model'!$W$30</f>
+        <v>0.27414584792590868</v>
       </c>
       <c r="AB5" s="14">
-        <f>+'[11]Financial Model'!$V$30</f>
-        <v>0.14113087095303234</v>
-      </c>
-      <c r="AF5" s="20"/>
+        <f>+'[3]Financial Model'!$V$30</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="20">
+        <f>+[3]Main!$C$27</f>
+        <v>14100</v>
+      </c>
       <c r="AG5" s="2">
-        <f>+[11]Main!$C$23</f>
+        <f>+[3]Main!$C$23</f>
         <v>1982</v>
       </c>
       <c r="AH5" s="2">
-        <f>+[11]Main!$C$25</f>
+        <f>+[3]Main!$C$25</f>
         <v>1985</v>
       </c>
       <c r="AI5" s="2" t="str">
-        <f>+[11]Main!$C$24</f>
+        <f>+[3]Main!$C$24</f>
         <v>San Fransisco, CA</v>
       </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AK5" s="2">
+        <f>+[3]Main!$C$38</f>
+        <v>76</v>
+      </c>
+      <c r="AM5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AN5" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:38">
+    <row r="6" spans="2:40">
       <c r="B6" s="5" t="s">
         <v>78</v>
       </c>
@@ -2465,93 +2499,93 @@
         <v>33</v>
       </c>
       <c r="F6" s="10">
-        <f>+[3]Main!$C$6</f>
+        <f>+[4]Main!$C$6</f>
         <v>130.24</v>
       </c>
       <c r="G6" s="8">
-        <f>+[3]Main!$C$7</f>
+        <f>+[4]Main!$C$7</f>
         <v>334.07100000000003</v>
       </c>
       <c r="H6" s="8">
-        <f>+[3]Main!$C$8</f>
+        <f>+[4]Main!$C$8</f>
         <v>43509.407040000006</v>
       </c>
       <c r="I6" s="8">
-        <f>+[3]Main!$C$11</f>
+        <f>+[4]Main!$C$11</f>
         <v>3927.913</v>
       </c>
       <c r="J6" s="8">
-        <f>+[3]Main!$C$12</f>
+        <f>+[4]Main!$C$12</f>
         <v>39581.494040000005</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f>+[3]Main!$C$29</f>
+        <f>+[4]Main!$C$29</f>
         <v>Q224</v>
       </c>
       <c r="L6" s="15">
-        <f>+[3]Main!$D$29</f>
+        <f>+[4]Main!$D$29</f>
         <v>45533</v>
       </c>
       <c r="Q6" s="12">
-        <f>+[3]Main!$C$34</f>
+        <f>+[4]Main!$C$34</f>
         <v>10.51564511498003</v>
       </c>
       <c r="R6" s="12">
-        <f>+[3]Main!$C$35</f>
+        <f>+[4]Main!$C$35</f>
         <v>13.569715649610261</v>
       </c>
       <c r="U6" s="14">
-        <f>+'[3]Financial Model'!$L$24</f>
+        <f>+'[4]Financial Model'!$L$24</f>
         <v>0.66841087502014318</v>
       </c>
       <c r="V6" s="14">
-        <f>+'[3]Financial Model'!$L$25</f>
+        <f>+'[4]Financial Model'!$L$25</f>
         <v>-0.40901724257004091</v>
       </c>
       <c r="W6" s="14">
-        <f>+'[3]Financial Model'!$L$26</f>
+        <f>+'[4]Financial Model'!$L$26</f>
         <v>-0.36581528119892281</v>
       </c>
       <c r="X6" s="14">
-        <f>+'[3]Financial Model'!$L$27</f>
+        <f>+'[4]Financial Model'!$L$27</f>
         <v>-1.2056288153566408E-2</v>
       </c>
       <c r="Z6" s="14">
-        <f>+'[3]Financial Model'!$L$21</f>
+        <f>+'[4]Financial Model'!$L$21</f>
         <v>0.28895667474755871</v>
       </c>
       <c r="AA6" s="14">
-        <f>+'[3]Financial Model'!$X$21</f>
+        <f>+'[4]Financial Model'!$X$21</f>
         <v>0.35864099544019612</v>
       </c>
       <c r="AB6" s="14">
-        <f>+'[3]Financial Model'!$W$21</f>
+        <f>+'[4]Financial Model'!$W$21</f>
         <v>0.69409764566847132</v>
       </c>
       <c r="AF6" s="20">
-        <f>+[3]Main!$C$27</f>
+        <f>+[4]Main!$C$27</f>
         <v>7630</v>
       </c>
       <c r="AG6" s="2">
-        <f>+[3]Main!$C$24</f>
+        <f>+[4]Main!$C$24</f>
         <v>2012</v>
       </c>
       <c r="AH6" s="2">
-        <f>+[3]Main!$C$25</f>
+        <f>+[4]Main!$C$25</f>
         <v>2020</v>
       </c>
       <c r="AI6" s="2" t="str">
-        <f>+[3]Main!$C$23</f>
+        <f>+[4]Main!$C$23</f>
         <v>Bozeman, MT</v>
       </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AM6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AN6" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:38">
+    <row r="7" spans="2:40">
       <c r="B7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2565,114 +2599,114 @@
         <v>33</v>
       </c>
       <c r="F7" s="10">
-        <f>+[4]Main!$C$6</f>
+        <f>+[5]Main!$C$6</f>
         <v>51.68</v>
       </c>
       <c r="G7" s="8">
-        <f>+[4]Main!$C$7</f>
+        <f>+[5]Main!$C$7</f>
         <v>641.81399999999996</v>
       </c>
       <c r="H7" s="8">
-        <f>+[4]Main!$C$8</f>
+        <f>+[5]Main!$C$8</f>
         <v>33168.947520000002</v>
       </c>
       <c r="I7" s="8">
-        <f>+[4]Main!$C$11</f>
+        <f>+[5]Main!$C$11</f>
         <v>2595.5510000000004</v>
       </c>
       <c r="J7" s="8">
-        <f>+[4]Main!$C$12</f>
+        <f>+[5]Main!$C$12</f>
         <v>30573.396520000002</v>
       </c>
       <c r="K7" s="2" t="str">
-        <f>+[4]Main!$G$11</f>
+        <f>+[5]Main!$G$11</f>
         <v>Q324</v>
       </c>
       <c r="L7" s="15">
-        <f>+[4]Main!$H$11</f>
+        <f>+[5]Main!$H$11</f>
         <v>45596</v>
       </c>
       <c r="M7" s="22">
-        <f>+'[4]Financial Model'!$AX$26</f>
+        <f>+'[5]Financial Model'!$AX$26</f>
         <v>71.486963060421459</v>
       </c>
       <c r="N7" s="18">
-        <f>+'[4]Financial Model'!$AX$28</f>
+        <f>+'[5]Financial Model'!$AX$28</f>
         <v>0.38326166912580217</v>
       </c>
       <c r="O7" s="18">
-        <f>+'[4]Financial Model'!$AX$22</f>
+        <f>+'[5]Financial Model'!$AX$22</f>
         <v>0.09</v>
       </c>
       <c r="Q7" s="12">
-        <f>+[4]Main!$G$16</f>
+        <f>+[5]Main!$G$16</f>
         <v>523.51896884519317</v>
       </c>
       <c r="R7" s="12">
-        <f>+[4]Main!$G$17</f>
+        <f>+[5]Main!$G$17</f>
         <v>11.261920977309074</v>
       </c>
       <c r="S7" s="12">
-        <f>+[4]Main!$G$18</f>
+        <f>+[5]Main!$G$18</f>
         <v>-27.750520841528012</v>
       </c>
       <c r="U7" s="14">
-        <f>+'[4]Financial Model'!$T$22</f>
+        <f>+'[5]Financial Model'!$T$22</f>
         <v>0.77778685524927171</v>
       </c>
       <c r="V7" s="14">
-        <f>+'[4]Financial Model'!$T$23</f>
+        <f>+'[5]Financial Model'!$T$23</f>
         <v>-0.26629832028229189</v>
       </c>
       <c r="W7" s="14">
-        <f>+'[4]Financial Model'!$T$24</f>
+        <f>+'[5]Financial Model'!$T$24</f>
         <v>-0.23188027884500237</v>
       </c>
       <c r="X7" s="14">
-        <f>+'[4]Financial Model'!$T$25</f>
+        <f>+'[5]Financial Model'!$T$25</f>
         <v>-5.311828476229569E-4</v>
       </c>
       <c r="Z7" s="14">
-        <f>+'[4]Financial Model'!$T$28</f>
+        <f>+'[5]Financial Model'!$T$28</f>
         <v>0.31255526862387373</v>
       </c>
       <c r="AA7" s="14"/>
       <c r="AB7" s="14">
-        <f>+'[4]Financial Model'!$AF$28</f>
+        <f>+'[5]Financial Model'!$AF$28</f>
         <v>0.15937579623808262</v>
       </c>
       <c r="AC7" s="14">
-        <f>+'[4]Financial Model'!$AE$28</f>
+        <f>+'[5]Financial Model'!$AE$28</f>
         <v>1.0772942519902369</v>
       </c>
       <c r="AE7" s="20">
-        <f>+[4]Main!$G$9</f>
+        <f>+[5]Main!$G$9</f>
         <v>79.5</v>
       </c>
       <c r="AF7" s="20">
-        <f>+[4]Main!$G$10</f>
+        <f>+[5]Main!$G$10</f>
         <v>2457</v>
       </c>
       <c r="AG7" s="2">
-        <f>+[4]Main!$G$8</f>
+        <f>+[5]Main!$G$8</f>
         <v>2004</v>
       </c>
       <c r="AH7" s="2">
-        <f>+[4]Main!$G$7</f>
+        <f>+[5]Main!$G$7</f>
         <v>2021</v>
       </c>
       <c r="AI7" s="2" t="str">
-        <f>+[4]Main!$G$6</f>
+        <f>+[5]Main!$G$6</f>
         <v>San Mateo, CA</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AM7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AN7" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:38">
+    <row r="8" spans="2:40">
       <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
@@ -2686,55 +2720,55 @@
         <v>33</v>
       </c>
       <c r="F8" s="10">
-        <f>+[5]Main!$C$6</f>
+        <f>+[6]Main!$C$6</f>
         <v>129.71</v>
       </c>
       <c r="G8" s="8">
-        <f>+[5]Main!$C$7</f>
+        <f>+[6]Main!$C$7</f>
         <v>169.16992200000001</v>
       </c>
       <c r="H8" s="8">
-        <f>+[5]Main!$C$8</f>
+        <f>+[6]Main!$C$8</f>
         <v>21943.030582620002</v>
       </c>
       <c r="I8" s="8">
-        <f>+[5]Main!$C$11</f>
+        <f>+[6]Main!$C$11</f>
         <v>1744.9669999999999</v>
       </c>
       <c r="J8" s="8">
-        <f>+[5]Main!$C$12</f>
+        <f>+[6]Main!$C$12</f>
         <v>20198.063582620001</v>
       </c>
       <c r="K8" s="2" t="str">
-        <f>+[5]Main!$C$32</f>
+        <f>+[6]Main!$C$32</f>
         <v>Q324</v>
       </c>
       <c r="L8" s="15">
-        <f>+[5]Main!$D$32</f>
+        <f>+[6]Main!$D$32</f>
         <v>45594</v>
       </c>
       <c r="Q8" s="12">
-        <f>+[5]Main!$C$37</f>
+        <f>+[6]Main!$C$37</f>
         <v>11.095743232541535</v>
       </c>
       <c r="U8" s="14">
-        <f>+'[5]Financial Model'!$I$18</f>
+        <f>+'[6]Financial Model'!$I$18</f>
         <v>0.90049404192897387</v>
       </c>
       <c r="V8" s="14">
-        <f>+'[5]Financial Model'!$I$19</f>
+        <f>+'[6]Financial Model'!$I$19</f>
         <v>1.9589437090750374E-2</v>
       </c>
       <c r="W8" s="14">
-        <f>+'[5]Financial Model'!$I$20</f>
+        <f>+'[6]Financial Model'!$I$20</f>
         <v>8.5611925902322611E-2</v>
       </c>
       <c r="X8" s="14">
-        <f>+'[5]Financial Model'!$I$21</f>
+        <f>+'[6]Financial Model'!$I$21</f>
         <v>-1.0405477980665956E-3</v>
       </c>
       <c r="Z8" s="14">
-        <f>+'[5]Financial Model'!$I$24</f>
+        <f>+'[6]Financial Model'!$I$24</f>
         <v>0.67873527767604136</v>
       </c>
       <c r="AB8" s="2" t="s">
@@ -2744,33 +2778,33 @@
         <v>46</v>
       </c>
       <c r="AE8" s="20">
-        <f>+[5]Main!$C$29</f>
+        <f>+[6]Main!$C$29</f>
         <v>97.2</v>
       </c>
       <c r="AF8" s="20">
-        <f>+[5]Main!$C$30</f>
+        <f>+[6]Main!$C$30</f>
         <v>2013</v>
       </c>
       <c r="AG8" s="2">
-        <f>+[5]Main!$C$25</f>
+        <f>+[6]Main!$C$25</f>
         <v>2005</v>
       </c>
       <c r="AH8" s="2">
-        <f>+[5]Main!$C$26</f>
+        <f>+[6]Main!$C$26</f>
         <v>2024</v>
       </c>
       <c r="AI8" s="2" t="str">
-        <f>+[5]Main!$C$24</f>
+        <f>+[6]Main!$C$24</f>
         <v>San Fransisco, CA</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AM8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AN8" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:38">
+    <row r="9" spans="2:40">
       <c r="B9" s="5" t="s">
         <v>68</v>
       </c>
@@ -2784,90 +2818,90 @@
         <v>33</v>
       </c>
       <c r="F9" s="10">
-        <f>+[6]Main!$C$6</f>
+        <f>+[7]Main!$C$6</f>
         <v>36.5</v>
       </c>
       <c r="G9" s="8">
-        <f>+[6]Main!$C$7</f>
+        <f>+[7]Main!$C$7</f>
         <v>563</v>
       </c>
       <c r="H9" s="8">
-        <f>+[6]Main!$C$8</f>
+        <f>+[7]Main!$C$8</f>
         <v>20549.5</v>
       </c>
       <c r="I9" s="8">
-        <f>+[6]Main!$C$11</f>
+        <f>+[7]Main!$C$11</f>
         <v>1272</v>
       </c>
       <c r="J9" s="8">
-        <f>+[6]Main!$C$12</f>
+        <f>+[7]Main!$C$12</f>
         <v>19277.5</v>
       </c>
       <c r="K9" s="2" t="str">
-        <f>+[6]Main!$C$30</f>
+        <f>+[7]Main!$C$30</f>
         <v>Q324</v>
       </c>
       <c r="L9" s="15">
-        <f>+[6]Main!$D$30</f>
+        <f>+[7]Main!$D$30</f>
         <v>45603</v>
       </c>
       <c r="Q9" s="12">
-        <f>+[6]Main!$C$35</f>
+        <f>+[7]Main!$C$35</f>
         <v>14.471478873239437</v>
       </c>
       <c r="R9" s="12">
-        <f>+[6]Main!$C$36</f>
+        <f>+[7]Main!$C$36</f>
         <v>4.4116573636753973</v>
       </c>
       <c r="U9" s="14">
-        <f>+'[6]Financial Model'!$M$28</f>
+        <f>+'[7]Financial Model'!$M$28</f>
         <v>0.24674329501915709</v>
       </c>
       <c r="V9" s="14">
-        <f>+'[6]Financial Model'!$M$29</f>
+        <f>+'[7]Financial Model'!$M$29</f>
         <v>2.6053639846743294E-2</v>
       </c>
       <c r="W9" s="14">
-        <f>+'[6]Financial Model'!$M$30</f>
+        <f>+'[7]Financial Model'!$M$30</f>
         <v>4.2911877394636012E-2</v>
       </c>
       <c r="X9" s="14">
-        <f>+'[6]Financial Model'!$M$31</f>
+        <f>+'[7]Financial Model'!$M$31</f>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="Z9" s="14">
-        <f>+'[6]Financial Model'!$M$33</f>
+        <f>+'[7]Financial Model'!$M$33</f>
         <v>0.26453488372093026</v>
       </c>
       <c r="AA9" s="14">
-        <f>+'[6]Financial Model'!$U$33</f>
+        <f>+'[7]Financial Model'!$U$33</f>
         <v>0.41523251556206509</v>
       </c>
       <c r="AB9" s="14">
-        <f>+'[6]Financial Model'!$T$33</f>
+        <f>+'[7]Financial Model'!$T$33</f>
         <v>0.6017595307917889</v>
       </c>
       <c r="AF9" s="20">
-        <f>+[6]Main!$C$28</f>
+        <f>+[7]Main!$C$28</f>
         <v>5500</v>
       </c>
       <c r="AG9" s="2">
-        <f>+[6]Main!$C$24</f>
+        <f>+[7]Main!$C$24</f>
         <v>2011</v>
       </c>
       <c r="AH9" s="2">
-        <f>+[6]Main!$C$25</f>
+        <f>+[7]Main!$C$25</f>
         <v>2021</v>
       </c>
       <c r="AI9" s="2" t="str">
-        <f>+[6]Main!$C$23</f>
+        <f>+[7]Main!$C$23</f>
         <v>Boston, MA</v>
       </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AN9" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:38">
+    <row r="10" spans="2:40">
       <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
@@ -2881,11 +2915,11 @@
         <v>51</v>
       </c>
       <c r="F10" s="10">
-        <f>+[7]Main!$C$6*Currencies!C3</f>
+        <f>+[8]Main!$C$6*Currencies!C3</f>
         <v>16.497</v>
       </c>
       <c r="G10" s="8">
-        <f>+[7]Main!$C$7</f>
+        <f>+[8]Main!$C$7</f>
         <v>1007</v>
       </c>
       <c r="H10" s="8">
@@ -2893,7 +2927,7 @@
         <v>16612.478999999999</v>
       </c>
       <c r="I10" s="8">
-        <f>[7]Main!$C$11*Currencies!C3</f>
+        <f>[8]Main!$C$11*Currencies!C3</f>
         <v>-913.9</v>
       </c>
       <c r="J10" s="8">
@@ -2901,80 +2935,80 @@
         <v>17526.379000000001</v>
       </c>
       <c r="K10" s="2" t="str">
-        <f>+[7]Main!$C$27</f>
+        <f>+[8]Main!$C$27</f>
         <v>FY24</v>
       </c>
       <c r="L10" s="15">
-        <f>+[7]Main!$D$27</f>
+        <f>+[8]Main!$D$27</f>
         <v>45616</v>
       </c>
       <c r="Q10" s="12">
-        <f>[7]Main!$C$34</f>
+        <f>[8]Main!$C$34</f>
         <v>11.691518755718205</v>
       </c>
       <c r="R10" s="12">
-        <f>[7]Main!$C$33</f>
+        <f>[8]Main!$C$33</f>
         <v>5.479772727272727</v>
       </c>
       <c r="S10" s="12">
-        <f>+[7]Main!$C$32</f>
+        <f>+[8]Main!$C$32</f>
         <v>39.562941176470588</v>
       </c>
       <c r="U10" s="14">
-        <f>+'[7]Financial Model'!$X$20</f>
+        <f>+'[8]Financial Model'!$X$20</f>
         <v>0.92795883361921094</v>
       </c>
       <c r="V10" s="14">
-        <f>+'[7]Financial Model'!$X$21</f>
+        <f>+'[8]Financial Model'!$X$21</f>
         <v>0.19382504288164665</v>
       </c>
       <c r="W10" s="14">
-        <f>+'[7]Financial Model'!$X$22</f>
+        <f>+'[8]Financial Model'!$X$22</f>
         <v>0.13850771869639794</v>
       </c>
       <c r="X10" s="14">
-        <f>+'[7]Financial Model'!$X$23</f>
+        <f>+'[8]Financial Model'!$X$23</f>
         <v>0.24178403755868544</v>
       </c>
       <c r="Z10" s="14">
-        <f>+'[7]Financial Model'!$X$25</f>
+        <f>+'[8]Financial Model'!$X$25</f>
         <v>6.7765567765567747E-2</v>
       </c>
       <c r="AA10" s="14">
-        <f>+'[7]Financial Model'!$W$25</f>
+        <f>+'[8]Financial Model'!$W$25</f>
         <v>0.1217257318952234</v>
       </c>
       <c r="AB10" s="14">
-        <f>+'[7]Financial Model'!$V$25</f>
+        <f>+'[8]Financial Model'!$V$25</f>
         <v>5.4712892741061836E-2</v>
       </c>
       <c r="AC10" s="14">
-        <f>+'[7]Financial Model'!$U$25</f>
+        <f>+'[8]Financial Model'!$U$25</f>
         <v>-2.9952706253284278E-2</v>
       </c>
       <c r="AF10" s="20">
-        <f>+[7]Main!$C$26</f>
+        <f>+[8]Main!$C$26</f>
         <v>11565</v>
       </c>
       <c r="AG10" s="2">
-        <f>+[7]Main!$C$24</f>
+        <f>+[8]Main!$C$24</f>
         <v>1981</v>
       </c>
       <c r="AH10" s="2">
-        <f>+[7]Main!$C$25</f>
+        <f>+[8]Main!$C$25</f>
         <v>1989</v>
       </c>
       <c r="AI10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AM10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AN10" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:38">
+    <row r="11" spans="2:40">
       <c r="B11" s="5" t="s">
         <v>82</v>
       </c>
@@ -2988,69 +3022,85 @@
         <v>33</v>
       </c>
       <c r="F11" s="10">
-        <f>+[8]Main!$C$6</f>
+        <f>+[9]Main!$C$6</f>
         <v>93.15</v>
       </c>
       <c r="G11" s="8">
-        <f>+[8]Main!$C$7</f>
-        <v>102.284435</v>
+        <f>+[9]Main!$C$7</f>
+        <v>103.23874000000001</v>
       </c>
       <c r="H11" s="8">
-        <f>+[8]Main!$C$8</f>
-        <v>9527.7951202500008</v>
+        <f>+[9]Main!$C$8</f>
+        <v>9616.6886310000009</v>
       </c>
       <c r="I11" s="8">
-        <f>+[8]Main!$C$11</f>
+        <f>+[9]Main!$C$11</f>
         <v>578.44299999999998</v>
       </c>
       <c r="J11" s="8">
-        <f>+[8]Main!$C$12</f>
-        <v>8949.3521202500015</v>
+        <f>+[9]Main!$C$12</f>
+        <v>9038.2456310000016</v>
       </c>
       <c r="K11" s="20" t="str">
-        <f>+[8]Main!$C$29</f>
-        <v>Q125</v>
+        <f>+[9]Main!$C$29</f>
+        <v>Q225</v>
       </c>
       <c r="L11" s="15">
-        <f>+[8]Main!$D$29</f>
-        <v>45524</v>
+        <f>+[9]Main!$D$29</f>
+        <v>45617</v>
       </c>
       <c r="Q11" s="12">
-        <f>+[8]Main!$C$34</f>
+        <f>+[9]Main!$C$34</f>
         <v>12.550196094773931</v>
       </c>
       <c r="U11" s="14">
-        <f>+'[8]Financial Model'!$K$29</f>
+        <f>+'[9]Financial Model'!$K$29</f>
         <v>0.73589027689827868</v>
       </c>
       <c r="V11" s="14">
-        <f>+'[8]Financial Model'!$K$30</f>
+        <f>+'[9]Financial Model'!$K$30</f>
         <v>-9.7397962120775908E-2</v>
       </c>
       <c r="W11" s="14">
-        <f>+'[8]Financial Model'!$K$31</f>
+        <f>+'[9]Financial Model'!$K$31</f>
         <v>-0.141693051637787</v>
       </c>
       <c r="X11" s="14">
-        <f>+'[8]Financial Model'!$K$32</f>
+        <f>+'[9]Financial Model'!$K$32</f>
         <v>-0.68840032926327432</v>
       </c>
       <c r="Z11" s="14">
-        <f>+'[8]Financial Model'!$K$34</f>
+        <f>+'[9]Financial Model'!$K$34</f>
         <v>0.18269430439859335</v>
       </c>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
       <c r="AF11" s="20"/>
-      <c r="AK11" s="2" t="s">
+      <c r="AG11" s="31">
+        <f>+[9]Main!$C$24</f>
+        <v>2012</v>
+      </c>
+      <c r="AH11" s="31">
+        <f>+[9]Main!$C$25</f>
+        <v>2018</v>
+      </c>
+      <c r="AI11" s="20" t="str">
+        <f>+[9]Main!$C$23</f>
+        <v>Mountain View, CA</v>
+      </c>
+      <c r="AK11" s="20">
+        <f>+[9]Main!$C$38</f>
+        <v>64</v>
+      </c>
+      <c r="AM11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AN11" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="2:38">
+    <row r="12" spans="2:40">
       <c r="B12" s="5" t="s">
         <v>61</v>
       </c>
@@ -3064,11 +3114,11 @@
         <v>33</v>
       </c>
       <c r="F12" s="10">
-        <f>+[9]Main!$C$6*Currencies!C3</f>
+        <f>+[10]Main!$C$6*Currencies!C3</f>
         <v>4.3290000000000006</v>
       </c>
       <c r="G12" s="8">
-        <f>+[9]Main!$C$7</f>
+        <f>+[10]Main!$C$7</f>
         <v>193.41571500000001</v>
       </c>
       <c r="H12" s="8">
@@ -3076,7 +3126,7 @@
         <v>837.29663023500018</v>
       </c>
       <c r="I12" s="8">
-        <f>[9]Main!$C$11*Currencies!D3</f>
+        <f>[10]Main!$C$11*Currencies!D3</f>
         <v>20.227692307692305</v>
       </c>
       <c r="J12" s="8">
@@ -3084,85 +3134,85 @@
         <v>817.06893792730784</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f>[9]Main!$C$30</f>
+        <f>[10]Main!$C$30</f>
         <v>H124</v>
       </c>
       <c r="L12" s="15">
-        <f>[9]Main!$D$30</f>
+        <f>[10]Main!$D$30</f>
         <v>45559</v>
       </c>
       <c r="Q12" s="12">
-        <f>+[9]Main!$C$35</f>
+        <f>+[10]Main!$C$35</f>
         <v>3.1948131495535712</v>
       </c>
       <c r="R12" s="12">
-        <f>+[9]Main!$C$36</f>
+        <f>+[10]Main!$C$36</f>
         <v>2.6442251407476842</v>
       </c>
       <c r="S12" s="12">
-        <f>+[9]Main!$C$38</f>
+        <f>+[10]Main!$C$38</f>
         <v>15.436558542879432</v>
       </c>
       <c r="U12" s="14">
-        <f>+'[9]Financial Model'!$F$42</f>
+        <f>+'[10]Financial Model'!$F$42</f>
         <v>0.23750000000000002</v>
       </c>
       <c r="V12" s="14">
-        <f>+'[9]Financial Model'!$F$43</f>
+        <f>+'[10]Financial Model'!$F$43</f>
         <v>7.9166666666666677E-2</v>
       </c>
       <c r="W12" s="14">
-        <f>+'[9]Financial Model'!$F$44</f>
+        <f>+'[10]Financial Model'!$F$44</f>
         <v>5.2777777777777792E-2</v>
       </c>
       <c r="X12" s="14">
-        <f>+'[9]Financial Model'!$F$45</f>
+        <f>+'[10]Financial Model'!$F$45</f>
         <v>0.29629629629629622</v>
       </c>
       <c r="Z12" s="14">
-        <f>+'[9]Financial Model'!$F$30</f>
+        <f>+'[10]Financial Model'!$F$30</f>
         <v>0.61254199328107539</v>
       </c>
       <c r="AA12" s="14">
-        <f>+'[9]Financial Model'!$K$30</f>
+        <f>+'[10]Financial Model'!$K$30</f>
         <v>0.41487498602675421</v>
       </c>
       <c r="AB12" s="14">
-        <f>+'[9]Financial Model'!$J$30</f>
+        <f>+'[10]Financial Model'!$J$30</f>
         <v>0.33624730593867169</v>
       </c>
       <c r="AC12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AF12" s="2">
-        <f>+[9]Main!$C$27</f>
+        <f>+[10]Main!$C$27</f>
         <v>115</v>
       </c>
       <c r="AG12" s="2">
-        <f>+[9]Main!$C$24</f>
+        <f>+[10]Main!$C$24</f>
         <v>2012</v>
       </c>
       <c r="AH12" s="30">
-        <f>+[9]Main!$C$25</f>
+        <f>+[10]Main!$C$25</f>
         <v>45444</v>
       </c>
       <c r="AI12" s="2" t="str">
-        <f>[9]Main!$C$23</f>
+        <f>[10]Main!$C$23</f>
         <v>Cambridge, UK</v>
       </c>
-      <c r="AK12" s="2" t="s">
+      <c r="AM12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AL12" s="2" t="s">
+      <c r="AN12" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:38">
+    <row r="13" spans="2:40">
       <c r="F13" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="2:38">
+    <row r="15" spans="2:40">
       <c r="B15" s="5" t="s">
         <v>67</v>
       </c>
@@ -3170,11 +3220,11 @@
         <v>70</v>
       </c>
       <c r="K15" s="2" t="str">
-        <f>+[10]Main!$C$28</f>
+        <f>+[11]Main!$C$28</f>
         <v>Q123</v>
       </c>
       <c r="L15" s="15">
-        <f>+[10]Main!$D$28</f>
+        <f>+[11]Main!$D$28</f>
         <v>45055</v>
       </c>
     </row>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCBA741-C2D2-4AC3-8772-F14BFCE7D0B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95E8685-F20F-4A16-AA57-830226FDF9ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -28,6 +28,7 @@
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
   <si>
     <t>Ticker</t>
   </si>
@@ -312,6 +313,15 @@
   </si>
   <si>
     <t>Stockopedia</t>
+  </si>
+  <si>
+    <t>$WDAY</t>
+  </si>
+  <si>
+    <t>Accounting, Financial Management</t>
+  </si>
+  <si>
+    <t>P/FCF</t>
   </si>
 </sst>
 </file>
@@ -319,8 +329,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0\x"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
+    <numFmt numFmtId="166" formatCode="0\x"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -438,12 +448,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,6 +501,12 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -798,6 +808,137 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Workday, Inc.</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>269.76</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>265.31700000000001</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>71571.913920000006</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>4391</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>67180.913920000006</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Pleasanton, CA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>Q224</v>
+          </cell>
+          <cell r="D29">
+            <v>45532</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>8.5766223990413426</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>9.1023672796642519</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>45.85620282114553</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>33.856156064333014</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>62</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="22">
+          <cell r="N22">
+            <v>0.75491606714628301</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="N23">
+            <v>5.3237410071942444E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="N24">
+            <v>6.3309352517985612E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="N25">
+            <v>0.21428571428571427</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="N27">
+            <v>0.16675993284834911</v>
+          </cell>
+          <cell r="U27">
+            <v>0.2095738470519557</v>
+          </cell>
+          <cell r="V27">
+            <v>0.16779279279279269</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="N31">
+            <v>19908</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -996,6 +1137,11 @@
         <row r="36">
           <cell r="C36">
             <v>65.277899355462978</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>61.41090265486725</v>
           </cell>
         </row>
         <row r="38">
@@ -1997,13 +2143,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B533DC-5A31-4AB0-80D6-BD84B319883E}">
-  <dimension ref="B1:AN20"/>
+  <dimension ref="B1:AO21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2015,33 +2161,33 @@
     <col min="6" max="6" width="9.140625" style="10"/>
     <col min="7" max="10" width="9.140625" style="8"/>
     <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="0" style="17" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="19" width="9.140625" style="12"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="24" width="9.140625" style="14"/>
-    <col min="25" max="25" width="9.140625" style="1"/>
-    <col min="26" max="30" width="9.140625" style="2"/>
-    <col min="31" max="31" width="9.140625" style="20"/>
-    <col min="32" max="32" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="9.140625" style="2"/>
-    <col min="35" max="35" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="2"/>
-    <col min="37" max="37" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.140625" style="2"/>
-    <col min="39" max="39" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="20" width="9.140625" style="30"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="25" width="9.140625" style="12"/>
+    <col min="26" max="26" width="9.140625" style="1"/>
+    <col min="27" max="31" width="9.140625" style="2"/>
+    <col min="32" max="32" width="9.140625" style="18"/>
+    <col min="33" max="33" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="9.140625" style="2"/>
+    <col min="36" max="36" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="2"/>
+    <col min="38" max="38" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" style="2"/>
+    <col min="40" max="40" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40">
-      <c r="F1" s="27" t="s">
+    <row r="1" spans="2:41">
+      <c r="F1" s="25" t="s">
         <v>60</v>
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="2:40" s="3" customFormat="1">
+    <row r="2" spans="2:41" s="3" customFormat="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2075,77 +2221,80 @@
       <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="W2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="X2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="Y2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="21" t="s">
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:40">
+    <row r="3" spans="2:41">
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
@@ -2182,94 +2331,94 @@
         <f>+[1]Main!$C$31</f>
         <v>Q324</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="13">
         <f>+[1]Main!$D$31</f>
         <v>45595</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="15">
         <f>+'[1]Financial Model'!$AU$28</f>
         <v>627.94737053951712</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="16">
         <f>+'[1]Financial Model'!$AU$31</f>
         <v>9.1569820327006779E-2</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="16">
         <f>+'[1]Financial Model'!$AU$24</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="30">
         <f>+[1]Main!$C$35</f>
         <v>8.8425616760571089</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="30">
         <f>+[1]Main!$C$36</f>
         <v>9.3124609062453985</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="30">
         <f>+[1]Main!$C$38</f>
         <v>26.360609283332796</v>
       </c>
-      <c r="U3" s="14">
+      <c r="V3" s="12">
         <f>+'[1]Financial Model'!$Y$22</f>
         <v>0.81830052477272164</v>
       </c>
-      <c r="V3" s="14">
+      <c r="W3" s="12">
         <f>+'[1]Financial Model'!$Y$23</f>
         <v>0.4274557146024785</v>
       </c>
-      <c r="W3" s="14">
+      <c r="X3" s="12">
         <f>+'[1]Financial Model'!$Y$24</f>
         <v>0.38650865998176848</v>
       </c>
-      <c r="X3" s="14">
+      <c r="Y3" s="12">
         <f>+'[1]Financial Model'!$Y$25</f>
         <v>0.11973964762652901</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="AA3" s="12">
         <f>+'[1]Financial Model'!$Y$27</f>
         <v>0.18868974404029748</v>
       </c>
-      <c r="AA3" s="14">
+      <c r="AB3" s="12">
         <f>+'[1]Financial Model'!$AH$27</f>
         <v>0.15687468377226454</v>
       </c>
-      <c r="AB3" s="14">
+      <c r="AC3" s="12">
         <f>+'[1]Financial Model'!$AG$27</f>
         <v>-1.1193175554782941E-2</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AD3" s="12">
         <f>+'[1]Financial Model'!$AF$27</f>
         <v>0.37182574303495608</v>
       </c>
-      <c r="AE3" s="20">
+      <c r="AF3" s="18">
         <f>+[1]Main!$C$27*1000</f>
         <v>3900</v>
       </c>
-      <c r="AF3" s="20">
+      <c r="AG3" s="18">
         <f>+[1]Main!$C$28</f>
         <v>72404</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AH3" s="2">
         <f>+[1]Main!$C$24</f>
         <v>2004</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AI3" s="2">
         <f>+[1]Main!$C$25</f>
         <v>2012</v>
       </c>
-      <c r="AI3" s="2" t="str">
+      <c r="AJ3" s="2" t="str">
         <f>+[1]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:40">
+    <row r="4" spans="2:41">
       <c r="B4" s="5" t="s">
         <v>74</v>
       </c>
@@ -2306,83 +2455,84 @@
         <f>[2]Main!$C$30</f>
         <v>Q324</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="13">
         <f>[2]Main!$D$30</f>
         <v>45608</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="30">
         <f>[2]Main!$C$35</f>
         <v>2.048085692097604</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="30">
         <f>[2]Main!$C$36</f>
         <v>19.19263634517079</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="30">
         <f>+[2]Main!$C$38</f>
         <v>118.16107002434873</v>
       </c>
-      <c r="U4" s="14">
+      <c r="V4" s="12">
         <f>'[2]Financial Model'!$Q$24</f>
         <v>0.31093279839518556</v>
       </c>
-      <c r="V4" s="14">
+      <c r="W4" s="12">
         <f>'[2]Financial Model'!$Q$25</f>
         <v>0.11384152457372117</v>
       </c>
-      <c r="W4" s="14">
+      <c r="X4" s="12">
         <f>'[2]Financial Model'!$Q$26</f>
         <v>7.5225677031093285E-2</v>
       </c>
-      <c r="X4" s="14">
+      <c r="Y4" s="12">
         <f>'[2]Financial Model'!$Q$27</f>
         <v>0.24623115577889448</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="AA4" s="12">
         <f>'[2]Financial Model'!$Q$21</f>
         <v>0.18796544533809945</v>
       </c>
-      <c r="AA4" s="14">
+      <c r="AB4" s="12">
         <f>'[2]Financial Model'!$AA$21</f>
         <v>0.12961541741280813</v>
       </c>
-      <c r="AB4" s="14">
+      <c r="AC4" s="12">
         <f>'[2]Financial Model'!$Z$21</f>
         <v>0.21297062474141493</v>
       </c>
-      <c r="AE4" s="20">
+      <c r="AF4" s="18">
         <f>+[2]Main!$C$27/30</f>
         <v>21.333333333333332</v>
       </c>
-      <c r="AF4" s="20">
+      <c r="AG4" s="18">
         <f>+[2]Main!$C$28</f>
         <v>9123</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AH4" s="2">
         <f>[2]Main!$C$24</f>
         <v>2006</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AI4" s="2">
         <f>+[2]Main!$C$25</f>
         <v>2018</v>
       </c>
-      <c r="AI4" s="2" t="str">
+      <c r="AJ4" s="2" t="str">
         <f>[2]Main!$C$23</f>
         <v>Stockholm, Sweden</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AN4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AO4" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:40">
+    <row r="5" spans="2:41">
       <c r="B5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>+[12]Main!$B$3</f>
+        <v>Workday, Inc.</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
@@ -2391,859 +2541,975 @@
         <v>33</v>
       </c>
       <c r="F5" s="10">
+        <f>+[12]Main!$C$6</f>
+        <v>269.76</v>
+      </c>
+      <c r="G5" s="8">
+        <f>+[12]Main!$C$7</f>
+        <v>265.31700000000001</v>
+      </c>
+      <c r="H5" s="8">
+        <f>+[12]Main!$C$8</f>
+        <v>71571.913920000006</v>
+      </c>
+      <c r="I5" s="8">
+        <f>+[12]Main!$C$11</f>
+        <v>4391</v>
+      </c>
+      <c r="J5" s="8">
+        <f>+[12]Main!$C$12</f>
+        <v>67180.913920000006</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f>+[12]Main!$C$29</f>
+        <v>Q224</v>
+      </c>
+      <c r="L5" s="13">
+        <f>+[12]Main!$D$29</f>
+        <v>45532</v>
+      </c>
+      <c r="Q5" s="30">
+        <f>+[12]Main!$C$34</f>
+        <v>8.5766223990413426</v>
+      </c>
+      <c r="R5" s="30">
+        <f>+[12]Main!$C$35</f>
+        <v>9.1023672796642519</v>
+      </c>
+      <c r="S5" s="30">
+        <f>+[12]Main!$C$37</f>
+        <v>45.85620282114553</v>
+      </c>
+      <c r="T5" s="30">
+        <f>+[12]Main!$C$39</f>
+        <v>33.856156064333014</v>
+      </c>
+      <c r="V5" s="12">
+        <f>+'[12]Financial Model'!$N$22</f>
+        <v>0.75491606714628301</v>
+      </c>
+      <c r="W5" s="12">
+        <f>+'[12]Financial Model'!$N$23</f>
+        <v>5.3237410071942444E-2</v>
+      </c>
+      <c r="X5" s="12">
+        <f>+'[12]Financial Model'!$N$24</f>
+        <v>6.3309352517985612E-2</v>
+      </c>
+      <c r="Y5" s="12">
+        <f>+'[12]Financial Model'!$N$25</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AA5" s="12">
+        <f>+'[12]Financial Model'!$N$27</f>
+        <v>0.16675993284834911</v>
+      </c>
+      <c r="AB5" s="12">
+        <f>+'[12]Financial Model'!$V$27</f>
+        <v>0.16779279279279269</v>
+      </c>
+      <c r="AC5" s="12">
+        <f>+'[12]Financial Model'!$U$27</f>
+        <v>0.2095738470519557</v>
+      </c>
+      <c r="AG5" s="18">
+        <f>+'[12]Financial Model'!$N$31</f>
+        <v>19908</v>
+      </c>
+      <c r="AH5" s="2">
+        <f>+[12]Main!$C$24</f>
+        <v>2005</v>
+      </c>
+      <c r="AI5" s="2">
+        <f>+[12]Main!$C$25</f>
+        <v>2012</v>
+      </c>
+      <c r="AJ5" s="2" t="str">
+        <f>+[12]Main!$C$23</f>
+        <v>Pleasanton, CA</v>
+      </c>
+      <c r="AL5" s="2">
+        <f>+[12]Main!$C$40</f>
+        <v>62</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:41">
+      <c r="B6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="10">
         <f>+[3]Main!$C$6</f>
         <v>321.27</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G6" s="8">
         <f>+[3]Main!$C$7</f>
         <v>216</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H6" s="8">
         <f>+[3]Main!$C$8</f>
         <v>69394.319999999992</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I6" s="8">
         <f>+[3]Main!$C$11</f>
         <v>-177</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J6" s="8">
         <f>+[3]Main!$C$12</f>
         <v>69571.319999999992</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="K6" s="2" t="str">
         <f>+[3]Main!$C$29</f>
         <v>Q225</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L6" s="13">
         <f>+[3]Main!$D$29</f>
         <v>45538</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q6" s="30">
         <f>+[3]Main!$C$34</f>
         <v>28.049442198868228</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R6" s="30">
         <f>+[3]Main!$C$35</f>
         <v>11.954232558139534</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S6" s="30">
         <f>+[3]Main!$C$36</f>
         <v>65.277899355462978</v>
       </c>
-      <c r="U5" s="14">
+      <c r="T6" s="30">
+        <f>+[3]Main!$C$37</f>
+        <v>61.41090265486725</v>
+      </c>
+      <c r="V6" s="12">
         <f>+'[3]Financial Model'!$L$25</f>
         <v>0.90557620817843865</v>
       </c>
-      <c r="V5" s="14">
+      <c r="W6" s="12">
         <f>+'[3]Financial Model'!$L$26</f>
         <v>0.19479553903345725</v>
       </c>
-      <c r="W5" s="14">
+      <c r="X6" s="12">
         <f>+'[3]Financial Model'!$L$27</f>
         <v>0.16505576208178438</v>
       </c>
-      <c r="X5" s="14">
+      <c r="Y6" s="12">
         <f>+'[3]Financial Model'!$L$28</f>
         <v>0.13953488372093023</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="AA6" s="12">
         <f>+'[3]Financial Model'!$L$30</f>
         <v>8.730800323362975E-2</v>
       </c>
-      <c r="AA5" s="14">
+      <c r="AB6" s="12">
         <f>+'[3]Financial Model'!$W$30</f>
         <v>0.27414584792590868</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AC6" s="12">
         <f>+'[3]Financial Model'!$V$30</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="20">
+      <c r="AG6" s="18">
         <f>+[3]Main!$C$27</f>
         <v>14100</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AH6" s="2">
         <f>+[3]Main!$C$23</f>
         <v>1982</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AI6" s="2">
         <f>+[3]Main!$C$25</f>
         <v>1985</v>
       </c>
-      <c r="AI5" s="2" t="str">
+      <c r="AJ6" s="2" t="str">
         <f>+[3]Main!$C$24</f>
         <v>San Fransisco, CA</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AL6" s="2">
         <f>+[3]Main!$C$38</f>
         <v>76</v>
       </c>
-      <c r="AM5" s="2" t="s">
+      <c r="AN6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AO6" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:40">
-      <c r="B6" s="5" t="s">
+    <row r="7" spans="2:41">
+      <c r="B7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="10">
         <f>+[4]Main!$C$6</f>
         <v>130.24</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G7" s="8">
         <f>+[4]Main!$C$7</f>
         <v>334.07100000000003</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H7" s="8">
         <f>+[4]Main!$C$8</f>
         <v>43509.407040000006</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I7" s="8">
         <f>+[4]Main!$C$11</f>
         <v>3927.913</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J7" s="8">
         <f>+[4]Main!$C$12</f>
         <v>39581.494040000005</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="K7" s="2" t="str">
         <f>+[4]Main!$C$29</f>
         <v>Q224</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L7" s="13">
         <f>+[4]Main!$D$29</f>
         <v>45533</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q7" s="30">
         <f>+[4]Main!$C$34</f>
         <v>10.51564511498003</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R7" s="30">
         <f>+[4]Main!$C$35</f>
         <v>13.569715649610261</v>
       </c>
-      <c r="U6" s="14">
+      <c r="V7" s="12">
         <f>+'[4]Financial Model'!$L$24</f>
         <v>0.66841087502014318</v>
       </c>
-      <c r="V6" s="14">
+      <c r="W7" s="12">
         <f>+'[4]Financial Model'!$L$25</f>
         <v>-0.40901724257004091</v>
       </c>
-      <c r="W6" s="14">
+      <c r="X7" s="12">
         <f>+'[4]Financial Model'!$L$26</f>
         <v>-0.36581528119892281</v>
       </c>
-      <c r="X6" s="14">
+      <c r="Y7" s="12">
         <f>+'[4]Financial Model'!$L$27</f>
         <v>-1.2056288153566408E-2</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="AA7" s="12">
         <f>+'[4]Financial Model'!$L$21</f>
         <v>0.28895667474755871</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AB7" s="12">
         <f>+'[4]Financial Model'!$X$21</f>
         <v>0.35864099544019612</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AC7" s="12">
         <f>+'[4]Financial Model'!$W$21</f>
         <v>0.69409764566847132</v>
       </c>
-      <c r="AF6" s="20">
+      <c r="AG7" s="18">
         <f>+[4]Main!$C$27</f>
         <v>7630</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AH7" s="2">
         <f>+[4]Main!$C$24</f>
         <v>2012</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AI7" s="2">
         <f>+[4]Main!$C$25</f>
         <v>2020</v>
       </c>
-      <c r="AI6" s="2" t="str">
+      <c r="AJ7" s="2" t="str">
         <f>+[4]Main!$C$23</f>
         <v>Bozeman, MT</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AN7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AO7" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:40">
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="2:41">
+      <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F8" s="10">
         <f>+[5]Main!$C$6</f>
         <v>51.68</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G8" s="8">
         <f>+[5]Main!$C$7</f>
         <v>641.81399999999996</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H8" s="8">
         <f>+[5]Main!$C$8</f>
         <v>33168.947520000002</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I8" s="8">
         <f>+[5]Main!$C$11</f>
         <v>2595.5510000000004</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J8" s="8">
         <f>+[5]Main!$C$12</f>
         <v>30573.396520000002</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="K8" s="2" t="str">
         <f>+[5]Main!$G$11</f>
         <v>Q324</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L8" s="13">
         <f>+[5]Main!$H$11</f>
         <v>45596</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M8" s="20">
         <f>+'[5]Financial Model'!$AX$26</f>
         <v>71.486963060421459</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N8" s="16">
         <f>+'[5]Financial Model'!$AX$28</f>
         <v>0.38326166912580217</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O8" s="16">
         <f>+'[5]Financial Model'!$AX$22</f>
         <v>0.09</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q8" s="30">
         <f>+[5]Main!$G$16</f>
         <v>523.51896884519317</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R8" s="30">
         <f>+[5]Main!$G$17</f>
         <v>11.261920977309074</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S8" s="30">
         <f>+[5]Main!$G$18</f>
         <v>-27.750520841528012</v>
       </c>
-      <c r="U7" s="14">
+      <c r="V8" s="12">
         <f>+'[5]Financial Model'!$T$22</f>
         <v>0.77778685524927171</v>
       </c>
-      <c r="V7" s="14">
+      <c r="W8" s="12">
         <f>+'[5]Financial Model'!$T$23</f>
         <v>-0.26629832028229189</v>
       </c>
-      <c r="W7" s="14">
+      <c r="X8" s="12">
         <f>+'[5]Financial Model'!$T$24</f>
         <v>-0.23188027884500237</v>
       </c>
-      <c r="X7" s="14">
+      <c r="Y8" s="12">
         <f>+'[5]Financial Model'!$T$25</f>
         <v>-5.311828476229569E-4</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="AA8" s="12">
         <f>+'[5]Financial Model'!$T$28</f>
         <v>0.31255526862387373</v>
       </c>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14">
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12">
         <f>+'[5]Financial Model'!$AF$28</f>
         <v>0.15937579623808262</v>
       </c>
-      <c r="AC7" s="14">
+      <c r="AD8" s="12">
         <f>+'[5]Financial Model'!$AE$28</f>
         <v>1.0772942519902369</v>
       </c>
-      <c r="AE7" s="20">
+      <c r="AF8" s="18">
         <f>+[5]Main!$G$9</f>
         <v>79.5</v>
       </c>
-      <c r="AF7" s="20">
+      <c r="AG8" s="18">
         <f>+[5]Main!$G$10</f>
         <v>2457</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AH8" s="2">
         <f>+[5]Main!$G$8</f>
         <v>2004</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AI8" s="2">
         <f>+[5]Main!$G$7</f>
         <v>2021</v>
       </c>
-      <c r="AI7" s="2" t="str">
+      <c r="AJ8" s="2" t="str">
         <f>+[5]Main!$G$6</f>
         <v>San Mateo, CA</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AN8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AO8" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:40">
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="2:41">
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F9" s="10">
         <f>+[6]Main!$C$6</f>
         <v>129.71</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="8">
         <f>+[6]Main!$C$7</f>
         <v>169.16992200000001</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H9" s="8">
         <f>+[6]Main!$C$8</f>
         <v>21943.030582620002</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I9" s="8">
         <f>+[6]Main!$C$11</f>
         <v>1744.9669999999999</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J9" s="8">
         <f>+[6]Main!$C$12</f>
         <v>20198.063582620001</v>
       </c>
-      <c r="K8" s="2" t="str">
+      <c r="K9" s="2" t="str">
         <f>+[6]Main!$C$32</f>
         <v>Q324</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L9" s="13">
         <f>+[6]Main!$D$32</f>
         <v>45594</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q9" s="30">
         <f>+[6]Main!$C$37</f>
         <v>11.095743232541535</v>
       </c>
-      <c r="U8" s="14">
+      <c r="V9" s="12">
         <f>+'[6]Financial Model'!$I$18</f>
         <v>0.90049404192897387</v>
       </c>
-      <c r="V8" s="14">
+      <c r="W9" s="12">
         <f>+'[6]Financial Model'!$I$19</f>
         <v>1.9589437090750374E-2</v>
       </c>
-      <c r="W8" s="14">
+      <c r="X9" s="12">
         <f>+'[6]Financial Model'!$I$20</f>
         <v>8.5611925902322611E-2</v>
       </c>
-      <c r="X8" s="14">
+      <c r="Y9" s="12">
         <f>+'[6]Financial Model'!$I$21</f>
         <v>-1.0405477980665956E-3</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="AA9" s="12">
         <f>+'[6]Financial Model'!$I$24</f>
         <v>0.67873527767604136</v>
       </c>
-      <c r="AB8" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AD9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AE8" s="20">
+      <c r="AF9" s="18">
         <f>+[6]Main!$C$29</f>
         <v>97.2</v>
       </c>
-      <c r="AF8" s="20">
+      <c r="AG9" s="18">
         <f>+[6]Main!$C$30</f>
         <v>2013</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AH9" s="2">
         <f>+[6]Main!$C$25</f>
         <v>2005</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AI9" s="2">
         <f>+[6]Main!$C$26</f>
         <v>2024</v>
       </c>
-      <c r="AI8" s="2" t="str">
+      <c r="AJ9" s="2" t="str">
         <f>+[6]Main!$C$24</f>
         <v>San Fransisco, CA</v>
       </c>
-      <c r="AM8" s="2" t="s">
+      <c r="AN9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AO9" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:40">
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="2:41">
+      <c r="B10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F10" s="10">
         <f>+[7]Main!$C$6</f>
         <v>36.5</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <f>+[7]Main!$C$7</f>
         <v>563</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H10" s="8">
         <f>+[7]Main!$C$8</f>
         <v>20549.5</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10" s="8">
         <f>+[7]Main!$C$11</f>
         <v>1272</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J10" s="8">
         <f>+[7]Main!$C$12</f>
         <v>19277.5</v>
       </c>
-      <c r="K9" s="2" t="str">
+      <c r="K10" s="2" t="str">
         <f>+[7]Main!$C$30</f>
         <v>Q324</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L10" s="13">
         <f>+[7]Main!$D$30</f>
         <v>45603</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q10" s="30">
         <f>+[7]Main!$C$35</f>
         <v>14.471478873239437</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R10" s="30">
         <f>+[7]Main!$C$36</f>
         <v>4.4116573636753973</v>
       </c>
-      <c r="U9" s="14">
+      <c r="V10" s="12">
         <f>+'[7]Financial Model'!$M$28</f>
         <v>0.24674329501915709</v>
       </c>
-      <c r="V9" s="14">
+      <c r="W10" s="12">
         <f>+'[7]Financial Model'!$M$29</f>
         <v>2.6053639846743294E-2</v>
       </c>
-      <c r="W9" s="14">
+      <c r="X10" s="12">
         <f>+'[7]Financial Model'!$M$30</f>
         <v>4.2911877394636012E-2</v>
       </c>
-      <c r="X9" s="14">
+      <c r="Y10" s="12">
         <f>+'[7]Financial Model'!$M$31</f>
         <v>1.7543859649122806E-2</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="AA10" s="12">
         <f>+'[7]Financial Model'!$M$33</f>
         <v>0.26453488372093026</v>
       </c>
-      <c r="AA9" s="14">
+      <c r="AB10" s="12">
         <f>+'[7]Financial Model'!$U$33</f>
         <v>0.41523251556206509</v>
       </c>
-      <c r="AB9" s="14">
+      <c r="AC10" s="12">
         <f>+'[7]Financial Model'!$T$33</f>
         <v>0.6017595307917889</v>
       </c>
-      <c r="AF9" s="20">
+      <c r="AG10" s="18">
         <f>+[7]Main!$C$28</f>
         <v>5500</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AH10" s="2">
         <f>+[7]Main!$C$24</f>
         <v>2011</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AI10" s="2">
         <f>+[7]Main!$C$25</f>
         <v>2021</v>
       </c>
-      <c r="AI9" s="2" t="str">
+      <c r="AJ10" s="2" t="str">
         <f>+[7]Main!$C$23</f>
         <v>Boston, MA</v>
       </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AO10" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:40">
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="2:41">
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F11" s="10">
         <f>+[8]Main!$C$6*Currencies!C3</f>
         <v>16.497</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="8">
         <f>+[8]Main!$C$7</f>
         <v>1007</v>
       </c>
-      <c r="H10" s="8">
-        <f>G10*F10</f>
+      <c r="H11" s="8">
+        <f>G11*F11</f>
         <v>16612.478999999999</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I11" s="8">
         <f>[8]Main!$C$11*Currencies!C3</f>
         <v>-913.9</v>
       </c>
-      <c r="J10" s="8">
-        <f>H10-I10</f>
+      <c r="J11" s="8">
+        <f>H11-I11</f>
         <v>17526.379000000001</v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="K11" s="2" t="str">
         <f>+[8]Main!$C$27</f>
         <v>FY24</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L11" s="13">
         <f>+[8]Main!$D$27</f>
         <v>45616</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q11" s="30">
         <f>[8]Main!$C$34</f>
         <v>11.691518755718205</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R11" s="30">
         <f>[8]Main!$C$33</f>
         <v>5.479772727272727</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S11" s="30">
         <f>+[8]Main!$C$32</f>
         <v>39.562941176470588</v>
       </c>
-      <c r="U10" s="14">
+      <c r="V11" s="12">
         <f>+'[8]Financial Model'!$X$20</f>
         <v>0.92795883361921094</v>
       </c>
-      <c r="V10" s="14">
+      <c r="W11" s="12">
         <f>+'[8]Financial Model'!$X$21</f>
         <v>0.19382504288164665</v>
       </c>
-      <c r="W10" s="14">
+      <c r="X11" s="12">
         <f>+'[8]Financial Model'!$X$22</f>
         <v>0.13850771869639794</v>
       </c>
-      <c r="X10" s="14">
+      <c r="Y11" s="12">
         <f>+'[8]Financial Model'!$X$23</f>
         <v>0.24178403755868544</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="AA11" s="12">
         <f>+'[8]Financial Model'!$X$25</f>
         <v>6.7765567765567747E-2</v>
       </c>
-      <c r="AA10" s="14">
+      <c r="AB11" s="12">
         <f>+'[8]Financial Model'!$W$25</f>
         <v>0.1217257318952234</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AC11" s="12">
         <f>+'[8]Financial Model'!$V$25</f>
         <v>5.4712892741061836E-2</v>
       </c>
-      <c r="AC10" s="14">
+      <c r="AD11" s="12">
         <f>+'[8]Financial Model'!$U$25</f>
         <v>-2.9952706253284278E-2</v>
       </c>
-      <c r="AF10" s="20">
+      <c r="AG11" s="18">
         <f>+[8]Main!$C$26</f>
         <v>11565</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AH11" s="2">
         <f>+[8]Main!$C$24</f>
         <v>1981</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AI11" s="2">
         <f>+[8]Main!$C$25</f>
         <v>1989</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AJ11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AM10" s="2" t="s">
+      <c r="AN11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AO11" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:40">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="2:41">
+      <c r="B12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <f>+[9]Main!$C$6</f>
         <v>93.15</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="8">
         <f>+[9]Main!$C$7</f>
         <v>103.23874000000001</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H12" s="8">
         <f>+[9]Main!$C$8</f>
         <v>9616.6886310000009</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I12" s="8">
         <f>+[9]Main!$C$11</f>
         <v>578.44299999999998</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J12" s="8">
         <f>+[9]Main!$C$12</f>
         <v>9038.2456310000016</v>
       </c>
-      <c r="K11" s="20" t="str">
+      <c r="K12" s="18" t="str">
         <f>+[9]Main!$C$29</f>
         <v>Q225</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L12" s="13">
         <f>+[9]Main!$D$29</f>
         <v>45617</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q12" s="30">
         <f>+[9]Main!$C$34</f>
         <v>12.550196094773931</v>
       </c>
-      <c r="U11" s="14">
+      <c r="V12" s="12">
         <f>+'[9]Financial Model'!$K$29</f>
         <v>0.73589027689827868</v>
       </c>
-      <c r="V11" s="14">
+      <c r="W12" s="12">
         <f>+'[9]Financial Model'!$K$30</f>
         <v>-9.7397962120775908E-2</v>
       </c>
-      <c r="W11" s="14">
+      <c r="X12" s="12">
         <f>+'[9]Financial Model'!$K$31</f>
         <v>-0.141693051637787</v>
       </c>
-      <c r="X11" s="14">
+      <c r="Y12" s="12">
         <f>+'[9]Financial Model'!$K$32</f>
         <v>-0.68840032926327432</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="AA12" s="12">
         <f>+'[9]Financial Model'!$K$34</f>
         <v>0.18269430439859335</v>
       </c>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="31">
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="29">
         <f>+[9]Main!$C$24</f>
         <v>2012</v>
       </c>
-      <c r="AH11" s="31">
+      <c r="AI12" s="29">
         <f>+[9]Main!$C$25</f>
         <v>2018</v>
       </c>
-      <c r="AI11" s="20" t="str">
+      <c r="AJ12" s="18" t="str">
         <f>+[9]Main!$C$23</f>
         <v>Mountain View, CA</v>
       </c>
-      <c r="AK11" s="20">
+      <c r="AL12" s="18">
         <f>+[9]Main!$C$38</f>
         <v>64</v>
       </c>
-      <c r="AM11" s="2" t="s">
+      <c r="AN12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AN11" s="2" t="s">
+      <c r="AO12" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="2:40">
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="2:41">
+      <c r="B13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F13" s="10">
         <f>+[10]Main!$C$6*Currencies!C3</f>
         <v>4.3290000000000006</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="8">
         <f>+[10]Main!$C$7</f>
         <v>193.41571500000001</v>
       </c>
-      <c r="H12" s="8">
-        <f>G12*F12</f>
+      <c r="H13" s="8">
+        <f>G13*F13</f>
         <v>837.29663023500018</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I13" s="8">
         <f>[10]Main!$C$11*Currencies!D3</f>
         <v>20.227692307692305</v>
       </c>
-      <c r="J12" s="8">
-        <f>H12-I12</f>
+      <c r="J13" s="8">
+        <f>H13-I13</f>
         <v>817.06893792730784</v>
       </c>
-      <c r="K12" s="2" t="str">
+      <c r="K13" s="2" t="str">
         <f>[10]Main!$C$30</f>
         <v>H124</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L13" s="13">
         <f>[10]Main!$D$30</f>
         <v>45559</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q13" s="30">
         <f>+[10]Main!$C$35</f>
         <v>3.1948131495535712</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R13" s="30">
         <f>+[10]Main!$C$36</f>
         <v>2.6442251407476842</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S13" s="30">
         <f>+[10]Main!$C$38</f>
         <v>15.436558542879432</v>
       </c>
-      <c r="U12" s="14">
+      <c r="V13" s="12">
         <f>+'[10]Financial Model'!$F$42</f>
         <v>0.23750000000000002</v>
       </c>
-      <c r="V12" s="14">
+      <c r="W13" s="12">
         <f>+'[10]Financial Model'!$F$43</f>
         <v>7.9166666666666677E-2</v>
       </c>
-      <c r="W12" s="14">
+      <c r="X13" s="12">
         <f>+'[10]Financial Model'!$F$44</f>
         <v>5.2777777777777792E-2</v>
       </c>
-      <c r="X12" s="14">
+      <c r="Y13" s="12">
         <f>+'[10]Financial Model'!$F$45</f>
         <v>0.29629629629629622</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="AA13" s="12">
         <f>+'[10]Financial Model'!$F$30</f>
         <v>0.61254199328107539</v>
       </c>
-      <c r="AA12" s="14">
+      <c r="AB13" s="12">
         <f>+'[10]Financial Model'!$K$30</f>
         <v>0.41487498602675421</v>
       </c>
-      <c r="AB12" s="14">
+      <c r="AC13" s="12">
         <f>+'[10]Financial Model'!$J$30</f>
         <v>0.33624730593867169</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AD13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AG13" s="2">
         <f>+[10]Main!$C$27</f>
         <v>115</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AH13" s="2">
         <f>+[10]Main!$C$24</f>
         <v>2012</v>
       </c>
-      <c r="AH12" s="30">
+      <c r="AI13" s="28">
         <f>+[10]Main!$C$25</f>
         <v>45444</v>
       </c>
-      <c r="AI12" s="2" t="str">
+      <c r="AJ13" s="2" t="str">
         <f>[10]Main!$C$23</f>
         <v>Cambridge, UK</v>
       </c>
-      <c r="AM12" s="2" t="s">
+      <c r="AN13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AN12" s="2" t="s">
+      <c r="AO13" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:40">
-      <c r="F13" s="10" t="s">
+    <row r="14" spans="2:41">
+      <c r="F14" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="2:40">
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="2:41">
+      <c r="B16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="2" t="str">
+      <c r="K16" s="2" t="str">
         <f>+[11]Main!$C$28</f>
         <v>Q123</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L16" s="13">
         <f>+[11]Main!$D$28</f>
         <v>45055</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3255,21 +3521,22 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{AFCC0C36-695A-4698-B366-E9445F7B4F63}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{1AA14988-C4F2-405C-BA9D-FBCA3DA35146}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{6E23CD56-40A8-49B9-8695-A01CE41D946F}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
-    <hyperlink ref="B12" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
-    <hyperlink ref="B15" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{3859F738-BD99-4DD5-8721-EF043945682D}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{1AA14988-C4F2-405C-BA9D-FBCA3DA35146}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{6E23CD56-40A8-49B9-8695-A01CE41D946F}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
+    <hyperlink ref="B13" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
+    <hyperlink ref="B16" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{3859F738-BD99-4DD5-8721-EF043945682D}"/>
     <hyperlink ref="B4" r:id="rId8" xr:uid="{7B052CC6-304F-47CB-A888-07413A5C714D}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{383539A3-A008-4138-9E99-F152484C7F66}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{14914AE3-9BC8-4B00-947F-C4331DFB8EED}"/>
-    <hyperlink ref="B5" r:id="rId11" xr:uid="{E635F2D9-F8A1-4114-ACFA-1F5C37840BC2}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{383539A3-A008-4138-9E99-F152484C7F66}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{14914AE3-9BC8-4B00-947F-C4331DFB8EED}"/>
+    <hyperlink ref="B6" r:id="rId11" xr:uid="{E635F2D9-F8A1-4114-ACFA-1F5C37840BC2}"/>
+    <hyperlink ref="B5" r:id="rId12" xr:uid="{5EFB43D2-FEF7-4D4A-9ED9-38F476FBD5D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
   <ignoredErrors>
-    <ignoredError sqref="H11 J11" formula="1"/>
+    <ignoredError sqref="H12 J12" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3287,40 +3554,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="3" width="9.140625" style="26"/>
-    <col min="4" max="4" width="9.140625" style="29"/>
-    <col min="5" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="2" max="3" width="9.140625" style="24"/>
+    <col min="4" max="4" width="9.140625" style="27"/>
+    <col min="5" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="24" customFormat="1">
-      <c r="C2" s="25" t="s">
+    <row r="2" spans="2:4" s="22" customFormat="1">
+      <c r="C2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
         <v>1.3</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="27">
         <f>1/C3</f>
         <v>0.76923076923076916</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>1.0900000000000001</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <f>1/C4</f>
         <v>0.9174311926605504</v>
       </c>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95E8685-F20F-4A16-AA57-830226FDF9ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A85BA-93D4-4424-B307-819B4768ACB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -329,8 +329,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="0\x"/>
+    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="165" formatCode="0\x"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -495,16 +495,16 @@
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -678,6 +678,106 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>93.15</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>103.23874000000001</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>9616.6886310000009</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>578.44299999999998</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>9038.2456310000016</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Mountain View, CA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>Q225</v>
+          </cell>
+          <cell r="D29">
+            <v>45617</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>12.550196094773931</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>64</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="29">
+          <cell r="K29">
+            <v>0.73589027689827868</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="K30">
+            <v>-9.7397962120775908E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="K31">
+            <v>-0.141693051637787</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="K32">
+            <v>-0.68840032926327432</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="K34">
+            <v>0.18269430439859335</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
       <sheetName val="Data Visualisation"/>
     </sheetNames>
     <sheetDataSet>
@@ -780,7 +880,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -803,137 +903,6 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Workday, Inc.</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>269.76</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>265.31700000000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>71571.913920000006</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>4391</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>67180.913920000006</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Pleasanton, CA</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>2005</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>2012</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>Q224</v>
-          </cell>
-          <cell r="D29">
-            <v>45532</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>8.5766223990413426</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>9.1023672796642519</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>45.85620282114553</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>33.856156064333014</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>62</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="22">
-          <cell r="N22">
-            <v>0.75491606714628301</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="N23">
-            <v>5.3237410071942444E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="N24">
-            <v>6.3309352517985612E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="N25">
-            <v>0.21428571428571427</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="N27">
-            <v>0.16675993284834911</v>
-          </cell>
-          <cell r="U27">
-            <v>0.2095738470519557</v>
-          </cell>
-          <cell r="V27">
-            <v>0.16779279279279269</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="N31">
-            <v>19908</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1071,112 +1040,120 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Workday, Inc.</v>
+          </cell>
+        </row>
         <row r="6">
           <cell r="C6">
-            <v>321.27</v>
+            <v>240.6</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>216</v>
+            <v>265.411</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>69394.319999999992</v>
+            <v>63857.886599999998</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>-177</v>
+            <v>4174</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>69571.319999999992</v>
+            <v>59683.886599999998</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="C23">
-            <v>1982</v>
+          <cell r="C23" t="str">
+            <v>Pleasanton, CA</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="C24" t="str">
-            <v>San Fransisco, CA</v>
+          <cell r="C24">
+            <v>2005</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>1985</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>14100</v>
+            <v>2012</v>
           </cell>
         </row>
         <row r="29">
           <cell r="C29" t="str">
-            <v>Q225</v>
+            <v>Q325</v>
           </cell>
           <cell r="D29">
-            <v>45538</v>
+            <v>45622</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>28.049442198868228</v>
+            <v>7.4046714517625229</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>11.954232558139534</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>65.277899355462978</v>
+            <v>7.8282876555733649</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>61.41090265486725</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>76</v>
+            <v>38.956238505652571</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>30.689855720223829</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>62</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="22">
+          <cell r="O22">
+            <v>0.75462962962962965</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="O23">
+            <v>7.6388888888888895E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="O24">
+            <v>8.9351851851851849E-2</v>
+          </cell>
+        </row>
         <row r="25">
-          <cell r="L25">
-            <v>0.90557620817843865</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="L26">
-            <v>0.19479553903345725</v>
+          <cell r="O25">
+            <v>0.14977973568281938</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="L27">
-            <v>0.16505576208178438</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="L28">
-            <v>0.13953488372093023</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="L30">
-            <v>8.730800323362975E-2</v>
-          </cell>
-          <cell r="W30">
-            <v>0.27414584792590868</v>
+          <cell r="O27">
+            <v>0.15775791603575118</v>
+          </cell>
+          <cell r="U27">
+            <v>0.2095738470519557</v>
+          </cell>
+          <cell r="V27">
+            <v>0.16779279279279269</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="N31">
+            <v>19908</v>
           </cell>
         </row>
       </sheetData>
@@ -1196,98 +1173,110 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>130.24</v>
+            <v>287</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>334.07100000000003</v>
+            <v>215</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>43509.407040000006</v>
+            <v>61705</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>3927.913</v>
+            <v>199</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>39581.494040000005</v>
+            <v>61506</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="C23" t="str">
-            <v>Bozeman, MT</v>
+          <cell r="C23">
+            <v>1982</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="C24">
-            <v>2012</v>
+          <cell r="C24" t="str">
+            <v>San Fransisco, CA</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>2020</v>
+            <v>1985</v>
           </cell>
         </row>
         <row r="27">
           <cell r="C27">
-            <v>7630</v>
+            <v>14100</v>
           </cell>
         </row>
         <row r="29">
           <cell r="C29" t="str">
-            <v>Q224</v>
+            <v>Q325</v>
           </cell>
           <cell r="D29">
-            <v>45533</v>
+            <v>45622</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>10.51564511498003</v>
+            <v>23.587538226299696</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>13.569715649610261</v>
+            <v>13.736642920747997</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>76.434317645358632</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>46.888297872340424</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>76</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="21">
-          <cell r="L21">
-            <v>0.28895667474755871</v>
-          </cell>
-          <cell r="W21">
-            <v>0.69409764566847132</v>
-          </cell>
-          <cell r="X21">
-            <v>0.35864099544019612</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="L24">
-            <v>0.66841087502014318</v>
-          </cell>
-        </row>
         <row r="25">
-          <cell r="L25">
-            <v>-0.40901724257004091</v>
+          <cell r="Q25">
+            <v>0.90636942675159238</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="L26">
-            <v>-0.36581528119892281</v>
+          <cell r="Q26">
+            <v>0.22038216560509555</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="L27">
-            <v>-1.2056288153566408E-2</v>
+          <cell r="Q27">
+            <v>0.17490445859872614</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="Q28">
+            <v>0.21677124928693667</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="L30">
+            <v>8.730800323362975E-2</v>
+          </cell>
+          <cell r="W30">
+            <v>0.27414584792590868</v>
           </cell>
         </row>
       </sheetData>
@@ -1297,6 +1286,117 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>130.24</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>334.07100000000003</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>43509.407040000006</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>3927.913</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>39581.494040000005</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Bozeman, MT</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>7630</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>Q224</v>
+          </cell>
+          <cell r="D29">
+            <v>45533</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>10.51564511498003</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>13.569715649610261</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="L21">
+            <v>0.28895667474755871</v>
+          </cell>
+          <cell r="W21">
+            <v>0.69409764566847132</v>
+          </cell>
+          <cell r="X21">
+            <v>0.35864099544019612</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="L24">
+            <v>0.66841087502014318</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="L25">
+            <v>-0.40901724257004091</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="L26">
+            <v>-0.36581528119892281</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="L27">
+            <v>-1.2056288153566408E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1419,111 +1519,6 @@
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>129.71</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>169.16992200000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>21943.030582620002</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>1744.9669999999999</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>20198.063582620001</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>San Fransisco, CA</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>2005</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>2024</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>97.2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>2013</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>Q324</v>
-          </cell>
-          <cell r="D32">
-            <v>45594</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>11.095743232541535</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="18">
-          <cell r="I18">
-            <v>0.90049404192897387</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19">
-            <v>1.9589437090750374E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20">
-            <v>8.5611925902322611E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21">
-            <v>-1.0405477980665956E-3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24">
-            <v>0.67873527767604136</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1540,98 +1535,92 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>36.5</v>
+            <v>129.71</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>563</v>
+            <v>169.16992200000001</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>20549.5</v>
+            <v>21943.030582620002</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>1272</v>
+            <v>1744.9669999999999</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>19277.5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Boston, MA</v>
+            <v>20198.063582620001</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="C24">
-            <v>2011</v>
+          <cell r="C24" t="str">
+            <v>San Fransisco, CA</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>2021</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>5500</v>
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>2024</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>97.2</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="C30" t="str">
+          <cell r="C30">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
             <v>Q324</v>
           </cell>
-          <cell r="D30">
-            <v>45603</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>14.471478873239437</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>4.4116573636753973</v>
+          <cell r="D32">
+            <v>45594</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>11.095743232541535</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="28">
-          <cell r="M28">
-            <v>0.24674329501915709</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="M29">
-            <v>2.6053639846743294E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="M30">
-            <v>4.2911877394636012E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="M31">
-            <v>1.7543859649122806E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="M33">
-            <v>0.26453488372093026</v>
-          </cell>
-          <cell r="T33">
-            <v>0.6017595307917889</v>
-          </cell>
-          <cell r="U33">
-            <v>0.41523251556206509</v>
+        <row r="18">
+          <cell r="I18">
+            <v>0.90049404192897387</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19">
+            <v>1.9589437090750374E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20">
+            <v>8.5611925902322611E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21">
+            <v>-1.0405477980665956E-3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="I24">
+            <v>0.67873527767604136</v>
           </cell>
         </row>
       </sheetData>
@@ -1646,101 +1635,106 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
-      <sheetName val="Historical Forecast"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>12.69</v>
+            <v>36.5</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>1007</v>
+            <v>563</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>20549.5</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>-703</v>
+            <v>1272</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>19277.5</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Boston, MA</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>1981</v>
+            <v>2011</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>1989</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>11565</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>FY24</v>
-          </cell>
-          <cell r="D27">
-            <v>45616</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>39.562941176470588</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>5.479772727272727</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>11.691518755718205</v>
+            <v>2021</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>5500</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>Q324</v>
+          </cell>
+          <cell r="D30">
+            <v>45603</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>14.471478873239437</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>4.4116573636753973</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="20">
-          <cell r="X20">
-            <v>0.92795883361921094</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="X21">
-            <v>0.19382504288164665</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="X22">
-            <v>0.13850771869639794</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="X23">
-            <v>0.24178403755868544</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="U25">
-            <v>-2.9952706253284278E-2</v>
-          </cell>
-          <cell r="V25">
-            <v>5.4712892741061836E-2</v>
-          </cell>
-          <cell r="W25">
-            <v>0.1217257318952234</v>
-          </cell>
-          <cell r="X25">
-            <v>6.7765567765567747E-2</v>
+        <row r="28">
+          <cell r="M28">
+            <v>0.24674329501915709</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="M29">
+            <v>2.6053639846743294E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="M30">
+            <v>4.2911877394636012E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="M31">
+            <v>1.7543859649122806E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="M33">
+            <v>0.26453488372093026</v>
+          </cell>
+          <cell r="T33">
+            <v>0.6017595307917889</v>
+          </cell>
+          <cell r="U33">
+            <v>0.41523251556206509</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1752,95 +1746,101 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+      <sheetName val="Historical Forecast"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>93.15</v>
+            <v>12.69</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>103.23874000000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>9616.6886310000009</v>
+            <v>1007</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>578.44299999999998</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>9038.2456310000016</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Mountain View, CA</v>
+            <v>-703</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>2012</v>
+            <v>1981</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>2018</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>Q225</v>
-          </cell>
-          <cell r="D29">
-            <v>45617</v>
+            <v>1989</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>11565</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>FY24</v>
+          </cell>
+          <cell r="D27">
+            <v>45616</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>39.562941176470588</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>5.479772727272727</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>12.550196094773931</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>64</v>
+            <v>11.691518755718205</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="29">
-          <cell r="K29">
-            <v>0.73589027689827868</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="K30">
-            <v>-9.7397962120775908E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="K31">
-            <v>-0.141693051637787</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="K32">
-            <v>-0.68840032926327432</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="K34">
-            <v>0.18269430439859335</v>
+        <row r="20">
+          <cell r="X20">
+            <v>0.92795883361921094</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="X21">
+            <v>0.19382504288164665</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="X22">
+            <v>0.13850771869639794</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="X23">
+            <v>0.24178403755868544</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="U25">
+            <v>-2.9952706253284278E-2</v>
+          </cell>
+          <cell r="V25">
+            <v>5.4712892741061836E-2</v>
+          </cell>
+          <cell r="W25">
+            <v>0.1217257318952234</v>
+          </cell>
+          <cell r="X25">
+            <v>6.7765567765567747E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2146,10 +2146,10 @@
   <dimension ref="B1:AO21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2531,7 +2531,7 @@
         <v>91</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>+[12]Main!$B$3</f>
+        <f>+[3]Main!$B$3</f>
         <v>Workday, Inc.</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2541,95 +2541,95 @@
         <v>33</v>
       </c>
       <c r="F5" s="10">
-        <f>+[12]Main!$C$6</f>
-        <v>269.76</v>
+        <f>+[3]Main!$C$6</f>
+        <v>240.6</v>
       </c>
       <c r="G5" s="8">
-        <f>+[12]Main!$C$7</f>
-        <v>265.31700000000001</v>
+        <f>+[3]Main!$C$7</f>
+        <v>265.411</v>
       </c>
       <c r="H5" s="8">
-        <f>+[12]Main!$C$8</f>
-        <v>71571.913920000006</v>
+        <f>+[3]Main!$C$8</f>
+        <v>63857.886599999998</v>
       </c>
       <c r="I5" s="8">
-        <f>+[12]Main!$C$11</f>
-        <v>4391</v>
+        <f>+[3]Main!$C$11</f>
+        <v>4174</v>
       </c>
       <c r="J5" s="8">
-        <f>+[12]Main!$C$12</f>
-        <v>67180.913920000006</v>
+        <f>+[3]Main!$C$12</f>
+        <v>59683.886599999998</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f>+[12]Main!$C$29</f>
-        <v>Q224</v>
+        <f>+[3]Main!$C$29</f>
+        <v>Q325</v>
       </c>
       <c r="L5" s="13">
-        <f>+[12]Main!$D$29</f>
-        <v>45532</v>
+        <f>+[3]Main!$D$29</f>
+        <v>45622</v>
       </c>
       <c r="Q5" s="30">
-        <f>+[12]Main!$C$34</f>
-        <v>8.5766223990413426</v>
+        <f>+[3]Main!$C$34</f>
+        <v>7.4046714517625229</v>
       </c>
       <c r="R5" s="30">
-        <f>+[12]Main!$C$35</f>
-        <v>9.1023672796642519</v>
+        <f>+[3]Main!$C$35</f>
+        <v>7.8282876555733649</v>
       </c>
       <c r="S5" s="30">
-        <f>+[12]Main!$C$37</f>
-        <v>45.85620282114553</v>
+        <f>+[3]Main!$C$37</f>
+        <v>38.956238505652571</v>
       </c>
       <c r="T5" s="30">
-        <f>+[12]Main!$C$39</f>
-        <v>33.856156064333014</v>
+        <f>+[3]Main!$C$39</f>
+        <v>30.689855720223829</v>
       </c>
       <c r="V5" s="12">
-        <f>+'[12]Financial Model'!$N$22</f>
-        <v>0.75491606714628301</v>
+        <f>+'[3]Financial Model'!$O$22</f>
+        <v>0.75462962962962965</v>
       </c>
       <c r="W5" s="12">
-        <f>+'[12]Financial Model'!$N$23</f>
-        <v>5.3237410071942444E-2</v>
+        <f>+'[3]Financial Model'!$O$23</f>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="X5" s="12">
-        <f>+'[12]Financial Model'!$N$24</f>
-        <v>6.3309352517985612E-2</v>
+        <f>+'[3]Financial Model'!$O$24</f>
+        <v>8.9351851851851849E-2</v>
       </c>
       <c r="Y5" s="12">
-        <f>+'[12]Financial Model'!$N$25</f>
-        <v>0.21428571428571427</v>
+        <f>+'[3]Financial Model'!$O$25</f>
+        <v>0.14977973568281938</v>
       </c>
       <c r="AA5" s="12">
-        <f>+'[12]Financial Model'!$N$27</f>
-        <v>0.16675993284834911</v>
+        <f>+'[3]Financial Model'!$O$27</f>
+        <v>0.15775791603575118</v>
       </c>
       <c r="AB5" s="12">
-        <f>+'[12]Financial Model'!$V$27</f>
+        <f>+'[3]Financial Model'!$V$27</f>
         <v>0.16779279279279269</v>
       </c>
       <c r="AC5" s="12">
-        <f>+'[12]Financial Model'!$U$27</f>
+        <f>+'[3]Financial Model'!$U$27</f>
         <v>0.2095738470519557</v>
       </c>
       <c r="AG5" s="18">
-        <f>+'[12]Financial Model'!$N$31</f>
+        <f>+'[3]Financial Model'!$N$31</f>
         <v>19908</v>
       </c>
       <c r="AH5" s="2">
-        <f>+[12]Main!$C$24</f>
+        <f>+[3]Main!$C$24</f>
         <v>2005</v>
       </c>
       <c r="AI5" s="2">
-        <f>+[12]Main!$C$25</f>
+        <f>+[3]Main!$C$25</f>
         <v>2012</v>
       </c>
       <c r="AJ5" s="2" t="str">
-        <f>+[12]Main!$C$23</f>
+        <f>+[3]Main!$C$23</f>
         <v>Pleasanton, CA</v>
       </c>
       <c r="AL5" s="2">
-        <f>+[12]Main!$C$40</f>
+        <f>+[3]Main!$C$40</f>
         <v>62</v>
       </c>
       <c r="AN5" s="2" t="s">
@@ -2653,95 +2653,95 @@
         <v>33</v>
       </c>
       <c r="F6" s="10">
-        <f>+[3]Main!$C$6</f>
-        <v>321.27</v>
+        <f>+[4]Main!$C$6</f>
+        <v>287</v>
       </c>
       <c r="G6" s="8">
-        <f>+[3]Main!$C$7</f>
-        <v>216</v>
+        <f>+[4]Main!$C$7</f>
+        <v>215</v>
       </c>
       <c r="H6" s="8">
-        <f>+[3]Main!$C$8</f>
-        <v>69394.319999999992</v>
+        <f>+[4]Main!$C$8</f>
+        <v>61705</v>
       </c>
       <c r="I6" s="8">
-        <f>+[3]Main!$C$11</f>
-        <v>-177</v>
+        <f>+[4]Main!$C$11</f>
+        <v>199</v>
       </c>
       <c r="J6" s="8">
-        <f>+[3]Main!$C$12</f>
-        <v>69571.319999999992</v>
+        <f>+[4]Main!$C$12</f>
+        <v>61506</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f>+[3]Main!$C$29</f>
-        <v>Q225</v>
+        <f>+[4]Main!$C$29</f>
+        <v>Q325</v>
       </c>
       <c r="L6" s="13">
-        <f>+[3]Main!$D$29</f>
-        <v>45538</v>
+        <f>+[4]Main!$D$29</f>
+        <v>45622</v>
       </c>
       <c r="Q6" s="30">
-        <f>+[3]Main!$C$34</f>
-        <v>28.049442198868228</v>
+        <f>+[4]Main!$C$34</f>
+        <v>23.587538226299696</v>
       </c>
       <c r="R6" s="30">
-        <f>+[3]Main!$C$35</f>
-        <v>11.954232558139534</v>
+        <f>+[4]Main!$C$35</f>
+        <v>13.736642920747997</v>
       </c>
       <c r="S6" s="30">
-        <f>+[3]Main!$C$36</f>
-        <v>65.277899355462978</v>
+        <f>+[4]Main!$C$36</f>
+        <v>76.434317645358632</v>
       </c>
       <c r="T6" s="30">
-        <f>+[3]Main!$C$37</f>
-        <v>61.41090265486725</v>
+        <f>+[4]Main!$C$37</f>
+        <v>46.888297872340424</v>
       </c>
       <c r="V6" s="12">
-        <f>+'[3]Financial Model'!$L$25</f>
-        <v>0.90557620817843865</v>
+        <f>+'[4]Financial Model'!$Q$25</f>
+        <v>0.90636942675159238</v>
       </c>
       <c r="W6" s="12">
-        <f>+'[3]Financial Model'!$L$26</f>
-        <v>0.19479553903345725</v>
+        <f>+'[4]Financial Model'!$Q$26</f>
+        <v>0.22038216560509555</v>
       </c>
       <c r="X6" s="12">
-        <f>+'[3]Financial Model'!$L$27</f>
-        <v>0.16505576208178438</v>
+        <f>+'[4]Financial Model'!$Q$27</f>
+        <v>0.17490445859872614</v>
       </c>
       <c r="Y6" s="12">
-        <f>+'[3]Financial Model'!$L$28</f>
-        <v>0.13953488372093023</v>
+        <f>+'[4]Financial Model'!$Q$28</f>
+        <v>0.21677124928693667</v>
       </c>
       <c r="AA6" s="12">
-        <f>+'[3]Financial Model'!$L$30</f>
+        <f>+'[4]Financial Model'!$L$30</f>
         <v>8.730800323362975E-2</v>
       </c>
       <c r="AB6" s="12">
-        <f>+'[3]Financial Model'!$W$30</f>
+        <f>+'[4]Financial Model'!$W$30</f>
         <v>0.27414584792590868</v>
       </c>
       <c r="AC6" s="12">
-        <f>+'[3]Financial Model'!$V$30</f>
+        <f>+'[4]Financial Model'!$V$30</f>
         <v>0</v>
       </c>
       <c r="AG6" s="18">
-        <f>+[3]Main!$C$27</f>
+        <f>+[4]Main!$C$27</f>
         <v>14100</v>
       </c>
       <c r="AH6" s="2">
-        <f>+[3]Main!$C$23</f>
+        <f>+[4]Main!$C$23</f>
         <v>1982</v>
       </c>
       <c r="AI6" s="2">
-        <f>+[3]Main!$C$25</f>
+        <f>+[4]Main!$C$25</f>
         <v>1985</v>
       </c>
       <c r="AJ6" s="2" t="str">
-        <f>+[3]Main!$C$24</f>
+        <f>+[4]Main!$C$24</f>
         <v>San Fransisco, CA</v>
       </c>
       <c r="AL6" s="2">
-        <f>+[3]Main!$C$38</f>
+        <f>+[4]Main!$C$38</f>
         <v>76</v>
       </c>
       <c r="AN6" s="2" t="s">
@@ -2765,83 +2765,83 @@
         <v>33</v>
       </c>
       <c r="F7" s="10">
-        <f>+[4]Main!$C$6</f>
+        <f>+[5]Main!$C$6</f>
         <v>130.24</v>
       </c>
       <c r="G7" s="8">
-        <f>+[4]Main!$C$7</f>
+        <f>+[5]Main!$C$7</f>
         <v>334.07100000000003</v>
       </c>
       <c r="H7" s="8">
-        <f>+[4]Main!$C$8</f>
+        <f>+[5]Main!$C$8</f>
         <v>43509.407040000006</v>
       </c>
       <c r="I7" s="8">
-        <f>+[4]Main!$C$11</f>
+        <f>+[5]Main!$C$11</f>
         <v>3927.913</v>
       </c>
       <c r="J7" s="8">
-        <f>+[4]Main!$C$12</f>
+        <f>+[5]Main!$C$12</f>
         <v>39581.494040000005</v>
       </c>
       <c r="K7" s="2" t="str">
-        <f>+[4]Main!$C$29</f>
+        <f>+[5]Main!$C$29</f>
         <v>Q224</v>
       </c>
       <c r="L7" s="13">
-        <f>+[4]Main!$D$29</f>
+        <f>+[5]Main!$D$29</f>
         <v>45533</v>
       </c>
       <c r="Q7" s="30">
-        <f>+[4]Main!$C$34</f>
+        <f>+[5]Main!$C$34</f>
         <v>10.51564511498003</v>
       </c>
       <c r="R7" s="30">
-        <f>+[4]Main!$C$35</f>
+        <f>+[5]Main!$C$35</f>
         <v>13.569715649610261</v>
       </c>
       <c r="V7" s="12">
-        <f>+'[4]Financial Model'!$L$24</f>
+        <f>+'[5]Financial Model'!$L$24</f>
         <v>0.66841087502014318</v>
       </c>
       <c r="W7" s="12">
-        <f>+'[4]Financial Model'!$L$25</f>
+        <f>+'[5]Financial Model'!$L$25</f>
         <v>-0.40901724257004091</v>
       </c>
       <c r="X7" s="12">
-        <f>+'[4]Financial Model'!$L$26</f>
+        <f>+'[5]Financial Model'!$L$26</f>
         <v>-0.36581528119892281</v>
       </c>
       <c r="Y7" s="12">
-        <f>+'[4]Financial Model'!$L$27</f>
+        <f>+'[5]Financial Model'!$L$27</f>
         <v>-1.2056288153566408E-2</v>
       </c>
       <c r="AA7" s="12">
-        <f>+'[4]Financial Model'!$L$21</f>
+        <f>+'[5]Financial Model'!$L$21</f>
         <v>0.28895667474755871</v>
       </c>
       <c r="AB7" s="12">
-        <f>+'[4]Financial Model'!$X$21</f>
+        <f>+'[5]Financial Model'!$X$21</f>
         <v>0.35864099544019612</v>
       </c>
       <c r="AC7" s="12">
-        <f>+'[4]Financial Model'!$W$21</f>
+        <f>+'[5]Financial Model'!$W$21</f>
         <v>0.69409764566847132</v>
       </c>
       <c r="AG7" s="18">
-        <f>+[4]Main!$C$27</f>
+        <f>+[5]Main!$C$27</f>
         <v>7630</v>
       </c>
       <c r="AH7" s="2">
-        <f>+[4]Main!$C$24</f>
+        <f>+[5]Main!$C$24</f>
         <v>2012</v>
       </c>
       <c r="AI7" s="2">
-        <f>+[4]Main!$C$25</f>
+        <f>+[5]Main!$C$25</f>
         <v>2020</v>
       </c>
       <c r="AJ7" s="2" t="str">
-        <f>+[4]Main!$C$23</f>
+        <f>+[5]Main!$C$23</f>
         <v>Bozeman, MT</v>
       </c>
       <c r="AN7" s="2" t="s">
@@ -2865,104 +2865,104 @@
         <v>33</v>
       </c>
       <c r="F8" s="10">
-        <f>+[5]Main!$C$6</f>
+        <f>+[6]Main!$C$6</f>
         <v>51.68</v>
       </c>
       <c r="G8" s="8">
-        <f>+[5]Main!$C$7</f>
+        <f>+[6]Main!$C$7</f>
         <v>641.81399999999996</v>
       </c>
       <c r="H8" s="8">
-        <f>+[5]Main!$C$8</f>
+        <f>+[6]Main!$C$8</f>
         <v>33168.947520000002</v>
       </c>
       <c r="I8" s="8">
-        <f>+[5]Main!$C$11</f>
+        <f>+[6]Main!$C$11</f>
         <v>2595.5510000000004</v>
       </c>
       <c r="J8" s="8">
-        <f>+[5]Main!$C$12</f>
+        <f>+[6]Main!$C$12</f>
         <v>30573.396520000002</v>
       </c>
       <c r="K8" s="2" t="str">
-        <f>+[5]Main!$G$11</f>
+        <f>+[6]Main!$G$11</f>
         <v>Q324</v>
       </c>
       <c r="L8" s="13">
-        <f>+[5]Main!$H$11</f>
+        <f>+[6]Main!$H$11</f>
         <v>45596</v>
       </c>
       <c r="M8" s="20">
-        <f>+'[5]Financial Model'!$AX$26</f>
+        <f>+'[6]Financial Model'!$AX$26</f>
         <v>71.486963060421459</v>
       </c>
       <c r="N8" s="16">
-        <f>+'[5]Financial Model'!$AX$28</f>
+        <f>+'[6]Financial Model'!$AX$28</f>
         <v>0.38326166912580217</v>
       </c>
       <c r="O8" s="16">
-        <f>+'[5]Financial Model'!$AX$22</f>
+        <f>+'[6]Financial Model'!$AX$22</f>
         <v>0.09</v>
       </c>
       <c r="Q8" s="30">
-        <f>+[5]Main!$G$16</f>
+        <f>+[6]Main!$G$16</f>
         <v>523.51896884519317</v>
       </c>
       <c r="R8" s="30">
-        <f>+[5]Main!$G$17</f>
+        <f>+[6]Main!$G$17</f>
         <v>11.261920977309074</v>
       </c>
       <c r="S8" s="30">
-        <f>+[5]Main!$G$18</f>
+        <f>+[6]Main!$G$18</f>
         <v>-27.750520841528012</v>
       </c>
       <c r="V8" s="12">
-        <f>+'[5]Financial Model'!$T$22</f>
+        <f>+'[6]Financial Model'!$T$22</f>
         <v>0.77778685524927171</v>
       </c>
       <c r="W8" s="12">
-        <f>+'[5]Financial Model'!$T$23</f>
+        <f>+'[6]Financial Model'!$T$23</f>
         <v>-0.26629832028229189</v>
       </c>
       <c r="X8" s="12">
-        <f>+'[5]Financial Model'!$T$24</f>
+        <f>+'[6]Financial Model'!$T$24</f>
         <v>-0.23188027884500237</v>
       </c>
       <c r="Y8" s="12">
-        <f>+'[5]Financial Model'!$T$25</f>
+        <f>+'[6]Financial Model'!$T$25</f>
         <v>-5.311828476229569E-4</v>
       </c>
       <c r="AA8" s="12">
-        <f>+'[5]Financial Model'!$T$28</f>
+        <f>+'[6]Financial Model'!$T$28</f>
         <v>0.31255526862387373</v>
       </c>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12">
-        <f>+'[5]Financial Model'!$AF$28</f>
+        <f>+'[6]Financial Model'!$AF$28</f>
         <v>0.15937579623808262</v>
       </c>
       <c r="AD8" s="12">
-        <f>+'[5]Financial Model'!$AE$28</f>
+        <f>+'[6]Financial Model'!$AE$28</f>
         <v>1.0772942519902369</v>
       </c>
       <c r="AF8" s="18">
-        <f>+[5]Main!$G$9</f>
+        <f>+[6]Main!$G$9</f>
         <v>79.5</v>
       </c>
       <c r="AG8" s="18">
-        <f>+[5]Main!$G$10</f>
+        <f>+[6]Main!$G$10</f>
         <v>2457</v>
       </c>
       <c r="AH8" s="2">
-        <f>+[5]Main!$G$8</f>
+        <f>+[6]Main!$G$8</f>
         <v>2004</v>
       </c>
       <c r="AI8" s="2">
-        <f>+[5]Main!$G$7</f>
+        <f>+[6]Main!$G$7</f>
         <v>2021</v>
       </c>
       <c r="AJ8" s="2" t="str">
-        <f>+[5]Main!$G$6</f>
+        <f>+[6]Main!$G$6</f>
         <v>San Mateo, CA</v>
       </c>
       <c r="AN8" s="2" t="s">
@@ -2986,55 +2986,55 @@
         <v>33</v>
       </c>
       <c r="F9" s="10">
-        <f>+[6]Main!$C$6</f>
+        <f>+[7]Main!$C$6</f>
         <v>129.71</v>
       </c>
       <c r="G9" s="8">
-        <f>+[6]Main!$C$7</f>
+        <f>+[7]Main!$C$7</f>
         <v>169.16992200000001</v>
       </c>
       <c r="H9" s="8">
-        <f>+[6]Main!$C$8</f>
+        <f>+[7]Main!$C$8</f>
         <v>21943.030582620002</v>
       </c>
       <c r="I9" s="8">
-        <f>+[6]Main!$C$11</f>
+        <f>+[7]Main!$C$11</f>
         <v>1744.9669999999999</v>
       </c>
       <c r="J9" s="8">
-        <f>+[6]Main!$C$12</f>
+        <f>+[7]Main!$C$12</f>
         <v>20198.063582620001</v>
       </c>
       <c r="K9" s="2" t="str">
-        <f>+[6]Main!$C$32</f>
+        <f>+[7]Main!$C$32</f>
         <v>Q324</v>
       </c>
       <c r="L9" s="13">
-        <f>+[6]Main!$D$32</f>
+        <f>+[7]Main!$D$32</f>
         <v>45594</v>
       </c>
       <c r="Q9" s="30">
-        <f>+[6]Main!$C$37</f>
+        <f>+[7]Main!$C$37</f>
         <v>11.095743232541535</v>
       </c>
       <c r="V9" s="12">
-        <f>+'[6]Financial Model'!$I$18</f>
+        <f>+'[7]Financial Model'!$I$18</f>
         <v>0.90049404192897387</v>
       </c>
       <c r="W9" s="12">
-        <f>+'[6]Financial Model'!$I$19</f>
+        <f>+'[7]Financial Model'!$I$19</f>
         <v>1.9589437090750374E-2</v>
       </c>
       <c r="X9" s="12">
-        <f>+'[6]Financial Model'!$I$20</f>
+        <f>+'[7]Financial Model'!$I$20</f>
         <v>8.5611925902322611E-2</v>
       </c>
       <c r="Y9" s="12">
-        <f>+'[6]Financial Model'!$I$21</f>
+        <f>+'[7]Financial Model'!$I$21</f>
         <v>-1.0405477980665956E-3</v>
       </c>
       <c r="AA9" s="12">
-        <f>+'[6]Financial Model'!$I$24</f>
+        <f>+'[7]Financial Model'!$I$24</f>
         <v>0.67873527767604136</v>
       </c>
       <c r="AC9" s="2" t="s">
@@ -3044,23 +3044,23 @@
         <v>46</v>
       </c>
       <c r="AF9" s="18">
-        <f>+[6]Main!$C$29</f>
+        <f>+[7]Main!$C$29</f>
         <v>97.2</v>
       </c>
       <c r="AG9" s="18">
-        <f>+[6]Main!$C$30</f>
+        <f>+[7]Main!$C$30</f>
         <v>2013</v>
       </c>
       <c r="AH9" s="2">
-        <f>+[6]Main!$C$25</f>
+        <f>+[7]Main!$C$25</f>
         <v>2005</v>
       </c>
       <c r="AI9" s="2">
-        <f>+[6]Main!$C$26</f>
+        <f>+[7]Main!$C$26</f>
         <v>2024</v>
       </c>
       <c r="AJ9" s="2" t="str">
-        <f>+[6]Main!$C$24</f>
+        <f>+[7]Main!$C$24</f>
         <v>San Fransisco, CA</v>
       </c>
       <c r="AN9" s="2" t="s">
@@ -3084,83 +3084,83 @@
         <v>33</v>
       </c>
       <c r="F10" s="10">
-        <f>+[7]Main!$C$6</f>
+        <f>+[8]Main!$C$6</f>
         <v>36.5</v>
       </c>
       <c r="G10" s="8">
-        <f>+[7]Main!$C$7</f>
+        <f>+[8]Main!$C$7</f>
         <v>563</v>
       </c>
       <c r="H10" s="8">
-        <f>+[7]Main!$C$8</f>
+        <f>+[8]Main!$C$8</f>
         <v>20549.5</v>
       </c>
       <c r="I10" s="8">
-        <f>+[7]Main!$C$11</f>
+        <f>+[8]Main!$C$11</f>
         <v>1272</v>
       </c>
       <c r="J10" s="8">
-        <f>+[7]Main!$C$12</f>
+        <f>+[8]Main!$C$12</f>
         <v>19277.5</v>
       </c>
       <c r="K10" s="2" t="str">
-        <f>+[7]Main!$C$30</f>
+        <f>+[8]Main!$C$30</f>
         <v>Q324</v>
       </c>
       <c r="L10" s="13">
-        <f>+[7]Main!$D$30</f>
+        <f>+[8]Main!$D$30</f>
         <v>45603</v>
       </c>
       <c r="Q10" s="30">
-        <f>+[7]Main!$C$35</f>
+        <f>+[8]Main!$C$35</f>
         <v>14.471478873239437</v>
       </c>
       <c r="R10" s="30">
-        <f>+[7]Main!$C$36</f>
+        <f>+[8]Main!$C$36</f>
         <v>4.4116573636753973</v>
       </c>
       <c r="V10" s="12">
-        <f>+'[7]Financial Model'!$M$28</f>
+        <f>+'[8]Financial Model'!$M$28</f>
         <v>0.24674329501915709</v>
       </c>
       <c r="W10" s="12">
-        <f>+'[7]Financial Model'!$M$29</f>
+        <f>+'[8]Financial Model'!$M$29</f>
         <v>2.6053639846743294E-2</v>
       </c>
       <c r="X10" s="12">
-        <f>+'[7]Financial Model'!$M$30</f>
+        <f>+'[8]Financial Model'!$M$30</f>
         <v>4.2911877394636012E-2</v>
       </c>
       <c r="Y10" s="12">
-        <f>+'[7]Financial Model'!$M$31</f>
+        <f>+'[8]Financial Model'!$M$31</f>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="AA10" s="12">
-        <f>+'[7]Financial Model'!$M$33</f>
+        <f>+'[8]Financial Model'!$M$33</f>
         <v>0.26453488372093026</v>
       </c>
       <c r="AB10" s="12">
-        <f>+'[7]Financial Model'!$U$33</f>
+        <f>+'[8]Financial Model'!$U$33</f>
         <v>0.41523251556206509</v>
       </c>
       <c r="AC10" s="12">
-        <f>+'[7]Financial Model'!$T$33</f>
+        <f>+'[8]Financial Model'!$T$33</f>
         <v>0.6017595307917889</v>
       </c>
       <c r="AG10" s="18">
-        <f>+[7]Main!$C$28</f>
+        <f>+[8]Main!$C$28</f>
         <v>5500</v>
       </c>
       <c r="AH10" s="2">
-        <f>+[7]Main!$C$24</f>
+        <f>+[8]Main!$C$24</f>
         <v>2011</v>
       </c>
       <c r="AI10" s="2">
-        <f>+[7]Main!$C$25</f>
+        <f>+[8]Main!$C$25</f>
         <v>2021</v>
       </c>
       <c r="AJ10" s="2" t="str">
-        <f>+[7]Main!$C$23</f>
+        <f>+[8]Main!$C$23</f>
         <v>Boston, MA</v>
       </c>
       <c r="AO10" s="2" t="s">
@@ -3181,11 +3181,11 @@
         <v>51</v>
       </c>
       <c r="F11" s="10">
-        <f>+[8]Main!$C$6*Currencies!C3</f>
+        <f>+[9]Main!$C$6*Currencies!C3</f>
         <v>16.497</v>
       </c>
       <c r="G11" s="8">
-        <f>+[8]Main!$C$7</f>
+        <f>+[9]Main!$C$7</f>
         <v>1007</v>
       </c>
       <c r="H11" s="8">
@@ -3193,7 +3193,7 @@
         <v>16612.478999999999</v>
       </c>
       <c r="I11" s="8">
-        <f>[8]Main!$C$11*Currencies!C3</f>
+        <f>[9]Main!$C$11*Currencies!C3</f>
         <v>-913.9</v>
       </c>
       <c r="J11" s="8">
@@ -3201,67 +3201,67 @@
         <v>17526.379000000001</v>
       </c>
       <c r="K11" s="2" t="str">
-        <f>+[8]Main!$C$27</f>
+        <f>+[9]Main!$C$27</f>
         <v>FY24</v>
       </c>
       <c r="L11" s="13">
-        <f>+[8]Main!$D$27</f>
+        <f>+[9]Main!$D$27</f>
         <v>45616</v>
       </c>
       <c r="Q11" s="30">
-        <f>[8]Main!$C$34</f>
+        <f>[9]Main!$C$34</f>
         <v>11.691518755718205</v>
       </c>
       <c r="R11" s="30">
-        <f>[8]Main!$C$33</f>
+        <f>[9]Main!$C$33</f>
         <v>5.479772727272727</v>
       </c>
       <c r="S11" s="30">
-        <f>+[8]Main!$C$32</f>
+        <f>+[9]Main!$C$32</f>
         <v>39.562941176470588</v>
       </c>
       <c r="V11" s="12">
-        <f>+'[8]Financial Model'!$X$20</f>
+        <f>+'[9]Financial Model'!$X$20</f>
         <v>0.92795883361921094</v>
       </c>
       <c r="W11" s="12">
-        <f>+'[8]Financial Model'!$X$21</f>
+        <f>+'[9]Financial Model'!$X$21</f>
         <v>0.19382504288164665</v>
       </c>
       <c r="X11" s="12">
-        <f>+'[8]Financial Model'!$X$22</f>
+        <f>+'[9]Financial Model'!$X$22</f>
         <v>0.13850771869639794</v>
       </c>
       <c r="Y11" s="12">
-        <f>+'[8]Financial Model'!$X$23</f>
+        <f>+'[9]Financial Model'!$X$23</f>
         <v>0.24178403755868544</v>
       </c>
       <c r="AA11" s="12">
-        <f>+'[8]Financial Model'!$X$25</f>
+        <f>+'[9]Financial Model'!$X$25</f>
         <v>6.7765567765567747E-2</v>
       </c>
       <c r="AB11" s="12">
-        <f>+'[8]Financial Model'!$W$25</f>
+        <f>+'[9]Financial Model'!$W$25</f>
         <v>0.1217257318952234</v>
       </c>
       <c r="AC11" s="12">
-        <f>+'[8]Financial Model'!$V$25</f>
+        <f>+'[9]Financial Model'!$V$25</f>
         <v>5.4712892741061836E-2</v>
       </c>
       <c r="AD11" s="12">
-        <f>+'[8]Financial Model'!$U$25</f>
+        <f>+'[9]Financial Model'!$U$25</f>
         <v>-2.9952706253284278E-2</v>
       </c>
       <c r="AG11" s="18">
-        <f>+[8]Main!$C$26</f>
+        <f>+[9]Main!$C$26</f>
         <v>11565</v>
       </c>
       <c r="AH11" s="2">
-        <f>+[8]Main!$C$24</f>
+        <f>+[9]Main!$C$24</f>
         <v>1981</v>
       </c>
       <c r="AI11" s="2">
-        <f>+[8]Main!$C$25</f>
+        <f>+[9]Main!$C$25</f>
         <v>1989</v>
       </c>
       <c r="AJ11" s="2" t="s">
@@ -3288,55 +3288,55 @@
         <v>33</v>
       </c>
       <c r="F12" s="10">
-        <f>+[9]Main!$C$6</f>
+        <f>+[10]Main!$C$6</f>
         <v>93.15</v>
       </c>
       <c r="G12" s="8">
-        <f>+[9]Main!$C$7</f>
+        <f>+[10]Main!$C$7</f>
         <v>103.23874000000001</v>
       </c>
       <c r="H12" s="8">
-        <f>+[9]Main!$C$8</f>
+        <f>+[10]Main!$C$8</f>
         <v>9616.6886310000009</v>
       </c>
       <c r="I12" s="8">
-        <f>+[9]Main!$C$11</f>
+        <f>+[10]Main!$C$11</f>
         <v>578.44299999999998</v>
       </c>
       <c r="J12" s="8">
-        <f>+[9]Main!$C$12</f>
+        <f>+[10]Main!$C$12</f>
         <v>9038.2456310000016</v>
       </c>
       <c r="K12" s="18" t="str">
-        <f>+[9]Main!$C$29</f>
+        <f>+[10]Main!$C$29</f>
         <v>Q225</v>
       </c>
       <c r="L12" s="13">
-        <f>+[9]Main!$D$29</f>
+        <f>+[10]Main!$D$29</f>
         <v>45617</v>
       </c>
       <c r="Q12" s="30">
-        <f>+[9]Main!$C$34</f>
+        <f>+[10]Main!$C$34</f>
         <v>12.550196094773931</v>
       </c>
       <c r="V12" s="12">
-        <f>+'[9]Financial Model'!$K$29</f>
+        <f>+'[10]Financial Model'!$K$29</f>
         <v>0.73589027689827868</v>
       </c>
       <c r="W12" s="12">
-        <f>+'[9]Financial Model'!$K$30</f>
+        <f>+'[10]Financial Model'!$K$30</f>
         <v>-9.7397962120775908E-2</v>
       </c>
       <c r="X12" s="12">
-        <f>+'[9]Financial Model'!$K$31</f>
+        <f>+'[10]Financial Model'!$K$31</f>
         <v>-0.141693051637787</v>
       </c>
       <c r="Y12" s="12">
-        <f>+'[9]Financial Model'!$K$32</f>
+        <f>+'[10]Financial Model'!$K$32</f>
         <v>-0.68840032926327432</v>
       </c>
       <c r="AA12" s="12">
-        <f>+'[9]Financial Model'!$K$34</f>
+        <f>+'[10]Financial Model'!$K$34</f>
         <v>0.18269430439859335</v>
       </c>
       <c r="AB12" s="12"/>
@@ -3344,19 +3344,19 @@
       <c r="AD12" s="12"/>
       <c r="AG12" s="18"/>
       <c r="AH12" s="29">
-        <f>+[9]Main!$C$24</f>
+        <f>+[10]Main!$C$24</f>
         <v>2012</v>
       </c>
       <c r="AI12" s="29">
-        <f>+[9]Main!$C$25</f>
+        <f>+[10]Main!$C$25</f>
         <v>2018</v>
       </c>
       <c r="AJ12" s="18" t="str">
-        <f>+[9]Main!$C$23</f>
+        <f>+[10]Main!$C$23</f>
         <v>Mountain View, CA</v>
       </c>
       <c r="AL12" s="18">
-        <f>+[9]Main!$C$38</f>
+        <f>+[10]Main!$C$38</f>
         <v>64</v>
       </c>
       <c r="AN12" s="2" t="s">
@@ -3380,11 +3380,11 @@
         <v>33</v>
       </c>
       <c r="F13" s="10">
-        <f>+[10]Main!$C$6*Currencies!C3</f>
+        <f>+[11]Main!$C$6*Currencies!C3</f>
         <v>4.3290000000000006</v>
       </c>
       <c r="G13" s="8">
-        <f>+[10]Main!$C$7</f>
+        <f>+[11]Main!$C$7</f>
         <v>193.41571500000001</v>
       </c>
       <c r="H13" s="8">
@@ -3392,7 +3392,7 @@
         <v>837.29663023500018</v>
       </c>
       <c r="I13" s="8">
-        <f>[10]Main!$C$11*Currencies!D3</f>
+        <f>[11]Main!$C$11*Currencies!D3</f>
         <v>20.227692307692305</v>
       </c>
       <c r="J13" s="8">
@@ -3400,70 +3400,70 @@
         <v>817.06893792730784</v>
       </c>
       <c r="K13" s="2" t="str">
-        <f>[10]Main!$C$30</f>
+        <f>[11]Main!$C$30</f>
         <v>H124</v>
       </c>
       <c r="L13" s="13">
-        <f>[10]Main!$D$30</f>
+        <f>[11]Main!$D$30</f>
         <v>45559</v>
       </c>
       <c r="Q13" s="30">
-        <f>+[10]Main!$C$35</f>
+        <f>+[11]Main!$C$35</f>
         <v>3.1948131495535712</v>
       </c>
       <c r="R13" s="30">
-        <f>+[10]Main!$C$36</f>
+        <f>+[11]Main!$C$36</f>
         <v>2.6442251407476842</v>
       </c>
       <c r="S13" s="30">
-        <f>+[10]Main!$C$38</f>
+        <f>+[11]Main!$C$38</f>
         <v>15.436558542879432</v>
       </c>
       <c r="V13" s="12">
-        <f>+'[10]Financial Model'!$F$42</f>
+        <f>+'[11]Financial Model'!$F$42</f>
         <v>0.23750000000000002</v>
       </c>
       <c r="W13" s="12">
-        <f>+'[10]Financial Model'!$F$43</f>
+        <f>+'[11]Financial Model'!$F$43</f>
         <v>7.9166666666666677E-2</v>
       </c>
       <c r="X13" s="12">
-        <f>+'[10]Financial Model'!$F$44</f>
+        <f>+'[11]Financial Model'!$F$44</f>
         <v>5.2777777777777792E-2</v>
       </c>
       <c r="Y13" s="12">
-        <f>+'[10]Financial Model'!$F$45</f>
+        <f>+'[11]Financial Model'!$F$45</f>
         <v>0.29629629629629622</v>
       </c>
       <c r="AA13" s="12">
-        <f>+'[10]Financial Model'!$F$30</f>
+        <f>+'[11]Financial Model'!$F$30</f>
         <v>0.61254199328107539</v>
       </c>
       <c r="AB13" s="12">
-        <f>+'[10]Financial Model'!$K$30</f>
+        <f>+'[11]Financial Model'!$K$30</f>
         <v>0.41487498602675421</v>
       </c>
       <c r="AC13" s="12">
-        <f>+'[10]Financial Model'!$J$30</f>
+        <f>+'[11]Financial Model'!$J$30</f>
         <v>0.33624730593867169</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AG13" s="2">
-        <f>+[10]Main!$C$27</f>
+        <f>+[11]Main!$C$27</f>
         <v>115</v>
       </c>
       <c r="AH13" s="2">
-        <f>+[10]Main!$C$24</f>
+        <f>+[11]Main!$C$24</f>
         <v>2012</v>
       </c>
       <c r="AI13" s="28">
-        <f>+[10]Main!$C$25</f>
+        <f>+[11]Main!$C$25</f>
         <v>45444</v>
       </c>
       <c r="AJ13" s="2" t="str">
-        <f>[10]Main!$C$23</f>
+        <f>[11]Main!$C$23</f>
         <v>Cambridge, UK</v>
       </c>
       <c r="AN13" s="2" t="s">
@@ -3486,11 +3486,11 @@
         <v>70</v>
       </c>
       <c r="K16" s="2" t="str">
-        <f>+[11]Main!$C$28</f>
+        <f>+[12]Main!$C$28</f>
         <v>Q123</v>
       </c>
       <c r="L16" s="13">
-        <f>+[11]Main!$D$28</f>
+        <f>+[12]Main!$D$28</f>
         <v>45055</v>
       </c>
     </row>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A85BA-93D4-4424-B307-819B4768ACB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383202FC-4A37-4313-8D0F-EED727203B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -29,18 +29,28 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>Ticker</t>
   </si>
@@ -322,6 +332,12 @@
   </si>
   <si>
     <t>P/FCF</t>
+  </si>
+  <si>
+    <t>DevOps/SDLC</t>
+  </si>
+  <si>
+    <t>Git repository services</t>
   </si>
 </sst>
 </file>
@@ -534,7 +550,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -673,7 +689,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -773,8 +789,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -784,7 +803,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>3.33</v>
+            <v>3.66</v>
           </cell>
         </row>
         <row r="7">
@@ -827,17 +846,17 @@
         </row>
         <row r="35">
           <cell r="C35">
-            <v>3.1948131495535712</v>
+            <v>3.5114162544642857</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>2.6442251407476842</v>
+            <v>2.9062654700109682</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>15.436558542879432</v>
+            <v>16.966307587669284</v>
           </cell>
         </row>
       </sheetData>
@@ -874,14 +893,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -908,8 +927,116 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>62.99</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>159.67699999999999</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>10058.05423</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>1083.104</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>8974.9502300000004</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>San Francisco, CA</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2021</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>2130</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>Q225</v>
+          </cell>
+          <cell r="D30">
+            <v>45536</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>14.619179873954225</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>41</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="23">
+          <cell r="L23">
+            <v>0.88295798098409495</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="L24">
+            <v>-0.22458156245892313</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="L25">
+            <v>6.7223853130613728E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="L26">
+            <v>-1.4521476460620335</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="L28">
+            <v>0.30808634412993152</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1032,7 +1159,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1163,7 +1290,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1286,7 +1413,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1397,7 +1524,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1525,7 +1652,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1630,7 +1757,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1741,7 +1868,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -2143,13 +2270,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B533DC-5A31-4AB0-80D6-BD84B319883E}">
-  <dimension ref="B1:AO21"/>
+  <dimension ref="B1:AO20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3163,6 +3290,9 @@
         <f>+[8]Main!$C$23</f>
         <v>Boston, MA</v>
       </c>
+      <c r="AN10" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="AO10" s="2" t="s">
         <v>69</v>
       </c>
@@ -3276,241 +3406,325 @@
     </row>
     <row r="12" spans="2:41">
       <c r="B12" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="10">
-        <f>+[10]Main!$C$6</f>
-        <v>93.15</v>
+        <f>[13]Main!$C$6</f>
+        <v>62.99</v>
       </c>
       <c r="G12" s="8">
-        <f>+[10]Main!$C$7</f>
-        <v>103.23874000000001</v>
+        <f>[13]Main!$C$7</f>
+        <v>159.67699999999999</v>
       </c>
       <c r="H12" s="8">
-        <f>+[10]Main!$C$8</f>
-        <v>9616.6886310000009</v>
+        <f>[13]Main!$C$8</f>
+        <v>10058.05423</v>
       </c>
       <c r="I12" s="8">
-        <f>+[10]Main!$C$11</f>
-        <v>578.44299999999998</v>
+        <f>[13]Main!$C$11</f>
+        <v>1083.104</v>
       </c>
       <c r="J12" s="8">
-        <f>+[10]Main!$C$12</f>
-        <v>9038.2456310000016</v>
-      </c>
-      <c r="K12" s="18" t="str">
-        <f>+[10]Main!$C$29</f>
+        <f>[13]Main!$C$12</f>
+        <v>8974.9502300000004</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f>+[13]Main!$C$30</f>
         <v>Q225</v>
       </c>
       <c r="L12" s="13">
-        <f>+[10]Main!$D$29</f>
-        <v>45617</v>
+        <f>+[13]Main!$D$30</f>
+        <v>45536</v>
       </c>
       <c r="Q12" s="30">
-        <f>+[10]Main!$C$34</f>
-        <v>12.550196094773931</v>
+        <f>+[13]Main!$C$35</f>
+        <v>14.619179873954225</v>
       </c>
       <c r="V12" s="12">
-        <f>+'[10]Financial Model'!$K$29</f>
-        <v>0.73589027689827868</v>
+        <f>+'[13]Financial Model'!$L$23</f>
+        <v>0.88295798098409495</v>
       </c>
       <c r="W12" s="12">
-        <f>+'[10]Financial Model'!$K$30</f>
-        <v>-9.7397962120775908E-2</v>
+        <f>+'[13]Financial Model'!$L$24</f>
+        <v>-0.22458156245892313</v>
       </c>
       <c r="X12" s="12">
-        <f>+'[10]Financial Model'!$K$31</f>
-        <v>-0.141693051637787</v>
+        <f>+'[13]Financial Model'!$L$25</f>
+        <v>6.7223853130613728E-2</v>
       </c>
       <c r="Y12" s="12">
-        <f>+'[10]Financial Model'!$K$32</f>
-        <v>-0.68840032926327432</v>
+        <f>+'[13]Financial Model'!$L$26</f>
+        <v>-1.4521476460620335</v>
       </c>
       <c r="AA12" s="12">
-        <f>+'[10]Financial Model'!$K$34</f>
-        <v>0.18269430439859335</v>
-      </c>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="29">
-        <f>+[10]Main!$C$24</f>
-        <v>2012</v>
-      </c>
-      <c r="AI12" s="29">
-        <f>+[10]Main!$C$25</f>
-        <v>2018</v>
-      </c>
-      <c r="AJ12" s="18" t="str">
-        <f>+[10]Main!$C$23</f>
-        <v>Mountain View, CA</v>
-      </c>
-      <c r="AL12" s="18">
-        <f>+[10]Main!$C$38</f>
-        <v>64</v>
+        <f>+'[13]Financial Model'!$L$28</f>
+        <v>0.30808634412993152</v>
+      </c>
+      <c r="AG12" s="18">
+        <f>+[13]Main!$C$28</f>
+        <v>2130</v>
+      </c>
+      <c r="AH12" s="2">
+        <f>+[13]Main!$C$23</f>
+        <v>2011</v>
+      </c>
+      <c r="AI12" s="2">
+        <f>+[13]Main!$C$25</f>
+        <v>2021</v>
+      </c>
+      <c r="AJ12" s="2" t="str">
+        <f>+[13]Main!$C$24</f>
+        <v>San Francisco, CA</v>
+      </c>
+      <c r="AL12" s="2">
+        <f>+[13]Main!$C$38</f>
+        <v>41</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:41">
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="10">
+        <f>+[10]Main!$C$6</f>
+        <v>93.15</v>
+      </c>
+      <c r="G13" s="8">
+        <f>+[10]Main!$C$7</f>
+        <v>103.23874000000001</v>
+      </c>
+      <c r="H13" s="8">
+        <f>+[10]Main!$C$8</f>
+        <v>9616.6886310000009</v>
+      </c>
+      <c r="I13" s="8">
+        <f>+[10]Main!$C$11</f>
+        <v>578.44299999999998</v>
+      </c>
+      <c r="J13" s="8">
+        <f>+[10]Main!$C$12</f>
+        <v>9038.2456310000016</v>
+      </c>
+      <c r="K13" s="18" t="str">
+        <f>+[10]Main!$C$29</f>
+        <v>Q225</v>
+      </c>
+      <c r="L13" s="13">
+        <f>+[10]Main!$D$29</f>
+        <v>45617</v>
+      </c>
+      <c r="Q13" s="30">
+        <f>+[10]Main!$C$34</f>
+        <v>12.550196094773931</v>
+      </c>
+      <c r="V13" s="12">
+        <f>+'[10]Financial Model'!$K$29</f>
+        <v>0.73589027689827868</v>
+      </c>
+      <c r="W13" s="12">
+        <f>+'[10]Financial Model'!$K$30</f>
+        <v>-9.7397962120775908E-2</v>
+      </c>
+      <c r="X13" s="12">
+        <f>+'[10]Financial Model'!$K$31</f>
+        <v>-0.141693051637787</v>
+      </c>
+      <c r="Y13" s="12">
+        <f>+'[10]Financial Model'!$K$32</f>
+        <v>-0.68840032926327432</v>
+      </c>
+      <c r="AA13" s="12">
+        <f>+'[10]Financial Model'!$K$34</f>
+        <v>0.18269430439859335</v>
+      </c>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="29">
+        <f>+[10]Main!$C$24</f>
+        <v>2012</v>
+      </c>
+      <c r="AI13" s="29">
+        <f>+[10]Main!$C$25</f>
+        <v>2018</v>
+      </c>
+      <c r="AJ13" s="18" t="str">
+        <f>+[10]Main!$C$23</f>
+        <v>Mountain View, CA</v>
+      </c>
+      <c r="AL13" s="18">
+        <f>+[10]Main!$C$38</f>
+        <v>64</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:41">
+      <c r="B14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="10">
         <f>+[11]Main!$C$6*Currencies!C3</f>
-        <v>4.3290000000000006</v>
-      </c>
-      <c r="G13" s="8">
+        <v>4.758</v>
+      </c>
+      <c r="G14" s="8">
         <f>+[11]Main!$C$7</f>
         <v>193.41571500000001</v>
       </c>
-      <c r="H13" s="8">
-        <f>G13*F13</f>
-        <v>837.29663023500018</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="H14" s="8">
+        <f>G14*F14</f>
+        <v>920.27197196999998</v>
+      </c>
+      <c r="I14" s="8">
         <f>[11]Main!$C$11*Currencies!D3</f>
         <v>20.227692307692305</v>
       </c>
-      <c r="J13" s="8">
-        <f>H13-I13</f>
-        <v>817.06893792730784</v>
-      </c>
-      <c r="K13" s="2" t="str">
+      <c r="J14" s="8">
+        <f>H14-I14</f>
+        <v>900.04427966230764</v>
+      </c>
+      <c r="K14" s="2" t="str">
         <f>[11]Main!$C$30</f>
         <v>H124</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L14" s="13">
         <f>[11]Main!$D$30</f>
         <v>45559</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q14" s="30">
         <f>+[11]Main!$C$35</f>
-        <v>3.1948131495535712</v>
-      </c>
-      <c r="R13" s="30">
+        <v>3.5114162544642857</v>
+      </c>
+      <c r="R14" s="30">
         <f>+[11]Main!$C$36</f>
-        <v>2.6442251407476842</v>
-      </c>
-      <c r="S13" s="30">
+        <v>2.9062654700109682</v>
+      </c>
+      <c r="S14" s="30">
         <f>+[11]Main!$C$38</f>
-        <v>15.436558542879432</v>
-      </c>
-      <c r="V13" s="12">
+        <v>16.966307587669284</v>
+      </c>
+      <c r="V14" s="12">
         <f>+'[11]Financial Model'!$F$42</f>
         <v>0.23750000000000002</v>
       </c>
-      <c r="W13" s="12">
+      <c r="W14" s="12">
         <f>+'[11]Financial Model'!$F$43</f>
         <v>7.9166666666666677E-2</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X14" s="12">
         <f>+'[11]Financial Model'!$F$44</f>
         <v>5.2777777777777792E-2</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y14" s="12">
         <f>+'[11]Financial Model'!$F$45</f>
         <v>0.29629629629629622</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA14" s="12">
         <f>+'[11]Financial Model'!$F$30</f>
         <v>0.61254199328107539</v>
       </c>
-      <c r="AB13" s="12">
+      <c r="AB14" s="12">
         <f>+'[11]Financial Model'!$K$30</f>
         <v>0.41487498602675421</v>
       </c>
-      <c r="AC13" s="12">
+      <c r="AC14" s="12">
         <f>+'[11]Financial Model'!$J$30</f>
         <v>0.33624730593867169</v>
       </c>
-      <c r="AD13" s="2" t="s">
+      <c r="AD14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AG14" s="2">
         <f>+[11]Main!$C$27</f>
         <v>115</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="AH14" s="2">
         <f>+[11]Main!$C$24</f>
         <v>2012</v>
       </c>
-      <c r="AI13" s="28">
+      <c r="AI14" s="28">
         <f>+[11]Main!$C$25</f>
         <v>45444</v>
       </c>
-      <c r="AJ13" s="2" t="str">
+      <c r="AJ14" s="2" t="str">
         <f>[11]Main!$C$23</f>
         <v>Cambridge, UK</v>
       </c>
-      <c r="AN13" s="2" t="s">
+      <c r="AN14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AO13" s="2" t="s">
+      <c r="AO14" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="2:41">
-      <c r="F14" s="10" t="s">
+    <row r="15" spans="2:41">
+      <c r="F15" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:41">
-      <c r="B16" s="5" t="s">
+    <row r="17" spans="2:12">
+      <c r="B17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="2" t="str">
+      <c r="K17" s="2" t="str">
         <f>+[12]Main!$C$28</f>
         <v>Q123</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L17" s="13">
         <f>+[12]Main!$D$28</f>
         <v>45055</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:12">
+      <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3524,19 +3738,20 @@
     <hyperlink ref="B9" r:id="rId2" xr:uid="{1AA14988-C4F2-405C-BA9D-FBCA3DA35146}"/>
     <hyperlink ref="B8" r:id="rId3" xr:uid="{6E23CD56-40A8-49B9-8695-A01CE41D946F}"/>
     <hyperlink ref="B11" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
-    <hyperlink ref="B13" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
-    <hyperlink ref="B16" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
+    <hyperlink ref="B17" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
     <hyperlink ref="B10" r:id="rId7" xr:uid="{3859F738-BD99-4DD5-8721-EF043945682D}"/>
     <hyperlink ref="B4" r:id="rId8" xr:uid="{7B052CC6-304F-47CB-A888-07413A5C714D}"/>
     <hyperlink ref="B7" r:id="rId9" xr:uid="{383539A3-A008-4138-9E99-F152484C7F66}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{14914AE3-9BC8-4B00-947F-C4331DFB8EED}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{14914AE3-9BC8-4B00-947F-C4331DFB8EED}"/>
     <hyperlink ref="B6" r:id="rId11" xr:uid="{E635F2D9-F8A1-4114-ACFA-1F5C37840BC2}"/>
     <hyperlink ref="B5" r:id="rId12" xr:uid="{5EFB43D2-FEF7-4D4A-9ED9-38F476FBD5D7}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{3C1CCECE-6E3C-484C-900B-30A27E51CC77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
   <ignoredErrors>
-    <ignoredError sqref="H12 J12" formula="1"/>
+    <ignoredError sqref="H13 J13" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383202FC-4A37-4313-8D0F-EED727203B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A403A5C0-405A-44A0-9FFD-C38F7018340E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -36,15 +36,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -348,7 +339,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="0\x"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +409,11 @@
       <color theme="1"/>
       <name val="Srial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Srial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -440,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -523,6 +519,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -550,7 +549,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -689,7 +688,130 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>62.99</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>159.67699999999999</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>10058.05423</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>1083.104</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>8974.9502300000004</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>San Francisco, CA</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2021</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>2130</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>Q225</v>
+          </cell>
+          <cell r="D30">
+            <v>45536</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>14.619179873954225</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>15.11993696803153</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>-26.754735051777317</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>171.81507055005125</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>41</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="23">
+          <cell r="L23">
+            <v>0.88295798098409495</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="L24">
+            <v>-0.22458156245892313</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="L25">
+            <v>6.7223853130613728E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="L26">
+            <v>-1.4521476460620335</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="L28">
+            <v>0.30808634412993152</v>
+          </cell>
+          <cell r="S28">
+            <v>0.36661984842200512</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -788,12 +910,9 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -893,14 +1012,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -927,116 +1046,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>62.99</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>159.67699999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>10058.05423</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>1083.104</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>8974.9502300000004</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>2011</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>San Francisco, CA</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>2021</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>2130</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>Q225</v>
-          </cell>
-          <cell r="D30">
-            <v>45536</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>14.619179873954225</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>41</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="23">
-          <cell r="L23">
-            <v>0.88295798098409495</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="L24">
-            <v>-0.22458156245892313</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="L25">
-            <v>6.7223853130613728E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="L26">
-            <v>-1.4521476460620335</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="L28">
-            <v>0.30808634412993152</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1159,7 +1170,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1290,7 +1301,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1413,7 +1424,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1524,7 +1535,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1652,7 +1663,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1757,7 +1768,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1868,7 +1879,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -2276,7 +2287,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3039,7 +3050,7 @@
         <f>+[6]Main!$G$17</f>
         <v>11.261920977309074</v>
       </c>
-      <c r="S8" s="30">
+      <c r="S8" s="32">
         <f>+[6]Main!$G$18</f>
         <v>-27.750520841528012</v>
       </c>
@@ -3418,75 +3429,91 @@
         <v>33</v>
       </c>
       <c r="F12" s="10">
-        <f>[13]Main!$C$6</f>
+        <f>[10]Main!$C$6</f>
         <v>62.99</v>
       </c>
       <c r="G12" s="8">
-        <f>[13]Main!$C$7</f>
+        <f>[10]Main!$C$7</f>
         <v>159.67699999999999</v>
       </c>
       <c r="H12" s="8">
-        <f>[13]Main!$C$8</f>
+        <f>[10]Main!$C$8</f>
         <v>10058.05423</v>
       </c>
       <c r="I12" s="8">
-        <f>[13]Main!$C$11</f>
+        <f>[10]Main!$C$11</f>
         <v>1083.104</v>
       </c>
       <c r="J12" s="8">
-        <f>[13]Main!$C$12</f>
+        <f>[10]Main!$C$12</f>
         <v>8974.9502300000004</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f>+[13]Main!$C$30</f>
+        <f>+[10]Main!$C$30</f>
         <v>Q225</v>
       </c>
       <c r="L12" s="13">
-        <f>+[13]Main!$D$30</f>
+        <f>+[10]Main!$D$30</f>
         <v>45536</v>
       </c>
       <c r="Q12" s="30">
-        <f>+[13]Main!$C$35</f>
+        <f>+[10]Main!$C$35</f>
         <v>14.619179873954225</v>
       </c>
+      <c r="R12" s="30">
+        <f>+[10]Main!$C$36</f>
+        <v>15.11993696803153</v>
+      </c>
+      <c r="S12" s="32">
+        <f>+[10]Main!$C$37</f>
+        <v>-26.754735051777317</v>
+      </c>
+      <c r="T12" s="30">
+        <f>+[10]Main!$C$38</f>
+        <v>171.81507055005125</v>
+      </c>
       <c r="V12" s="12">
-        <f>+'[13]Financial Model'!$L$23</f>
+        <f>+'[10]Financial Model'!$L$23</f>
         <v>0.88295798098409495</v>
       </c>
       <c r="W12" s="12">
-        <f>+'[13]Financial Model'!$L$24</f>
+        <f>+'[10]Financial Model'!$L$24</f>
         <v>-0.22458156245892313</v>
       </c>
       <c r="X12" s="12">
-        <f>+'[13]Financial Model'!$L$25</f>
+        <f>+'[10]Financial Model'!$L$25</f>
         <v>6.7223853130613728E-2</v>
       </c>
       <c r="Y12" s="12">
-        <f>+'[13]Financial Model'!$L$26</f>
+        <f>+'[10]Financial Model'!$L$26</f>
         <v>-1.4521476460620335</v>
       </c>
       <c r="AA12" s="12">
-        <f>+'[13]Financial Model'!$L$28</f>
+        <f>+'[10]Financial Model'!$L$28</f>
         <v>0.30808634412993152</v>
       </c>
+      <c r="AB12" s="12">
+        <f>+'[10]Financial Model'!$S$28</f>
+        <v>0.36661984842200512</v>
+      </c>
       <c r="AG12" s="18">
-        <f>+[13]Main!$C$28</f>
+        <f>+[10]Main!$C$28</f>
         <v>2130</v>
       </c>
       <c r="AH12" s="2">
-        <f>+[13]Main!$C$23</f>
+        <f>+[10]Main!$C$23</f>
         <v>2011</v>
       </c>
       <c r="AI12" s="2">
-        <f>+[13]Main!$C$25</f>
+        <f>+[10]Main!$C$25</f>
         <v>2021</v>
       </c>
       <c r="AJ12" s="2" t="str">
-        <f>+[13]Main!$C$24</f>
+        <f>+[10]Main!$C$24</f>
         <v>San Francisco, CA</v>
       </c>
       <c r="AL12" s="2">
-        <f>+[13]Main!$C$38</f>
+        <f>+[10]Main!$C$39</f>
         <v>41</v>
       </c>
       <c r="AN12" s="2" t="s">
@@ -3510,55 +3537,55 @@
         <v>33</v>
       </c>
       <c r="F13" s="10">
-        <f>+[10]Main!$C$6</f>
+        <f>+[11]Main!$C$6</f>
         <v>93.15</v>
       </c>
       <c r="G13" s="8">
-        <f>+[10]Main!$C$7</f>
+        <f>+[11]Main!$C$7</f>
         <v>103.23874000000001</v>
       </c>
       <c r="H13" s="8">
-        <f>+[10]Main!$C$8</f>
+        <f>+[11]Main!$C$8</f>
         <v>9616.6886310000009</v>
       </c>
       <c r="I13" s="8">
-        <f>+[10]Main!$C$11</f>
+        <f>+[11]Main!$C$11</f>
         <v>578.44299999999998</v>
       </c>
       <c r="J13" s="8">
-        <f>+[10]Main!$C$12</f>
+        <f>+[11]Main!$C$12</f>
         <v>9038.2456310000016</v>
       </c>
       <c r="K13" s="18" t="str">
-        <f>+[10]Main!$C$29</f>
+        <f>+[11]Main!$C$29</f>
         <v>Q225</v>
       </c>
       <c r="L13" s="13">
-        <f>+[10]Main!$D$29</f>
+        <f>+[11]Main!$D$29</f>
         <v>45617</v>
       </c>
       <c r="Q13" s="30">
-        <f>+[10]Main!$C$34</f>
+        <f>+[11]Main!$C$34</f>
         <v>12.550196094773931</v>
       </c>
       <c r="V13" s="12">
-        <f>+'[10]Financial Model'!$K$29</f>
+        <f>+'[11]Financial Model'!$K$29</f>
         <v>0.73589027689827868</v>
       </c>
       <c r="W13" s="12">
-        <f>+'[10]Financial Model'!$K$30</f>
+        <f>+'[11]Financial Model'!$K$30</f>
         <v>-9.7397962120775908E-2</v>
       </c>
       <c r="X13" s="12">
-        <f>+'[10]Financial Model'!$K$31</f>
+        <f>+'[11]Financial Model'!$K$31</f>
         <v>-0.141693051637787</v>
       </c>
       <c r="Y13" s="12">
-        <f>+'[10]Financial Model'!$K$32</f>
+        <f>+'[11]Financial Model'!$K$32</f>
         <v>-0.68840032926327432</v>
       </c>
       <c r="AA13" s="12">
-        <f>+'[10]Financial Model'!$K$34</f>
+        <f>+'[11]Financial Model'!$K$34</f>
         <v>0.18269430439859335</v>
       </c>
       <c r="AB13" s="12"/>
@@ -3566,19 +3593,19 @@
       <c r="AD13" s="12"/>
       <c r="AG13" s="18"/>
       <c r="AH13" s="29">
-        <f>+[10]Main!$C$24</f>
+        <f>+[11]Main!$C$24</f>
         <v>2012</v>
       </c>
       <c r="AI13" s="29">
-        <f>+[10]Main!$C$25</f>
+        <f>+[11]Main!$C$25</f>
         <v>2018</v>
       </c>
       <c r="AJ13" s="18" t="str">
-        <f>+[10]Main!$C$23</f>
+        <f>+[11]Main!$C$23</f>
         <v>Mountain View, CA</v>
       </c>
       <c r="AL13" s="18">
-        <f>+[10]Main!$C$38</f>
+        <f>+[11]Main!$C$38</f>
         <v>64</v>
       </c>
       <c r="AN13" s="2" t="s">
@@ -3602,11 +3629,11 @@
         <v>33</v>
       </c>
       <c r="F14" s="10">
-        <f>+[11]Main!$C$6*Currencies!C3</f>
+        <f>+[12]Main!$C$6*Currencies!C3</f>
         <v>4.758</v>
       </c>
       <c r="G14" s="8">
-        <f>+[11]Main!$C$7</f>
+        <f>+[12]Main!$C$7</f>
         <v>193.41571500000001</v>
       </c>
       <c r="H14" s="8">
@@ -3614,7 +3641,7 @@
         <v>920.27197196999998</v>
       </c>
       <c r="I14" s="8">
-        <f>[11]Main!$C$11*Currencies!D3</f>
+        <f>[12]Main!$C$11*Currencies!D3</f>
         <v>20.227692307692305</v>
       </c>
       <c r="J14" s="8">
@@ -3622,70 +3649,70 @@
         <v>900.04427966230764</v>
       </c>
       <c r="K14" s="2" t="str">
-        <f>[11]Main!$C$30</f>
+        <f>[12]Main!$C$30</f>
         <v>H124</v>
       </c>
       <c r="L14" s="13">
-        <f>[11]Main!$D$30</f>
+        <f>[12]Main!$D$30</f>
         <v>45559</v>
       </c>
       <c r="Q14" s="30">
-        <f>+[11]Main!$C$35</f>
+        <f>+[12]Main!$C$35</f>
         <v>3.5114162544642857</v>
       </c>
       <c r="R14" s="30">
-        <f>+[11]Main!$C$36</f>
+        <f>+[12]Main!$C$36</f>
         <v>2.9062654700109682</v>
       </c>
       <c r="S14" s="30">
-        <f>+[11]Main!$C$38</f>
+        <f>+[12]Main!$C$38</f>
         <v>16.966307587669284</v>
       </c>
       <c r="V14" s="12">
-        <f>+'[11]Financial Model'!$F$42</f>
+        <f>+'[12]Financial Model'!$F$42</f>
         <v>0.23750000000000002</v>
       </c>
       <c r="W14" s="12">
-        <f>+'[11]Financial Model'!$F$43</f>
+        <f>+'[12]Financial Model'!$F$43</f>
         <v>7.9166666666666677E-2</v>
       </c>
       <c r="X14" s="12">
-        <f>+'[11]Financial Model'!$F$44</f>
+        <f>+'[12]Financial Model'!$F$44</f>
         <v>5.2777777777777792E-2</v>
       </c>
       <c r="Y14" s="12">
-        <f>+'[11]Financial Model'!$F$45</f>
+        <f>+'[12]Financial Model'!$F$45</f>
         <v>0.29629629629629622</v>
       </c>
       <c r="AA14" s="12">
-        <f>+'[11]Financial Model'!$F$30</f>
+        <f>+'[12]Financial Model'!$F$30</f>
         <v>0.61254199328107539</v>
       </c>
       <c r="AB14" s="12">
-        <f>+'[11]Financial Model'!$K$30</f>
+        <f>+'[12]Financial Model'!$K$30</f>
         <v>0.41487498602675421</v>
       </c>
       <c r="AC14" s="12">
-        <f>+'[11]Financial Model'!$J$30</f>
+        <f>+'[12]Financial Model'!$J$30</f>
         <v>0.33624730593867169</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AG14" s="2">
-        <f>+[11]Main!$C$27</f>
+        <f>+[12]Main!$C$27</f>
         <v>115</v>
       </c>
       <c r="AH14" s="2">
-        <f>+[11]Main!$C$24</f>
+        <f>+[12]Main!$C$24</f>
         <v>2012</v>
       </c>
       <c r="AI14" s="28">
-        <f>+[11]Main!$C$25</f>
+        <f>+[12]Main!$C$25</f>
         <v>45444</v>
       </c>
       <c r="AJ14" s="2" t="str">
-        <f>[11]Main!$C$23</f>
+        <f>[12]Main!$C$23</f>
         <v>Cambridge, UK</v>
       </c>
       <c r="AN14" s="2" t="s">
@@ -3708,11 +3735,11 @@
         <v>70</v>
       </c>
       <c r="K17" s="2" t="str">
-        <f>+[12]Main!$C$28</f>
+        <f>+[13]Main!$C$28</f>
         <v>Q123</v>
       </c>
       <c r="L17" s="13">
-        <f>+[12]Main!$D$28</f>
+        <f>+[13]Main!$D$28</f>
         <v>45055</v>
       </c>
     </row>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A403A5C0-405A-44A0-9FFD-C38F7018340E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DAD7E6-CF67-42D8-A808-71D4FE0973AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -698,27 +698,27 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>62.99</v>
+            <v>66.650000000000006</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>159.67699999999999</v>
+            <v>161.31700000000001</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>10058.05423</v>
+            <v>10751.778050000001</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>1083.104</v>
+            <v>916.97</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>8974.9502300000004</v>
+            <v>9834.8080500000015</v>
           </cell>
         </row>
         <row r="23">
@@ -743,30 +743,30 @@
         </row>
         <row r="30">
           <cell r="C30" t="str">
-            <v>Q225</v>
+            <v>Q325</v>
           </cell>
           <cell r="D30">
-            <v>45536</v>
+            <v>45631</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>14.619179873954225</v>
+            <v>13.959341604552462</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>15.11993696803153</v>
+            <v>15.109363937734422</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>-26.754735051777317</v>
+            <v>-200.06816543627292</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>171.81507055005125</v>
+            <v>146.20312822953488</v>
           </cell>
         </row>
         <row r="39">
@@ -777,28 +777,28 @@
       </sheetData>
       <sheetData sheetId="1">
         <row r="23">
-          <cell r="L23">
-            <v>0.88295798098409495</v>
+          <cell r="M23">
+            <v>0.88714440924880256</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="L24">
-            <v>-0.22458156245892313</v>
+          <cell r="M24">
+            <v>-0.14655669303789412</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="L25">
-            <v>6.7223853130613728E-2</v>
+          <cell r="M25">
+            <v>0.14418481282549578</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="L26">
-            <v>-1.4521476460620335</v>
+          <cell r="M26">
+            <v>-3.5342478034785638</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="L28">
-            <v>0.30808634412993152</v>
+          <cell r="M28">
+            <v>0.3098791992944383</v>
           </cell>
           <cell r="S28">
             <v>0.36661984842200512</v>
@@ -922,7 +922,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>3.66</v>
+            <v>3.81</v>
           </cell>
         </row>
         <row r="7">
@@ -965,17 +965,17 @@
         </row>
         <row r="35">
           <cell r="C35">
-            <v>3.5114162544642857</v>
+            <v>3.6553267566964283</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>2.9062654700109682</v>
+            <v>3.0253747105851887</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>16.966307587669284</v>
+            <v>17.661648062573764</v>
           </cell>
         </row>
       </sheetData>
@@ -2287,7 +2287,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3430,67 +3430,67 @@
       </c>
       <c r="F12" s="10">
         <f>[10]Main!$C$6</f>
-        <v>62.99</v>
+        <v>66.650000000000006</v>
       </c>
       <c r="G12" s="8">
         <f>[10]Main!$C$7</f>
-        <v>159.67699999999999</v>
+        <v>161.31700000000001</v>
       </c>
       <c r="H12" s="8">
         <f>[10]Main!$C$8</f>
-        <v>10058.05423</v>
+        <v>10751.778050000001</v>
       </c>
       <c r="I12" s="8">
         <f>[10]Main!$C$11</f>
-        <v>1083.104</v>
+        <v>916.97</v>
       </c>
       <c r="J12" s="8">
         <f>[10]Main!$C$12</f>
-        <v>8974.9502300000004</v>
+        <v>9834.8080500000015</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>+[10]Main!$C$30</f>
-        <v>Q225</v>
+        <v>Q325</v>
       </c>
       <c r="L12" s="13">
         <f>+[10]Main!$D$30</f>
-        <v>45536</v>
+        <v>45631</v>
       </c>
       <c r="Q12" s="30">
         <f>+[10]Main!$C$35</f>
-        <v>14.619179873954225</v>
+        <v>13.959341604552462</v>
       </c>
       <c r="R12" s="30">
         <f>+[10]Main!$C$36</f>
-        <v>15.11993696803153</v>
+        <v>15.109363937734422</v>
       </c>
       <c r="S12" s="32">
         <f>+[10]Main!$C$37</f>
-        <v>-26.754735051777317</v>
+        <v>-200.06816543627292</v>
       </c>
       <c r="T12" s="30">
         <f>+[10]Main!$C$38</f>
-        <v>171.81507055005125</v>
+        <v>146.20312822953488</v>
       </c>
       <c r="V12" s="12">
-        <f>+'[10]Financial Model'!$L$23</f>
-        <v>0.88295798098409495</v>
+        <f>+'[10]Financial Model'!$M$23</f>
+        <v>0.88714440924880256</v>
       </c>
       <c r="W12" s="12">
-        <f>+'[10]Financial Model'!$L$24</f>
-        <v>-0.22458156245892313</v>
+        <f>+'[10]Financial Model'!$M$24</f>
+        <v>-0.14655669303789412</v>
       </c>
       <c r="X12" s="12">
-        <f>+'[10]Financial Model'!$L$25</f>
-        <v>6.7223853130613728E-2</v>
+        <f>+'[10]Financial Model'!$M$25</f>
+        <v>0.14418481282549578</v>
       </c>
       <c r="Y12" s="12">
-        <f>+'[10]Financial Model'!$L$26</f>
-        <v>-1.4521476460620335</v>
+        <f>+'[10]Financial Model'!$M$26</f>
+        <v>-3.5342478034785638</v>
       </c>
       <c r="AA12" s="12">
-        <f>+'[10]Financial Model'!$L$28</f>
-        <v>0.30808634412993152</v>
+        <f>+'[10]Financial Model'!$M$28</f>
+        <v>0.3098791992944383</v>
       </c>
       <c r="AB12" s="12">
         <f>+'[10]Financial Model'!$S$28</f>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="F14" s="10">
         <f>+[12]Main!$C$6*Currencies!C3</f>
-        <v>4.758</v>
+        <v>4.9530000000000003</v>
       </c>
       <c r="G14" s="8">
         <f>+[12]Main!$C$7</f>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="H14" s="8">
         <f>G14*F14</f>
-        <v>920.27197196999998</v>
+        <v>957.98803639500011</v>
       </c>
       <c r="I14" s="8">
         <f>[12]Main!$C$11*Currencies!D3</f>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="J14" s="8">
         <f>H14-I14</f>
-        <v>900.04427966230764</v>
+        <v>937.76034408730777</v>
       </c>
       <c r="K14" s="2" t="str">
         <f>[12]Main!$C$30</f>
@@ -3658,15 +3658,15 @@
       </c>
       <c r="Q14" s="30">
         <f>+[12]Main!$C$35</f>
-        <v>3.5114162544642857</v>
+        <v>3.6553267566964283</v>
       </c>
       <c r="R14" s="30">
         <f>+[12]Main!$C$36</f>
-        <v>2.9062654700109682</v>
+        <v>3.0253747105851887</v>
       </c>
       <c r="S14" s="30">
         <f>+[12]Main!$C$38</f>
-        <v>16.966307587669284</v>
+        <v>17.661648062573764</v>
       </c>
       <c r="V14" s="12">
         <f>+'[12]Financial Model'!$F$42</f>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DAD7E6-CF67-42D8-A808-71D4FE0973AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A2268C-9471-475B-A060-B246319FA9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -30,18 +30,28 @@
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
   <si>
     <t>Ticker</t>
   </si>
@@ -238,9 +248,6 @@
     <t>Semi-Conductors</t>
   </si>
   <si>
-    <t>SBCs, Microncontrollers, Chips</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -329,6 +336,27 @@
   </si>
   <si>
     <t>Git repository services</t>
+  </si>
+  <si>
+    <t>$SWI</t>
+  </si>
+  <si>
+    <t>SolarWinds Corporation</t>
+  </si>
+  <si>
+    <t>Network, Systems Management &amp; Analysis</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>CEO Tenure</t>
+  </si>
+  <si>
+    <t>DevOps/Infrastructure</t>
+  </si>
+  <si>
+    <t>SBCs, Microcontrollers, Chips</t>
   </si>
 </sst>
 </file>
@@ -549,8 +577,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -583,6 +614,11 @@
             <v>1412780.8299999998</v>
           </cell>
         </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Mark Zuckerburg</v>
+          </cell>
+        </row>
         <row r="23">
           <cell r="C23" t="str">
             <v>San Francisco, CA</v>
@@ -681,15 +717,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -721,6 +760,11 @@
             <v>9834.8080500000015</v>
           </cell>
         </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Sytse Sijbrandij</v>
+          </cell>
+        </row>
         <row r="23">
           <cell r="C23">
             <v>2011</v>
@@ -811,8 +855,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -911,8 +958,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -922,7 +972,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>3.81</v>
+            <v>4.2039999999999997</v>
           </cell>
         </row>
         <row r="7">
@@ -965,17 +1015,22 @@
         </row>
         <row r="35">
           <cell r="C35">
-            <v>3.6553267566964283</v>
+            <v>4.0333316758928568</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>3.0253747105851887</v>
+            <v>3.3382349824934723</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>17.661648062573764</v>
+            <v>19.488075709989527</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>42</v>
           </cell>
         </row>
       </sheetData>
@@ -1012,14 +1067,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1046,9 +1101,123 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>14.41</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>171</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>2464.11</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>-1006.182</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>3470.2920000000004</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>44200</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Sudhakar Ramakrishna</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Austin, TX</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1999</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>Q324</v>
+          </cell>
+          <cell r="D29">
+            <v>45597</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>1.8366805608184922</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>74</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="22">
+          <cell r="M22">
+            <v>0.90155230596175473</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="M23">
+            <v>0.3222697162854643</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="M24">
+            <v>0.12672415948006502</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="M25">
+            <v>0.32920503863660416</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="M27">
+            <v>5.5034257955282717E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -1081,6 +1250,11 @@
             <v>84387.005600000004</v>
           </cell>
         </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Daniel Ek</v>
+          </cell>
+        </row>
         <row r="23">
           <cell r="C23" t="str">
             <v>Stockholm, Sweden</v>
@@ -1163,14 +1337,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1301,7 +1475,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1424,7 +1598,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1535,7 +1709,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1663,7 +1837,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1768,7 +1942,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1879,7 +2053,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -2281,13 +2455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B533DC-5A31-4AB0-80D6-BD84B319883E}">
-  <dimension ref="B1:AO20"/>
+  <dimension ref="B1:AR21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2314,18 +2488,21 @@
     <col min="37" max="37" width="9.140625" style="2"/>
     <col min="38" max="38" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="9.140625" style="2"/>
-    <col min="40" max="40" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="1"/>
+    <col min="40" max="40" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="38.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.140625" style="1"/>
+    <col min="43" max="43" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41">
+    <row r="1" spans="2:44">
       <c r="F1" s="25" t="s">
         <v>60</v>
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="2:41" s="3" customFormat="1">
+    <row r="2" spans="2:44" s="3" customFormat="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2378,7 +2555,7 @@
         <v>16</v>
       </c>
       <c r="T2" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>17</v>
@@ -2422,7 +2599,7 @@
       </c>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AM2" s="4"/>
       <c r="AN2" s="4" t="s">
@@ -2431,8 +2608,14 @@
       <c r="AO2" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="AQ2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="3" spans="2:41">
+    <row r="3" spans="2:44">
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
@@ -2555,13 +2738,17 @@
       <c r="AO3" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="AQ3" s="2" t="str">
+        <f>+[1]Main!$C$16</f>
+        <v>Mark Zuckerburg</v>
+      </c>
     </row>
-    <row r="4" spans="2:41">
+    <row r="4" spans="2:44">
       <c r="B4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
@@ -2658,15 +2845,19 @@
         <v>Stockholm, Sweden</v>
       </c>
       <c r="AN4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AO4" s="2" t="s">
-        <v>77</v>
+      <c r="AQ4" s="2" t="str">
+        <f>+[2]Main!$C$16</f>
+        <v>Daniel Ek</v>
       </c>
     </row>
-    <row r="5" spans="2:41">
+    <row r="5" spans="2:44">
       <c r="B5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>+[3]Main!$B$3</f>
@@ -2774,15 +2965,15 @@
         <v>53</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="6" spans="2:41">
+    <row r="6" spans="2:44">
       <c r="B6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>32</v>
@@ -2883,18 +3074,18 @@
         <v>76</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="7" spans="2:41">
+    <row r="7" spans="2:44">
       <c r="B7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
@@ -2983,13 +3174,13 @@
         <v>Bozeman, MT</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:41">
+    <row r="8" spans="2:44">
       <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
@@ -3110,7 +3301,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:41">
+    <row r="9" spans="2:44">
       <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
@@ -3208,12 +3399,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:41">
+    <row r="10" spans="2:44">
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>37</v>
@@ -3305,10 +3496,10 @@
         <v>53</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="11" spans="2:41">
+    <row r="11" spans="2:44">
       <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
@@ -3415,12 +3606,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:41">
+    <row r="12" spans="2:44">
       <c r="B12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
@@ -3517,18 +3708,22 @@
         <v>41</v>
       </c>
       <c r="AN12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO12" s="2" t="s">
-        <v>95</v>
+      <c r="AQ12" s="2" t="str">
+        <f>+[10]Main!$C$16</f>
+        <v>Sytse Sijbrandij</v>
       </c>
     </row>
-    <row r="13" spans="2:41">
+    <row r="13" spans="2:44">
       <c r="B13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>37</v>
@@ -3609,148 +3804,250 @@
         <v>64</v>
       </c>
       <c r="AN13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AO13" s="2" t="s">
-        <v>85</v>
-      </c>
     </row>
-    <row r="14" spans="2:41">
+    <row r="14" spans="2:44">
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="10">
+        <f>+[14]Main!$C$6</f>
+        <v>14.41</v>
+      </c>
+      <c r="G14" s="8">
+        <f>+[14]Main!$C$7</f>
+        <v>171</v>
+      </c>
+      <c r="H14" s="8">
+        <f>+[14]Main!$C$8</f>
+        <v>2464.11</v>
+      </c>
+      <c r="I14" s="8">
+        <f>+[14]Main!$C$11</f>
+        <v>-1006.182</v>
+      </c>
+      <c r="J14" s="8">
+        <f>+[14]Main!$C$12</f>
+        <v>3470.2920000000004</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f>+[14]Main!$C$29</f>
+        <v>Q324</v>
+      </c>
+      <c r="L14" s="13">
+        <f>+[14]Main!$D$29</f>
+        <v>45597</v>
+      </c>
+      <c r="Q14" s="30">
+        <f>+[14]Main!$C$34</f>
+        <v>1.8366805608184922</v>
+      </c>
+      <c r="V14" s="12">
+        <f>+'[14]Financial Model'!$M$22</f>
+        <v>0.90155230596175473</v>
+      </c>
+      <c r="W14" s="12">
+        <f>+'[14]Financial Model'!$M$23</f>
+        <v>0.3222697162854643</v>
+      </c>
+      <c r="X14" s="12">
+        <f>+'[14]Financial Model'!$M$24</f>
+        <v>0.12672415948006502</v>
+      </c>
+      <c r="Y14" s="12">
+        <f>+'[14]Financial Model'!$M$25</f>
+        <v>0.32920503863660416</v>
+      </c>
+      <c r="AA14" s="12">
+        <f>+'[14]Financial Model'!$M$27</f>
+        <v>5.5034257955282717E-2</v>
+      </c>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AH14" s="2">
+        <f>+[14]Main!$C$24</f>
+        <v>1999</v>
+      </c>
+      <c r="AI14" s="29">
+        <f>+[14]Main!$C$25</f>
+        <v>2018</v>
+      </c>
+      <c r="AJ14" s="2" t="str">
+        <f>+[14]Main!$C$23</f>
+        <v>Austin, TX</v>
+      </c>
+      <c r="AL14" s="2">
+        <f>+[14]Main!$C$39</f>
+        <v>74</v>
+      </c>
+      <c r="AN14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ14" s="2" t="str">
+        <f>+[14]Main!$C$16</f>
+        <v>Sudhakar Ramakrishna</v>
+      </c>
+      <c r="AR14" s="2">
+        <f ca="1">DATEDIF( [14]Main!$A$16, TODAY(), "y")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:44">
+      <c r="B15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="10">
         <f>+[12]Main!$C$6*Currencies!C3</f>
-        <v>4.9530000000000003</v>
-      </c>
-      <c r="G14" s="8">
+        <v>5.4652000000000003</v>
+      </c>
+      <c r="G15" s="8">
         <f>+[12]Main!$C$7</f>
         <v>193.41571500000001</v>
       </c>
-      <c r="H14" s="8">
-        <f>G14*F14</f>
-        <v>957.98803639500011</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="H15" s="8">
+        <f>G15*F15</f>
+        <v>1057.0555656180002</v>
+      </c>
+      <c r="I15" s="8">
         <f>[12]Main!$C$11*Currencies!D3</f>
         <v>20.227692307692305</v>
       </c>
-      <c r="J14" s="8">
-        <f>H14-I14</f>
-        <v>937.76034408730777</v>
-      </c>
-      <c r="K14" s="2" t="str">
+      <c r="J15" s="8">
+        <f>H15-I15</f>
+        <v>1036.827873310308</v>
+      </c>
+      <c r="K15" s="2" t="str">
         <f>[12]Main!$C$30</f>
         <v>H124</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L15" s="13">
         <f>[12]Main!$D$30</f>
         <v>45559</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q15" s="30">
         <f>+[12]Main!$C$35</f>
-        <v>3.6553267566964283</v>
-      </c>
-      <c r="R14" s="30">
+        <v>4.0333316758928568</v>
+      </c>
+      <c r="R15" s="30">
         <f>+[12]Main!$C$36</f>
-        <v>3.0253747105851887</v>
-      </c>
-      <c r="S14" s="30">
+        <v>3.3382349824934723</v>
+      </c>
+      <c r="S15" s="30">
         <f>+[12]Main!$C$38</f>
-        <v>17.661648062573764</v>
-      </c>
-      <c r="V14" s="12">
+        <v>19.488075709989527</v>
+      </c>
+      <c r="V15" s="12">
         <f>+'[12]Financial Model'!$F$42</f>
         <v>0.23750000000000002</v>
       </c>
-      <c r="W14" s="12">
+      <c r="W15" s="12">
         <f>+'[12]Financial Model'!$F$43</f>
         <v>7.9166666666666677E-2</v>
       </c>
-      <c r="X14" s="12">
+      <c r="X15" s="12">
         <f>+'[12]Financial Model'!$F$44</f>
         <v>5.2777777777777792E-2</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Y15" s="12">
         <f>+'[12]Financial Model'!$F$45</f>
         <v>0.29629629629629622</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA15" s="12">
         <f>+'[12]Financial Model'!$F$30</f>
         <v>0.61254199328107539</v>
       </c>
-      <c r="AB14" s="12">
+      <c r="AB15" s="12">
         <f>+'[12]Financial Model'!$K$30</f>
         <v>0.41487498602675421</v>
       </c>
-      <c r="AC14" s="12">
+      <c r="AC15" s="12">
         <f>+'[12]Financial Model'!$J$30</f>
         <v>0.33624730593867169</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AD15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AG15" s="2">
         <f>+[12]Main!$C$27</f>
         <v>115</v>
       </c>
-      <c r="AH14" s="2">
+      <c r="AH15" s="2">
         <f>+[12]Main!$C$24</f>
         <v>2012</v>
       </c>
-      <c r="AI14" s="28">
+      <c r="AI15" s="28">
         <f>+[12]Main!$C$25</f>
         <v>45444</v>
       </c>
-      <c r="AJ14" s="2" t="str">
+      <c r="AJ15" s="2" t="str">
         <f>[12]Main!$C$23</f>
         <v>Cambridge, UK</v>
       </c>
-      <c r="AN14" s="2" t="s">
+      <c r="AL15" s="2">
+        <f>+[12]Main!$C$40</f>
+        <v>42</v>
+      </c>
+      <c r="AN15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AO14" s="2" t="s">
+      <c r="AO15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:44">
+      <c r="F16" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:41">
-      <c r="F15" s="10" t="s">
+    <row r="18" spans="2:12">
+      <c r="B18" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="2" t="str">
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="2" t="str">
         <f>+[13]Main!$C$28</f>
         <v>Q123</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L18" s="13">
         <f>+[13]Main!$D$28</f>
         <v>45055</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="2:12">
+      <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3765,8 +4062,8 @@
     <hyperlink ref="B9" r:id="rId2" xr:uid="{1AA14988-C4F2-405C-BA9D-FBCA3DA35146}"/>
     <hyperlink ref="B8" r:id="rId3" xr:uid="{6E23CD56-40A8-49B9-8695-A01CE41D946F}"/>
     <hyperlink ref="B11" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
-    <hyperlink ref="B14" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
-    <hyperlink ref="B17" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
+    <hyperlink ref="B15" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
+    <hyperlink ref="B18" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
     <hyperlink ref="B10" r:id="rId7" xr:uid="{3859F738-BD99-4DD5-8721-EF043945682D}"/>
     <hyperlink ref="B4" r:id="rId8" xr:uid="{7B052CC6-304F-47CB-A888-07413A5C714D}"/>
     <hyperlink ref="B7" r:id="rId9" xr:uid="{383539A3-A008-4138-9E99-F152484C7F66}"/>
@@ -3774,9 +4071,10 @@
     <hyperlink ref="B6" r:id="rId11" xr:uid="{E635F2D9-F8A1-4114-ACFA-1F5C37840BC2}"/>
     <hyperlink ref="B5" r:id="rId12" xr:uid="{5EFB43D2-FEF7-4D4A-9ED9-38F476FBD5D7}"/>
     <hyperlink ref="B12" r:id="rId13" xr:uid="{3C1CCECE-6E3C-484C-900B-30A27E51CC77}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{64CBF090-75E6-42D8-9624-4B5EDAEC2337}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
   <ignoredErrors>
     <ignoredError sqref="H13 J13" formula="1"/>
   </ignoredErrors>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3FC1C2-E8F4-41F0-A8AA-7D845C9C2707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467AC686-3C0D-4DA0-BC02-2B593C504472}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -37,15 +37,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -6973,11 +6964,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -7120,11 +7108,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -7251,11 +7236,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -7354,11 +7336,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -7413,6 +7392,11 @@
             <v>2018</v>
           </cell>
         </row>
+        <row r="27">
+          <cell r="C27">
+            <v>2103</v>
+          </cell>
+        </row>
         <row r="29">
           <cell r="C29" t="str">
             <v>Q324</v>
@@ -7426,8 +7410,23 @@
             <v>1.8366805608184922</v>
           </cell>
         </row>
+        <row r="35">
+          <cell r="C35">
+            <v>3.140093663385263</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>29.98923685611501</v>
+          </cell>
+        </row>
         <row r="39">
           <cell r="C39">
+            <v>14.320732181228001</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
             <v>74</v>
           </cell>
         </row>
@@ -7457,6 +7456,12 @@
           <cell r="M27">
             <v>5.5034257955282717E-2</v>
           </cell>
+          <cell r="R27">
+            <v>1.0227766088901635E-3</v>
+          </cell>
+          <cell r="S27">
+            <v>5.47328415120516E-2</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -7465,11 +7470,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -7581,7 +7583,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7609,11 +7611,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -7740,7 +7739,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7871,7 +7870,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7994,7 +7993,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8105,7 +8104,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8233,7 +8232,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8338,7 +8337,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8449,7 +8448,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8857,7 +8856,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10251,6 +10250,18 @@
         <f>+[12]Main!$C$34</f>
         <v>1.8366805608184922</v>
       </c>
+      <c r="R14" s="30">
+        <f>+[12]Main!$C$35</f>
+        <v>3.140093663385263</v>
+      </c>
+      <c r="S14" s="30">
+        <f>+[12]Main!$C$37</f>
+        <v>29.98923685611501</v>
+      </c>
+      <c r="T14" s="30">
+        <f>+[12]Main!$C$39</f>
+        <v>14.320732181228001</v>
+      </c>
       <c r="V14" s="12">
         <f>+'[12]Financial Model'!$M$22</f>
         <v>0.90155230596175473</v>
@@ -10271,8 +10282,18 @@
         <f>+'[12]Financial Model'!$M$27</f>
         <v>5.5034257955282717E-2</v>
       </c>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
+      <c r="AB14" s="12">
+        <f>+'[12]Financial Model'!$S$27</f>
+        <v>5.47328415120516E-2</v>
+      </c>
+      <c r="AC14" s="12">
+        <f>+'[12]Financial Model'!$R$27</f>
+        <v>1.0227766088901635E-3</v>
+      </c>
+      <c r="AG14" s="18">
+        <f>+[12]Main!$C$27</f>
+        <v>2103</v>
+      </c>
       <c r="AH14" s="2">
         <f>+[12]Main!$C$24</f>
         <v>1999</v>
@@ -10286,7 +10307,7 @@
         <v>Austin, TX</v>
       </c>
       <c r="AL14" s="2">
-        <f>+[12]Main!$C$39</f>
+        <f>+[12]Main!$C$40</f>
         <v>74</v>
       </c>
       <c r="AN14" s="2" t="s">
@@ -10537,7 +10558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB71BE00-D62C-41E0-95FF-95A67C144312}">
   <dimension ref="A1:G1285"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C289" sqref="C289"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467AC686-3C0D-4DA0-BC02-2B593C504472}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D4C694-BDFF-4D95-BCC6-C2356279643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -37,6 +37,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -6964,7 +6973,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7108,7 +7117,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7236,7 +7245,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7336,7 +7345,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7470,7 +7479,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7481,7 +7490,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>4.2039999999999997</v>
+            <v>5.88</v>
           </cell>
         </row>
         <row r="7">
@@ -7524,17 +7533,17 @@
         </row>
         <row r="35">
           <cell r="C35">
-            <v>4.0333316758928568</v>
+            <v>5.6412916874999999</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>3.3382349824934723</v>
+            <v>4.6690822305094244</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>19.488075709989527</v>
+            <v>27.257346616255575</v>
           </cell>
         </row>
         <row r="40">
@@ -7583,7 +7592,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7611,7 +7620,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7739,8 +7748,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -7775,6 +7787,11 @@
         <row r="12">
           <cell r="C12">
             <v>59683.886599999998</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Carl Eschenbach</v>
           </cell>
         </row>
         <row r="23">
@@ -7870,8 +7887,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -7901,6 +7921,11 @@
         <row r="12">
           <cell r="C12">
             <v>61506</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Dr Andrew Anagnost</v>
           </cell>
         </row>
         <row r="23">
@@ -7993,7 +8018,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8104,7 +8129,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8232,7 +8257,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8337,7 +8362,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8448,7 +8473,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8853,10 +8878,10 @@
   <dimension ref="B1:AR21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9362,6 +9387,10 @@
       <c r="AO5" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="AQ5" s="2" t="str">
+        <f>+[3]Main!$C$16</f>
+        <v>Carl Eschenbach</v>
+      </c>
     </row>
     <row r="6" spans="2:44">
       <c r="B6" s="5" t="s">
@@ -9473,6 +9502,10 @@
       </c>
       <c r="AO6" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="AQ6" s="2" t="str">
+        <f>+[4]Main!$C$16</f>
+        <v>Dr Andrew Anagnost</v>
       </c>
     </row>
     <row r="7" spans="2:44">
@@ -10340,7 +10373,7 @@
       </c>
       <c r="F15" s="10">
         <f>+[13]Main!$C$6*Currencies!C3</f>
-        <v>5.4652000000000003</v>
+        <v>7.6440000000000001</v>
       </c>
       <c r="G15" s="8">
         <f>+[13]Main!$C$7</f>
@@ -10348,7 +10381,7 @@
       </c>
       <c r="H15" s="8">
         <f>G15*F15</f>
-        <v>1057.0555656180002</v>
+        <v>1478.4697254600001</v>
       </c>
       <c r="I15" s="8">
         <f>[13]Main!$C$11*Currencies!D3</f>
@@ -10356,7 +10389,7 @@
       </c>
       <c r="J15" s="8">
         <f>H15-I15</f>
-        <v>1036.827873310308</v>
+        <v>1458.2420331523078</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>[13]Main!$C$30</f>
@@ -10368,15 +10401,15 @@
       </c>
       <c r="Q15" s="30">
         <f>+[13]Main!$C$35</f>
-        <v>4.0333316758928568</v>
+        <v>5.6412916874999999</v>
       </c>
       <c r="R15" s="30">
         <f>+[13]Main!$C$36</f>
-        <v>3.3382349824934723</v>
+        <v>4.6690822305094244</v>
       </c>
       <c r="S15" s="30">
         <f>+[13]Main!$C$38</f>
-        <v>19.488075709989527</v>
+        <v>27.257346616255575</v>
       </c>
       <c r="V15" s="12">
         <f>+'[13]Financial Model'!$F$42</f>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D4C694-BDFF-4D95-BCC6-C2356279643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C317294A-6C27-4488-AE71-B6D3655832C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -32,6 +32,7 @@
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7352,7 +7353,7 @@
       <sheetName val="Financial Model"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="6">
           <cell r="C6">
             <v>14.41</v>
@@ -7440,7 +7441,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1" refreshError="1">
         <row r="22">
           <cell r="M22">
             <v>0.90155230596175473</v>
@@ -7490,7 +7491,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>5.88</v>
+            <v>7.22</v>
           </cell>
         </row>
         <row r="7">
@@ -7533,17 +7534,17 @@
         </row>
         <row r="35">
           <cell r="C35">
-            <v>5.6412916874999999</v>
+            <v>6.9268921741071425</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>4.6690822305094244</v>
+            <v>5.7331247796391231</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>27.257346616255575</v>
+            <v>33.469054858735582</v>
           </cell>
         </row>
         <row r="40">
@@ -7614,6 +7615,27 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="16">
+          <cell r="A16">
+            <v>45351</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8020,6 +8042,9 @@
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -8028,27 +8053,32 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>130.24</v>
+            <v>158.65</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>334.07100000000003</v>
+            <v>331.76100000000002</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>43509.407040000006</v>
+            <v>52633.882650000007</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>3927.913</v>
+            <v>2780.308</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>39581.494040000005</v>
+            <v>49853.57465000001</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Sridhar Ramaswamy</v>
           </cell>
         </row>
         <row r="23">
@@ -8068,32 +8098,37 @@
         </row>
         <row r="27">
           <cell r="C27">
-            <v>7630</v>
+            <v>7823</v>
           </cell>
         </row>
         <row r="29">
           <cell r="C29" t="str">
-            <v>Q224</v>
+            <v>Q324</v>
           </cell>
           <cell r="D29">
-            <v>45533</v>
+            <v>46692</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>10.51564511498003</v>
+            <v>17.936791582223204</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>13.569715649610261</v>
+            <v>15.415798299613215</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>39</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="21">
-          <cell r="L21">
-            <v>0.28895667474755871</v>
+          <cell r="M21">
+            <v>0.2832043673630058</v>
           </cell>
           <cell r="W21">
             <v>0.69409764566847132</v>
@@ -8103,23 +8138,23 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="L24">
-            <v>0.66841087502014318</v>
+          <cell r="M24">
+            <v>0.65938218479260036</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="L25">
-            <v>-0.40901724257004091</v>
+          <cell r="M25">
+            <v>-0.38791988909811531</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="L26">
-            <v>-0.36581528119892281</v>
+          <cell r="M26">
+            <v>-0.34659386430653411</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="L27">
-            <v>-1.2056288153566408E-2</v>
+          <cell r="M27">
+            <v>-5.9675834213939573E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -8878,10 +8913,10 @@
   <dimension ref="B1:AR21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ7" sqref="AQ7"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9523,59 +9558,59 @@
       </c>
       <c r="F7" s="10">
         <f>+[5]Main!$C$6</f>
-        <v>130.24</v>
+        <v>158.65</v>
       </c>
       <c r="G7" s="8">
         <f>+[5]Main!$C$7</f>
-        <v>334.07100000000003</v>
+        <v>331.76100000000002</v>
       </c>
       <c r="H7" s="8">
         <f>+[5]Main!$C$8</f>
-        <v>43509.407040000006</v>
+        <v>52633.882650000007</v>
       </c>
       <c r="I7" s="8">
         <f>+[5]Main!$C$11</f>
-        <v>3927.913</v>
+        <v>2780.308</v>
       </c>
       <c r="J7" s="8">
         <f>+[5]Main!$C$12</f>
-        <v>39581.494040000005</v>
+        <v>49853.57465000001</v>
       </c>
       <c r="K7" s="2" t="str">
         <f>+[5]Main!$C$29</f>
-        <v>Q224</v>
+        <v>Q324</v>
       </c>
       <c r="L7" s="13">
         <f>+[5]Main!$D$29</f>
-        <v>45533</v>
+        <v>46692</v>
       </c>
       <c r="Q7" s="30">
         <f>+[5]Main!$C$34</f>
-        <v>10.51564511498003</v>
+        <v>17.936791582223204</v>
       </c>
       <c r="R7" s="30">
         <f>+[5]Main!$C$35</f>
-        <v>13.569715649610261</v>
+        <v>15.415798299613215</v>
       </c>
       <c r="V7" s="12">
-        <f>+'[5]Financial Model'!$L$24</f>
-        <v>0.66841087502014318</v>
+        <f>+'[5]Financial Model'!$M$24</f>
+        <v>0.65938218479260036</v>
       </c>
       <c r="W7" s="12">
-        <f>+'[5]Financial Model'!$L$25</f>
-        <v>-0.40901724257004091</v>
+        <f>+'[5]Financial Model'!$M$25</f>
+        <v>-0.38791988909811531</v>
       </c>
       <c r="X7" s="12">
-        <f>+'[5]Financial Model'!$L$26</f>
-        <v>-0.36581528119892281</v>
+        <f>+'[5]Financial Model'!$M$26</f>
+        <v>-0.34659386430653411</v>
       </c>
       <c r="Y7" s="12">
-        <f>+'[5]Financial Model'!$L$27</f>
-        <v>-1.2056288153566408E-2</v>
+        <f>+'[5]Financial Model'!$M$27</f>
+        <v>-5.9675834213939573E-3</v>
       </c>
       <c r="AA7" s="12">
-        <f>+'[5]Financial Model'!$L$21</f>
-        <v>0.28895667474755871</v>
+        <f>+'[5]Financial Model'!$M$21</f>
+        <v>0.2832043673630058</v>
       </c>
       <c r="AB7" s="12">
         <f>+'[5]Financial Model'!$X$21</f>
@@ -9587,7 +9622,7 @@
       </c>
       <c r="AG7" s="18">
         <f>+[5]Main!$C$27</f>
-        <v>7630</v>
+        <v>7823</v>
       </c>
       <c r="AH7" s="2">
         <f>+[5]Main!$C$24</f>
@@ -9601,11 +9636,23 @@
         <f>+[5]Main!$C$23</f>
         <v>Bozeman, MT</v>
       </c>
+      <c r="AL7" s="2">
+        <f>+[5]Main!$C$38</f>
+        <v>39</v>
+      </c>
       <c r="AN7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AO7" s="2" t="s">
         <v>79</v>
+      </c>
+      <c r="AQ7" s="2" t="str">
+        <f>+[5]Main!$C$16</f>
+        <v>Sridhar Ramaswamy</v>
+      </c>
+      <c r="AR7" s="2">
+        <f ca="1">DATEDIF( [15]Main!$A$16, TODAY(), "y")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:44">
@@ -10373,7 +10420,7 @@
       </c>
       <c r="F15" s="10">
         <f>+[13]Main!$C$6*Currencies!C3</f>
-        <v>7.6440000000000001</v>
+        <v>9.3859999999999992</v>
       </c>
       <c r="G15" s="8">
         <f>+[13]Main!$C$7</f>
@@ -10381,7 +10428,7 @@
       </c>
       <c r="H15" s="8">
         <f>G15*F15</f>
-        <v>1478.4697254600001</v>
+        <v>1815.3999009899999</v>
       </c>
       <c r="I15" s="8">
         <f>[13]Main!$C$11*Currencies!D3</f>
@@ -10389,7 +10436,7 @@
       </c>
       <c r="J15" s="8">
         <f>H15-I15</f>
-        <v>1458.2420331523078</v>
+        <v>1795.1722086823077</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>[13]Main!$C$30</f>
@@ -10401,15 +10448,15 @@
       </c>
       <c r="Q15" s="30">
         <f>+[13]Main!$C$35</f>
-        <v>5.6412916874999999</v>
+        <v>6.9268921741071425</v>
       </c>
       <c r="R15" s="30">
         <f>+[13]Main!$C$36</f>
-        <v>4.6690822305094244</v>
+        <v>5.7331247796391231</v>
       </c>
       <c r="S15" s="30">
         <f>+[13]Main!$C$38</f>
-        <v>27.257346616255575</v>
+        <v>33.469054858735582</v>
       </c>
       <c r="V15" s="12">
         <f>+'[13]Financial Model'!$F$42</f>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0634CB4E-58C0-474E-A430-F9688C9F136F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE91B9C3-BBA1-4694-99DE-979C4E4A6F7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -7491,7 +7491,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>5.71</v>
+            <v>7.5</v>
           </cell>
         </row>
         <row r="7">
@@ -7534,17 +7534,17 @@
         </row>
         <row r="35">
           <cell r="C35">
-            <v>5.4781931183035715</v>
+            <v>7.1955251116071421</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>4.5340917578586417</v>
+            <v>5.9554620287110005</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>26.469294078030497</v>
+            <v>34.767023745223945</v>
           </cell>
         </row>
         <row r="40">
@@ -7586,41 +7586,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
-      <sheetName val="Historical Projections"/>
-      <sheetName val="Price History"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>Q123</v>
-          </cell>
-          <cell r="D28">
-            <v>45055</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -7654,6 +7626,34 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+      <sheetName val="Historical Projections"/>
+      <sheetName val="Price History"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>Q123</v>
+          </cell>
+          <cell r="D28">
+            <v>45055</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8188,7 +8188,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>51.68</v>
+            <v>61</v>
           </cell>
           <cell r="G6" t="str">
             <v>San Mateo, CA</v>
@@ -8196,7 +8196,7 @@
         </row>
         <row r="7">
           <cell r="C7">
-            <v>641.81399999999996</v>
+            <v>660.9</v>
           </cell>
           <cell r="G7">
             <v>2021</v>
@@ -8204,7 +8204,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>33168.947520000002</v>
+            <v>40314.9</v>
           </cell>
           <cell r="G8">
             <v>2004</v>
@@ -8212,7 +8212,7 @@
         </row>
         <row r="9">
           <cell r="G9">
-            <v>79.5</v>
+            <v>85.3</v>
           </cell>
         </row>
         <row r="10">
@@ -8222,82 +8222,90 @@
         </row>
         <row r="11">
           <cell r="C11">
-            <v>2595.5510000000004</v>
+            <v>3013.3890000000001</v>
           </cell>
           <cell r="G11" t="str">
-            <v>Q324</v>
+            <v>Q424</v>
           </cell>
           <cell r="H11">
-            <v>45596</v>
+            <v>45694</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>30573.396520000002</v>
+            <v>37301.510999999999</v>
           </cell>
         </row>
         <row r="16">
+          <cell r="C16" t="str">
+            <v>David Baszucki</v>
+          </cell>
           <cell r="G16">
-            <v>523.51896884519317</v>
+            <v>193.23264664436451</v>
           </cell>
         </row>
         <row r="17">
           <cell r="G17">
-            <v>11.261920977309074</v>
+            <v>11.192430605508806</v>
           </cell>
         </row>
         <row r="18">
           <cell r="G18">
-            <v>-27.750520841528012</v>
+            <v>-42.013475017232047</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="G21">
+            <v>58.07624047066146</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="22">
-          <cell r="T22">
-            <v>0.77778685524927171</v>
+          <cell r="V22">
+            <v>0.77864322701361999</v>
           </cell>
-          <cell r="AX22">
+          <cell r="AZ22">
             <v>0.09</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="T23">
-            <v>-0.26629832028229189</v>
+          <cell r="V23">
+            <v>-0.24703116730403171</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="T24">
-            <v>-0.23188027884500237</v>
+          <cell r="V24">
+            <v>-0.22369540864394546</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="T25">
-            <v>-5.311828476229569E-4</v>
+          <cell r="V25">
+            <v>-1.2124320067398036E-2</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="AX26">
-            <v>71.486963060421459</v>
+          <cell r="AZ26">
+            <v>70.054730987534185</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="T28">
-            <v>0.31255526862387373</v>
+          <cell r="V28">
+            <v>0.31768450500640721</v>
           </cell>
-          <cell r="AE28">
+          <cell r="AG28">
             <v>1.0772942519902369</v>
           </cell>
-          <cell r="AF28">
+          <cell r="AH28">
             <v>0.15937579623808262</v>
           </cell>
-          <cell r="AX28">
-            <v>0.38326166912580217</v>
+          <cell r="AZ28">
+            <v>0.14843821291039649</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8928,7 +8936,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9682,88 +9690,92 @@
       </c>
       <c r="F8" s="10">
         <f>+[6]Main!$C$6</f>
-        <v>51.68</v>
+        <v>61</v>
       </c>
       <c r="G8" s="8">
         <f>+[6]Main!$C$7</f>
-        <v>641.81399999999996</v>
+        <v>660.9</v>
       </c>
       <c r="H8" s="8">
         <f>+[6]Main!$C$8</f>
-        <v>33168.947520000002</v>
+        <v>40314.9</v>
       </c>
       <c r="I8" s="8">
         <f>+[6]Main!$C$11</f>
-        <v>2595.5510000000004</v>
+        <v>3013.3890000000001</v>
       </c>
       <c r="J8" s="8">
         <f>+[6]Main!$C$12</f>
-        <v>30573.396520000002</v>
+        <v>37301.510999999999</v>
       </c>
       <c r="K8" s="2" t="str">
         <f>+[6]Main!$G$11</f>
-        <v>Q324</v>
+        <v>Q424</v>
       </c>
       <c r="L8" s="13">
         <f>+[6]Main!$H$11</f>
-        <v>45596</v>
+        <v>45694</v>
       </c>
       <c r="M8" s="20">
-        <f>+'[6]Financial Model'!$AX$26</f>
-        <v>71.486963060421459</v>
+        <f>+'[6]Financial Model'!$AZ$26</f>
+        <v>70.054730987534185</v>
       </c>
       <c r="N8" s="16">
-        <f>+'[6]Financial Model'!$AX$28</f>
-        <v>0.38326166912580217</v>
+        <f>+'[6]Financial Model'!$AZ$28</f>
+        <v>0.14843821291039649</v>
       </c>
       <c r="O8" s="16">
-        <f>+'[6]Financial Model'!$AX$22</f>
+        <f>+'[6]Financial Model'!$AZ$22</f>
         <v>0.09</v>
       </c>
       <c r="Q8" s="30">
         <f>+[6]Main!$G$16</f>
-        <v>523.51896884519317</v>
+        <v>193.23264664436451</v>
       </c>
       <c r="R8" s="30">
         <f>+[6]Main!$G$17</f>
-        <v>11.261920977309074</v>
+        <v>11.192430605508806</v>
       </c>
       <c r="S8" s="32">
         <f>+[6]Main!$G$18</f>
-        <v>-27.750520841528012</v>
+        <v>-42.013475017232047</v>
+      </c>
+      <c r="T8" s="30">
+        <f>+[6]Main!$G$21</f>
+        <v>58.07624047066146</v>
       </c>
       <c r="V8" s="12">
-        <f>+'[6]Financial Model'!$T$22</f>
-        <v>0.77778685524927171</v>
+        <f>+'[6]Financial Model'!$V$22</f>
+        <v>0.77864322701361999</v>
       </c>
       <c r="W8" s="12">
-        <f>+'[6]Financial Model'!$T$23</f>
-        <v>-0.26629832028229189</v>
+        <f>+'[6]Financial Model'!$V$23</f>
+        <v>-0.24703116730403171</v>
       </c>
       <c r="X8" s="12">
-        <f>+'[6]Financial Model'!$T$24</f>
-        <v>-0.23188027884500237</v>
+        <f>+'[6]Financial Model'!$V$24</f>
+        <v>-0.22369540864394546</v>
       </c>
       <c r="Y8" s="12">
-        <f>+'[6]Financial Model'!$T$25</f>
-        <v>-5.311828476229569E-4</v>
+        <f>+'[6]Financial Model'!$V$25</f>
+        <v>-1.2124320067398036E-2</v>
       </c>
       <c r="AA8" s="12">
-        <f>+'[6]Financial Model'!$T$28</f>
-        <v>0.31255526862387373</v>
+        <f>+'[6]Financial Model'!$V$28</f>
+        <v>0.31768450500640721</v>
       </c>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12">
-        <f>+'[6]Financial Model'!$AF$28</f>
+        <f>+'[6]Financial Model'!$AH$28</f>
         <v>0.15937579623808262</v>
       </c>
       <c r="AD8" s="12">
-        <f>+'[6]Financial Model'!$AE$28</f>
+        <f>+'[6]Financial Model'!$AG$28</f>
         <v>1.0772942519902369</v>
       </c>
       <c r="AF8" s="18">
         <f>+[6]Main!$G$9</f>
-        <v>79.5</v>
+        <v>85.3</v>
       </c>
       <c r="AG8" s="18">
         <f>+[6]Main!$G$10</f>
@@ -9781,11 +9793,18 @@
         <f>+[6]Main!$G$6</f>
         <v>San Mateo, CA</v>
       </c>
+      <c r="AL8" s="2">
+        <v>52</v>
+      </c>
       <c r="AN8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AO8" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="AQ8" s="2" t="str">
+        <f>+[6]Main!$C$16</f>
+        <v>David Baszucki</v>
       </c>
     </row>
     <row r="9" spans="2:44">
@@ -10432,7 +10451,7 @@
       </c>
       <c r="F15" s="10">
         <f>+[13]Main!$C$6*Currencies!C3</f>
-        <v>7.423</v>
+        <v>9.75</v>
       </c>
       <c r="G15" s="8">
         <f>+[13]Main!$C$7</f>
@@ -10440,7 +10459,7 @@
       </c>
       <c r="H15" s="8">
         <f>G15*F15</f>
-        <v>1435.7248524450001</v>
+        <v>1885.80322125</v>
       </c>
       <c r="I15" s="8">
         <f>[13]Main!$C$11*Currencies!D3</f>
@@ -10448,7 +10467,7 @@
       </c>
       <c r="J15" s="8">
         <f>H15-I15</f>
-        <v>1415.4971601373079</v>
+        <v>1865.5755289423078</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>[13]Main!$C$30</f>
@@ -10460,15 +10479,15 @@
       </c>
       <c r="Q15" s="30">
         <f>+[13]Main!$C$35</f>
-        <v>5.4781931183035715</v>
+        <v>7.1955251116071421</v>
       </c>
       <c r="R15" s="30">
         <f>+[13]Main!$C$36</f>
-        <v>4.5340917578586417</v>
+        <v>5.9554620287110005</v>
       </c>
       <c r="S15" s="30">
         <f>+[13]Main!$C$38</f>
-        <v>26.469294078030497</v>
+        <v>34.767023745223945</v>
       </c>
       <c r="V15" s="12">
         <f>+'[13]Financial Model'!$F$42</f>
@@ -10542,11 +10561,11 @@
         <v>51</v>
       </c>
       <c r="F16" s="10">
-        <f>+[15]Sheet1!$C$6*Currencies!C3</f>
+        <f>+[14]Sheet1!$C$6*Currencies!C3</f>
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="G16" s="8">
-        <f>+[15]Sheet1!$C$7</f>
+        <f>+[14]Sheet1!$C$7</f>
         <v>275</v>
       </c>
       <c r="H16" s="8">
@@ -10554,7 +10573,7 @@
         <v>2.5024999999999999</v>
       </c>
       <c r="I16" s="8">
-        <f>+[15]Sheet1!$C$11*Currencies!C3</f>
+        <f>+[14]Sheet1!$C$11*Currencies!C3</f>
         <v>0</v>
       </c>
       <c r="J16" s="8">
@@ -10562,11 +10581,11 @@
         <v>2.5024999999999999</v>
       </c>
       <c r="AJ16" s="2" t="str">
-        <f>+[15]Sheet1!$C$23</f>
+        <f>+[14]Sheet1!$C$23</f>
         <v>Weybridge, UK</v>
       </c>
       <c r="AL16" s="2">
-        <f>+[15]Sheet1!$C$34</f>
+        <f>+[14]Sheet1!$C$34</f>
         <v>4</v>
       </c>
       <c r="AN16" s="2" t="s">
@@ -10581,11 +10600,11 @@
         <v>68</v>
       </c>
       <c r="K18" s="2" t="str">
-        <f>+[14]Main!$C$28</f>
+        <f>+[15]Main!$C$28</f>
         <v>Q123</v>
       </c>
       <c r="L18" s="13">
-        <f>+[14]Main!$D$28</f>
+        <f>+[15]Main!$D$28</f>
         <v>45055</v>
       </c>
     </row>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE91B9C3-BBA1-4694-99DE-979C4E4A6F7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375DF7E1-2976-4406-99C4-F6F3879F8643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -33,6 +33,7 @@
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6564" uniqueCount="2236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6575" uniqueCount="2243">
   <si>
     <t>Ticker</t>
   </si>
@@ -6752,6 +6753,27 @@
   </si>
   <si>
     <t>Fintech</t>
+  </si>
+  <si>
+    <t>£BOKU</t>
+  </si>
+  <si>
+    <t>BOKU, Inc.</t>
+  </si>
+  <si>
+    <t>Payment processing, digital wallet</t>
+  </si>
+  <si>
+    <t>CEO History</t>
+  </si>
+  <si>
+    <t>Founder</t>
+  </si>
+  <si>
+    <t>3yr @ Loopin Director, 5mo @ Twilio M&amp;A, 2yr CFO @ Boku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -7501,7 +7523,7 @@
         </row>
         <row r="11">
           <cell r="C11">
-            <v>26.295999999999999</v>
+            <v>27.334</v>
           </cell>
         </row>
         <row r="23">
@@ -7539,12 +7561,12 @@
         </row>
         <row r="36">
           <cell r="C36">
-            <v>5.9554620287110005</v>
+            <v>5.7293052428105815</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>34.767023745223945</v>
+            <v>33.446757020721769</v>
           </cell>
         </row>
         <row r="40">
@@ -7586,7 +7608,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7654,6 +7676,117 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>1.6107</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>303.02861300000001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>110.31323</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>45597</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Stuart Neal</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>San Francisco, CA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2008</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2017</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>H124</v>
+          </cell>
+          <cell r="D30">
+            <v>45536</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>4.4631448966950336</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>6.7280098883751904</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>84.972354260847055</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>15.357141210745286</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>38</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="19">
+          <cell r="Q19">
+            <v>0.2386441033163933</v>
+          </cell>
+          <cell r="AC19">
+            <v>0.29728373376827033</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="Q22">
+            <v>0.9711318839353692</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="Q23">
+            <v>-8.3749259791895941E-3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="Q24">
+            <v>-2.2608070383216328E-2</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7781,7 +7914,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8304,8 +8437,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8930,13 +9063,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B533DC-5A31-4AB0-80D6-BD84B319883E}">
-  <dimension ref="B1:AR21"/>
+  <dimension ref="B1:AS23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8968,16 +9101,17 @@
     <col min="42" max="42" width="9.140625" style="1"/>
     <col min="43" max="43" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="1"/>
+    <col min="45" max="45" width="52.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44">
+    <row r="1" spans="2:45">
       <c r="F1" s="25" t="s">
         <v>60</v>
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="2:44" s="3" customFormat="1">
+    <row r="2" spans="2:45" s="3" customFormat="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -9089,8 +9223,11 @@
       <c r="AR2" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="2:44">
+      <c r="AS2" s="4" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="3" spans="2:45">
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
@@ -9217,8 +9354,11 @@
         <f>+[1]Main!$C$16</f>
         <v>Mark Zuckerburg</v>
       </c>
-    </row>
-    <row r="4" spans="2:44">
+      <c r="AS3" s="2" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="4" spans="2:45">
       <c r="B4" s="5" t="s">
         <v>72</v>
       </c>
@@ -9329,8 +9469,11 @@
         <f>+[2]Main!$C$16</f>
         <v>Daniel Ek</v>
       </c>
-    </row>
-    <row r="5" spans="2:44">
+      <c r="AS4" s="2" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:45">
       <c r="B5" s="5" t="s">
         <v>89</v>
       </c>
@@ -9447,7 +9590,7 @@
         <v>Carl Eschenbach</v>
       </c>
     </row>
-    <row r="6" spans="2:44">
+    <row r="6" spans="2:45">
       <c r="B6" s="5" t="s">
         <v>84</v>
       </c>
@@ -9563,7 +9706,7 @@
         <v>Dr Andrew Anagnost</v>
       </c>
     </row>
-    <row r="7" spans="2:44">
+    <row r="7" spans="2:45">
       <c r="B7" s="5" t="s">
         <v>76</v>
       </c>
@@ -9675,7 +9818,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="2:44">
+    <row r="8" spans="2:45">
       <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
@@ -9807,7 +9950,7 @@
         <v>David Baszucki</v>
       </c>
     </row>
-    <row r="9" spans="2:44">
+    <row r="9" spans="2:45">
       <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
@@ -9905,7 +10048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:44">
+    <row r="10" spans="2:45">
       <c r="B10" s="5" t="s">
         <v>66</v>
       </c>
@@ -10005,7 +10148,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:44">
+    <row r="11" spans="2:45">
       <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
@@ -10112,7 +10255,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:44">
+    <row r="12" spans="2:45">
       <c r="B12" s="5" t="s">
         <v>70</v>
       </c>
@@ -10224,7 +10367,7 @@
         <v>Sytse Sijbrandij</v>
       </c>
     </row>
-    <row r="13" spans="2:44">
+    <row r="13" spans="2:45">
       <c r="B13" s="5" t="s">
         <v>80</v>
       </c>
@@ -10316,7 +10459,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="2:44">
+    <row r="14" spans="2:45">
       <c r="B14" s="5" t="s">
         <v>94</v>
       </c>
@@ -10436,7 +10579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:44">
+    <row r="15" spans="2:45">
       <c r="B15" s="5" t="s">
         <v>61</v>
       </c>
@@ -10463,11 +10606,11 @@
       </c>
       <c r="I15" s="8">
         <f>[13]Main!$C$11*Currencies!D3</f>
-        <v>20.227692307692305</v>
+        <v>21.026153846153843</v>
       </c>
       <c r="J15" s="8">
         <f>H15-I15</f>
-        <v>1865.5755289423078</v>
+        <v>1864.7770674038461</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>[13]Main!$C$30</f>
@@ -10483,11 +10626,11 @@
       </c>
       <c r="R15" s="30">
         <f>+[13]Main!$C$36</f>
-        <v>5.9554620287110005</v>
+        <v>5.7293052428105815</v>
       </c>
       <c r="S15" s="30">
         <f>+[13]Main!$C$38</f>
-        <v>34.767023745223945</v>
+        <v>33.446757020721769</v>
       </c>
       <c r="V15" s="12">
         <f>+'[13]Financial Model'!$F$42</f>
@@ -10547,75 +10690,191 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:44">
+    <row r="16" spans="2:45">
       <c r="B16" s="5" t="s">
-        <v>2232</v>
+        <v>2236</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2233</v>
+        <v>2237</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>2234</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="10">
+        <f>+[16]Main!$C$6*Currencies!$C$3</f>
+        <v>2.0939100000000002</v>
+      </c>
+      <c r="G16" s="8">
+        <f>+[16]Main!$C$7</f>
+        <v>303.02861300000001</v>
+      </c>
+      <c r="H16" s="8">
+        <f>G16*F16</f>
+        <v>634.51464304683009</v>
+      </c>
+      <c r="I16" s="8">
+        <f>+[16]Main!$C$11*Currencies!C3</f>
+        <v>143.40719900000002</v>
+      </c>
+      <c r="J16" s="8">
+        <f>+H16-I16</f>
+        <v>491.1074440468301</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f>+[16]Main!$C$30</f>
+        <v>H124</v>
+      </c>
+      <c r="L16" s="13">
+        <f>+[16]Main!$D$30</f>
+        <v>45536</v>
+      </c>
+      <c r="Q16" s="30">
+        <f>+[16]Main!$C$35</f>
+        <v>4.4631448966950336</v>
+      </c>
+      <c r="R16" s="30">
+        <f>+[16]Main!$C$36</f>
+        <v>6.7280098883751904</v>
+      </c>
+      <c r="S16" s="30">
+        <f>+[16]Main!$C$38</f>
+        <v>84.972354260847055</v>
+      </c>
+      <c r="T16" s="30">
+        <f>+[16]Main!$C$40</f>
+        <v>15.357141210745286</v>
+      </c>
+      <c r="V16" s="12">
+        <f>+'[16]Financial Model'!$Q$22</f>
+        <v>0.9711318839353692</v>
+      </c>
+      <c r="W16" s="12">
+        <f>+'[16]Financial Model'!$Q$23</f>
+        <v>-8.3749259791895941E-3</v>
+      </c>
+      <c r="X16" s="12">
+        <f>+'[16]Financial Model'!$Q$24</f>
+        <v>-2.2608070383216328E-2</v>
+      </c>
+      <c r="AA16" s="12">
+        <f>+'[16]Financial Model'!$Q$19</f>
+        <v>0.2386441033163933</v>
+      </c>
+      <c r="AB16" s="12">
+        <f>+'[16]Financial Model'!$AC$19</f>
+        <v>0.29728373376827033</v>
+      </c>
+      <c r="AH16" s="2">
+        <f>+[16]Main!$C$24</f>
+        <v>2008</v>
+      </c>
+      <c r="AI16" s="2">
+        <f>+[16]Main!$C$25</f>
+        <v>2017</v>
+      </c>
+      <c r="AJ16" s="2" t="str">
+        <f>+[16]Main!$C$23</f>
+        <v>San Francisco, CA</v>
+      </c>
+      <c r="AL16" s="2">
+        <f>+[16]Main!$C$41</f>
+        <v>38</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>2235</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>2238</v>
+      </c>
+      <c r="AQ16" s="2" t="str">
+        <f>+[16]Main!$C$16</f>
+        <v>Stuart Neal</v>
+      </c>
+      <c r="AR16" s="2">
+        <f ca="1">DATEDIF( [16]Main!$A$16, TODAY(), "y")</f>
+        <v>0</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="17" spans="2:40">
+      <c r="B17" s="5" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <f>+[14]Sheet1!$C$6*Currencies!C3</f>
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <f>+[14]Sheet1!$C$7</f>
         <v>275</v>
       </c>
-      <c r="H16" s="8">
-        <f>G16*F16</f>
+      <c r="H17" s="8">
+        <f>G17*F17</f>
         <v>2.5024999999999999</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I17" s="8">
         <f>+[14]Sheet1!$C$11*Currencies!C3</f>
         <v>0</v>
       </c>
-      <c r="J16" s="8">
-        <f>H16-I16</f>
+      <c r="J17" s="8">
+        <f>H17-I17</f>
         <v>2.5024999999999999</v>
       </c>
-      <c r="AJ16" s="2" t="str">
+      <c r="AJ17" s="2" t="str">
         <f>+[14]Sheet1!$C$23</f>
         <v>Weybridge, UK</v>
       </c>
-      <c r="AL16" s="2">
+      <c r="AL17" s="2">
         <f>+[14]Sheet1!$C$34</f>
         <v>4</v>
       </c>
-      <c r="AN16" s="2" t="s">
+      <c r="AN17" s="2" t="s">
         <v>2235</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="2:40">
+      <c r="I18" s="8" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="20" spans="2:40">
+      <c r="B20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="2" t="str">
+      <c r="K20" s="2" t="str">
         <f>+[15]Main!$C$28</f>
         <v>Q123</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L20" s="13">
         <f>+[15]Main!$D$28</f>
         <v>45055</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="1" t="s">
+    <row r="23" spans="2:40">
+      <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10631,7 +10890,7 @@
     <hyperlink ref="B8" r:id="rId3" xr:uid="{6E23CD56-40A8-49B9-8695-A01CE41D946F}"/>
     <hyperlink ref="B11" r:id="rId4" xr:uid="{89F1C803-E83B-4EBB-9559-C94EA1C82D1B}"/>
     <hyperlink ref="B15" r:id="rId5" xr:uid="{9E99E74D-49BE-4AB2-9A4F-760C29667821}"/>
-    <hyperlink ref="B18" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
+    <hyperlink ref="B20" r:id="rId6" xr:uid="{F00D1BE3-173F-47F3-8A89-19A59E2190E1}"/>
     <hyperlink ref="B10" r:id="rId7" xr:uid="{3859F738-BD99-4DD5-8721-EF043945682D}"/>
     <hyperlink ref="B4" r:id="rId8" xr:uid="{7B052CC6-304F-47CB-A888-07413A5C714D}"/>
     <hyperlink ref="B7" r:id="rId9" xr:uid="{383539A3-A008-4138-9E99-F152484C7F66}"/>
@@ -10640,12 +10899,13 @@
     <hyperlink ref="B5" r:id="rId12" xr:uid="{5EFB43D2-FEF7-4D4A-9ED9-38F476FBD5D7}"/>
     <hyperlink ref="B12" r:id="rId13" xr:uid="{3C1CCECE-6E3C-484C-900B-30A27E51CC77}"/>
     <hyperlink ref="B14" r:id="rId14" xr:uid="{64CBF090-75E6-42D8-9624-4B5EDAEC2337}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{AE63D00B-6489-48C5-A0F4-33C24ED542D1}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{AE63D00B-6489-48C5-A0F4-33C24ED542D1}"/>
+    <hyperlink ref="B16" r:id="rId16" xr:uid="{DAB55DBC-FCC1-4E48-BAD6-56A9C9D7CF68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
   <ignoredErrors>
-    <ignoredError sqref="H13 J13" formula="1"/>
+    <ignoredError sqref="H13 J13 J16" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10708,10 +10968,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB71BE00-D62C-41E0-95FF-95A67C144312}">
+  <sheetPr>
+    <tabColor theme="6" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:G1285"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C289" sqref="C289"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375DF7E1-2976-4406-99C4-F6F3879F8643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EC27C8-226D-4F00-9C61-9A7CDCDDB98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -39,6 +39,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -6996,7 +7005,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7140,7 +7149,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7268,7 +7277,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7368,7 +7377,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7502,7 +7511,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7615,75 +7624,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>275</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Weybridge, UK</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>4</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
-      <sheetName val="Historical Projections"/>
-      <sheetName val="Price History"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>Q123</v>
-          </cell>
-          <cell r="D28">
-            <v>45055</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -7792,8 +7737,75 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>275</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Weybridge, UK</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+      <sheetName val="Historical Projections"/>
+      <sheetName val="Price History"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>Q123</v>
+          </cell>
+          <cell r="D28">
+            <v>45055</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7914,14 +7926,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8057,7 +8069,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8185,7 +8197,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8309,7 +8321,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8445,7 +8457,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8550,7 +8562,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8661,7 +8673,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -9069,7 +9081,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10704,11 +10716,11 @@
         <v>33</v>
       </c>
       <c r="F16" s="10">
-        <f>+[16]Main!$C$6*Currencies!$C$3</f>
+        <f>+[14]Main!$C$6*Currencies!$C$3</f>
         <v>2.0939100000000002</v>
       </c>
       <c r="G16" s="8">
-        <f>+[16]Main!$C$7</f>
+        <f>+[14]Main!$C$7</f>
         <v>303.02861300000001</v>
       </c>
       <c r="H16" s="8">
@@ -10716,7 +10728,7 @@
         <v>634.51464304683009</v>
       </c>
       <c r="I16" s="8">
-        <f>+[16]Main!$C$11*Currencies!C3</f>
+        <f>+[14]Main!$C$11*Currencies!C3</f>
         <v>143.40719900000002</v>
       </c>
       <c r="J16" s="8">
@@ -10724,63 +10736,63 @@
         <v>491.1074440468301</v>
       </c>
       <c r="K16" s="2" t="str">
-        <f>+[16]Main!$C$30</f>
+        <f>+[14]Main!$C$30</f>
         <v>H124</v>
       </c>
       <c r="L16" s="13">
-        <f>+[16]Main!$D$30</f>
+        <f>+[14]Main!$D$30</f>
         <v>45536</v>
       </c>
       <c r="Q16" s="30">
-        <f>+[16]Main!$C$35</f>
+        <f>+[14]Main!$C$35</f>
         <v>4.4631448966950336</v>
       </c>
       <c r="R16" s="30">
-        <f>+[16]Main!$C$36</f>
+        <f>+[14]Main!$C$36</f>
         <v>6.7280098883751904</v>
       </c>
       <c r="S16" s="30">
-        <f>+[16]Main!$C$38</f>
+        <f>+[14]Main!$C$38</f>
         <v>84.972354260847055</v>
       </c>
       <c r="T16" s="30">
-        <f>+[16]Main!$C$40</f>
+        <f>+[14]Main!$C$40</f>
         <v>15.357141210745286</v>
       </c>
       <c r="V16" s="12">
-        <f>+'[16]Financial Model'!$Q$22</f>
+        <f>+'[14]Financial Model'!$Q$22</f>
         <v>0.9711318839353692</v>
       </c>
       <c r="W16" s="12">
-        <f>+'[16]Financial Model'!$Q$23</f>
+        <f>+'[14]Financial Model'!$Q$23</f>
         <v>-8.3749259791895941E-3</v>
       </c>
       <c r="X16" s="12">
-        <f>+'[16]Financial Model'!$Q$24</f>
+        <f>+'[14]Financial Model'!$Q$24</f>
         <v>-2.2608070383216328E-2</v>
       </c>
       <c r="AA16" s="12">
-        <f>+'[16]Financial Model'!$Q$19</f>
+        <f>+'[14]Financial Model'!$Q$19</f>
         <v>0.2386441033163933</v>
       </c>
       <c r="AB16" s="12">
-        <f>+'[16]Financial Model'!$AC$19</f>
+        <f>+'[14]Financial Model'!$AC$19</f>
         <v>0.29728373376827033</v>
       </c>
       <c r="AH16" s="2">
-        <f>+[16]Main!$C$24</f>
+        <f>+[14]Main!$C$24</f>
         <v>2008</v>
       </c>
       <c r="AI16" s="2">
-        <f>+[16]Main!$C$25</f>
+        <f>+[14]Main!$C$25</f>
         <v>2017</v>
       </c>
       <c r="AJ16" s="2" t="str">
-        <f>+[16]Main!$C$23</f>
+        <f>+[14]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
       <c r="AL16" s="2">
-        <f>+[16]Main!$C$41</f>
+        <f>+[14]Main!$C$41</f>
         <v>38</v>
       </c>
       <c r="AN16" s="2" t="s">
@@ -10790,11 +10802,11 @@
         <v>2238</v>
       </c>
       <c r="AQ16" s="2" t="str">
-        <f>+[16]Main!$C$16</f>
+        <f>+[14]Main!$C$16</f>
         <v>Stuart Neal</v>
       </c>
       <c r="AR16" s="2">
-        <f ca="1">DATEDIF( [16]Main!$A$16, TODAY(), "y")</f>
+        <f ca="1">DATEDIF( [14]Main!$A$16, TODAY(), "y")</f>
         <v>0</v>
       </c>
       <c r="AS16" s="2" t="s">
@@ -10815,11 +10827,11 @@
         <v>51</v>
       </c>
       <c r="F17" s="10">
-        <f>+[14]Sheet1!$C$6*Currencies!C3</f>
+        <f>+[15]Sheet1!$C$6*Currencies!C3</f>
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="G17" s="8">
-        <f>+[14]Sheet1!$C$7</f>
+        <f>+[15]Sheet1!$C$7</f>
         <v>275</v>
       </c>
       <c r="H17" s="8">
@@ -10827,7 +10839,7 @@
         <v>2.5024999999999999</v>
       </c>
       <c r="I17" s="8">
-        <f>+[14]Sheet1!$C$11*Currencies!C3</f>
+        <f>+[15]Sheet1!$C$11*Currencies!C3</f>
         <v>0</v>
       </c>
       <c r="J17" s="8">
@@ -10835,11 +10847,11 @@
         <v>2.5024999999999999</v>
       </c>
       <c r="AJ17" s="2" t="str">
-        <f>+[14]Sheet1!$C$23</f>
+        <f>+[15]Sheet1!$C$23</f>
         <v>Weybridge, UK</v>
       </c>
       <c r="AL17" s="2">
-        <f>+[14]Sheet1!$C$34</f>
+        <f>+[15]Sheet1!$C$34</f>
         <v>4</v>
       </c>
       <c r="AN17" s="2" t="s">
@@ -10859,11 +10871,11 @@
         <v>68</v>
       </c>
       <c r="K20" s="2" t="str">
-        <f>+[15]Main!$C$28</f>
+        <f>+[16]Main!$C$28</f>
         <v>Q123</v>
       </c>
       <c r="L20" s="13">
-        <f>+[15]Main!$D$28</f>
+        <f>+[16]Main!$D$28</f>
         <v>45055</v>
       </c>
     </row>

--- a/Overview - Tech.xlsx
+++ b/Overview - Tech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EC27C8-226D-4F00-9C61-9A7CDCDDB98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8B1523-8310-44E9-917E-415B0EFC6FB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFC643F4-9510-457F-8BC2-75D95EE8546E}"/>
   </bookViews>
@@ -39,15 +39,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -7005,7 +6996,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7149,7 +7140,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7277,7 +7268,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7377,7 +7368,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7511,7 +7502,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7624,11 +7615,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
@@ -7712,6 +7700,12 @@
           <cell r="Q19">
             <v>0.2386441033163933</v>
           </cell>
+          <cell r="AA19">
+            <v>0.22628630190418786</v>
+          </cell>
+          <cell r="AB19">
+            <v>-7.8088628641654112E-2</v>
+          </cell>
           <cell r="AC19">
             <v>0.29728373376827033</v>
           </cell>
@@ -7738,7 +7732,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -7777,7 +7771,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7805,7 +7799,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -7933,7 +7927,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8069,7 +8063,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8197,7 +8191,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8321,7 +8315,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8457,7 +8451,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8562,7 +8556,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -8673,7 +8667,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -9081,7 +9075,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
+      <selection pane="bottomRight" activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10778,6 +10772,14 @@
       <c r="AB16" s="12">
         <f>+'[14]Financial Model'!$AC$19</f>
         <v>0.29728373376827033</v>
+      </c>
+      <c r="AC16" s="12">
+        <f>+'[14]Financial Model'!$AB$19</f>
+        <v>-7.8088628641654112E-2</v>
+      </c>
+      <c r="AD16" s="12">
+        <f>+'[14]Financial Model'!$AA$19</f>
+        <v>0.22628630190418786</v>
       </c>
       <c r="AH16" s="2">
         <f>+[14]Main!$C$24</f>
